--- a/WppRegpack/TestResource/TC_RunManager.xlsx
+++ b/WppRegpack/TestResource/TC_RunManager.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GlobalTestPack\WppRegPack\TestResource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\China\GlobalTestPack\WppRegPack\TestResource\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="CHN_SysTest_FullCycle" sheetId="6" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="106">
   <si>
     <t>Description</t>
   </si>
@@ -192,15 +192,6 @@
     <t>Create Quote</t>
   </si>
   <si>
-    <t>PrintJobBudget</t>
-  </si>
-  <si>
-    <t>Print Job Budget</t>
-  </si>
-  <si>
-    <t>Create new global vensor</t>
-  </si>
-  <si>
     <t>ApproveTimesheet</t>
   </si>
   <si>
@@ -229,6 +220,141 @@
   </si>
   <si>
     <t>Reject Created Timesheet</t>
+  </si>
+  <si>
+    <t>PostingAssetEntires</t>
+  </si>
+  <si>
+    <t>fixedassestpost</t>
+  </si>
+  <si>
+    <t>Create a post entries in fixedasset</t>
+  </si>
+  <si>
+    <t>FixedAssetDisposal</t>
+  </si>
+  <si>
+    <t>fixedassestdisposal</t>
+  </si>
+  <si>
+    <t>Create Fixed Disposal</t>
+  </si>
+  <si>
+    <t>FixedAssetReval</t>
+  </si>
+  <si>
+    <t>fixedassestval</t>
+  </si>
+  <si>
+    <t>Create FixedAssetRevaluation</t>
+  </si>
+  <si>
+    <t>ChangeEmployee</t>
+  </si>
+  <si>
+    <t>changeemployee</t>
+  </si>
+  <si>
+    <t>Changing the created employee</t>
+  </si>
+  <si>
+    <t>Approve_Expenses_Opco</t>
+  </si>
+  <si>
+    <t>ApproveOpco</t>
+  </si>
+  <si>
+    <t>Reject_Expenses</t>
+  </si>
+  <si>
+    <t>RejectExpense</t>
+  </si>
+  <si>
+    <t>FixedAssetDepreciation</t>
+  </si>
+  <si>
+    <t>fixedassest</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>Create_Fixed_Asset</t>
+  </si>
+  <si>
+    <t>CreateAssest</t>
+  </si>
+  <si>
+    <t>Post_a_Customer_Payment</t>
+  </si>
+  <si>
+    <t>CustomerPayment</t>
+  </si>
+  <si>
+    <t>Customer_Payment_for_Single_Invoice</t>
+  </si>
+  <si>
+    <t>AccountsReceivable</t>
+  </si>
+  <si>
+    <t>Writing_Off_Bad_Debts</t>
+  </si>
+  <si>
+    <t>Writingoffbad</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>ChangeUser</t>
+  </si>
+  <si>
+    <t>changeuser</t>
+  </si>
+  <si>
+    <t>CreateSubJob</t>
+  </si>
+  <si>
+    <t>BlockUser</t>
+  </si>
+  <si>
+    <t>Block the User</t>
+  </si>
+  <si>
+    <t>PostVendorJournal</t>
+  </si>
+  <si>
+    <t>postVendorJournal</t>
+  </si>
+  <si>
+    <t>post Vendor Journal</t>
+  </si>
+  <si>
+    <t>QueryAndValidateExistingJob</t>
+  </si>
+  <si>
+    <t>QueryExistingJob</t>
+  </si>
+  <si>
+    <t>QueryTheExistingJob</t>
+  </si>
+  <si>
+    <t>QueryAndValidateExistingEmployee</t>
+  </si>
+  <si>
+    <t>QueryExistingEmployee</t>
+  </si>
+  <si>
+    <t>PrintJobBudgetMPL</t>
+  </si>
+  <si>
+    <t>JobBudgetMPL</t>
+  </si>
+  <si>
+    <t>VerfiyTimesheet</t>
+  </si>
+  <si>
+    <t>verifytimesheet</t>
   </si>
 </sst>
 </file>
@@ -1027,10 +1153,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:D13"/>
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1072,27 +1198,27 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>6</v>
@@ -1100,13 +1226,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>6</v>
@@ -1114,7 +1240,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>34</v>
@@ -1128,13 +1254,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>6</v>
@@ -1142,13 +1268,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>6</v>
@@ -1156,13 +1282,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>6</v>
@@ -1170,13 +1296,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>6</v>
@@ -1184,13 +1310,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>6</v>
@@ -1198,13 +1324,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>6</v>
@@ -1212,13 +1338,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>54</v>
+        <v>95</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>55</v>
+        <v>96</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>6</v>
@@ -1226,13 +1352,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>6</v>
@@ -1240,30 +1366,268 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>60</v>
       </c>
       <c r="D16" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1277,10 +1641,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D16"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1316,18 +1680,18 @@
         <v>14</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>2</v>
@@ -1335,27 +1699,27 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>6</v>
@@ -1363,7 +1727,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>34</v>
@@ -1372,32 +1736,32 @@
         <v>35</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>6</v>
@@ -1405,41 +1769,41 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>6</v>
@@ -1447,41 +1811,41 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>54</v>
+        <v>95</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>55</v>
+        <v>96</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>6</v>
@@ -1489,30 +1853,268 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>60</v>
       </c>
       <c r="D16" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1551,10 +2153,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1581,13 +2183,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>97</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>98</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
@@ -1595,57 +2197,43 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>101</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>15</v>
+        <v>101</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>13</v>
+        <v>102</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>103</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>16</v>
+        <v>103</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>11</v>
+        <v>105</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1657,10 +2245,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:D11"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1701,7 +2289,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>18</v>
+        <v>91</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>18</v>
@@ -1710,7 +2298,7 @@
         <v>19</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1729,13 +2317,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>6</v>
@@ -1743,13 +2331,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>6</v>
@@ -1757,13 +2345,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>6</v>
@@ -1771,13 +2359,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>6</v>
@@ -1785,13 +2373,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>6</v>
@@ -1808,18 +2396,18 @@
         <v>41</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>6</v>
@@ -1827,13 +2415,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>6</v>
@@ -1841,13 +2429,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>47</v>
+        <v>94</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>49</v>
+        <v>96</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>6</v>
@@ -1855,15 +2443,281 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D15" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>6</v>
       </c>
     </row>

--- a/WppRegpack/TestResource/TC_RunManager.xlsx
+++ b/WppRegpack/TestResource/TC_RunManager.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\China\GlobalTestPack\WppRegPack\TestResource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\China\GlobalTestPack\WppRegpack\TestResource\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="CHN_SysTest_FullCycle" sheetId="6" r:id="rId1"/>
@@ -1155,7 +1155,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
@@ -1643,8 +1643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2156,7 +2156,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="A2" sqref="A2:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2247,7 +2247,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>

--- a/WppRegpack/TestResource/TC_RunManager.xlsx
+++ b/WppRegpack/TestResource/TC_RunManager.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\China\GlobalTestPack\WppRegpack\TestResource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\China\GlobalTestPack\WppRegPack\TestResource\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="CHN_SysTest_FullCycle" sheetId="6" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="112">
   <si>
     <t>Description</t>
   </si>
@@ -355,6 +355,24 @@
   </si>
   <si>
     <t>verifytimesheet</t>
+  </si>
+  <si>
+    <t>BlockGlobalClient</t>
+  </si>
+  <si>
+    <t>BlockGlobalBrand</t>
+  </si>
+  <si>
+    <t>Blockglobalbrand</t>
+  </si>
+  <si>
+    <t>Blockglobalclient</t>
+  </si>
+  <si>
+    <t>Block created global client</t>
+  </si>
+  <si>
+    <t>Block created global brand</t>
   </si>
 </sst>
 </file>
@@ -1153,10 +1171,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1184,13 +1202,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>106</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>109</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>14</v>
+        <v>110</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
@@ -1198,13 +1216,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>18</v>
+        <v>108</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>19</v>
+        <v>111</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>2</v>
@@ -1212,13 +1230,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>6</v>
@@ -1226,13 +1244,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>23</v>
+        <v>91</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>6</v>
@@ -1240,13 +1258,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>6</v>
@@ -1254,13 +1272,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>6</v>
@@ -1268,13 +1286,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>6</v>
@@ -1282,13 +1300,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>6</v>
@@ -1296,13 +1314,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>6</v>
@@ -1310,13 +1328,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>6</v>
@@ -1324,13 +1342,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>6</v>
@@ -1338,13 +1356,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>96</v>
+        <v>46</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>6</v>
@@ -1352,281 +1370,15 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D33" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1641,10 +1393,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1671,41 +1423,41 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>106</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>109</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>14</v>
+        <v>110</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>18</v>
+        <v>108</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>19</v>
+        <v>111</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>6</v>
@@ -1713,13 +1465,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>23</v>
+        <v>91</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>6</v>
@@ -1727,13 +1479,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>6</v>
@@ -1741,13 +1493,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>6</v>
@@ -1755,13 +1507,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>6</v>
@@ -1769,13 +1521,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>6</v>
@@ -1783,13 +1535,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>6</v>
@@ -1797,13 +1549,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>6</v>
@@ -1811,13 +1563,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>6</v>
@@ -1825,13 +1577,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>96</v>
+        <v>46</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>6</v>
@@ -1839,281 +1591,15 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D33" s="2" t="s">
         <v>6</v>
       </c>
     </row>

--- a/WppRegpack/TestResource/TC_RunManager.xlsx
+++ b/WppRegpack/TestResource/TC_RunManager.xlsx
@@ -9,11 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720"/>
   </bookViews>
   <sheets>
-    <sheet name="CHN_SysTest_FullCycle" sheetId="6" r:id="rId1"/>
-    <sheet name="IND_SysTest_FullCycle" sheetId="5" r:id="rId2"/>
+    <sheet name="CHN_SIT_FullCycle" sheetId="6" r:id="rId1"/>
+    <sheet name="IND_SIT_FullCycle" sheetId="5" r:id="rId2"/>
     <sheet name="IND_Regression_FullCycle" sheetId="1" r:id="rId3"/>
     <sheet name="CHN_Regression_FullCycle" sheetId="2" r:id="rId4"/>
     <sheet name="CHN_Critical Regression" sheetId="7" r:id="rId5"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="101">
   <si>
     <t>Description</t>
   </si>
@@ -69,9 +69,6 @@
     <t>CreateTimeSheet</t>
   </si>
   <si>
-    <t>TS05_CreateExpenses</t>
-  </si>
-  <si>
     <t>CreateExpense</t>
   </si>
   <si>
@@ -90,48 +87,27 @@
     <t>Create Timesheet for Employee</t>
   </si>
   <si>
-    <t>Create ExpenseSheet for Employee</t>
-  </si>
-  <si>
     <t>SubJob</t>
   </si>
   <si>
     <t>Create Sub Job for Created Job</t>
   </si>
   <si>
-    <t>ModifyBudget</t>
-  </si>
-  <si>
-    <t>TS06_ModifyBudget</t>
-  </si>
-  <si>
-    <t>Create_Quote</t>
-  </si>
-  <si>
     <t>CreateQuote</t>
   </si>
   <si>
-    <t>Create Client Estimate for Job</t>
-  </si>
-  <si>
     <t>EmployeeCreation</t>
   </si>
   <si>
     <t>CreateEmployee</t>
   </si>
   <si>
-    <t>Creating Employee and Employee Vendor</t>
-  </si>
-  <si>
     <t>EmployeeUserCreation</t>
   </si>
   <si>
     <t>CreateEmployeeUser</t>
   </si>
   <si>
-    <t>Creating Employee, Employee Vendor and User</t>
-  </si>
-  <si>
     <t>CreateExpenses</t>
   </si>
   <si>
@@ -145,15 +121,6 @@
   </si>
   <si>
     <t>Create Purchase Order</t>
-  </si>
-  <si>
-    <t>CreateVendor</t>
-  </si>
-  <si>
-    <t>VendorCreation</t>
-  </si>
-  <si>
-    <t>Vendor Creation</t>
   </si>
   <si>
     <t>CreateInvoice</t>
@@ -791,10 +758,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -821,41 +788,41 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>96</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>97</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>31</v>
+        <v>95</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>98</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>17</v>
+        <v>99</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>6</v>
@@ -863,13 +830,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>6</v>
@@ -877,13 +844,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>6</v>
@@ -891,13 +858,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>6</v>
@@ -905,13 +872,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>6</v>
@@ -919,13 +886,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>6</v>
@@ -933,13 +900,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>6</v>
@@ -947,13 +914,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>6</v>
@@ -961,13 +928,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>6</v>
@@ -975,13 +942,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>6</v>
@@ -999,20 +966,6 @@
       </c>
       <c r="D14" s="2" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1023,17 +976,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:D8"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
@@ -1053,41 +1006,41 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>96</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>97</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>98</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>15</v>
+        <v>99</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>6</v>
@@ -1095,10 +1048,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>17</v>
@@ -1109,13 +1062,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>6</v>
@@ -1123,13 +1076,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>6</v>
@@ -1140,10 +1093,10 @@
         <v>42</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>6</v>
@@ -1151,16 +1104,86 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1173,8 +1196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1202,27 +1225,27 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>2</v>
@@ -1236,63 +1259,63 @@
         <v>5</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>6</v>
@@ -1300,41 +1323,41 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>6</v>
@@ -1342,41 +1365,41 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>6</v>
@@ -1396,7 +1419,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1423,13 +1446,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>2</v>
@@ -1437,16 +1460,16 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1457,63 +1480,63 @@
         <v>5</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>6</v>
@@ -1521,41 +1544,41 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>6</v>
@@ -1563,41 +1586,41 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>6</v>
@@ -1611,38 +1634,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A5"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1669,58 +1664,494 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>102</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>103</v>
+        <v>5</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>105</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>105</v>
+        <v>17</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1733,7 +2164,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -1767,7 +2198,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
@@ -1775,13 +2206,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>2</v>
@@ -1789,13 +2220,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>6</v>
@@ -1803,13 +2234,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>6</v>
@@ -1817,13 +2248,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>6</v>
@@ -1831,13 +2262,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>6</v>
@@ -1845,13 +2276,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>6</v>
@@ -1859,13 +2290,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>6</v>
@@ -1873,13 +2304,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>6</v>
@@ -1887,13 +2318,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>6</v>
@@ -1901,13 +2332,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>6</v>
@@ -1915,13 +2346,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>6</v>
@@ -1929,13 +2360,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>6</v>
@@ -1943,13 +2374,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>6</v>
@@ -1957,13 +2388,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>6</v>
@@ -1971,13 +2402,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>6</v>
@@ -1985,13 +2416,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>6</v>
@@ -1999,13 +2430,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>6</v>
@@ -2013,13 +2444,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>6</v>
@@ -2027,13 +2458,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>6</v>
@@ -2041,27 +2472,27 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>6</v>
@@ -2069,13 +2500,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>6</v>
@@ -2083,13 +2514,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>6</v>
@@ -2097,13 +2528,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>6</v>
@@ -2111,27 +2542,27 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>2</v>
@@ -2139,13 +2570,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>2</v>
@@ -2153,13 +2584,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>2</v>
@@ -2167,13 +2598,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>6</v>
@@ -2181,13 +2612,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>6</v>
@@ -2195,13 +2626,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>6</v>

--- a/WppRegpack/TestResource/TC_RunManager.xlsx
+++ b/WppRegpack/TestResource/TC_RunManager.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="CHN_SIT_FullCycle" sheetId="6" r:id="rId1"/>
@@ -760,7 +760,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -1196,8 +1196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1262,7 +1262,7 @@
         <v>13</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1276,7 +1276,7 @@
         <v>17</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1290,7 +1290,7 @@
         <v>14</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1304,7 +1304,7 @@
         <v>39</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1332,7 +1332,7 @@
         <v>27</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1346,7 +1346,7 @@
         <v>32</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1374,7 +1374,7 @@
         <v>30</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1388,7 +1388,7 @@
         <v>35</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1419,7 +1419,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D4" sqref="D4:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1483,7 +1483,7 @@
         <v>13</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1497,7 +1497,7 @@
         <v>17</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1511,7 +1511,7 @@
         <v>14</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1525,7 +1525,7 @@
         <v>39</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1553,7 +1553,7 @@
         <v>27</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1567,7 +1567,7 @@
         <v>32</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1595,7 +1595,7 @@
         <v>30</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1609,7 +1609,7 @@
         <v>35</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">

--- a/WppRegpack/TestResource/TC_RunManager.xlsx
+++ b/WppRegpack/TestResource/TC_RunManager.xlsx
@@ -9,20 +9,21 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="CHN_SIT_FullCycle" sheetId="6" r:id="rId1"/>
     <sheet name="IND_SIT_FullCycle" sheetId="5" r:id="rId2"/>
     <sheet name="IND_Regression_FullCycle" sheetId="1" r:id="rId3"/>
     <sheet name="CHN_Regression_FullCycle" sheetId="2" r:id="rId4"/>
-    <sheet name="CHN_Critical Regression" sheetId="7" r:id="rId5"/>
-    <sheet name="IND_Critical Regression" sheetId="8" r:id="rId6"/>
-    <sheet name="Smoke" sheetId="3" r:id="rId7"/>
-    <sheet name="GlobalTestPack" sheetId="4" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="9" r:id="rId5"/>
+    <sheet name="CHN_Critical Regression" sheetId="7" r:id="rId6"/>
+    <sheet name="IND_Critical Regression" sheetId="8" r:id="rId7"/>
+    <sheet name="Smoke" sheetId="3" r:id="rId8"/>
+    <sheet name="GlobalTestPack" sheetId="4" r:id="rId9"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId9"/>
+    <externalReference r:id="rId10"/>
   </externalReferences>
   <definedNames>
     <definedName name="IterationOptions">[1]Sheet1!$A$2:$A$4</definedName>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="103">
   <si>
     <t>Description</t>
   </si>
@@ -340,6 +341,12 @@
   </si>
   <si>
     <t>Block created global brand</t>
+  </si>
+  <si>
+    <t>regrees</t>
+  </si>
+  <si>
+    <t>critical</t>
   </si>
 </sst>
 </file>
@@ -1196,8 +1203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1419,7 +1426,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:D14"/>
+      <selection sqref="A1:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1634,10 +1641,182 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="27.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1850,7 +2029,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
@@ -2068,7 +2247,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -2160,7 +2339,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D33"/>
   <sheetViews>

--- a/WppRegpack/TestResource/TC_RunManager.xlsx
+++ b/WppRegpack/TestResource/TC_RunManager.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="CHN_SIT_FullCycle" sheetId="6" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="105">
   <si>
     <t>Description</t>
   </si>
@@ -347,6 +347,12 @@
   </si>
   <si>
     <t>critical</t>
+  </si>
+  <si>
+    <t>AmendGlobalClient</t>
+  </si>
+  <si>
+    <t>Change Details in Created Global Client</t>
   </si>
 </sst>
 </file>
@@ -1201,10 +1207,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1232,13 +1238,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>2</v>
@@ -1246,27 +1252,27 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>7</v>
+        <v>95</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>5</v>
+        <v>98</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>6</v>
@@ -1274,13 +1280,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>80</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>6</v>
@@ -1288,13 +1294,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>6</v>
@@ -1302,13 +1308,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>6</v>
@@ -1316,13 +1322,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>6</v>
@@ -1330,7 +1336,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>26</v>
@@ -1344,13 +1350,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>6</v>
@@ -1358,13 +1364,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>6</v>
@@ -1372,13 +1378,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>6</v>
@@ -1386,13 +1392,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>6</v>
@@ -1400,15 +1406,29 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1643,7 +1663,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>

--- a/WppRegpack/TestResource/TC_RunManager.xlsx
+++ b/WppRegpack/TestResource/TC_RunManager.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="CHN_SIT_FullCycle" sheetId="6" r:id="rId1"/>
@@ -1209,8 +1209,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1247,7 +1247,7 @@
         <v>104</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1261,7 +1261,7 @@
         <v>100</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1275,7 +1275,7 @@
         <v>99</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2053,8 +2053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/WppRegpack/TestResource/TC_RunManager.xlsx
+++ b/WppRegpack/TestResource/TC_RunManager.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\China\GlobalTestPack\WppRegPack\TestResource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\China\GlobalTestPack\WppRegpack\TestResource\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="4" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="CHN_SIT_FullCycle" sheetId="6" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1069" uniqueCount="105">
   <si>
     <t>Description</t>
   </si>
@@ -349,10 +349,10 @@
     <t>critical</t>
   </si>
   <si>
-    <t>AmendGlobalClient</t>
-  </si>
-  <si>
-    <t>Change Details in Created Global Client</t>
+    <t>BlockGlobalVendor</t>
+  </si>
+  <si>
+    <t>Block Created Global Vendor</t>
   </si>
 </sst>
 </file>
@@ -771,10 +771,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -829,27 +829,27 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>7</v>
+        <v>103</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>5</v>
+        <v>103</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>13</v>
+        <v>104</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>80</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>6</v>
@@ -857,13 +857,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>6</v>
@@ -871,13 +871,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>6</v>
@@ -885,13 +885,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>6</v>
@@ -899,7 +899,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>26</v>
@@ -913,13 +913,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>6</v>
@@ -927,13 +927,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>6</v>
@@ -941,13 +941,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>6</v>
@@ -955,13 +955,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>6</v>
@@ -969,15 +969,323 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D15" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -989,10 +1297,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A2" sqref="A2:D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1047,27 +1355,27 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>7</v>
+        <v>103</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>5</v>
+        <v>103</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>13</v>
+        <v>104</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>80</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>6</v>
@@ -1075,13 +1383,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>6</v>
@@ -1089,13 +1397,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>6</v>
@@ -1103,13 +1411,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>6</v>
@@ -1117,7 +1425,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>26</v>
@@ -1131,13 +1439,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>6</v>
@@ -1145,13 +1453,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>6</v>
@@ -1159,13 +1467,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>6</v>
@@ -1173,13 +1481,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>6</v>
@@ -1187,15 +1495,323 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D15" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1207,10 +1823,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1238,27 +1854,27 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>103</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>103</v>
+        <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>97</v>
+        <v>16</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>2</v>
@@ -1266,13 +1882,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>95</v>
+        <v>11</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>98</v>
+        <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>2</v>
@@ -1280,27 +1896,27 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>6</v>
@@ -1308,41 +1924,41 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>6</v>
@@ -1350,41 +1966,41 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>6</v>
@@ -1392,13 +2008,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>6</v>
@@ -1406,30 +2022,324 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1443,10 +2353,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B14"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1473,13 +2383,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>96</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>97</v>
+        <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>2</v>
@@ -1487,13 +2397,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>98</v>
+        <v>16</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>99</v>
+        <v>17</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>2</v>
@@ -1501,41 +2411,41 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>6</v>
@@ -1543,41 +2453,41 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>6</v>
@@ -1585,41 +2495,41 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>6</v>
@@ -1627,13 +2537,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>6</v>
@@ -1641,16 +2551,324 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1833,10 +3051,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A2" sqref="A2:D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1891,27 +3109,27 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>7</v>
+        <v>103</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>5</v>
+        <v>103</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>13</v>
+        <v>104</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>80</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>6</v>
@@ -1919,13 +3137,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>6</v>
@@ -1933,13 +3151,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>6</v>
@@ -1947,13 +3165,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>6</v>
@@ -1961,7 +3179,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>26</v>
@@ -1975,13 +3193,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>6</v>
@@ -1989,13 +3207,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>6</v>
@@ -2003,13 +3221,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>6</v>
@@ -2017,13 +3235,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>6</v>
@@ -2031,15 +3249,323 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D15" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2051,10 +3577,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2109,27 +3635,27 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>7</v>
+        <v>103</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>5</v>
+        <v>103</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>13</v>
+        <v>104</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>80</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>6</v>
@@ -2137,13 +3663,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>6</v>
@@ -2151,13 +3677,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>6</v>
@@ -2165,13 +3691,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>6</v>
@@ -2179,7 +3705,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>26</v>
@@ -2193,13 +3719,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>6</v>
@@ -2207,13 +3733,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>6</v>
@@ -2221,13 +3747,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>6</v>
@@ -2235,13 +3761,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>6</v>
@@ -2249,15 +3775,323 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D15" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2361,10 +4195,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2400,7 +4234,7 @@
         <v>13</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2428,7 +4262,7 @@
         <v>14</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2442,7 +4276,7 @@
         <v>39</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2470,7 +4304,7 @@
         <v>27</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -2484,7 +4318,7 @@
         <v>32</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -2512,7 +4346,7 @@
         <v>30</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -2526,7 +4360,7 @@
         <v>35</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -2568,7 +4402,7 @@
         <v>15</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -2582,7 +4416,7 @@
         <v>41</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -2610,7 +4444,7 @@
         <v>10</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -2624,7 +4458,7 @@
         <v>63</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -2652,7 +4486,7 @@
         <v>72</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -2666,7 +4500,7 @@
         <v>74</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -2680,7 +4514,7 @@
         <v>76</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>77</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -2694,7 +4528,7 @@
         <v>70</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -2708,7 +4542,7 @@
         <v>52</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -2722,7 +4556,7 @@
         <v>55</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -2736,7 +4570,7 @@
         <v>58</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -2750,7 +4584,7 @@
         <v>67</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>68</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -2835,6 +4669,48 @@
       </c>
       <c r="D33" s="2" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/WppRegpack/TestResource/TC_RunManager.xlsx
+++ b/WppRegpack/TestResource/TC_RunManager.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\China\GlobalTestPack\WppRegpack\TestResource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\China\GlobalTestPack\WppRegPack\TestResource\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="4" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720"/>
   </bookViews>
   <sheets>
     <sheet name="CHN_SIT_FullCycle" sheetId="6" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1069" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="114">
   <si>
     <t>Description</t>
   </si>
@@ -353,6 +353,33 @@
   </si>
   <si>
     <t>Block Created Global Vendor</t>
+  </si>
+  <si>
+    <t>BlockCompanyBrand</t>
+  </si>
+  <si>
+    <t>Blockcompanybrand</t>
+  </si>
+  <si>
+    <t>BlockCompanyClient</t>
+  </si>
+  <si>
+    <t>BlockCompanyclient</t>
+  </si>
+  <si>
+    <t>BlockCompanyProduct</t>
+  </si>
+  <si>
+    <t>Blockcompanyproduct</t>
+  </si>
+  <si>
+    <t>BlockGlobalProduct</t>
+  </si>
+  <si>
+    <t>Blockglobalproduct</t>
+  </si>
+  <si>
+    <t>BlockCompanyVendor</t>
   </si>
 </sst>
 </file>
@@ -771,10 +798,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -801,13 +828,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>2</v>
@@ -815,13 +842,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>2</v>
@@ -829,13 +856,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>2</v>
@@ -843,83 +870,83 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>7</v>
+        <v>107</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>5</v>
+        <v>108</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>17</v>
+        <v>100</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>11</v>
+        <v>95</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>8</v>
+        <v>98</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>18</v>
+        <v>103</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>18</v>
+        <v>103</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>39</v>
+        <v>104</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>42</v>
+        <v>113</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>26</v>
+        <v>113</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>27</v>
+        <v>113</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>6</v>
@@ -927,13 +954,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>6</v>
@@ -941,13 +968,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>6</v>
@@ -955,13 +982,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>6</v>
@@ -969,13 +996,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>6</v>
@@ -983,13 +1010,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>6</v>
@@ -997,13 +1024,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>83</v>
+        <v>31</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>85</v>
+        <v>32</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>6</v>
@@ -1011,13 +1038,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>6</v>
@@ -1025,13 +1052,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>6</v>
@@ -1039,13 +1066,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>6</v>
@@ -1053,13 +1080,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>6</v>
@@ -1067,13 +1094,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>6</v>
@@ -1081,13 +1108,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>6</v>
@@ -1095,13 +1122,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>6</v>
@@ -1109,13 +1136,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>6</v>
@@ -1123,27 +1150,27 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>75</v>
+        <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>77</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>6</v>
@@ -1151,13 +1178,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>6</v>
@@ -1165,13 +1192,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>6</v>
@@ -1179,13 +1206,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>6</v>
@@ -1193,69 +1220,69 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>6</v>
@@ -1263,29 +1290,99 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>6</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B41" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C41" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D41" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1297,10 +1394,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D36"/>
+      <selection activeCell="A8" sqref="A8:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1327,13 +1424,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>2</v>
@@ -1341,13 +1438,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>2</v>
@@ -1355,13 +1452,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>2</v>
@@ -1369,83 +1466,83 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>7</v>
+        <v>107</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>5</v>
+        <v>108</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>17</v>
+        <v>100</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>11</v>
+        <v>95</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>8</v>
+        <v>98</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>18</v>
+        <v>103</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>18</v>
+        <v>103</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>39</v>
+        <v>104</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>42</v>
+        <v>113</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>26</v>
+        <v>113</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>27</v>
+        <v>113</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>6</v>
@@ -1453,13 +1550,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>6</v>
@@ -1467,13 +1564,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>6</v>
@@ -1481,13 +1578,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>6</v>
@@ -1495,13 +1592,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>6</v>
@@ -1509,13 +1606,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>6</v>
@@ -1523,13 +1620,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>83</v>
+        <v>31</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>85</v>
+        <v>32</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>6</v>
@@ -1537,13 +1634,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>6</v>
@@ -1551,13 +1648,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>6</v>
@@ -1565,13 +1662,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>6</v>
@@ -1579,13 +1676,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>6</v>
@@ -1593,13 +1690,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>6</v>
@@ -1607,13 +1704,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>6</v>
@@ -1621,13 +1718,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>6</v>
@@ -1635,13 +1732,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>6</v>
@@ -1649,27 +1746,27 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>75</v>
+        <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>77</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>6</v>
@@ -1677,13 +1774,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>6</v>
@@ -1691,13 +1788,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>6</v>
@@ -1705,13 +1802,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>6</v>
@@ -1719,69 +1816,69 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>6</v>
@@ -1789,29 +1886,99 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>6</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B41" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C41" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D41" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1823,10 +1990,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D36"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40:D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2330,15 +2497,85 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B40" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C40" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D40" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2353,10 +2590,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D36"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36:XFD36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2859,15 +3096,85 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B40" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C40" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D40" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3051,10 +3358,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D36"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3081,13 +3388,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>2</v>
@@ -3095,13 +3402,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>2</v>
@@ -3109,13 +3416,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>2</v>
@@ -3123,83 +3430,83 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>7</v>
+        <v>107</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>5</v>
+        <v>108</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>17</v>
+        <v>100</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>11</v>
+        <v>95</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>8</v>
+        <v>98</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>18</v>
+        <v>103</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>18</v>
+        <v>103</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>39</v>
+        <v>104</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>42</v>
+        <v>113</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>26</v>
+        <v>113</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>27</v>
+        <v>113</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>6</v>
@@ -3207,13 +3514,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>6</v>
@@ -3221,13 +3528,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>6</v>
@@ -3235,13 +3542,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>6</v>
@@ -3249,13 +3556,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>6</v>
@@ -3263,13 +3570,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>6</v>
@@ -3277,13 +3584,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>83</v>
+        <v>31</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>85</v>
+        <v>32</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>6</v>
@@ -3291,13 +3598,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>6</v>
@@ -3305,13 +3612,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>6</v>
@@ -3319,13 +3626,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>6</v>
@@ -3333,13 +3640,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>6</v>
@@ -3347,13 +3654,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>6</v>
@@ -3361,13 +3668,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>6</v>
@@ -3375,13 +3682,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>6</v>
@@ -3389,13 +3696,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>6</v>
@@ -3403,27 +3710,27 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>75</v>
+        <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>77</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>6</v>
@@ -3431,13 +3738,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>6</v>
@@ -3445,13 +3752,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>6</v>
@@ -3459,13 +3766,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>6</v>
@@ -3473,69 +3780,69 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>6</v>
@@ -3543,29 +3850,99 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>6</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B41" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C41" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D41" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3577,10 +3954,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D4"/>
+      <selection activeCell="A8" sqref="A8:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3607,13 +3984,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>2</v>
@@ -3621,13 +3998,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>2</v>
@@ -3635,13 +4012,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>2</v>
@@ -3649,83 +4026,83 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>7</v>
+        <v>107</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>5</v>
+        <v>108</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>17</v>
+        <v>100</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>11</v>
+        <v>95</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>8</v>
+        <v>98</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>18</v>
+        <v>103</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>18</v>
+        <v>103</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>39</v>
+        <v>104</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>42</v>
+        <v>113</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>26</v>
+        <v>113</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>27</v>
+        <v>113</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>6</v>
@@ -3733,13 +4110,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>6</v>
@@ -3747,13 +4124,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>6</v>
@@ -3761,13 +4138,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>6</v>
@@ -3775,13 +4152,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>6</v>
@@ -3789,13 +4166,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>6</v>
@@ -3803,13 +4180,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>83</v>
+        <v>31</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>85</v>
+        <v>32</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>6</v>
@@ -3817,13 +4194,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>6</v>
@@ -3831,13 +4208,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>6</v>
@@ -3845,13 +4222,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>6</v>
@@ -3859,13 +4236,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>6</v>
@@ -3873,13 +4250,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>6</v>
@@ -3887,13 +4264,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>6</v>
@@ -3901,13 +4278,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>6</v>
@@ -3915,13 +4292,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>6</v>
@@ -3929,27 +4306,27 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>75</v>
+        <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>77</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>6</v>
@@ -3957,13 +4334,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>6</v>
@@ -3971,13 +4348,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>6</v>
@@ -3985,13 +4362,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>6</v>
@@ -3999,69 +4376,69 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>6</v>
@@ -4069,29 +4446,99 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>6</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B41" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C41" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D41" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4195,10 +4642,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D36"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40:D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4701,15 +5148,85 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B40" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C40" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D40" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>2</v>
       </c>
     </row>

--- a/WppRegpack/TestResource/TC_RunManager.xlsx
+++ b/WppRegpack/TestResource/TC_RunManager.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="CHN_SIT_FullCycle" sheetId="6" r:id="rId1"/>
@@ -800,7 +800,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
@@ -3956,8 +3956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3984,13 +3984,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>2</v>
@@ -3998,58 +3998,58 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -4063,35 +4063,35 @@
         <v>99</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -4385,7 +4385,7 @@
         <v>76</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>77</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -4455,7 +4455,7 @@
         <v>67</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>68</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -4469,7 +4469,7 @@
         <v>45</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -4483,7 +4483,7 @@
         <v>46</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -4497,7 +4497,7 @@
         <v>61</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">

--- a/WppRegpack/TestResource/TC_RunManager.xlsx
+++ b/WppRegpack/TestResource/TC_RunManager.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="4" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="CHN_SIT_FullCycle" sheetId="6" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1265" uniqueCount="116">
   <si>
     <t>Description</t>
   </si>
@@ -380,6 +380,12 @@
   </si>
   <si>
     <t>BlockCompanyVendor</t>
+  </si>
+  <si>
+    <t>AmendGlobalClient</t>
+  </si>
+  <si>
+    <t>AmendGlobalBrand</t>
   </si>
 </sst>
 </file>
@@ -798,10 +804,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42:D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1386,6 +1392,34 @@
         <v>6</v>
       </c>
     </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1394,10 +1428,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:D9"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42:D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1982,6 +2016,34 @@
         <v>6</v>
       </c>
     </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1990,10 +2052,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40:D41"/>
+      <selection activeCell="A42" sqref="A42:D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2579,6 +2641,34 @@
         <v>2</v>
       </c>
     </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A3:D43">
     <sortCondition ref="A2"/>
@@ -2590,10 +2680,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36:XFD36"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42:D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3176,6 +3266,34 @@
       </c>
       <c r="D41" s="2" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -3358,10 +3476,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A2" sqref="A2:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3388,13 +3506,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>2</v>
@@ -3402,27 +3520,27 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>2</v>
@@ -3430,13 +3548,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>2</v>
@@ -3444,13 +3562,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>2</v>
@@ -3458,13 +3576,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>2</v>
@@ -3472,13 +3590,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>2</v>
@@ -3486,13 +3604,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>2</v>
@@ -3500,41 +3618,41 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>7</v>
+        <v>103</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>5</v>
+        <v>103</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>13</v>
+        <v>104</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>16</v>
+        <v>113</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>17</v>
+        <v>113</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>6</v>
@@ -3542,13 +3660,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>6</v>
@@ -3556,13 +3674,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>6</v>
@@ -3570,13 +3688,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>6</v>
@@ -3584,13 +3702,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>6</v>
@@ -3598,13 +3716,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>6</v>
@@ -3612,13 +3730,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>6</v>
@@ -3626,13 +3744,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>6</v>
@@ -3640,13 +3758,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>6</v>
@@ -3654,13 +3772,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>6</v>
@@ -3668,13 +3786,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>6</v>
@@ -3682,13 +3800,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>6</v>
@@ -3696,13 +3814,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>6</v>
@@ -3710,13 +3828,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>6</v>
@@ -3724,13 +3842,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>6</v>
@@ -3738,13 +3856,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>6</v>
@@ -3752,13 +3870,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>6</v>
@@ -3766,13 +3884,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>6</v>
@@ -3780,27 +3898,27 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>77</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>6</v>
@@ -3808,27 +3926,27 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>6</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>6</v>
@@ -3836,13 +3954,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>6</v>
@@ -3850,55 +3968,55 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>68</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>2</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>2</v>
@@ -3906,43 +4024,71 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B43" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C43" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D43" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3954,10 +4100,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3984,13 +4130,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>2</v>
@@ -3998,13 +4144,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>6</v>
@@ -4012,13 +4158,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>6</v>
@@ -4026,13 +4172,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>6</v>
@@ -4040,13 +4186,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>6</v>
@@ -4054,13 +4200,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>6</v>
@@ -4068,13 +4214,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>6</v>
@@ -4082,13 +4228,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>6</v>
@@ -4096,13 +4242,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>7</v>
+        <v>113</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>5</v>
+        <v>113</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>13</v>
+        <v>113</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>6</v>
@@ -4110,13 +4256,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>16</v>
+        <v>103</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>17</v>
+        <v>104</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>6</v>
@@ -4124,13 +4270,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>6</v>
@@ -4138,13 +4284,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>6</v>
@@ -4152,13 +4298,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>6</v>
@@ -4166,13 +4312,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>6</v>
@@ -4180,13 +4326,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>6</v>
@@ -4194,13 +4340,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>6</v>
@@ -4208,13 +4354,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>6</v>
@@ -4222,13 +4368,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>6</v>
@@ -4236,13 +4382,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>6</v>
@@ -4250,13 +4396,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>6</v>
@@ -4264,13 +4410,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>6</v>
@@ -4278,13 +4424,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>6</v>
@@ -4292,13 +4438,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>6</v>
@@ -4306,13 +4452,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>6</v>
@@ -4320,13 +4466,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>6</v>
@@ -4334,13 +4480,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>6</v>
@@ -4348,13 +4494,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>6</v>
@@ -4362,13 +4508,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>6</v>
@@ -4376,13 +4522,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>6</v>
@@ -4390,13 +4536,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>6</v>
@@ -4404,13 +4550,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>6</v>
@@ -4418,13 +4564,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>6</v>
@@ -4432,13 +4578,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>6</v>
@@ -4446,13 +4592,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>6</v>
@@ -4460,13 +4606,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>6</v>
@@ -4474,13 +4620,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>6</v>
@@ -4488,13 +4634,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>6</v>
@@ -4502,13 +4648,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>6</v>
@@ -4516,13 +4662,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>6</v>
@@ -4530,15 +4676,43 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B43" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C43" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D43" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4642,10 +4816,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40:D41"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5230,6 +5404,34 @@
         <v>2</v>
       </c>
     </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/WppRegpack/TestResource/TC_RunManager.xlsx
+++ b/WppRegpack/TestResource/TC_RunManager.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\China\GlobalTestPack\WppRegPack\TestResource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\China\GlobalTestPack\WppRegpack\TestResource\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="4" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="CHN_SIT_FullCycle" sheetId="6" r:id="rId1"/>
@@ -806,8 +806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42:D43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1319,7 +1319,7 @@
         <v>45</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1333,7 +1333,7 @@
         <v>46</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -1347,7 +1347,7 @@
         <v>61</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1431,7 +1431,7 @@
   <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42:D43"/>
+      <selection activeCell="D36" sqref="D36:D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1943,7 +1943,7 @@
         <v>45</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1957,7 +1957,7 @@
         <v>46</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -1971,7 +1971,7 @@
         <v>61</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -2054,8 +2054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42:D43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2456,7 +2456,7 @@
         <v>45</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -2470,7 +2470,7 @@
         <v>46</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -2484,7 +2484,7 @@
         <v>61</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -2540,7 +2540,7 @@
         <v>100</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -2554,7 +2554,7 @@
         <v>99</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -2568,7 +2568,7 @@
         <v>106</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -2582,7 +2582,7 @@
         <v>108</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -2596,7 +2596,7 @@
         <v>110</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -2610,7 +2610,7 @@
         <v>112</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -2624,7 +2624,7 @@
         <v>104</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -2638,7 +2638,7 @@
         <v>113</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -2652,7 +2652,7 @@
         <v>114</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -2682,8 +2682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42:D43"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3083,7 +3083,7 @@
         <v>45</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -3097,7 +3097,7 @@
         <v>46</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -3111,7 +3111,7 @@
         <v>61</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -3479,7 +3479,7 @@
   <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D3"/>
+      <selection activeCell="A2" sqref="A2:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3506,27 +3506,27 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>114</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>114</v>
+        <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>115</v>
+        <v>16</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>115</v>
+        <v>17</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>6</v>
@@ -3534,125 +3534,125 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>109</v>
+        <v>11</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>110</v>
+        <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>110</v>
+        <v>14</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>111</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>112</v>
+        <v>18</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>112</v>
+        <v>39</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>106</v>
+        <v>26</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>106</v>
+        <v>27</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>107</v>
+        <v>26</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>108</v>
+        <v>26</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>108</v>
+        <v>27</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>96</v>
+        <v>31</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>95</v>
+        <v>43</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>98</v>
+        <v>43</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>103</v>
+        <v>29</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>103</v>
+        <v>28</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>104</v>
+        <v>30</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>113</v>
+        <v>33</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>113</v>
+        <v>34</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>113</v>
+        <v>35</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>6</v>
@@ -3660,13 +3660,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>6</v>
@@ -3674,13 +3674,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>6</v>
@@ -3688,13 +3688,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>6</v>
@@ -3702,13 +3702,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>6</v>
@@ -3716,13 +3716,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>6</v>
@@ -3730,13 +3730,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>6</v>
@@ -3744,13 +3744,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>6</v>
@@ -3758,13 +3758,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>6</v>
@@ -3772,13 +3772,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>6</v>
@@ -3786,27 +3786,27 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>6</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>6</v>
@@ -3814,13 +3814,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>6</v>
@@ -3828,13 +3828,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>6</v>
@@ -3842,13 +3842,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>6</v>
@@ -3856,69 +3856,69 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>6</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>6</v>
@@ -3926,27 +3926,27 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>77</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>6</v>
@@ -3954,27 +3954,27 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>50</v>
+        <v>114</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>51</v>
+        <v>114</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>52</v>
+        <v>114</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>53</v>
+        <v>115</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>54</v>
+        <v>115</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>55</v>
+        <v>115</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>6</v>
@@ -3982,41 +3982,41 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>56</v>
+        <v>109</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>57</v>
+        <v>110</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>58</v>
+        <v>110</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>66</v>
+        <v>111</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>67</v>
+        <v>112</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>67</v>
+        <v>112</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>68</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>19</v>
+        <v>105</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>20</v>
+        <v>106</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>2</v>
@@ -4024,13 +4024,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>21</v>
+        <v>107</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>22</v>
+        <v>108</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>2</v>
@@ -4038,13 +4038,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>2</v>
@@ -4052,44 +4052,44 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>24</v>
+        <v>95</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>24</v>
+        <v>98</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -4102,8 +4102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4130,27 +4130,27 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>114</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>114</v>
+        <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>115</v>
+        <v>16</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>115</v>
+        <v>17</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>6</v>
@@ -4158,13 +4158,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>105</v>
+        <v>11</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>106</v>
+        <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>106</v>
+        <v>14</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>6</v>
@@ -4172,13 +4172,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>109</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>110</v>
+        <v>18</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>110</v>
+        <v>39</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>6</v>
@@ -4186,13 +4186,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>107</v>
+        <v>42</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>108</v>
+        <v>26</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>108</v>
+        <v>27</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>6</v>
@@ -4200,13 +4200,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>96</v>
+        <v>26</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>97</v>
+        <v>26</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>6</v>
@@ -4214,13 +4214,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>111</v>
+        <v>31</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>112</v>
+        <v>31</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>112</v>
+        <v>32</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>6</v>
@@ -4228,13 +4228,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>95</v>
+        <v>43</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>98</v>
+        <v>43</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>6</v>
@@ -4242,13 +4242,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>113</v>
+        <v>29</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>113</v>
+        <v>28</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>113</v>
+        <v>30</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>6</v>
@@ -4256,13 +4256,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>103</v>
+        <v>33</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>103</v>
+        <v>34</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>104</v>
+        <v>35</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>6</v>
@@ -4270,13 +4270,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>6</v>
@@ -4284,13 +4284,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>6</v>
@@ -4298,13 +4298,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>6</v>
@@ -4312,13 +4312,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>6</v>
@@ -4326,13 +4326,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>6</v>
@@ -4340,13 +4340,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>6</v>
@@ -4354,13 +4354,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>6</v>
@@ -4368,13 +4368,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>6</v>
@@ -4382,13 +4382,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>6</v>
@@ -4396,13 +4396,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>6</v>
@@ -4410,13 +4410,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>6</v>
@@ -4424,13 +4424,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>6</v>
@@ -4438,13 +4438,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>6</v>
@@ -4452,13 +4452,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>6</v>
@@ -4466,13 +4466,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>6</v>
@@ -4480,13 +4480,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>6</v>
@@ -4494,13 +4494,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>6</v>
@@ -4508,13 +4508,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>6</v>
@@ -4522,13 +4522,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>6</v>
@@ -4536,13 +4536,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>6</v>
@@ -4550,13 +4550,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>6</v>
@@ -4564,13 +4564,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>6</v>
@@ -4578,27 +4578,27 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>50</v>
+        <v>114</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>51</v>
+        <v>114</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>52</v>
+        <v>114</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>53</v>
+        <v>115</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>54</v>
+        <v>115</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>55</v>
+        <v>115</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>6</v>
@@ -4606,13 +4606,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>56</v>
+        <v>105</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>57</v>
+        <v>106</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>58</v>
+        <v>106</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>6</v>
@@ -4620,13 +4620,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>66</v>
+        <v>109</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>67</v>
+        <v>110</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>67</v>
+        <v>110</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>6</v>
@@ -4634,13 +4634,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>19</v>
+        <v>107</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>20</v>
+        <v>108</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>45</v>
+        <v>108</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>6</v>
@@ -4648,13 +4648,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>6</v>
@@ -4662,13 +4662,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>59</v>
+        <v>111</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>60</v>
+        <v>112</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>61</v>
+        <v>112</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>6</v>
@@ -4676,13 +4676,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>24</v>
+        <v>95</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>24</v>
+        <v>98</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>6</v>
@@ -4690,13 +4690,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>6</v>
@@ -4704,13 +4704,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>6</v>
@@ -4818,7 +4818,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>

--- a/WppRegpack/TestResource/TC_RunManager.xlsx
+++ b/WppRegpack/TestResource/TC_RunManager.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\China\GlobalTestPack\WppRegpack\TestResource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\China\GlobalTestPack\WppRegPack\TestResource\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -4102,8 +4102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD11"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4130,27 +4130,27 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>80</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>6</v>
@@ -4158,13 +4158,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>6</v>
@@ -4172,13 +4172,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>6</v>
@@ -4186,13 +4186,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>6</v>
@@ -4200,7 +4200,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>26</v>
@@ -4214,13 +4214,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>6</v>
@@ -4228,13 +4228,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>6</v>
@@ -4242,13 +4242,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>6</v>
@@ -4256,13 +4256,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>6</v>
@@ -4270,13 +4270,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>6</v>
@@ -4284,13 +4284,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>83</v>
+        <v>36</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>6</v>
@@ -4298,13 +4298,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>9</v>
+        <v>84</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>6</v>
@@ -4587,7 +4587,7 @@
         <v>114</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">

--- a/WppRegpack/TestResource/TC_RunManager.xlsx
+++ b/WppRegpack/TestResource/TC_RunManager.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="4" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="4" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="CHN_SIT_FullCycle" sheetId="6" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1265" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="116">
   <si>
     <t>Description</t>
   </si>
@@ -3476,10 +3476,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3557,7 +3557,7 @@
         <v>39</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -3656,440 +3656,6 @@
       </c>
       <c r="D12" s="2" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -4102,7 +3668,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+    <sheetView topLeftCell="A26" workbookViewId="0">
       <selection activeCell="D3" sqref="D3:D43"/>
     </sheetView>
   </sheetViews>

--- a/WppRegpack/TestResource/TC_RunManager.xlsx
+++ b/WppRegpack/TestResource/TC_RunManager.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="4" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="CHN_SIT_FullCycle" sheetId="6" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="119">
   <si>
     <t>Description</t>
   </si>
@@ -386,6 +386,15 @@
   </si>
   <si>
     <t>AmendGlobalBrand</t>
+  </si>
+  <si>
+    <t>CreateClient</t>
+  </si>
+  <si>
+    <t>ClientCreation</t>
+  </si>
+  <si>
+    <t>Create Global Client</t>
   </si>
 </sst>
 </file>
@@ -3476,10 +3485,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3506,27 +3515,27 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>116</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>117</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>80</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>6</v>
@@ -3534,13 +3543,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>6</v>
@@ -3548,27 +3557,27 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>6</v>
@@ -3576,7 +3585,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>26</v>
@@ -3590,13 +3599,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>6</v>
@@ -3618,13 +3627,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>6</v>
@@ -3632,13 +3641,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>6</v>
@@ -3646,15 +3655,29 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3666,10 +3689,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3696,13 +3719,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>12</v>
+        <v>116</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>117</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>15</v>
+        <v>118</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>2</v>
@@ -3710,13 +3733,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>6</v>
@@ -3724,13 +3747,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>80</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>6</v>
@@ -3738,13 +3761,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>6</v>
@@ -3752,13 +3775,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>6</v>
@@ -3766,13 +3789,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>6</v>
@@ -3780,7 +3803,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>26</v>
@@ -3794,13 +3817,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>6</v>
@@ -3808,13 +3831,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>6</v>
@@ -3822,13 +3845,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>6</v>
@@ -3836,13 +3859,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>6</v>
@@ -3850,13 +3873,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>6</v>
@@ -3864,13 +3887,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>83</v>
+        <v>36</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>6</v>
@@ -3878,13 +3901,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>6</v>
@@ -3892,13 +3915,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>6</v>
@@ -3906,13 +3929,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>6</v>
@@ -3920,13 +3943,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>6</v>
@@ -3934,13 +3957,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>6</v>
@@ -3948,13 +3971,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>6</v>
@@ -3962,13 +3985,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>6</v>
@@ -3976,13 +3999,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>6</v>
@@ -3990,13 +4013,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>6</v>
@@ -4004,13 +4027,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>6</v>
@@ -4018,13 +4041,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>6</v>
@@ -4032,13 +4055,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>6</v>
@@ -4046,13 +4069,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>6</v>
@@ -4060,13 +4083,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>6</v>
@@ -4074,13 +4097,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>6</v>
@@ -4088,13 +4111,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>6</v>
@@ -4102,13 +4125,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>6</v>
@@ -4116,13 +4139,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>78</v>
+        <v>24</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>79</v>
+        <v>24</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>6</v>
@@ -4130,13 +4153,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>6</v>
@@ -4144,13 +4167,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>6</v>
@@ -4158,13 +4181,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>6</v>
@@ -4172,13 +4195,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>6</v>
@@ -4186,13 +4209,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>6</v>
@@ -4200,13 +4223,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>6</v>
@@ -4214,13 +4237,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>6</v>
@@ -4228,13 +4251,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>6</v>
@@ -4242,13 +4265,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>6</v>
@@ -4256,13 +4279,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>6</v>
@@ -4270,15 +4293,29 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B44" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C44" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="D44" s="2" t="s">
         <v>6</v>
       </c>
     </row>

--- a/WppRegpack/TestResource/TC_RunManager.xlsx
+++ b/WppRegpack/TestResource/TC_RunManager.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="4" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="4" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="CHN_SIT_FullCycle" sheetId="6" r:id="rId1"/>
@@ -19,11 +19,12 @@
     <sheet name="Sheet1" sheetId="9" r:id="rId5"/>
     <sheet name="CHN_Critical Regression" sheetId="7" r:id="rId6"/>
     <sheet name="IND_Critical Regression" sheetId="8" r:id="rId7"/>
-    <sheet name="Smoke" sheetId="3" r:id="rId8"/>
-    <sheet name="GlobalTestPack" sheetId="4" r:id="rId9"/>
+    <sheet name="SNG_Critical Regression" sheetId="10" r:id="rId8"/>
+    <sheet name="Smoke" sheetId="3" r:id="rId9"/>
+    <sheet name="GlobalTestPack" sheetId="4" r:id="rId10"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId10"/>
+    <externalReference r:id="rId11"/>
   </externalReferences>
   <definedNames>
     <definedName name="IterationOptions">[1]Sheet1!$A$2:$A$4</definedName>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1325" uniqueCount="119">
   <si>
     <t>Description</t>
   </si>
@@ -1435,6 +1436,630 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D43"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D43"/>
@@ -3691,8 +4316,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4326,6 +4951,644 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -4415,628 +5678,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D43"/>
-  <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="29" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/WppRegpack/TestResource/TC_RunManager.xlsx
+++ b/WppRegpack/TestResource/TC_RunManager.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="4" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="CHN_SIT_FullCycle" sheetId="6" r:id="rId1"/>
@@ -4316,8 +4316,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33:D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4344,27 +4344,27 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>116</v>
+        <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>117</v>
+        <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>118</v>
+        <v>15</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>6</v>
@@ -4372,13 +4372,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>7</v>
+        <v>80</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>6</v>
@@ -4386,13 +4386,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>80</v>
+        <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>6</v>
@@ -4400,13 +4400,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>6</v>
@@ -4414,13 +4414,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>6</v>
@@ -4428,7 +4428,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>26</v>
@@ -4442,13 +4442,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>6</v>
@@ -4456,13 +4456,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>6</v>
@@ -4470,13 +4470,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>6</v>
@@ -4484,13 +4484,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>6</v>
@@ -4498,13 +4498,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>6</v>
@@ -4512,13 +4512,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>36</v>
+        <v>83</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>6</v>
@@ -4526,13 +4526,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>85</v>
+        <v>41</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>6</v>
@@ -4540,13 +4540,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>6</v>
@@ -4554,13 +4554,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>6</v>
@@ -4568,13 +4568,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>6</v>
@@ -4582,13 +4582,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>6</v>
@@ -4596,13 +4596,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>6</v>
@@ -4610,13 +4610,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>6</v>
@@ -4624,13 +4624,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>6</v>
@@ -4638,13 +4638,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>6</v>
@@ -4652,13 +4652,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>6</v>
@@ -4666,13 +4666,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>6</v>
@@ -4680,13 +4680,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>6</v>
@@ -4694,13 +4694,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>6</v>
@@ -4708,13 +4708,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>6</v>
@@ -4722,13 +4722,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>6</v>
@@ -4736,13 +4736,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>6</v>
@@ -4750,13 +4750,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>6</v>
@@ -4764,13 +4764,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>24</v>
+        <v>79</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>6</v>
@@ -4778,13 +4778,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>6</v>
@@ -4792,13 +4792,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>81</v>
+        <v>116</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>82</v>
+        <v>118</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>6</v>
@@ -4815,7 +4815,7 @@
         <v>114</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -4829,7 +4829,7 @@
         <v>115</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -4954,8 +4954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34:D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4982,27 +4982,27 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>116</v>
+        <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>117</v>
+        <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>118</v>
+        <v>15</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>6</v>
@@ -5010,13 +5010,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>7</v>
+        <v>80</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>6</v>
@@ -5024,13 +5024,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>80</v>
+        <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>6</v>
@@ -5038,13 +5038,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>6</v>
@@ -5052,13 +5052,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>6</v>
@@ -5066,7 +5066,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>26</v>
@@ -5080,13 +5080,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>6</v>
@@ -5094,13 +5094,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>6</v>
@@ -5108,13 +5108,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>6</v>
@@ -5122,13 +5122,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>6</v>
@@ -5136,13 +5136,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>6</v>
@@ -5150,13 +5150,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>36</v>
+        <v>83</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>6</v>
@@ -5164,13 +5164,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>85</v>
+        <v>41</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>6</v>
@@ -5178,13 +5178,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>6</v>
@@ -5192,13 +5192,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>6</v>
@@ -5206,13 +5206,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>6</v>
@@ -5220,13 +5220,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>6</v>
@@ -5234,13 +5234,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>6</v>
@@ -5248,13 +5248,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>6</v>
@@ -5262,13 +5262,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>6</v>
@@ -5276,13 +5276,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>6</v>
@@ -5290,13 +5290,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>6</v>
@@ -5304,13 +5304,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>6</v>
@@ -5318,13 +5318,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>6</v>
@@ -5332,13 +5332,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>6</v>
@@ -5346,13 +5346,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>6</v>
@@ -5360,13 +5360,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>6</v>
@@ -5374,13 +5374,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>6</v>
@@ -5388,13 +5388,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>6</v>
@@ -5402,13 +5402,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>24</v>
+        <v>79</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>6</v>
@@ -5416,13 +5416,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>6</v>
@@ -5430,16 +5430,16 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>81</v>
+        <v>116</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>82</v>
+        <v>118</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -5453,7 +5453,7 @@
         <v>114</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">

--- a/WppRegpack/TestResource/TC_RunManager.xlsx
+++ b/WppRegpack/TestResource/TC_RunManager.xlsx
@@ -4316,8 +4316,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33:D34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4801,7 +4801,7 @@
         <v>118</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">

--- a/WppRegpack/TestResource/TC_RunManager.xlsx
+++ b/WppRegpack/TestResource/TC_RunManager.xlsx
@@ -4316,8 +4316,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34:D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4801,7 +4801,7 @@
         <v>118</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -4815,7 +4815,7 @@
         <v>114</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -4885,7 +4885,7 @@
         <v>100</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -4913,7 +4913,7 @@
         <v>99</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">

--- a/WppRegpack/TestResource/TC_RunManager.xlsx
+++ b/WppRegpack/TestResource/TC_RunManager.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\China\GlobalTestPack\WppRegPack\TestResource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\662494\Pictures\Test_Environment_25-2-2020\GlobalTestSuiteAutomation\WppRegpack\TestResource\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1325" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1329" uniqueCount="120">
   <si>
     <t>Description</t>
   </si>
@@ -396,6 +396,9 @@
   </si>
   <si>
     <t>Create Global Client</t>
+  </si>
+  <si>
+    <t>CreateGlobalVendor</t>
   </si>
 </sst>
 </file>
@@ -4314,10 +4317,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D44"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34:D35"/>
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4941,6 +4944,20 @@
         <v>104</v>
       </c>
       <c r="D44" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>6</v>
       </c>
     </row>

--- a/WppRegpack/TestResource/TC_RunManager.xlsx
+++ b/WppRegpack/TestResource/TC_RunManager.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\662494\Pictures\Test_Environment_25-2-2020\GlobalTestSuiteAutomation\WppRegpack\TestResource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\China\GlobalTestPack\WppRegpack\TestResource\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -4320,7 +4320,7 @@
   <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4804,7 +4804,7 @@
         <v>118</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -4818,7 +4818,7 @@
         <v>114</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">

--- a/WppRegpack/TestResource/TC_RunManager.xlsx
+++ b/WppRegpack/TestResource/TC_RunManager.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\China\GlobalTestPack\WppRegpack\TestResource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\China\GlobalTestPack\WppRegPack\TestResource\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalTestCase" sheetId="6" r:id="rId1"/>
@@ -805,8 +805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -866,7 +866,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>2</v>
@@ -2080,7 +2080,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>

--- a/WppRegpack/TestResource/TC_RunManager.xlsx
+++ b/WppRegpack/TestResource/TC_RunManager.xlsx
@@ -805,8 +805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -866,7 +866,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>2</v>
@@ -924,7 +924,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>2</v>

--- a/WppRegpack/TestResource/TC_RunManager.xlsx
+++ b/WppRegpack/TestResource/TC_RunManager.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\China\GlobalTestPack\WppRegPack\TestResource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\662494\Pictures\Bau_Environment\GlobalTestSuiteAutomation\WppRegpack\TestResource\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="132">
   <si>
     <t>Description</t>
   </si>
@@ -385,13 +385,55 @@
   </si>
   <si>
     <t>SNG_Regression</t>
+  </si>
+  <si>
+    <t>CreateCompanyBrand</t>
+  </si>
+  <si>
+    <t>CompanyBrandCreation</t>
+  </si>
+  <si>
+    <t>CreateCompanyClient</t>
+  </si>
+  <si>
+    <t>CompanyClientCreation</t>
+  </si>
+  <si>
+    <t>AmendCompanyBrand</t>
+  </si>
+  <si>
+    <t>AmendCompanyClient</t>
+  </si>
+  <si>
+    <t>AmendCompanyclient</t>
+  </si>
+  <si>
+    <t>CreateGlobalBrand</t>
+  </si>
+  <si>
+    <t>Create Global Brand</t>
+  </si>
+  <si>
+    <t>CreateGlobalProduct</t>
+  </si>
+  <si>
+    <t>Create Global Product</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CreateCompanyProduct                 CreateCompanyProduct                 Create Company </t>
+  </si>
+  <si>
+    <t>AmendGlobalProduct</t>
+  </si>
+  <si>
+    <t>Change global product</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -405,6 +447,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -448,12 +496,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -803,10 +854,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I43"/>
+  <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -863,19 +914,19 @@
         <v>13</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>6</v>
@@ -883,28 +934,28 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>16</v>
+        <v>102</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>17</v>
+        <v>102</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="F3" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>6</v>
@@ -912,28 +963,28 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>103</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>104</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>14</v>
+        <v>104</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>6</v>
@@ -941,28 +992,28 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>18</v>
+        <v>118</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>18</v>
+        <v>119</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>39</v>
+        <v>119</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>6</v>
@@ -970,13 +1021,13 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>42</v>
+        <v>120</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>26</v>
+        <v>121</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>27</v>
+        <v>121</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>6</v>
@@ -999,28 +1050,28 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>26</v>
+        <v>122</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>26</v>
+        <v>122</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>27</v>
+        <v>122</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>6</v>
@@ -1028,131 +1079,127 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>31</v>
+        <v>123</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>32</v>
+        <v>124</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>2</v>
-      </c>
       <c r="E10" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>2</v>
+      <c r="A11" t="s">
+        <v>129</v>
+      </c>
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="2" t="s">
+      <c r="A12" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E12" s="2" t="s">
@@ -1172,16 +1219,16 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D13" s="2" t="s">
+      <c r="A13" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E13" s="2" t="s">
@@ -1202,28 +1249,28 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>6</v>
@@ -1231,28 +1278,28 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>6</v>
@@ -1260,13 +1307,13 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>6</v>
@@ -1289,28 +1336,28 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>6</v>
@@ -1318,28 +1365,28 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>6</v>
@@ -1347,13 +1394,13 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>6</v>
@@ -1376,28 +1423,28 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>6</v>
@@ -1405,28 +1452,28 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>6</v>
@@ -1434,28 +1481,28 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>6</v>
@@ -1463,28 +1510,28 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>6</v>
@@ -1492,28 +1539,28 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>6</v>
@@ -1521,28 +1568,28 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>6</v>
@@ -1550,28 +1597,28 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>6</v>
@@ -1579,28 +1626,28 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>6</v>
@@ -1608,28 +1655,28 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>6</v>
@@ -1637,28 +1684,28 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>6</v>
@@ -1666,28 +1713,28 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>6</v>
@@ -1695,13 +1742,13 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>6</v>
@@ -1724,13 +1771,13 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>6</v>
@@ -1753,13 +1800,13 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>6</v>
@@ -1782,28 +1829,28 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>6</v>
@@ -1811,28 +1858,28 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>96</v>
+        <v>51</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>97</v>
+        <v>52</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I35" s="2" t="s">
         <v>6</v>
@@ -1840,28 +1887,28 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>101</v>
+        <v>53</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>102</v>
+        <v>54</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>102</v>
+        <v>55</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I36" s="2" t="s">
         <v>6</v>
@@ -1869,28 +1916,28 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>103</v>
+        <v>56</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>104</v>
+        <v>57</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>104</v>
+        <v>58</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I37" s="2" t="s">
         <v>6</v>
@@ -1898,28 +1945,28 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>105</v>
+        <v>66</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I38" s="2" t="s">
         <v>6</v>
@@ -1927,28 +1974,28 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>107</v>
+        <v>19</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>108</v>
+        <v>45</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I39" s="2" t="s">
         <v>6</v>
@@ -1956,28 +2003,28 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>99</v>
+        <v>21</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I40" s="2" t="s">
         <v>6</v>
@@ -1985,28 +2032,28 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>109</v>
+        <v>59</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>109</v>
+        <v>60</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I41" s="2" t="s">
         <v>6</v>
@@ -2014,28 +2061,28 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>110</v>
+        <v>24</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>110</v>
+        <v>24</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>110</v>
+        <v>25</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I42" s="2" t="s">
         <v>6</v>
@@ -2043,30 +2090,291 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B52" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C52" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D43" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I43" s="2" t="s">
+      <c r="D52" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I52" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2081,7 +2389,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2117,7 +2425,7 @@
         <v>86</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2131,7 +2439,7 @@
         <v>88</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2145,7 +2453,7 @@
         <v>90</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2159,7 +2467,7 @@
         <v>92</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/WppRegpack/TestResource/TC_RunManager.xlsx
+++ b/WppRegpack/TestResource/TC_RunManager.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="134">
   <si>
     <t>Description</t>
   </si>
@@ -427,6 +427,12 @@
   </si>
   <si>
     <t>Change global product</t>
+  </si>
+  <si>
+    <t>CompanyVendor</t>
+  </si>
+  <si>
+    <t>CreateCompanyVendor</t>
   </si>
 </sst>
 </file>
@@ -854,10 +860,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I52"/>
+  <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -934,19 +940,19 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>101</v>
+        <v>132</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>102</v>
+        <v>133</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>102</v>
+        <v>133</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>6</v>
@@ -963,19 +969,19 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>6</v>
@@ -992,13 +998,13 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>6</v>
@@ -1021,13 +1027,13 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>6</v>
@@ -1050,13 +1056,13 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>6</v>
@@ -1079,44 +1085,44 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E9" s="2" t="s">
@@ -1137,68 +1143,68 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B11" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C11" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="E11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>129</v>
       </c>
-      <c r="B11"/>
-      <c r="C11"/>
-      <c r="D11" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>131</v>
-      </c>
+      <c r="B12"/>
+      <c r="C12"/>
       <c r="D12" s="3" t="s">
         <v>6</v>
       </c>
@@ -1220,10 +1226,10 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>131</v>
@@ -1248,16 +1254,16 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="2" t="s">
+      <c r="A14" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E14" s="2" t="s">
@@ -1278,13 +1284,13 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>6</v>
@@ -1307,13 +1313,13 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>6</v>
@@ -1336,13 +1342,13 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>6</v>
@@ -1365,7 +1371,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>26</v>
@@ -1394,13 +1400,13 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>6</v>
@@ -1423,13 +1429,13 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>6</v>
@@ -1452,13 +1458,13 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>6</v>
@@ -1481,13 +1487,13 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>6</v>
@@ -1510,13 +1516,13 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>6</v>
@@ -1539,13 +1545,13 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>82</v>
+        <v>37</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>6</v>
@@ -1568,13 +1574,13 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>9</v>
+        <v>82</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>6</v>
@@ -1597,13 +1603,13 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>6</v>
@@ -1626,13 +1632,13 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>6</v>
@@ -1655,13 +1661,13 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>6</v>
@@ -1684,13 +1690,13 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>6</v>
@@ -1713,13 +1719,13 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>6</v>
@@ -1742,13 +1748,13 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>6</v>
@@ -1771,13 +1777,13 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>6</v>
@@ -1800,13 +1806,13 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>6</v>
@@ -1829,13 +1835,13 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>6</v>
@@ -1858,13 +1864,13 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>6</v>
@@ -1887,13 +1893,13 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>6</v>
@@ -1916,13 +1922,13 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>6</v>
@@ -1945,13 +1951,13 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>6</v>
@@ -1974,13 +1980,13 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>6</v>
@@ -2003,13 +2009,13 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>6</v>
@@ -2032,13 +2038,13 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>6</v>
@@ -2061,13 +2067,13 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>6</v>
@@ -2090,13 +2096,13 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>77</v>
+        <v>24</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>6</v>
@@ -2119,13 +2125,13 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>6</v>
@@ -2148,13 +2154,13 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>6</v>
@@ -2177,13 +2183,13 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>6</v>
@@ -2206,13 +2212,13 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>6</v>
@@ -2235,13 +2241,13 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>6</v>
@@ -2264,13 +2270,13 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>6</v>
@@ -2293,13 +2299,13 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>6</v>
@@ -2322,13 +2328,13 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>6</v>
@@ -2351,30 +2357,59 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B53" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C53" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D52" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I52" s="2" t="s">
+      <c r="D53" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I53" s="2" t="s">
         <v>6</v>
       </c>
     </row>

--- a/WppRegpack/TestResource/TC_RunManager.xlsx
+++ b/WppRegpack/TestResource/TC_RunManager.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\662494\Pictures\Bau_Environment\GlobalTestSuiteAutomation\WppRegpack\TestResource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\BAU\GlobalTestSuiteAutomation\WppRegPack\TestResource\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="137">
   <si>
     <t>Description</t>
   </si>
@@ -433,6 +433,15 @@
   </si>
   <si>
     <t>CreateCompanyVendor</t>
+  </si>
+  <si>
+    <t>CreateClient</t>
+  </si>
+  <si>
+    <t>ClientCreation</t>
+  </si>
+  <si>
+    <t>Create Global Client,Brand,Product</t>
   </si>
 </sst>
 </file>
@@ -860,10 +869,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I53"/>
+  <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -911,44 +920,32 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>134</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>135</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>13</v>
+        <v>136</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="A3" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -968,20 +965,20 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>6</v>
+      <c r="A4" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>6</v>
@@ -998,13 +995,13 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>6</v>
@@ -1055,16 +1052,12 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D7" s="2" t="s">
+      <c r="A7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B7"/>
+      <c r="C7"/>
+      <c r="D7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="2" t="s">
@@ -1143,13 +1136,13 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>6</v>
@@ -1171,17 +1164,17 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>2</v>
+      <c r="A11" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>6</v>
@@ -1200,12 +1193,16 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>129</v>
-      </c>
-      <c r="B12"/>
-      <c r="C12"/>
-      <c r="D12" s="3" t="s">
+      <c r="A12" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E12" s="2" t="s">
@@ -1225,16 +1222,16 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="D13" s="3" t="s">
+      <c r="A13" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E13" s="2" t="s">
@@ -1254,16 +1251,16 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="D14" s="3" t="s">
+      <c r="A14" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E14" s="2" t="s">
@@ -1284,13 +1281,13 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>17</v>
+        <v>104</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>6</v>
@@ -1313,13 +1310,13 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>11</v>
+        <v>107</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>8</v>
+        <v>108</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>6</v>
@@ -1342,13 +1339,13 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>6</v>
@@ -1371,13 +1368,13 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>42</v>
+        <v>93</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>26</v>
+        <v>96</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>27</v>
+        <v>97</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>6</v>
@@ -1400,13 +1397,13 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>26</v>
+        <v>132</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>26</v>
+        <v>133</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>27</v>
+        <v>133</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>6</v>
@@ -1429,13 +1426,13 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>31</v>
+        <v>109</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>31</v>
+        <v>109</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>32</v>
+        <v>109</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>6</v>
@@ -1458,13 +1455,13 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>6</v>
@@ -1487,13 +1484,13 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>6</v>
@@ -1516,13 +1513,13 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>6</v>
@@ -1545,13 +1542,13 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>6</v>
@@ -1574,19 +1571,19 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>82</v>
+        <v>18</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>6</v>
@@ -1603,13 +1600,13 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>6</v>
@@ -1632,13 +1629,13 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>6</v>
@@ -1661,13 +1658,13 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>6</v>
@@ -1690,13 +1687,13 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>6</v>
@@ -1719,13 +1716,13 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>6</v>
@@ -1748,13 +1745,13 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>6</v>
@@ -1777,13 +1774,13 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>6</v>
@@ -1806,13 +1803,13 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>6</v>
@@ -1835,13 +1832,13 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>6</v>
@@ -1864,13 +1861,13 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>6</v>
@@ -1893,13 +1890,13 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>6</v>
@@ -1922,13 +1919,13 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>6</v>
@@ -1951,13 +1948,13 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>6</v>
@@ -1980,13 +1977,13 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>6</v>
@@ -2009,13 +2006,13 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>6</v>
@@ -2038,13 +2035,13 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>6</v>
@@ -2067,13 +2064,13 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>6</v>
@@ -2096,13 +2093,13 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>6</v>
@@ -2125,13 +2122,13 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>6</v>
@@ -2154,13 +2151,13 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>6</v>
@@ -2183,13 +2180,13 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>6</v>
@@ -2212,13 +2209,13 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>6</v>
@@ -2241,13 +2238,13 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>6</v>
@@ -2270,13 +2267,13 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>107</v>
+        <v>21</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>108</v>
+        <v>22</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>108</v>
+        <v>46</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>6</v>
@@ -2299,13 +2296,13 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>99</v>
+        <v>59</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>6</v>
@@ -2328,13 +2325,13 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>109</v>
+        <v>24</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>109</v>
+        <v>24</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>109</v>
+        <v>25</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>6</v>
@@ -2357,13 +2354,13 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>6</v>
@@ -2386,13 +2383,13 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>6</v>
@@ -2410,6 +2407,35 @@
         <v>6</v>
       </c>
       <c r="I53" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I54" s="2" t="s">
         <v>6</v>
       </c>
     </row>

--- a/WppRegpack/TestResource/TC_RunManager.xlsx
+++ b/WppRegpack/TestResource/TC_RunManager.xlsx
@@ -872,7 +872,7 @@
   <dimension ref="A1:I54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="E21" sqref="E21:E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1554,7 +1554,7 @@
         <v>6</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>6</v>

--- a/WppRegpack/TestResource/TC_RunManager.xlsx
+++ b/WppRegpack/TestResource/TC_RunManager.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\BAU\GlobalTestSuiteAutomation\WppRegPack\TestResource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\662494\Pictures\Bau_Environment\GlobalTestSuiteAutomation\WppRegpack\TestResource\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="141">
   <si>
     <t>Description</t>
   </si>
@@ -333,9 +333,6 @@
     <t>BlockGlobalVendor</t>
   </si>
   <si>
-    <t>Block Created Global Vendor</t>
-  </si>
-  <si>
     <t>BlockCompanyBrand</t>
   </si>
   <si>
@@ -442,6 +439,21 @@
   </si>
   <si>
     <t>Create Global Client,Brand,Product</t>
+  </si>
+  <si>
+    <t>CreateGlobalVendor</t>
+  </si>
+  <si>
+    <t>AmendComapnyVendor</t>
+  </si>
+  <si>
+    <t>AmendCompanyVendor</t>
+  </si>
+  <si>
+    <t>AmendGlobalVendor</t>
+  </si>
+  <si>
+    <t>AmendCompanyProduct</t>
   </si>
 </sst>
 </file>
@@ -869,10 +881,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I54"/>
+  <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21:E22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -900,33 +912,33 @@
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>136</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>2</v>
@@ -937,13 +949,13 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>125</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>126</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>6</v>
@@ -966,13 +978,13 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>128</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>2</v>
@@ -995,13 +1007,13 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="C5" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>6</v>
@@ -1024,13 +1036,13 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="C6" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>6</v>
@@ -1053,7 +1065,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B7"/>
       <c r="C7"/>
@@ -1078,13 +1090,13 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>6</v>
@@ -1107,13 +1119,13 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="C9" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>6</v>
@@ -1136,13 +1148,13 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>130</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>131</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>6</v>
@@ -1165,13 +1177,13 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>6</v>
@@ -1194,13 +1206,13 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>6</v>
@@ -1223,13 +1235,13 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="C13" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>6</v>
@@ -1252,13 +1264,13 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="C14" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>6</v>
@@ -1281,13 +1293,13 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="C15" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>6</v>
@@ -1310,13 +1322,13 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="C16" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>6</v>
@@ -1397,13 +1409,13 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>132</v>
+        <v>7</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>133</v>
+        <v>5</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>133</v>
+        <v>13</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>6</v>
@@ -1426,13 +1438,13 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>109</v>
+        <v>16</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>109</v>
+        <v>17</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>6</v>
@@ -1455,19 +1467,19 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>99</v>
+        <v>11</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>99</v>
+        <v>8</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>6</v>
@@ -1484,19 +1496,19 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>6</v>
@@ -1513,13 +1525,13 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>6</v>
@@ -1542,19 +1554,19 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>6</v>
@@ -1571,19 +1583,19 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>6</v>
@@ -1600,13 +1612,13 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>6</v>
@@ -1629,13 +1641,13 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>6</v>
@@ -1658,13 +1670,13 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>6</v>
@@ -1687,13 +1699,13 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>6</v>
@@ -1716,13 +1728,13 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>28</v>
+        <v>82</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>30</v>
+        <v>83</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>6</v>
@@ -1745,13 +1757,13 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>6</v>
@@ -1774,13 +1786,13 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>6</v>
@@ -1803,13 +1815,13 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>6</v>
@@ -1832,13 +1844,13 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>6</v>
@@ -1861,13 +1873,13 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>6</v>
@@ -1890,13 +1902,13 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>6</v>
@@ -1919,13 +1931,13 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>6</v>
@@ -1948,13 +1960,13 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>6</v>
@@ -1977,13 +1989,13 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>6</v>
@@ -2006,13 +2018,13 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>6</v>
@@ -2035,13 +2047,13 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>6</v>
@@ -2064,13 +2076,13 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>6</v>
@@ -2093,13 +2105,13 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>6</v>
@@ -2122,13 +2134,13 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>6</v>
@@ -2151,13 +2163,13 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>6</v>
@@ -2180,13 +2192,13 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>6</v>
@@ -2209,13 +2221,13 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>6</v>
@@ -2238,13 +2250,13 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>6</v>
@@ -2267,13 +2279,13 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>6</v>
@@ -2296,13 +2308,13 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>6</v>
@@ -2325,13 +2337,13 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>24</v>
+        <v>136</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>24</v>
+        <v>136</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>25</v>
+        <v>136</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>6</v>
@@ -2354,13 +2366,13 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>76</v>
+        <v>131</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>77</v>
+        <v>132</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>76</v>
+        <v>132</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>6</v>
@@ -2383,13 +2395,13 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>79</v>
+        <v>138</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>6</v>
@@ -2411,16 +2423,16 @@
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="D54" s="3" t="s">
+      <c r="A54" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D54" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E54" s="2" t="s">
@@ -2436,6 +2448,93 @@
         <v>6</v>
       </c>
       <c r="I54" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I57" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2450,7 +2549,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/WppRegpack/TestResource/TC_RunManager.xlsx
+++ b/WppRegpack/TestResource/TC_RunManager.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="143">
   <si>
     <t>Description</t>
   </si>
@@ -417,9 +417,6 @@
     <t>Create Global Product</t>
   </si>
   <si>
-    <t xml:space="preserve">CreateCompanyProduct                 CreateCompanyProduct                 Create Company </t>
-  </si>
-  <si>
     <t>AmendGlobalProduct</t>
   </si>
   <si>
@@ -454,6 +451,15 @@
   </si>
   <si>
     <t>AmendCompanyProduct</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create Company </t>
+  </si>
+  <si>
+    <t>CreateCompanyProduct</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CreateCompanyProduct             </t>
   </si>
 </sst>
 </file>
@@ -883,8 +889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -932,13 +938,13 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>135</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>2</v>
@@ -1065,10 +1071,14 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>128</v>
-      </c>
-      <c r="B7"/>
-      <c r="C7"/>
+        <v>142</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="D7" s="3" t="s">
         <v>6</v>
       </c>
@@ -1148,13 +1158,13 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>129</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>130</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>6</v>
@@ -2337,13 +2347,13 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>6</v>
@@ -2366,13 +2376,13 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="C52" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>6</v>
@@ -2395,13 +2405,13 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="C53" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>6</v>
@@ -2424,13 +2434,13 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>6</v>
@@ -2511,13 +2521,13 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>6</v>

--- a/WppRegpack/TestResource/TC_RunManager.xlsx
+++ b/WppRegpack/TestResource/TC_RunManager.xlsx
@@ -871,8 +871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21:E22"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1554,7 +1554,7 @@
         <v>6</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>6</v>

--- a/WppRegpack/TestResource/TC_RunManager.xlsx
+++ b/WppRegpack/TestResource/TC_RunManager.xlsx
@@ -871,8 +871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1583,7 +1583,7 @@
         <v>6</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>6</v>
@@ -1670,7 +1670,7 @@
         <v>6</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>6</v>

--- a/WppRegpack/TestResource/TC_RunManager.xlsx
+++ b/WppRegpack/TestResource/TC_RunManager.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\BAU\GlobalTestSuiteAutomation\WppRegPack\TestResource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\BAU\GlobalTestSuiteAutomation\WppRegpack\TestResource\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -871,8 +871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1670,7 +1670,7 @@
         <v>6</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>6</v>
@@ -1902,7 +1902,7 @@
         <v>6</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>6</v>

--- a/WppRegpack/TestResource/TC_RunManager.xlsx
+++ b/WppRegpack/TestResource/TC_RunManager.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="139">
   <si>
     <t>Description</t>
   </si>
@@ -442,6 +442,12 @@
   </si>
   <si>
     <t>Create Global Client,Brand,Product</t>
+  </si>
+  <si>
+    <t>CreateAGeneralJournal</t>
+  </si>
+  <si>
+    <t>CreateGeneralJournal</t>
   </si>
 </sst>
 </file>
@@ -869,10 +875,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I54"/>
+  <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="D43" workbookViewId="0">
+      <selection activeCell="H54" sqref="H54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2436,6 +2442,35 @@
         <v>6</v>
       </c>
       <c r="I54" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I55" s="2" t="s">
         <v>6</v>
       </c>
     </row>

--- a/WppRegpack/TestResource/TC_RunManager.xlsx
+++ b/WppRegpack/TestResource/TC_RunManager.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\BAU\GlobalTestSuiteAutomation\WppRegpack\TestResource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\662494\Pictures\Bau_Environment\GlobalTestSuiteAutomation\WppRegpack\TestResource\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalTestCase" sheetId="6" r:id="rId1"/>
@@ -877,8 +877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D43" workbookViewId="0">
-      <selection activeCell="H54" sqref="H54"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2484,8 +2484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/WppRegpack/TestResource/TC_RunManager.xlsx
+++ b/WppRegpack/TestResource/TC_RunManager.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalTestCase" sheetId="6" r:id="rId1"/>
@@ -877,8 +877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2484,7 +2484,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>

--- a/WppRegpack/TestResource/TC_RunManager.xlsx
+++ b/WppRegpack/TestResource/TC_RunManager.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\662494\Pictures\Bau_Environment\GlobalTestSuiteAutomation\WppRegpack\TestResource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\BAU\GlobalTestSuiteAutomation\WppRegpack\TestResource\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -877,8 +877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C60" sqref="C60"/>
+    <sheetView tabSelected="1" topLeftCell="B49" workbookViewId="0">
+      <selection activeCell="I55" sqref="I55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1908,7 +1908,7 @@
         <v>6</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>6</v>
@@ -2471,7 +2471,7 @@
         <v>6</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/WppRegpack/TestResource/TC_RunManager.xlsx
+++ b/WppRegpack/TestResource/TC_RunManager.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\BAU\GlobalTestSuiteAutomation\WppRegpack\TestResource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\662494\Pictures\Bau_Environment\GlobalTestSuiteAutomation\WppRegpack\TestResource\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="141">
   <si>
     <t>Description</t>
   </si>
@@ -448,6 +448,12 @@
   </si>
   <si>
     <t>CreateGeneralJournal</t>
+  </si>
+  <si>
+    <t>ReverseAGeneralJournal</t>
+  </si>
+  <si>
+    <t>ReverseGL</t>
   </si>
 </sst>
 </file>
@@ -517,7 +523,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -526,6 +532,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -875,10 +882,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I55"/>
+  <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B49" workbookViewId="0">
-      <selection activeCell="I55" sqref="I55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -940,6 +947,18 @@
       <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -2471,6 +2490,35 @@
         <v>6</v>
       </c>
       <c r="I55" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I56" s="2" t="s">
         <v>2</v>
       </c>
     </row>

--- a/WppRegpack/TestResource/TC_RunManager.xlsx
+++ b/WppRegpack/TestResource/TC_RunManager.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\662494\Pictures\Bau_Environment\GlobalTestSuiteAutomation\WppRegpack\TestResource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\BAU\GlobalTestSuiteAutomation\WppRegpack\TestResource\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -884,8 +884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2507,7 +2507,7 @@
         <v>6</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>6</v>

--- a/WppRegpack/TestResource/TC_RunManager.xlsx
+++ b/WppRegpack/TestResource/TC_RunManager.xlsx
@@ -884,8 +884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2304,7 +2304,7 @@
         <v>6</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>6</v>
@@ -2478,7 +2478,7 @@
         <v>6</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>6</v>

--- a/WppRegpack/TestResource/TC_RunManager.xlsx
+++ b/WppRegpack/TestResource/TC_RunManager.xlsx
@@ -884,8 +884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48:E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1579,7 +1579,7 @@
         <v>6</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>6</v>
@@ -2304,13 +2304,13 @@
         <v>6</v>
       </c>
       <c r="E49" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G49" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="H49" s="2" t="s">
         <v>6</v>

--- a/WppRegpack/TestResource/TC_RunManager.xlsx
+++ b/WppRegpack/TestResource/TC_RunManager.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\BAU\GlobalTestSuiteAutomation\WppRegpack\TestResource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\662494\Pictures\Bau_Environment\GlobalTestSuiteAutomation\WppRegpack\TestResource\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="142">
   <si>
     <t>Description</t>
   </si>
@@ -454,6 +454,9 @@
   </si>
   <si>
     <t>ReverseGL</t>
+  </si>
+  <si>
+    <t>ImportBudgetModel</t>
   </si>
 </sst>
 </file>
@@ -882,10 +885,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I56"/>
+  <dimension ref="A1:I57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48:E49"/>
+      <selection activeCell="A57" sqref="A57:I57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2519,6 +2522,35 @@
         <v>6</v>
       </c>
       <c r="I56" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I57" s="2" t="s">
         <v>2</v>
       </c>
     </row>

--- a/WppRegpack/TestResource/TC_RunManager.xlsx
+++ b/WppRegpack/TestResource/TC_RunManager.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="142">
   <si>
     <t>Description</t>
   </si>
@@ -454,6 +454,9 @@
   </si>
   <si>
     <t>ReverseGL</t>
+  </si>
+  <si>
+    <t>PurchaseOrderfromJobActivities</t>
   </si>
 </sst>
 </file>
@@ -882,10 +885,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I56"/>
+  <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48:E49"/>
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21:I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1579,19 +1582,19 @@
         <v>6</v>
       </c>
       <c r="E24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I24" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -1625,7 +1628,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>42</v>
+        <v>141</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>26</v>
@@ -1637,24 +1640,12 @@
         <v>6</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>26</v>
@@ -1683,13 +1674,13 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>6</v>
@@ -1712,13 +1703,13 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>6</v>
@@ -1741,13 +1732,13 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>6</v>
@@ -1770,13 +1761,13 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>6</v>
@@ -1799,13 +1790,13 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>6</v>
@@ -1828,13 +1819,13 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>82</v>
+        <v>37</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>6</v>
@@ -1857,13 +1848,13 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>9</v>
+        <v>82</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>6</v>
@@ -1886,13 +1877,13 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>6</v>
@@ -1915,13 +1906,13 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>6</v>
@@ -1944,13 +1935,13 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>6</v>
@@ -1973,13 +1964,13 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>6</v>
@@ -2002,13 +1993,13 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>6</v>
@@ -2031,13 +2022,13 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>6</v>
@@ -2060,13 +2051,13 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>6</v>
@@ -2089,13 +2080,13 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>6</v>
@@ -2118,13 +2109,13 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>6</v>
@@ -2147,13 +2138,13 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>6</v>
@@ -2176,13 +2167,13 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>6</v>
@@ -2205,13 +2196,13 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>6</v>
@@ -2234,13 +2225,13 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>6</v>
@@ -2263,13 +2254,13 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>6</v>
@@ -2292,13 +2283,13 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>6</v>
@@ -2310,7 +2301,7 @@
         <v>6</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H49" s="2" t="s">
         <v>6</v>
@@ -2321,13 +2312,13 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>6</v>
@@ -2339,7 +2330,7 @@
         <v>6</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>6</v>
@@ -2350,13 +2341,13 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>6</v>
@@ -2379,13 +2370,13 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>77</v>
+        <v>24</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>6</v>
@@ -2408,118 +2399,147 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B54" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C54" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D53" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I53" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
+      <c r="D54" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B55" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C55" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H54" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I54" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
+      <c r="D55" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B56" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C56" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D55" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I55" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="4" t="s">
+      <c r="D56" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B57" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="C57" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="D56" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H56" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I56" s="2" t="s">
-        <v>2</v>
+      <c r="D57" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/WppRegpack/TestResource/TC_RunManager.xlsx
+++ b/WppRegpack/TestResource/TC_RunManager.xlsx
@@ -887,8 +887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21:I22"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1536,7 +1536,7 @@
         <v>6</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">

--- a/WppRegpack/TestResource/TC_RunManager.xlsx
+++ b/WppRegpack/TestResource/TC_RunManager.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\BAU\GlobalTestSuiteAutomation\WppRegpack\TestResource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\662494\Documents\Results\Bau_Environment\GlobalTestSuiteAutomation\WppRegpack\TestResource\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="148">
   <si>
     <t>Description</t>
   </si>
@@ -457,6 +457,24 @@
   </si>
   <si>
     <t>PurchaseOrderfromJobActivities</t>
+  </si>
+  <si>
+    <t>Reverse a general ledger</t>
+  </si>
+  <si>
+    <t>CopyGL</t>
+  </si>
+  <si>
+    <t>Copy a general Ledger</t>
+  </si>
+  <si>
+    <t>CurrencyGL</t>
+  </si>
+  <si>
+    <t>CreateCurrencyJournal</t>
+  </si>
+  <si>
+    <t>Create a Currency Journal</t>
   </si>
 </sst>
 </file>
@@ -885,10 +903,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I57"/>
+  <dimension ref="A1:I60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2539,6 +2557,93 @@
         <v>6</v>
       </c>
       <c r="I57" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I60" s="2" t="s">
         <v>6</v>
       </c>
     </row>

--- a/WppRegpack/TestResource/TC_RunManager.xlsx
+++ b/WppRegpack/TestResource/TC_RunManager.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\662494\Documents\Results\Bau_Environment\GlobalTestSuiteAutomation\WppRegpack\TestResource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\BAU\GlobalTestSuiteAutomation\WppRegpack\TestResource\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="149">
   <si>
     <t>Description</t>
   </si>
@@ -475,6 +475,9 @@
   </si>
   <si>
     <t>Create a Currency Journal</t>
+  </si>
+  <si>
+    <t>InvoicePreparation</t>
   </si>
 </sst>
 </file>
@@ -903,10 +906,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I60"/>
+  <dimension ref="A1:I61"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62"/>
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2645,6 +2648,20 @@
       </c>
       <c r="I60" s="2" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/WppRegpack/TestResource/TC_RunManager.xlsx
+++ b/WppRegpack/TestResource/TC_RunManager.xlsx
@@ -908,8 +908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1545,7 +1545,7 @@
         <v>6</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>6</v>
@@ -1603,7 +1603,7 @@
         <v>6</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>6</v>
@@ -1632,7 +1632,7 @@
         <v>6</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>6</v>
@@ -1707,7 +1707,7 @@
         <v>6</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>6</v>
@@ -1765,7 +1765,7 @@
         <v>6</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>6</v>
@@ -2576,7 +2576,7 @@
       <c r="D58" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E58" s="3" t="s">
+      <c r="E58" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F58" s="2" t="s">
@@ -2605,7 +2605,7 @@
       <c r="D59" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E59" s="3" t="s">
+      <c r="E59" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F59" s="2" t="s">
@@ -2634,8 +2634,8 @@
       <c r="D60" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E60" s="3" t="s">
-        <v>2</v>
+      <c r="E60" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>6</v>

--- a/WppRegpack/TestResource/TC_RunManager.xlsx
+++ b/WppRegpack/TestResource/TC_RunManager.xlsx
@@ -908,8 +908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1545,7 +1545,7 @@
         <v>6</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>6</v>
@@ -1603,7 +1603,7 @@
         <v>6</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>6</v>
@@ -1632,7 +1632,7 @@
         <v>6</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>6</v>

--- a/WppRegpack/TestResource/TC_RunManager.xlsx
+++ b/WppRegpack/TestResource/TC_RunManager.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\BAU\GlobalTestSuiteAutomation\WppRegpack\TestResource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\662494\Documents\Results\Bau_Environment\GlobalTestSuiteAutomation\WppRegpack\TestResource\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="149">
   <si>
     <t>Description</t>
   </si>
@@ -908,8 +908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -965,11 +965,11 @@
       <c r="C2" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>2</v>
+      <c r="D2" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>6</v>
@@ -998,7 +998,7 @@
         <v>6</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>6</v>
@@ -1024,10 +1024,10 @@
         <v>128</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>6</v>
@@ -1052,11 +1052,11 @@
       <c r="C5" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>6</v>
@@ -1081,11 +1081,11 @@
       <c r="C6" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>6</v>
@@ -1110,7 +1110,7 @@
         <v>6</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>6</v>
@@ -1135,11 +1135,11 @@
       <c r="C8" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>6</v>
@@ -1164,11 +1164,11 @@
       <c r="C9" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>6</v>
@@ -1197,7 +1197,7 @@
         <v>6</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>6</v>
@@ -1222,11 +1222,11 @@
       <c r="C11" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>6</v>
@@ -1251,11 +1251,11 @@
       <c r="C12" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>6</v>
@@ -1280,11 +1280,11 @@
       <c r="C13" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>6</v>
@@ -1309,11 +1309,11 @@
       <c r="C14" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>6</v>
@@ -1338,11 +1338,11 @@
       <c r="C15" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>6</v>
@@ -1367,11 +1367,11 @@
       <c r="C16" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>6</v>
@@ -1396,11 +1396,11 @@
       <c r="C17" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>6</v>
@@ -1425,11 +1425,11 @@
       <c r="C18" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>6</v>
@@ -1454,11 +1454,11 @@
       <c r="C19" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>6</v>
@@ -1483,11 +1483,11 @@
       <c r="C20" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>6</v>
@@ -1512,11 +1512,11 @@
       <c r="C21" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>6</v>
@@ -1541,11 +1541,11 @@
       <c r="C22" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>6</v>
@@ -1570,11 +1570,11 @@
       <c r="C23" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>6</v>
@@ -1599,11 +1599,11 @@
       <c r="C24" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>6</v>
@@ -1628,11 +1628,11 @@
       <c r="C25" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>6</v>
@@ -1657,11 +1657,23 @@
       <c r="C26" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>2</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -1674,11 +1686,11 @@
       <c r="C27" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>6</v>
@@ -1703,7 +1715,7 @@
       <c r="C28" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E28" s="2" t="s">
@@ -1732,11 +1744,11 @@
       <c r="C29" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>6</v>
@@ -1761,7 +1773,7 @@
       <c r="C30" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E30" s="2" t="s">
@@ -1790,11 +1802,11 @@
       <c r="C31" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D31" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>6</v>
@@ -1819,11 +1831,11 @@
       <c r="C32" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>6</v>
@@ -1848,11 +1860,11 @@
       <c r="C33" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D33" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>6</v>
@@ -1877,11 +1889,11 @@
       <c r="C34" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D34" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>6</v>
@@ -1906,11 +1918,11 @@
       <c r="C35" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D35" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>6</v>
@@ -1935,11 +1947,11 @@
       <c r="C36" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D36" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>6</v>
@@ -1964,11 +1976,11 @@
       <c r="C37" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D37" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>6</v>
@@ -1993,11 +2005,11 @@
       <c r="C38" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D38" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>6</v>
@@ -2022,11 +2034,11 @@
       <c r="C39" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="D39" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>6</v>
@@ -2051,11 +2063,11 @@
       <c r="C40" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D40" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>6</v>
@@ -2080,11 +2092,11 @@
       <c r="C41" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D41" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>6</v>
@@ -2109,11 +2121,11 @@
       <c r="C42" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="D42" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>6</v>
@@ -2138,11 +2150,11 @@
       <c r="C43" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="D43" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>6</v>
@@ -2167,11 +2179,11 @@
       <c r="C44" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D44" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>6</v>
@@ -2196,11 +2208,11 @@
       <c r="C45" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="D45" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>6</v>
@@ -2225,11 +2237,11 @@
       <c r="C46" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="D46" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>6</v>
@@ -2254,11 +2266,11 @@
       <c r="C47" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="D47" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>6</v>
@@ -2283,11 +2295,11 @@
       <c r="C48" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="D48" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>6</v>
@@ -2312,11 +2324,11 @@
       <c r="C49" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="D49" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>6</v>
@@ -2341,11 +2353,11 @@
       <c r="C50" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="D50" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>6</v>
@@ -2370,11 +2382,11 @@
       <c r="C51" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="D51" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>6</v>
@@ -2399,11 +2411,11 @@
       <c r="C52" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="D52" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>6</v>
@@ -2428,11 +2440,11 @@
       <c r="C53" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="D53" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>6</v>
@@ -2457,11 +2469,11 @@
       <c r="C54" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="D54" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>6</v>
@@ -2490,7 +2502,7 @@
         <v>6</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>6</v>
@@ -2515,11 +2527,11 @@
       <c r="C56" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="D56" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>6</v>
@@ -2544,11 +2556,11 @@
       <c r="C57" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="D57" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>6</v>
@@ -2573,11 +2585,11 @@
       <c r="C58" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="D58" s="2" t="s">
+      <c r="D58" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>6</v>
@@ -2602,11 +2614,11 @@
       <c r="C59" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="D59" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>6</v>
@@ -2631,11 +2643,11 @@
       <c r="C60" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="D60" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>6</v>
@@ -2660,8 +2672,23 @@
       <c r="C61" s="2" t="s">
         <v>148</v>
       </c>
+      <c r="D61" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="E61" s="2" t="s">
         <v>2</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/WppRegpack/TestResource/TC_RunManager.xlsx
+++ b/WppRegpack/TestResource/TC_RunManager.xlsx
@@ -908,8 +908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23:E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -968,8 +968,8 @@
       <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>2</v>
+      <c r="E2" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>6</v>
@@ -997,8 +997,8 @@
       <c r="D3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>2</v>
+      <c r="E3" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>6</v>
@@ -1026,8 +1026,8 @@
       <c r="D4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>2</v>
+      <c r="E4" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>6</v>
@@ -1055,8 +1055,8 @@
       <c r="D5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>2</v>
+      <c r="E5" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>6</v>
@@ -1084,8 +1084,8 @@
       <c r="D6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>2</v>
+      <c r="E6" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>6</v>
@@ -1109,8 +1109,8 @@
       <c r="D7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>2</v>
+      <c r="E7" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>6</v>
@@ -1138,8 +1138,8 @@
       <c r="D8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>2</v>
+      <c r="E8" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>6</v>
@@ -1167,8 +1167,8 @@
       <c r="D9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>2</v>
+      <c r="E9" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>6</v>
@@ -1196,8 +1196,8 @@
       <c r="D10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>2</v>
+      <c r="E10" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>6</v>
@@ -1225,8 +1225,8 @@
       <c r="D11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>2</v>
+      <c r="E11" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>6</v>
@@ -1254,8 +1254,8 @@
       <c r="D12" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>2</v>
+      <c r="E12" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>6</v>
@@ -1283,8 +1283,8 @@
       <c r="D13" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>2</v>
+      <c r="E13" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>6</v>
@@ -1312,8 +1312,8 @@
       <c r="D14" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>2</v>
+      <c r="E14" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>6</v>
@@ -1341,8 +1341,8 @@
       <c r="D15" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>2</v>
+      <c r="E15" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>6</v>
@@ -1370,8 +1370,8 @@
       <c r="D16" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>2</v>
+      <c r="E16" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>6</v>
@@ -1399,8 +1399,8 @@
       <c r="D17" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>2</v>
+      <c r="E17" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>6</v>
@@ -1428,8 +1428,8 @@
       <c r="D18" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>2</v>
+      <c r="E18" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>6</v>
@@ -1457,8 +1457,8 @@
       <c r="D19" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>2</v>
+      <c r="E19" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>6</v>
@@ -1486,8 +1486,8 @@
       <c r="D20" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>2</v>
+      <c r="E20" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>6</v>
@@ -1515,8 +1515,8 @@
       <c r="D21" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>2</v>
+      <c r="E21" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>6</v>
@@ -1573,8 +1573,8 @@
       <c r="D23" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>2</v>
+      <c r="E23" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>6</v>
@@ -1602,8 +1602,8 @@
       <c r="D24" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>2</v>
+      <c r="E24" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>6</v>
@@ -1631,8 +1631,8 @@
       <c r="D25" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>2</v>
+      <c r="E25" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>6</v>
@@ -1660,8 +1660,8 @@
       <c r="D26" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E26" s="2" t="s">
-        <v>2</v>
+      <c r="E26" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>6</v>
@@ -1689,8 +1689,8 @@
       <c r="D27" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E27" s="2" t="s">
-        <v>2</v>
+      <c r="E27" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>6</v>
@@ -1718,8 +1718,8 @@
       <c r="D28" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E28" s="2" t="s">
-        <v>2</v>
+      <c r="E28" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>6</v>
@@ -1747,8 +1747,8 @@
       <c r="D29" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E29" s="2" t="s">
-        <v>2</v>
+      <c r="E29" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>6</v>
@@ -1776,8 +1776,8 @@
       <c r="D30" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E30" s="2" t="s">
-        <v>2</v>
+      <c r="E30" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>6</v>
@@ -1805,8 +1805,8 @@
       <c r="D31" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E31" s="2" t="s">
-        <v>2</v>
+      <c r="E31" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>6</v>
@@ -1834,8 +1834,8 @@
       <c r="D32" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E32" s="2" t="s">
-        <v>2</v>
+      <c r="E32" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>6</v>
@@ -1863,8 +1863,8 @@
       <c r="D33" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E33" s="2" t="s">
-        <v>2</v>
+      <c r="E33" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>6</v>
@@ -1892,8 +1892,8 @@
       <c r="D34" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E34" s="2" t="s">
-        <v>2</v>
+      <c r="E34" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>6</v>
@@ -1921,8 +1921,8 @@
       <c r="D35" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E35" s="2" t="s">
-        <v>2</v>
+      <c r="E35" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>6</v>
@@ -1950,8 +1950,8 @@
       <c r="D36" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E36" s="2" t="s">
-        <v>2</v>
+      <c r="E36" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>6</v>
@@ -1979,8 +1979,8 @@
       <c r="D37" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E37" s="2" t="s">
-        <v>2</v>
+      <c r="E37" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>6</v>
@@ -2008,8 +2008,8 @@
       <c r="D38" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E38" s="2" t="s">
-        <v>2</v>
+      <c r="E38" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>6</v>
@@ -2037,8 +2037,8 @@
       <c r="D39" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E39" s="2" t="s">
-        <v>2</v>
+      <c r="E39" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>6</v>
@@ -2066,8 +2066,8 @@
       <c r="D40" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E40" s="2" t="s">
-        <v>2</v>
+      <c r="E40" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>6</v>
@@ -2095,8 +2095,8 @@
       <c r="D41" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E41" s="2" t="s">
-        <v>2</v>
+      <c r="E41" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>6</v>
@@ -2124,8 +2124,8 @@
       <c r="D42" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E42" s="2" t="s">
-        <v>2</v>
+      <c r="E42" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>6</v>
@@ -2153,8 +2153,8 @@
       <c r="D43" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E43" s="2" t="s">
-        <v>2</v>
+      <c r="E43" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>6</v>
@@ -2182,8 +2182,8 @@
       <c r="D44" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E44" s="2" t="s">
-        <v>2</v>
+      <c r="E44" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>6</v>
@@ -2211,8 +2211,8 @@
       <c r="D45" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E45" s="2" t="s">
-        <v>2</v>
+      <c r="E45" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>6</v>
@@ -2240,8 +2240,8 @@
       <c r="D46" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E46" s="2" t="s">
-        <v>2</v>
+      <c r="E46" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>6</v>
@@ -2269,8 +2269,8 @@
       <c r="D47" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E47" s="2" t="s">
-        <v>2</v>
+      <c r="E47" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>6</v>
@@ -2298,8 +2298,8 @@
       <c r="D48" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E48" s="2" t="s">
-        <v>2</v>
+      <c r="E48" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>6</v>
@@ -2327,8 +2327,8 @@
       <c r="D49" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E49" s="2" t="s">
-        <v>2</v>
+      <c r="E49" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>6</v>
@@ -2356,8 +2356,8 @@
       <c r="D50" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E50" s="2" t="s">
-        <v>2</v>
+      <c r="E50" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>6</v>
@@ -2385,8 +2385,8 @@
       <c r="D51" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E51" s="2" t="s">
-        <v>2</v>
+      <c r="E51" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>6</v>
@@ -2414,8 +2414,8 @@
       <c r="D52" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E52" s="2" t="s">
-        <v>2</v>
+      <c r="E52" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>6</v>
@@ -2443,8 +2443,8 @@
       <c r="D53" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E53" s="2" t="s">
-        <v>2</v>
+      <c r="E53" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>6</v>
@@ -2472,8 +2472,8 @@
       <c r="D54" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E54" s="2" t="s">
-        <v>2</v>
+      <c r="E54" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>6</v>
@@ -2501,8 +2501,8 @@
       <c r="D55" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E55" s="2" t="s">
-        <v>2</v>
+      <c r="E55" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>6</v>
@@ -2530,8 +2530,8 @@
       <c r="D56" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E56" s="2" t="s">
-        <v>2</v>
+      <c r="E56" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>6</v>
@@ -2559,8 +2559,8 @@
       <c r="D57" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E57" s="2" t="s">
-        <v>2</v>
+      <c r="E57" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>6</v>
@@ -2588,8 +2588,8 @@
       <c r="D58" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E58" s="2" t="s">
-        <v>2</v>
+      <c r="E58" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>6</v>
@@ -2617,8 +2617,8 @@
       <c r="D59" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E59" s="2" t="s">
-        <v>2</v>
+      <c r="E59" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>6</v>
@@ -2646,8 +2646,8 @@
       <c r="D60" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E60" s="2" t="s">
-        <v>2</v>
+      <c r="E60" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>6</v>
@@ -2675,8 +2675,8 @@
       <c r="D61" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E61" s="2" t="s">
-        <v>2</v>
+      <c r="E61" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>6</v>

--- a/WppRegpack/TestResource/TC_RunManager.xlsx
+++ b/WppRegpack/TestResource/TC_RunManager.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\662494\Documents\Results\Bau_Environment\GlobalTestSuiteAutomation\WppRegpack\TestResource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\BAU\GlobalTestSuiteAutomation\WppRegpack\TestResource\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="160">
   <si>
     <t>Description</t>
   </si>
@@ -478,6 +478,39 @@
   </si>
   <si>
     <t>InvoicePreparation</t>
+  </si>
+  <si>
+    <t>InvoiceLookups</t>
+  </si>
+  <si>
+    <t>InvoiceLookUps</t>
+  </si>
+  <si>
+    <t>Print Job Invoice</t>
+  </si>
+  <si>
+    <t>InvoiceOnAccount</t>
+  </si>
+  <si>
+    <t>InvoicingFromBudget</t>
+  </si>
+  <si>
+    <t>JobInvoiceAllocation_WIP</t>
+  </si>
+  <si>
+    <t>InvoiceAllocation</t>
+  </si>
+  <si>
+    <t>MLY_Regression</t>
+  </si>
+  <si>
+    <t>MLY_Critical Regression</t>
+  </si>
+  <si>
+    <t>SPN_Regression</t>
+  </si>
+  <si>
+    <t>SPN_Critical Regression</t>
   </si>
 </sst>
 </file>
@@ -906,10 +939,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I61"/>
+  <dimension ref="A1:M65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23:E61"/>
+    <sheetView tabSelected="1" topLeftCell="E19" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -923,10 +956,14 @@
     <col min="7" max="7" width="22" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
+    <col min="10" max="10" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -954,8 +991,20 @@
       <c r="I1" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>134</v>
       </c>
@@ -965,10 +1014,10 @@
       <c r="C2" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="2" t="s">
@@ -983,8 +1032,20 @@
       <c r="I2" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>125</v>
       </c>
@@ -997,7 +1058,7 @@
       <c r="D3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F3" s="2" t="s">
@@ -1012,8 +1073,20 @@
       <c r="I3" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>127</v>
       </c>
@@ -1024,9 +1097,9 @@
         <v>128</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F4" s="2" t="s">
@@ -1041,8 +1114,20 @@
       <c r="I4" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>120</v>
       </c>
@@ -1052,10 +1137,10 @@
       <c r="C5" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="3" t="s">
+      <c r="D5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F5" s="2" t="s">
@@ -1070,8 +1155,20 @@
       <c r="I5" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>118</v>
       </c>
@@ -1081,10 +1178,10 @@
       <c r="C6" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="3" t="s">
+      <c r="D6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F6" s="2" t="s">
@@ -1099,8 +1196,20 @@
       <c r="I6" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>129</v>
       </c>
@@ -1109,7 +1218,7 @@
       <c r="D7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F7" s="2" t="s">
@@ -1124,8 +1233,20 @@
       <c r="I7" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>122</v>
       </c>
@@ -1135,10 +1256,10 @@
       <c r="C8" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="3" t="s">
+      <c r="D8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F8" s="2" t="s">
@@ -1153,8 +1274,20 @@
       <c r="I8" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>123</v>
       </c>
@@ -1164,10 +1297,10 @@
       <c r="C9" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="3" t="s">
+      <c r="D9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F9" s="2" t="s">
@@ -1182,8 +1315,20 @@
       <c r="I9" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>130</v>
       </c>
@@ -1196,7 +1341,7 @@
       <c r="D10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F10" s="2" t="s">
@@ -1211,8 +1356,20 @@
       <c r="I10" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>111</v>
       </c>
@@ -1222,10 +1379,10 @@
       <c r="C11" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="3" t="s">
+      <c r="D11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F11" s="2" t="s">
@@ -1240,8 +1397,20 @@
       <c r="I11" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>110</v>
       </c>
@@ -1251,10 +1420,10 @@
       <c r="C12" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="3" t="s">
+      <c r="D12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F12" s="2" t="s">
@@ -1269,8 +1438,20 @@
       <c r="I12" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>101</v>
       </c>
@@ -1280,10 +1461,10 @@
       <c r="C13" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="3" t="s">
+      <c r="D13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F13" s="2" t="s">
@@ -1298,8 +1479,20 @@
       <c r="I13" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>105</v>
       </c>
@@ -1309,10 +1502,10 @@
       <c r="C14" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="3" t="s">
+      <c r="D14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F14" s="2" t="s">
@@ -1327,8 +1520,20 @@
       <c r="I14" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>103</v>
       </c>
@@ -1338,10 +1543,10 @@
       <c r="C15" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="3" t="s">
+      <c r="D15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F15" s="2" t="s">
@@ -1356,8 +1561,20 @@
       <c r="I15" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>107</v>
       </c>
@@ -1367,10 +1584,10 @@
       <c r="C16" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="3" t="s">
+      <c r="D16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F16" s="2" t="s">
@@ -1385,8 +1602,20 @@
       <c r="I16" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>94</v>
       </c>
@@ -1396,10 +1625,10 @@
       <c r="C17" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="3" t="s">
+      <c r="D17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F17" s="2" t="s">
@@ -1414,8 +1643,20 @@
       <c r="I17" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>93</v>
       </c>
@@ -1425,10 +1666,10 @@
       <c r="C18" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" s="3" t="s">
+      <c r="D18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F18" s="2" t="s">
@@ -1443,8 +1684,20 @@
       <c r="I18" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>132</v>
       </c>
@@ -1454,10 +1707,10 @@
       <c r="C19" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="3" t="s">
+      <c r="D19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F19" s="2" t="s">
@@ -1472,8 +1725,20 @@
       <c r="I19" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>109</v>
       </c>
@@ -1483,10 +1748,10 @@
       <c r="C20" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" s="3" t="s">
+      <c r="D20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F20" s="2" t="s">
@@ -1501,8 +1766,20 @@
       <c r="I20" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>99</v>
       </c>
@@ -1512,10 +1789,10 @@
       <c r="C21" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" s="3" t="s">
+      <c r="D21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F21" s="2" t="s">
@@ -1530,8 +1807,20 @@
       <c r="I21" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>7</v>
       </c>
@@ -1541,11 +1830,11 @@
       <c r="C22" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>6</v>
@@ -1557,10 +1846,22 @@
         <v>6</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>78</v>
       </c>
@@ -1570,10 +1871,10 @@
       <c r="C23" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23" s="3" t="s">
+      <c r="D23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F23" s="2" t="s">
@@ -1588,8 +1889,20 @@
       <c r="I23" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>11</v>
       </c>
@@ -1599,10 +1912,10 @@
       <c r="C24" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E24" s="3" t="s">
+      <c r="D24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F24" s="2" t="s">
@@ -1615,10 +1928,22 @@
         <v>6</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>18</v>
       </c>
@@ -1628,10 +1953,10 @@
       <c r="C25" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E25" s="3" t="s">
+      <c r="D25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F25" s="2" t="s">
@@ -1646,8 +1971,20 @@
       <c r="I25" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>141</v>
       </c>
@@ -1657,16 +1994,10 @@
       <c r="C26" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G26" s="2" t="s">
+      <c r="D26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H26" s="2" t="s">
@@ -1675,8 +2006,20 @@
       <c r="I26" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>42</v>
       </c>
@@ -1686,10 +2029,10 @@
       <c r="C27" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E27" s="3" t="s">
+      <c r="D27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F27" s="2" t="s">
@@ -1704,8 +2047,20 @@
       <c r="I27" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>26</v>
       </c>
@@ -1715,10 +2070,10 @@
       <c r="C28" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D28" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E28" s="3" t="s">
+      <c r="D28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F28" s="2" t="s">
@@ -1733,8 +2088,20 @@
       <c r="I28" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>31</v>
       </c>
@@ -1744,10 +2111,10 @@
       <c r="C29" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E29" s="3" t="s">
+      <c r="D29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F29" s="2" t="s">
@@ -1762,8 +2129,20 @@
       <c r="I29" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>43</v>
       </c>
@@ -1773,10 +2152,10 @@
       <c r="C30" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D30" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E30" s="3" t="s">
+      <c r="D30" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F30" s="2" t="s">
@@ -1791,8 +2170,20 @@
       <c r="I30" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J30" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>29</v>
       </c>
@@ -1802,10 +2193,10 @@
       <c r="C31" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D31" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E31" s="3" t="s">
+      <c r="D31" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F31" s="2" t="s">
@@ -1820,8 +2211,20 @@
       <c r="I31" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J31" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>33</v>
       </c>
@@ -1831,10 +2234,10 @@
       <c r="C32" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E32" s="3" t="s">
+      <c r="D32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F32" s="2" t="s">
@@ -1849,8 +2252,20 @@
       <c r="I32" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>36</v>
       </c>
@@ -1860,10 +2275,10 @@
       <c r="C33" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E33" s="3" t="s">
+      <c r="D33" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F33" s="2" t="s">
@@ -1878,8 +2293,20 @@
       <c r="I33" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J33" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>81</v>
       </c>
@@ -1889,10 +2316,10 @@
       <c r="C34" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D34" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E34" s="3" t="s">
+      <c r="D34" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F34" s="2" t="s">
@@ -1907,8 +2334,20 @@
       <c r="I34" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J34" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>12</v>
       </c>
@@ -1918,10 +2357,10 @@
       <c r="C35" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E35" s="3" t="s">
+      <c r="D35" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F35" s="2" t="s">
@@ -1936,8 +2375,20 @@
       <c r="I35" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J35" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>40</v>
       </c>
@@ -1947,10 +2398,10 @@
       <c r="C36" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D36" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E36" s="3" t="s">
+      <c r="D36" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F36" s="2" t="s">
@@ -1965,8 +2416,20 @@
       <c r="I36" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J36" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>47</v>
       </c>
@@ -1976,10 +2439,10 @@
       <c r="C37" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D37" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E37" s="3" t="s">
+      <c r="D37" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F37" s="2" t="s">
@@ -1994,8 +2457,20 @@
       <c r="I37" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J37" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>23</v>
       </c>
@@ -2005,10 +2480,10 @@
       <c r="C38" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D38" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E38" s="3" t="s">
+      <c r="D38" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F38" s="2" t="s">
@@ -2023,8 +2498,20 @@
       <c r="I38" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J38" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>62</v>
       </c>
@@ -2034,10 +2521,10 @@
       <c r="C39" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D39" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E39" s="3" t="s">
+      <c r="D39" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F39" s="2" t="s">
@@ -2052,8 +2539,20 @@
       <c r="I39" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J39" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>64</v>
       </c>
@@ -2063,10 +2562,10 @@
       <c r="C40" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D40" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E40" s="3" t="s">
+      <c r="D40" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F40" s="2" t="s">
@@ -2081,8 +2580,20 @@
       <c r="I40" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J40" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M40" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>70</v>
       </c>
@@ -2092,10 +2603,10 @@
       <c r="C41" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E41" s="3" t="s">
+      <c r="D41" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F41" s="2" t="s">
@@ -2110,8 +2621,20 @@
       <c r="I41" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J41" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M41" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>72</v>
       </c>
@@ -2121,10 +2644,10 @@
       <c r="C42" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E42" s="3" t="s">
+      <c r="D42" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F42" s="2" t="s">
@@ -2139,8 +2662,20 @@
       <c r="I42" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J42" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M42" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>74</v>
       </c>
@@ -2150,10 +2685,10 @@
       <c r="C43" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E43" s="3" t="s">
+      <c r="D43" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F43" s="2" t="s">
@@ -2168,8 +2703,20 @@
       <c r="I43" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J43" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M43" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>68</v>
       </c>
@@ -2179,10 +2726,10 @@
       <c r="C44" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E44" s="3" t="s">
+      <c r="D44" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F44" s="2" t="s">
@@ -2197,8 +2744,20 @@
       <c r="I44" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J44" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M44" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>50</v>
       </c>
@@ -2208,10 +2767,10 @@
       <c r="C45" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E45" s="3" t="s">
+      <c r="D45" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F45" s="2" t="s">
@@ -2226,8 +2785,20 @@
       <c r="I45" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J45" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M45" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>53</v>
       </c>
@@ -2237,10 +2808,10 @@
       <c r="C46" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E46" s="3" t="s">
+      <c r="D46" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F46" s="2" t="s">
@@ -2255,8 +2826,20 @@
       <c r="I46" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J46" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M46" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>56</v>
       </c>
@@ -2266,10 +2849,10 @@
       <c r="C47" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E47" s="3" t="s">
+      <c r="D47" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F47" s="2" t="s">
@@ -2284,8 +2867,20 @@
       <c r="I47" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J47" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M47" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>66</v>
       </c>
@@ -2295,10 +2890,10 @@
       <c r="C48" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E48" s="3" t="s">
+      <c r="D48" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F48" s="2" t="s">
@@ -2313,8 +2908,20 @@
       <c r="I48" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J48" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M48" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>19</v>
       </c>
@@ -2324,10 +2931,10 @@
       <c r="C49" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E49" s="3" t="s">
+      <c r="D49" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F49" s="2" t="s">
@@ -2342,8 +2949,20 @@
       <c r="I49" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J49" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M49" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>21</v>
       </c>
@@ -2353,10 +2972,10 @@
       <c r="C50" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D50" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E50" s="3" t="s">
+      <c r="D50" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F50" s="2" t="s">
@@ -2371,8 +2990,20 @@
       <c r="I50" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J50" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L50" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M50" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>59</v>
       </c>
@@ -2382,10 +3013,10 @@
       <c r="C51" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D51" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E51" s="3" t="s">
+      <c r="D51" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F51" s="2" t="s">
@@ -2400,8 +3031,20 @@
       <c r="I51" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J51" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L51" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M51" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>24</v>
       </c>
@@ -2411,10 +3054,10 @@
       <c r="C52" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E52" s="3" t="s">
+      <c r="D52" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F52" s="2" t="s">
@@ -2429,8 +3072,20 @@
       <c r="I52" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J52" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L52" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M52" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>76</v>
       </c>
@@ -2440,10 +3095,10 @@
       <c r="C53" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D53" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E53" s="3" t="s">
+      <c r="D53" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F53" s="2" t="s">
@@ -2458,8 +3113,20 @@
       <c r="I53" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J53" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L53" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M53" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>79</v>
       </c>
@@ -2469,10 +3136,10 @@
       <c r="C54" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E54" s="3" t="s">
+      <c r="D54" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F54" s="2" t="s">
@@ -2487,8 +3154,20 @@
       <c r="I54" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J54" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L54" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M54" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>122</v>
       </c>
@@ -2501,7 +3180,7 @@
       <c r="D55" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E55" s="3" t="s">
+      <c r="E55" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F55" s="2" t="s">
@@ -2516,8 +3195,20 @@
       <c r="I55" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J55" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L55" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M55" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>137</v>
       </c>
@@ -2527,10 +3218,10 @@
       <c r="C56" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D56" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E56" s="3" t="s">
+      <c r="D56" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F56" s="2" t="s">
@@ -2545,8 +3236,20 @@
       <c r="I56" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J56" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L56" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M56" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>139</v>
       </c>
@@ -2556,10 +3259,10 @@
       <c r="C57" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E57" s="3" t="s">
+      <c r="D57" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F57" s="2" t="s">
@@ -2574,8 +3277,20 @@
       <c r="I57" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J57" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L57" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M57" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>140</v>
       </c>
@@ -2585,10 +3300,10 @@
       <c r="C58" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E58" s="3" t="s">
+      <c r="D58" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F58" s="2" t="s">
@@ -2603,8 +3318,20 @@
       <c r="I58" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J58" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L58" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M58" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>143</v>
       </c>
@@ -2614,10 +3341,10 @@
       <c r="C59" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E59" s="3" t="s">
+      <c r="D59" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F59" s="2" t="s">
@@ -2632,8 +3359,20 @@
       <c r="I59" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J59" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L59" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M59" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>145</v>
       </c>
@@ -2643,10 +3382,10 @@
       <c r="C60" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E60" s="3" t="s">
+      <c r="D60" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F60" s="2" t="s">
@@ -2661,8 +3400,20 @@
       <c r="I60" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J60" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K60" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L60" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M60" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>148</v>
       </c>
@@ -2672,22 +3423,108 @@
       <c r="C61" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="D61" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G61" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H61" s="2" t="s">
+      <c r="E61" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I61" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K61" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M61" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K62" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M62" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K63" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M63" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K64" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M64" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K65" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M65" s="2" t="s">
         <v>6</v>
       </c>
     </row>

--- a/WppRegpack/TestResource/TC_RunManager.xlsx
+++ b/WppRegpack/TestResource/TC_RunManager.xlsx
@@ -864,7 +864,7 @@
   <dimension ref="A1:K64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="E61" sqref="E61"/>
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/WppRegpack/TestResource/TC_RunManager.xlsx
+++ b/WppRegpack/TestResource/TC_RunManager.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="136">
   <si>
     <t>Description</t>
   </si>
@@ -433,6 +433,12 @@
   </si>
   <si>
     <t>WriteOff</t>
+  </si>
+  <si>
+    <t>JobInvoiceAllocation_WIP</t>
+  </si>
+  <si>
+    <t>InvoiceAllocation</t>
   </si>
 </sst>
 </file>
@@ -861,10 +867,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K64"/>
+  <dimension ref="A1:K65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C60" sqref="C60"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="E66" sqref="E66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3016,6 +3022,20 @@
         <v>129</v>
       </c>
       <c r="E64" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>6</v>
       </c>
     </row>

--- a/WppRegpack/TestResource/TC_RunManager.xlsx
+++ b/WppRegpack/TestResource/TC_RunManager.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\BAU\GlobalTestSuiteAutomation\WppRegpack\TestResource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Music\Demo\GlobalTestSuiteAutomation\WppRegpack\TestResource\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="143">
   <si>
     <t>Description</t>
   </si>
@@ -336,9 +336,6 @@
     <t>CreateGlobalProduct</t>
   </si>
   <si>
-    <t xml:space="preserve">CreateCompanyProduct                 CreateCompanyProduct                 Create Company </t>
-  </si>
-  <si>
     <t>AmendGlobalProduct</t>
   </si>
   <si>
@@ -439,6 +436,30 @@
   </si>
   <si>
     <t>InvoiceAllocation</t>
+  </si>
+  <si>
+    <t>Jenkins Name</t>
+  </si>
+  <si>
+    <t>Invoice Preparation - Transfer Budget to Invoice On Account</t>
+  </si>
+  <si>
+    <t>Invoicing from Budget</t>
+  </si>
+  <si>
+    <t>Invoice on Account</t>
+  </si>
+  <si>
+    <t>Partial Invoicing Write Off</t>
+  </si>
+  <si>
+    <t>Job Invoice Allocation (With WIP)</t>
+  </si>
+  <si>
+    <t>CreateCompanyProduct</t>
+  </si>
+  <si>
+    <t>CreateProduct</t>
   </si>
 </sst>
 </file>
@@ -867,85 +888,89 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K65"/>
+  <dimension ref="A1:L65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="E66" sqref="E66"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="55.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="51.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="H2" s="2" t="s">
         <v>6</v>
       </c>
@@ -958,21 +983,24 @@
       <c r="K2" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>99</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="C3" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F3" s="2" t="s">
@@ -993,23 +1021,26 @@
       <c r="K3" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>100</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="C4" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="F4" s="2" t="s">
         <v>6</v>
       </c>
@@ -1028,19 +1059,22 @@
       <c r="K4" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L4" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="D5" s="2" t="s">
-        <v>6</v>
+        <v>119</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>6</v>
@@ -1063,19 +1097,22 @@
       <c r="K5" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L5" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>92</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="D6" s="2" t="s">
-        <v>6</v>
+        <v>119</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>6</v>
@@ -1098,19 +1135,24 @@
       <c r="K6" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L6" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>101</v>
-      </c>
-      <c r="B7"/>
+        <v>141</v>
+      </c>
+      <c r="B7" t="s">
+        <v>141</v>
+      </c>
       <c r="C7" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F7" s="2" t="s">
@@ -1131,8 +1173,11 @@
       <c r="K7" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L7" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>96</v>
       </c>
@@ -1140,10 +1185,10 @@
         <v>96</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>6</v>
+        <v>119</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>6</v>
@@ -1166,19 +1211,22 @@
       <c r="K8" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L8" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>97</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="D9" s="2" t="s">
-        <v>6</v>
+        <v>119</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>6</v>
@@ -1201,21 +1249,24 @@
       <c r="K9" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L9" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F10" s="2" t="s">
@@ -1236,8 +1287,11 @@
       <c r="K10" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L10" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>85</v>
       </c>
@@ -1245,10 +1299,10 @@
         <v>85</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>6</v>
+        <v>119</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>6</v>
@@ -1271,8 +1325,11 @@
       <c r="K11" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L11" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>84</v>
       </c>
@@ -1280,10 +1337,10 @@
         <v>84</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>120</v>
+        <v>84</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>6</v>
+        <v>119</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>6</v>
@@ -1306,19 +1363,22 @@
       <c r="K12" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L12" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>75</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="D13" s="2" t="s">
-        <v>6</v>
+        <v>119</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>6</v>
@@ -1341,19 +1401,22 @@
       <c r="K13" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L13" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="D14" s="2" t="s">
-        <v>6</v>
+        <v>119</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>6</v>
@@ -1376,19 +1439,22 @@
       <c r="K14" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L14" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>77</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="D15" s="2" t="s">
-        <v>6</v>
+        <v>119</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>6</v>
@@ -1411,19 +1477,22 @@
       <c r="K15" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L15" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="D16" s="2" t="s">
-        <v>6</v>
+        <v>119</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>6</v>
@@ -1446,19 +1515,22 @@
       <c r="K16" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L16" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>71</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="D17" s="2" t="s">
-        <v>6</v>
+        <v>119</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>6</v>
@@ -1481,55 +1553,61 @@
       <c r="K17" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L17" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>70</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="D18" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="E19" s="2" t="s">
         <v>6</v>
       </c>
@@ -1551,8 +1629,11 @@
       <c r="K19" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L19" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>83</v>
       </c>
@@ -1560,10 +1641,10 @@
         <v>83</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>121</v>
+        <v>83</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>6</v>
+        <v>120</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>6</v>
@@ -1586,8 +1667,11 @@
       <c r="K20" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L20" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>74</v>
       </c>
@@ -1595,10 +1679,10 @@
         <v>74</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>121</v>
+        <v>74</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>6</v>
+        <v>120</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>6</v>
@@ -1621,19 +1705,22 @@
       <c r="K21" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L21" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="D22" s="2" t="s">
-        <v>6</v>
+        <v>121</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>6</v>
@@ -1654,21 +1741,24 @@
         <v>6</v>
       </c>
       <c r="K22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L22" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="D23" s="2" t="s">
-        <v>6</v>
+        <v>121</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>6</v>
@@ -1691,19 +1781,22 @@
       <c r="K23" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L23" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="D24" s="2" t="s">
-        <v>6</v>
+        <v>121</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>6</v>
@@ -1724,10 +1817,13 @@
         <v>6</v>
       </c>
       <c r="K24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L24" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>14</v>
       </c>
@@ -1735,10 +1831,10 @@
         <v>14</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>6</v>
+        <v>121</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>6</v>
@@ -1747,11 +1843,11 @@
         <v>6</v>
       </c>
       <c r="G25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H25" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H25" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="I25" s="2" t="s">
         <v>6</v>
       </c>
@@ -1759,33 +1855,39 @@
         <v>6</v>
       </c>
       <c r="K25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L25" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="D26" s="2" t="s">
-        <v>6</v>
+        <v>121</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G26" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G26" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H26" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>21</v>
       </c>
@@ -1793,10 +1895,10 @@
         <v>21</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>6</v>
+        <v>21</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>121</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>6</v>
@@ -1804,22 +1906,25 @@
       <c r="G27" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K27" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="D28" s="2" t="s">
-        <v>6</v>
+        <v>121</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>6</v>
@@ -1830,11 +1935,14 @@
       <c r="G28" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K28" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>30</v>
       </c>
@@ -1842,10 +1950,10 @@
         <v>30</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>122</v>
+        <v>30</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>6</v>
+        <v>121</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>6</v>
@@ -1868,8 +1976,11 @@
       <c r="K29" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L29" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>24</v>
       </c>
@@ -1877,10 +1988,10 @@
         <v>24</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>122</v>
+        <v>24</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>6</v>
+        <v>121</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>6</v>
@@ -1903,19 +2014,22 @@
       <c r="K30" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L30" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="D31" s="2" t="s">
-        <v>6</v>
+        <v>122</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>6</v>
@@ -1938,19 +2052,22 @@
       <c r="K31" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L31" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="D32" s="2" t="s">
-        <v>6</v>
+        <v>122</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>6</v>
@@ -1973,19 +2090,22 @@
       <c r="K32" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L32" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="D33" s="2" t="s">
-        <v>6</v>
+        <v>122</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>6</v>
@@ -2008,19 +2128,22 @@
       <c r="K33" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L33" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>59</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="D34" s="2" t="s">
-        <v>6</v>
+        <v>122</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>6</v>
@@ -2043,19 +2166,22 @@
       <c r="K34" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L34" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="D35" s="2" t="s">
-        <v>6</v>
+        <v>123</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>6</v>
@@ -2078,19 +2204,22 @@
       <c r="K35" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L35" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="D36" s="2" t="s">
-        <v>6</v>
+        <v>123</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>6</v>
@@ -2113,8 +2242,11 @@
       <c r="K36" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L36" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>29</v>
       </c>
@@ -2122,10 +2254,10 @@
         <v>29</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>124</v>
+        <v>29</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>6</v>
+        <v>123</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>6</v>
@@ -2148,19 +2280,22 @@
       <c r="K37" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L37" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="D38" s="2" t="s">
-        <v>6</v>
+        <v>123</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>6</v>
@@ -2183,19 +2318,22 @@
       <c r="K38" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L38" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="D39" s="2" t="s">
-        <v>6</v>
+        <v>123</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>6</v>
@@ -2218,19 +2356,22 @@
       <c r="K39" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L39" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="D40" s="2" t="s">
-        <v>6</v>
+        <v>123</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>6</v>
@@ -2253,19 +2394,22 @@
       <c r="K40" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L40" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="D41" s="2" t="s">
-        <v>6</v>
+        <v>124</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>6</v>
@@ -2288,19 +2432,22 @@
       <c r="K41" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L41" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="D42" s="2" t="s">
-        <v>6</v>
+        <v>124</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>6</v>
@@ -2323,19 +2470,22 @@
       <c r="K42" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L42" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="D43" s="2" t="s">
-        <v>6</v>
+        <v>124</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>6</v>
@@ -2358,19 +2508,22 @@
       <c r="K43" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L43" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="D44" s="2" t="s">
-        <v>6</v>
+        <v>125</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>6</v>
@@ -2393,19 +2546,22 @@
       <c r="K44" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L44" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="D45" s="2" t="s">
-        <v>6</v>
+        <v>125</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>6</v>
@@ -2428,19 +2584,22 @@
       <c r="K45" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L45" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="D46" s="2" t="s">
-        <v>6</v>
+        <v>125</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>6</v>
@@ -2463,19 +2622,22 @@
       <c r="K46" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L46" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="D47" s="2" t="s">
-        <v>6</v>
+        <v>125</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>6</v>
@@ -2498,19 +2660,22 @@
       <c r="K47" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L47" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="D48" s="2" t="s">
-        <v>6</v>
+        <v>125</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>6</v>
@@ -2533,19 +2698,22 @@
       <c r="K48" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L48" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="D49" s="2" t="s">
-        <v>6</v>
+        <v>126</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>6</v>
@@ -2568,19 +2736,22 @@
       <c r="K49" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L49" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="D50" s="2" t="s">
-        <v>6</v>
+        <v>126</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>6</v>
@@ -2595,27 +2766,30 @@
         <v>6</v>
       </c>
       <c r="I50" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J50" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J50" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="K50" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L50" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="D51" s="2" t="s">
-        <v>6</v>
+        <v>126</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>6</v>
@@ -2638,8 +2812,11 @@
       <c r="K51" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L51" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>20</v>
       </c>
@@ -2647,10 +2824,10 @@
         <v>20</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>127</v>
+        <v>20</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>6</v>
+        <v>126</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>6</v>
@@ -2673,19 +2850,22 @@
       <c r="K52" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L52" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="D53" s="2" t="s">
-        <v>6</v>
+        <v>126</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>6</v>
@@ -2708,8 +2888,11 @@
       <c r="K53" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L53" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>58</v>
       </c>
@@ -2717,10 +2900,10 @@
         <v>58</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>127</v>
+        <v>58</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>6</v>
+        <v>126</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>6</v>
@@ -2743,8 +2926,11 @@
       <c r="K54" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L54" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>96</v>
       </c>
@@ -2752,12 +2938,12 @@
         <v>96</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E55" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E55" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F55" s="2" t="s">
@@ -2778,217 +2964,238 @@
       <c r="K55" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L55" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C56" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="D56" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L56" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="B57" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L57" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L58" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L59" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K60" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L60" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D61" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D56" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H56" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I56" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J56" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K56" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H57" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I57" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J57" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K57" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H58" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I58" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J58" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K58" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H59" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I59" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J59" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K59" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G60" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H60" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I60" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J60" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K60" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C61" s="2" t="s">
+      <c r="F61" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L61" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G61" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K61" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>130</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="E62" s="2" t="s">
-        <v>6</v>
+      <c r="D62" s="2" t="s">
+        <v>128</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>6</v>
@@ -2996,46 +3203,58 @@
       <c r="G62" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H62" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
+      <c r="C64" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="D64" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C64" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
+      <c r="C65" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E65" s="2" t="s">
+      <c r="D65" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F65" s="2" t="s">
         <v>6</v>
       </c>
     </row>

--- a/WppRegpack/TestResource/TC_RunManager.xlsx
+++ b/WppRegpack/TestResource/TC_RunManager.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Music\Demo\GlobalTestSuiteAutomation\WppRegpack\TestResource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\662494\3D Objects\GIT_ProjectLatest\GlobalTestSuiteAutomation\WppRegpack\TestResource\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="143">
   <si>
     <t>Description</t>
   </si>
@@ -891,7 +891,7 @@
   <dimension ref="A1:L65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+      <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3171,6 +3171,9 @@
       <c r="D61" s="2" t="s">
         <v>128</v>
       </c>
+      <c r="E61" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F61" s="2" t="s">
         <v>2</v>
       </c>
@@ -3178,6 +3181,15 @@
         <v>6</v>
       </c>
       <c r="H61" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K61" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L61" s="2" t="s">
@@ -3197,6 +3209,9 @@
       <c r="D62" s="2" t="s">
         <v>128</v>
       </c>
+      <c r="E62" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F62" s="2" t="s">
         <v>6</v>
       </c>
@@ -3204,6 +3219,18 @@
         <v>6</v>
       </c>
       <c r="H62" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K62" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L62" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3220,7 +3247,28 @@
       <c r="D63" s="2" t="s">
         <v>128</v>
       </c>
+      <c r="E63" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F63" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K63" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L63" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3237,11 +3285,32 @@
       <c r="D64" s="2" t="s">
         <v>128</v>
       </c>
+      <c r="E64" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F64" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G64" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K64" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L64" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>140</v>
       </c>
@@ -3254,7 +3323,28 @@
       <c r="D65" s="2" t="s">
         <v>128</v>
       </c>
+      <c r="E65" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F65" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K65" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L65" s="2" t="s">
         <v>6</v>
       </c>
     </row>

--- a/WppRegpack/TestResource/TC_RunManager.xlsx
+++ b/WppRegpack/TestResource/TC_RunManager.xlsx
@@ -890,8 +890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="F59" sqref="F59:F61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3175,7 +3175,7 @@
         <v>6</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>6</v>

--- a/WppRegpack/TestResource/TC_RunManager.xlsx
+++ b/WppRegpack/TestResource/TC_RunManager.xlsx
@@ -890,8 +890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="F59" sqref="F59:F61"/>
+    <sheetView tabSelected="1" topLeftCell="B46" workbookViewId="0">
+      <selection activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -966,7 +966,7 @@
         <v>2</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>2</v>
@@ -1004,7 +1004,7 @@
         <v>6</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>6</v>
@@ -1042,7 +1042,7 @@
         <v>2</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>6</v>
@@ -1080,7 +1080,7 @@
         <v>6</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>6</v>
@@ -1118,7 +1118,7 @@
         <v>6</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>6</v>
@@ -1156,7 +1156,7 @@
         <v>6</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>6</v>
@@ -1194,7 +1194,7 @@
         <v>6</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>6</v>
@@ -1232,7 +1232,7 @@
         <v>6</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>6</v>
@@ -1270,7 +1270,7 @@
         <v>6</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>6</v>
@@ -1308,7 +1308,7 @@
         <v>6</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>6</v>
@@ -1346,7 +1346,7 @@
         <v>6</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>6</v>
@@ -1384,7 +1384,7 @@
         <v>6</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>6</v>
@@ -1422,7 +1422,7 @@
         <v>6</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>6</v>
@@ -1460,7 +1460,7 @@
         <v>6</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>6</v>
@@ -1498,7 +1498,7 @@
         <v>6</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>6</v>
@@ -1536,7 +1536,7 @@
         <v>6</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>6</v>
@@ -1574,7 +1574,7 @@
         <v>6</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>6</v>
@@ -1612,7 +1612,7 @@
         <v>6</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>6</v>
@@ -1650,7 +1650,7 @@
         <v>6</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>6</v>
@@ -1688,7 +1688,7 @@
         <v>6</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>6</v>
@@ -1726,7 +1726,7 @@
         <v>6</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>6</v>
@@ -1764,7 +1764,7 @@
         <v>6</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>6</v>
@@ -1802,7 +1802,7 @@
         <v>6</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>6</v>
@@ -1840,7 +1840,7 @@
         <v>6</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>6</v>
@@ -1878,7 +1878,7 @@
         <v>6</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>2</v>
@@ -1901,7 +1901,7 @@
         <v>121</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>6</v>
@@ -1930,7 +1930,7 @@
         <v>6</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>6</v>
@@ -1959,7 +1959,7 @@
         <v>6</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>6</v>
@@ -1997,7 +1997,7 @@
         <v>6</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>6</v>
@@ -2035,7 +2035,7 @@
         <v>6</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>6</v>
@@ -2073,7 +2073,7 @@
         <v>6</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>6</v>
@@ -2111,7 +2111,7 @@
         <v>6</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>6</v>
@@ -2149,7 +2149,7 @@
         <v>6</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>6</v>
@@ -2187,7 +2187,7 @@
         <v>6</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>6</v>
@@ -2225,7 +2225,7 @@
         <v>6</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>6</v>
@@ -2263,7 +2263,7 @@
         <v>6</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>6</v>
@@ -2301,7 +2301,7 @@
         <v>6</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>6</v>
@@ -2339,7 +2339,7 @@
         <v>6</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>6</v>
@@ -2377,7 +2377,7 @@
         <v>6</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>6</v>
@@ -2415,7 +2415,7 @@
         <v>6</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>6</v>
@@ -2453,7 +2453,7 @@
         <v>6</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>6</v>
@@ -2491,7 +2491,7 @@
         <v>6</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>6</v>
@@ -2529,7 +2529,7 @@
         <v>6</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>6</v>
@@ -2567,7 +2567,7 @@
         <v>6</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>6</v>
@@ -2605,7 +2605,7 @@
         <v>6</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>6</v>
@@ -2643,7 +2643,7 @@
         <v>6</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>6</v>
@@ -2681,7 +2681,7 @@
         <v>6</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>6</v>
@@ -2719,7 +2719,7 @@
         <v>6</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>6</v>
@@ -2757,7 +2757,7 @@
         <v>6</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>6</v>
@@ -2795,7 +2795,7 @@
         <v>6</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>6</v>
@@ -2833,7 +2833,7 @@
         <v>6</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>6</v>
@@ -2871,7 +2871,7 @@
         <v>6</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>6</v>
@@ -2909,7 +2909,7 @@
         <v>6</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>6</v>
@@ -2947,7 +2947,7 @@
         <v>6</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>6</v>
@@ -2985,7 +2985,7 @@
         <v>6</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>6</v>
@@ -3023,7 +3023,7 @@
         <v>6</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>6</v>
@@ -3061,7 +3061,7 @@
         <v>6</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>6</v>
@@ -3099,7 +3099,7 @@
         <v>6</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>6</v>
@@ -3137,7 +3137,7 @@
         <v>6</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>6</v>
@@ -3175,7 +3175,7 @@
         <v>6</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>6</v>
@@ -3213,7 +3213,7 @@
         <v>6</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>6</v>
@@ -3289,7 +3289,7 @@
         <v>6</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>6</v>
@@ -3327,7 +3327,7 @@
         <v>6</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>6</v>

--- a/WppRegpack/TestResource/TC_RunManager.xlsx
+++ b/WppRegpack/TestResource/TC_RunManager.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Music\Demo\GlobalTestSuiteAutomation\WppRegpack\TestResource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Music\Demo\Demo1\GlobalTestSuiteAutomation\WppRegpack\TestResource\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="143">
   <si>
     <t>Description</t>
   </si>
@@ -890,8 +890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3171,8 +3171,11 @@
       <c r="D61" s="2" t="s">
         <v>128</v>
       </c>
+      <c r="E61" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F61" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>6</v>
@@ -3197,6 +3200,9 @@
       <c r="D62" s="2" t="s">
         <v>128</v>
       </c>
+      <c r="E62" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F62" s="2" t="s">
         <v>6</v>
       </c>
@@ -3220,8 +3226,11 @@
       <c r="D63" s="2" t="s">
         <v>128</v>
       </c>
+      <c r="E63" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F63" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
@@ -3237,6 +3246,9 @@
       <c r="D64" s="2" t="s">
         <v>128</v>
       </c>
+      <c r="E64" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F64" s="2" t="s">
         <v>6</v>
       </c>
@@ -3253,6 +3265,9 @@
       </c>
       <c r="D65" s="2" t="s">
         <v>128</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>6</v>

--- a/WppRegpack/TestResource/TC_RunManager.xlsx
+++ b/WppRegpack/TestResource/TC_RunManager.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Music\Demo\Demo1\GlobalTestSuiteAutomation\WppRegpack\TestResource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\BAU\GlobalTestSuiteAutomation\WppRegpack\TestResource\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="149">
   <si>
     <t>Description</t>
   </si>
@@ -460,6 +460,24 @@
   </si>
   <si>
     <t>CreateProduct</t>
+  </si>
+  <si>
+    <t>AbsenceAllowanceRequest</t>
+  </si>
+  <si>
+    <t>Absence Management</t>
+  </si>
+  <si>
+    <t>ApproveAllowanceRequest</t>
+  </si>
+  <si>
+    <t>CreateAbsenceRequest</t>
+  </si>
+  <si>
+    <t>RejectAllowanceRequest</t>
+  </si>
+  <si>
+    <t>RejectAbsence</t>
   </si>
 </sst>
 </file>
@@ -888,10 +906,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L65"/>
+  <dimension ref="A1:L71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F61" sqref="F61"/>
+    <sheetView tabSelected="1" topLeftCell="B53" workbookViewId="0">
+      <selection activeCell="F68" sqref="F68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3230,7 +3248,7 @@
         <v>6</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
@@ -3253,7 +3271,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>140</v>
       </c>
@@ -3271,6 +3289,111 @@
       </c>
       <c r="F65" s="2" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D71" s="2" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/WppRegpack/TestResource/TC_RunManager.xlsx
+++ b/WppRegpack/TestResource/TC_RunManager.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Music\IssueFixing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Music\July Regression\GlobalTestSuiteAutomation\WppRegpack\TestResource\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="260">
   <si>
     <t>Description</t>
   </si>
@@ -503,9 +503,6 @@
     <t>06. Create a Job Quote</t>
   </si>
   <si>
-    <t>08. Create a Purchase Order from a Job Budget</t>
-  </si>
-  <si>
     <t>CreateAnAccrualForJobByJobs</t>
   </si>
   <si>
@@ -798,6 +795,24 @@
   </si>
   <si>
     <t>12. Job Closure</t>
+  </si>
+  <si>
+    <t>MLY_Regression</t>
+  </si>
+  <si>
+    <t>MLY_Critical Regression</t>
+  </si>
+  <si>
+    <t>Employee &amp; User Management</t>
+  </si>
+  <si>
+    <t>ES04. To Approve a Expense Sheet (SSC)</t>
+  </si>
+  <si>
+    <t>Approve_Expense_SSC</t>
+  </si>
+  <si>
+    <t>ApproveSSC</t>
   </si>
 </sst>
 </file>
@@ -882,137 +897,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF321547"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF321547"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="8">
     <dxf>
       <font>
         <color theme="0"/>
@@ -1423,10 +1308,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L98"/>
+  <dimension ref="A1:L100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26:F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1434,7 +1319,7 @@
     <col min="1" max="1" width="55.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="51.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.28515625" style="2" customWidth="1"/>
     <col min="5" max="5" width="15.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
@@ -1472,10 +1357,10 @@
         <v>117</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>88</v>
+        <v>254</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>89</v>
+        <v>255</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>91</v>
@@ -1507,7 +1392,7 @@
         <v>2</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>6</v>
@@ -1535,6 +1420,18 @@
       <c r="D3" s="2" t="s">
         <v>120</v>
       </c>
+      <c r="E3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -1549,6 +1446,15 @@
       <c r="D4" s="2" t="s">
         <v>121</v>
       </c>
+      <c r="F4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -1563,6 +1469,15 @@
       <c r="D5" s="2" t="s">
         <v>121</v>
       </c>
+      <c r="F5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -1577,6 +1492,15 @@
       <c r="D6" s="2" t="s">
         <v>121</v>
       </c>
+      <c r="F6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -1591,13 +1515,22 @@
       <c r="D7" s="2" t="s">
         <v>121</v>
       </c>
+      <c r="F7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>110</v>
+        <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>21</v>
@@ -1605,52 +1538,91 @@
       <c r="D8" s="2" t="s">
         <v>121</v>
       </c>
+      <c r="F8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>157</v>
+        <v>24</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>158</v>
+        <v>24</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>159</v>
+        <v>121</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>164</v>
+        <v>159</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>121</v>
+        <v>163</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>121</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -1658,697 +1630,1622 @@
         <v>162</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>121</v>
       </c>
+      <c r="F13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>115</v>
+        <v>24</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>121</v>
       </c>
+      <c r="F14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>23</v>
+        <v>115</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="F21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="F22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B22" s="2" t="s">
+      <c r="B23" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>173</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F26" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>176</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B30" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C30" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F30" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F34" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F36" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
+      <c r="F40" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
+      <c r="F41" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
+      <c r="F42" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
+      <c r="F43" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="B42" s="2" t="s">
+      <c r="B44" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C44" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>193</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F44" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>195</v>
+        <v>49</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>196</v>
+        <v>50</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F45" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>53</v>
+        <v>191</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>107</v>
+        <v>192</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F46" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C49" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>109</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>203</v>
+      <c r="F49" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>200</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>107</v>
+        <v>201</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C51" s="2" t="s">
+      <c r="F50" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
         <v>204</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>109</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F51" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>111</v>
+        <v>202</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F52" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F55" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F56" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
+      <c r="F57" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="F58" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="F59" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
+      <c r="F61" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
+      <c r="F62" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
+      <c r="F63" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
+      <c r="F64" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
+      <c r="B65" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
+      <c r="D66" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
+      <c r="D67" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J67" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
+      <c r="D68" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J68" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
+      <c r="D69" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J69" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
+      <c r="B70" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J70" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
+      <c r="B71" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J71" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
+      <c r="D72" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J72" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
+      <c r="D73" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J73" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
+      <c r="D74" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J74" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
+      <c r="D75" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J75" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
+      <c r="B76" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J76" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
+      <c r="D77" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J77" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
+      <c r="D78" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J78" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" s="2" t="s">
+      <c r="D79" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J79" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" s="2" t="s">
+      <c r="D80" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J80" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="s">
+      <c r="D81" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J81" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J82" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J83" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J84" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J85" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J86" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" s="2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="2" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="2" t="s">
+      <c r="B87" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J87" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" s="2" t="s">
+      <c r="F88" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J88" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" s="2" t="s">
+      <c r="F89" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H89" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J89" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" s="2" t="s">
+      <c r="F90" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H90" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J90" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" s="2" t="s">
+      <c r="F91" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H91" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J91" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" s="2" t="s">
+      <c r="F92" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H92" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J92" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H93" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J93" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" s="2" t="s">
+      <c r="F94" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H94" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J94" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" s="2" t="s">
+      <c r="F95" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H95" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J95" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" s="2" t="s">
+      <c r="F96" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H96" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J96" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" s="2" t="s">
+      <c r="F97" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H97" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J97" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" s="2" t="s">
+      <c r="F98" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H98" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J98" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" s="2" t="s">
+      <c r="F99" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H99" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J99" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" s="2" t="s">
-        <v>254</v>
+      <c r="F100" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H100" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J100" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/WppRegpack/TestResource/TC_RunManager.xlsx
+++ b/WppRegpack/TestResource/TC_RunManager.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Music\July Regression\GlobalTestSuiteAutomation\WppRegpack\TestResource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\662494\3D Objects\Git Project New\GlobalTestSuiteAutomation\WppRegpack\TestResource\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1370" uniqueCount="264">
   <si>
     <t>Description</t>
   </si>
@@ -813,6 +813,18 @@
   </si>
   <si>
     <t>ApproveSSC</t>
+  </si>
+  <si>
+    <t>ChangePaymentSelection</t>
+  </si>
+  <si>
+    <t>ChangePayment_Main</t>
+  </si>
+  <si>
+    <t>PrintPaymentRemittance</t>
+  </si>
+  <si>
+    <t>PrintPaymentRemittance_Main</t>
   </si>
 </sst>
 </file>
@@ -882,7 +894,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -893,77 +905,15 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF321547"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1310,8 +1260,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26:F29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58:D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2503,8 +2453,15 @@
       <c r="A56" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
+      <c r="B56" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>261</v>
+      </c>
       <c r="F56" s="2" t="s">
         <v>6</v>
       </c>
@@ -2519,8 +2476,6 @@
       <c r="A57" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
       <c r="F57" s="2" t="s">
         <v>6</v>
       </c>
@@ -2535,8 +2490,15 @@
       <c r="A58" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
+      <c r="B58" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>262</v>
+      </c>
       <c r="F58" s="2" t="s">
         <v>6</v>
       </c>

--- a/WppRegpack/TestResource/TC_RunManager.xlsx
+++ b/WppRegpack/TestResource/TC_RunManager.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Music\July Regression\GlobalTestSuiteAutomation\WppRegpack\TestResource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\BAU\GlobalTestSuiteAutomation\WppRegpack\TestResource\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1375" uniqueCount="267">
   <si>
     <t>Description</t>
   </si>
@@ -813,6 +813,27 @@
   </si>
   <si>
     <t>ApproveSSC</t>
+  </si>
+  <si>
+    <t>CreatePaymentSelection</t>
+  </si>
+  <si>
+    <t>ChangePaymentSelection</t>
+  </si>
+  <si>
+    <t>CreatePayment</t>
+  </si>
+  <si>
+    <t>ChangePayment_Main</t>
+  </si>
+  <si>
+    <t>PrintPaymentRemittance</t>
+  </si>
+  <si>
+    <t>PrintPaymentRemittance_Main</t>
+  </si>
+  <si>
+    <t>Banking</t>
   </si>
 </sst>
 </file>
@@ -897,73 +918,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF321547"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1310,8 +1265,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26:F29"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1911,7 +1866,7 @@
         <v>123</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>6</v>
@@ -1934,7 +1889,7 @@
         <v>123</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>6</v>
@@ -1957,7 +1912,7 @@
         <v>123</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>6</v>
@@ -1980,7 +1935,7 @@
         <v>123</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -2487,10 +2442,17 @@
       <c r="A55" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
+      <c r="B55" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>266</v>
+      </c>
       <c r="F55" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H55" s="2" t="s">
         <v>6</v>
@@ -2503,10 +2465,17 @@
       <c r="A56" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
+      <c r="B56" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>266</v>
+      </c>
       <c r="F56" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H56" s="2" t="s">
         <v>6</v>
@@ -2521,6 +2490,9 @@
       </c>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
+      <c r="D57" s="2" t="s">
+        <v>266</v>
+      </c>
       <c r="F57" s="2" t="s">
         <v>6</v>
       </c>
@@ -2535,10 +2507,17 @@
       <c r="A58" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
+      <c r="B58" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>266</v>
+      </c>
       <c r="F58" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>6</v>
@@ -2553,6 +2532,9 @@
       </c>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
+      <c r="D59" s="2" t="s">
+        <v>266</v>
+      </c>
       <c r="F59" s="2" t="s">
         <v>6</v>
       </c>

--- a/WppRegpack/TestResource/TC_RunManager.xlsx
+++ b/WppRegpack/TestResource/TC_RunManager.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\BAU\GlobalTestSuiteAutomation\WppRegpack\TestResource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\662494\3D Objects\Git Project New\GlobalTestSuiteAutomation\WppRegpack\TestResource\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1265,8 +1265,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="F56" sqref="F56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/WppRegpack/TestResource/TC_RunManager.xlsx
+++ b/WppRegpack/TestResource/TC_RunManager.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1375" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1385" uniqueCount="267">
   <si>
     <t>Description</t>
   </si>
@@ -1265,8 +1265,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="F56" sqref="F56"/>
+    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="F96" sqref="F96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2452,7 +2452,7 @@
         <v>266</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H55" s="2" t="s">
         <v>6</v>
@@ -2475,7 +2475,7 @@
         <v>266</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H56" s="2" t="s">
         <v>6</v>
@@ -2517,7 +2517,7 @@
         <v>266</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>6</v>
@@ -3122,8 +3122,17 @@
       <c r="A93" s="2" t="s">
         <v>246</v>
       </c>
+      <c r="B93" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="F93" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H93" s="2" t="s">
         <v>6</v>
@@ -3136,6 +3145,9 @@
       <c r="A94" s="2" t="s">
         <v>247</v>
       </c>
+      <c r="D94" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="F94" s="2" t="s">
         <v>6</v>
       </c>
@@ -3150,6 +3162,9 @@
       <c r="A95" s="2" t="s">
         <v>248</v>
       </c>
+      <c r="D95" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="F95" s="2" t="s">
         <v>6</v>
       </c>
@@ -3164,6 +3179,15 @@
       <c r="A96" s="2" t="s">
         <v>249</v>
       </c>
+      <c r="B96" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="F96" s="2" t="s">
         <v>6</v>
       </c>
@@ -3178,6 +3202,9 @@
       <c r="A97" s="2" t="s">
         <v>250</v>
       </c>
+      <c r="D97" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="F97" s="2" t="s">
         <v>6</v>
       </c>
@@ -3191,6 +3218,9 @@
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>251</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>144</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>6</v>

--- a/WppRegpack/TestResource/TC_RunManager.xlsx
+++ b/WppRegpack/TestResource/TC_RunManager.xlsx
@@ -1265,7 +1265,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
       <selection activeCell="F96" sqref="F96"/>
     </sheetView>
   </sheetViews>
@@ -3132,7 +3132,7 @@
         <v>144</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H93" s="2" t="s">
         <v>6</v>
@@ -3189,7 +3189,7 @@
         <v>144</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H96" s="2" t="s">
         <v>6</v>

--- a/WppRegpack/TestResource/TC_RunManager.xlsx
+++ b/WppRegpack/TestResource/TC_RunManager.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\BAU\GlobalTestSuiteAutomation\WppRegpack\TestResource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\662494\3D Objects\Git Project New\GlobalTestSuiteAutomation\WppRegpack\TestResource\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1385" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1391" uniqueCount="268">
   <si>
     <t>Description</t>
   </si>
@@ -503,15 +503,9 @@
     <t>06. Create a Job Quote</t>
   </si>
   <si>
-    <t>CreateAnAccrualForJobByJobs</t>
-  </si>
-  <si>
     <t>CreateAnAccrualJobByJob</t>
   </si>
   <si>
-    <t>Job Invoicing</t>
-  </si>
-  <si>
     <t>Create an Accrual Job by Job</t>
   </si>
   <si>
@@ -834,6 +828,15 @@
   </si>
   <si>
     <t>Banking</t>
+  </si>
+  <si>
+    <t>CreateAnAccrualForGroupOfJobs</t>
+  </si>
+  <si>
+    <t>CreateAnAccrualGroupOfJobs</t>
+  </si>
+  <si>
+    <t>ReallocateJobEntries</t>
   </si>
 </sst>
 </file>
@@ -1265,8 +1268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="F96" sqref="F96"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="B99" sqref="B99:D99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1312,10 +1315,10 @@
         <v>117</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>91</v>
@@ -1482,7 +1485,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>21</v>
@@ -1505,7 +1508,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>24</v>
@@ -1522,16 +1525,16 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>156</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>6</v>
@@ -1545,7 +1548,16 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>266</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>6</v>
@@ -1559,7 +1571,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>21</v>
@@ -1582,7 +1594,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>30</v>
@@ -1605,7 +1617,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>24</v>
@@ -1628,7 +1640,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>115</v>
@@ -1651,7 +1663,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>23</v>
@@ -1674,7 +1686,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>27</v>
@@ -1697,7 +1709,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>25</v>
@@ -1720,7 +1732,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>59</v>
@@ -1743,7 +1755,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>6</v>
@@ -1757,7 +1769,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>6</v>
@@ -1771,7 +1783,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>6</v>
@@ -1785,7 +1797,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>12</v>
@@ -1808,7 +1820,7 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>31</v>
@@ -1831,7 +1843,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>29</v>
@@ -1854,7 +1866,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>19</v>
@@ -1877,7 +1889,7 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>43</v>
@@ -1900,7 +1912,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>41</v>
@@ -1923,13 +1935,13 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>257</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>259</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>123</v>
@@ -1963,13 +1975,13 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>180</v>
-      </c>
       <c r="C31" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>6</v>
@@ -2006,7 +2018,7 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>6</v>
@@ -2043,7 +2055,7 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>6</v>
@@ -2080,7 +2092,7 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>6</v>
@@ -2117,7 +2129,7 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>6</v>
@@ -2131,7 +2143,7 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>6</v>
@@ -2145,7 +2157,7 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>6</v>
@@ -2159,7 +2171,7 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>6</v>
@@ -2173,7 +2185,7 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>6</v>
@@ -2187,7 +2199,7 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>51</v>
@@ -2210,7 +2222,7 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>49</v>
@@ -2233,13 +2245,13 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>124</v>
@@ -2256,13 +2268,13 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>193</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>195</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>124</v>
@@ -2279,7 +2291,7 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>53</v>
@@ -2302,7 +2314,7 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>106</v>
@@ -2325,13 +2337,13 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>199</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>201</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>127</v>
@@ -2348,7 +2360,7 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>108</v>
@@ -2371,10 +2383,10 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>107</v>
@@ -2394,13 +2406,13 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>113</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>127</v>
@@ -2417,7 +2429,7 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>111</v>
@@ -2440,16 +2452,16 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B55" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C55" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="C55" s="3" t="s">
-        <v>262</v>
-      </c>
       <c r="D55" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>6</v>
@@ -2463,16 +2475,16 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C56" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="C56" s="3" t="s">
-        <v>263</v>
-      </c>
       <c r="D56" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>6</v>
@@ -2486,12 +2498,12 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
       <c r="D57" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>6</v>
@@ -2505,16 +2517,16 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B58" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="D58" s="2" t="s">
         <v>264</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>266</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>6</v>
@@ -2528,12 +2540,12 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
       <c r="D59" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>6</v>
@@ -2547,7 +2559,7 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>6</v>
@@ -2561,7 +2573,7 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>6</v>
@@ -2575,7 +2587,7 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>6</v>
@@ -2589,7 +2601,7 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>6</v>
@@ -2603,7 +2615,7 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>6</v>
@@ -2617,7 +2629,7 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>15</v>
@@ -2626,7 +2638,7 @@
         <v>16</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>6</v>
@@ -2640,10 +2652,10 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>6</v>
@@ -2657,10 +2669,10 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>6</v>
@@ -2674,10 +2686,10 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>6</v>
@@ -2691,10 +2703,10 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>6</v>
@@ -2708,7 +2720,7 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>17</v>
@@ -2717,7 +2729,7 @@
         <v>18</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>6</v>
@@ -2731,7 +2743,7 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>99</v>
@@ -2754,7 +2766,7 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>119</v>
@@ -2771,7 +2783,7 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>119</v>
@@ -2788,7 +2800,7 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>119</v>
@@ -2805,7 +2817,7 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>119</v>
@@ -2822,7 +2834,7 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>84</v>
@@ -2845,7 +2857,7 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>119</v>
@@ -2862,7 +2874,7 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>119</v>
@@ -2879,7 +2891,7 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>119</v>
@@ -2896,7 +2908,7 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>119</v>
@@ -2913,7 +2925,7 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>119</v>
@@ -2930,7 +2942,7 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>79</v>
@@ -2953,7 +2965,7 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>75</v>
@@ -2976,7 +2988,7 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>119</v>
@@ -2993,7 +3005,7 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>119</v>
@@ -3010,7 +3022,7 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>119</v>
@@ -3027,7 +3039,7 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>70</v>
@@ -3050,7 +3062,7 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>6</v>
@@ -3064,7 +3076,7 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>6</v>
@@ -3078,7 +3090,7 @@
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>6</v>
@@ -3092,7 +3104,7 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>6</v>
@@ -3106,7 +3118,7 @@
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>6</v>
@@ -3120,7 +3132,7 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>146</v>
@@ -3143,7 +3155,7 @@
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>144</v>
@@ -3160,7 +3172,7 @@
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>144</v>
@@ -3177,7 +3189,7 @@
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>143</v>
@@ -3200,7 +3212,7 @@
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>144</v>
@@ -3217,7 +3229,7 @@
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>144</v>
@@ -3234,7 +3246,16 @@
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>267</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>6</v>
@@ -3248,7 +3269,7 @@
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>6</v>

--- a/WppRegpack/TestResource/TC_RunManager.xlsx
+++ b/WppRegpack/TestResource/TC_RunManager.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\662494\3D Objects\Git Project New\GlobalTestSuiteAutomation\WppRegpack\TestResource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\BAU\GlobalTestSuiteAutomation\WppRegpack\TestResource\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,6 +20,7 @@
     <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GlobalTestCase!$A$1:$L$101</definedName>
     <definedName name="IterationOptions">[1]Sheet1!$A$2:$A$4</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1391" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1402" uniqueCount="270">
   <si>
     <t>Description</t>
   </si>
@@ -837,6 +838,12 @@
   </si>
   <si>
     <t>ReallocateJobEntries</t>
+  </si>
+  <si>
+    <t>ImportBudgetModel</t>
+  </si>
+  <si>
+    <t>CreatePaymentFile</t>
   </si>
 </sst>
 </file>
@@ -1266,10 +1273,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L100"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:L101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="B99" sqref="B99:D99"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1327,7 +1335,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>149</v>
       </c>
@@ -1365,7 +1373,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>150</v>
       </c>
@@ -1391,7 +1399,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>152</v>
       </c>
@@ -1414,7 +1422,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>153</v>
       </c>
@@ -1437,7 +1445,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>154</v>
       </c>
@@ -1460,7 +1468,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>155</v>
       </c>
@@ -1483,7 +1491,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>158</v>
       </c>
@@ -1506,7 +1514,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>159</v>
       </c>
@@ -1523,7 +1531,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>157</v>
       </c>
@@ -1546,7 +1554,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>161</v>
       </c>
@@ -1569,7 +1577,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>158</v>
       </c>
@@ -1592,7 +1600,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>160</v>
       </c>
@@ -1615,7 +1623,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>159</v>
       </c>
@@ -1638,7 +1646,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>175</v>
       </c>
@@ -1661,7 +1669,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>162</v>
       </c>
@@ -1684,7 +1692,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>165</v>
       </c>
@@ -1707,7 +1715,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>163</v>
       </c>
@@ -1730,7 +1738,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>164</v>
       </c>
@@ -1753,7 +1761,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>166</v>
       </c>
@@ -1767,7 +1775,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>167</v>
       </c>
@@ -1781,7 +1789,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>168</v>
       </c>
@@ -1795,7 +1803,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>169</v>
       </c>
@@ -1818,7 +1826,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>171</v>
       </c>
@@ -1841,7 +1849,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>170</v>
       </c>
@@ -1864,7 +1872,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>172</v>
       </c>
@@ -1887,7 +1895,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>174</v>
       </c>
@@ -1910,7 +1918,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>173</v>
       </c>
@@ -1933,7 +1941,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>255</v>
       </c>
@@ -1950,7 +1958,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>136</v>
       </c>
@@ -1973,7 +1981,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>176</v>
       </c>
@@ -1993,7 +2001,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>140</v>
       </c>
@@ -2016,7 +2024,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>179</v>
       </c>
@@ -2030,7 +2038,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>138</v>
       </c>
@@ -2053,7 +2061,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>180</v>
       </c>
@@ -2067,7 +2075,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>137</v>
       </c>
@@ -2090,7 +2098,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>181</v>
       </c>
@@ -2104,7 +2112,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>139</v>
       </c>
@@ -2127,7 +2135,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>182</v>
       </c>
@@ -2141,7 +2149,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>183</v>
       </c>
@@ -2155,7 +2163,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>184</v>
       </c>
@@ -2169,7 +2177,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>185</v>
       </c>
@@ -2183,7 +2191,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>186</v>
       </c>
@@ -2197,7 +2205,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>187</v>
       </c>
@@ -2220,7 +2228,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>188</v>
       </c>
@@ -2243,7 +2251,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>194</v>
       </c>
@@ -2266,7 +2274,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>191</v>
       </c>
@@ -2289,7 +2297,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>195</v>
       </c>
@@ -2312,7 +2320,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>196</v>
       </c>
@@ -2335,7 +2343,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>197</v>
       </c>
@@ -2358,7 +2366,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>202</v>
       </c>
@@ -2381,7 +2389,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>203</v>
       </c>
@@ -2404,7 +2412,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>204</v>
       </c>
@@ -2427,7 +2435,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>205</v>
       </c>
@@ -2450,7 +2458,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>239</v>
       </c>
@@ -2473,7 +2481,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>240</v>
       </c>
@@ -2500,13 +2508,17 @@
       <c r="A57" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
+      <c r="B57" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>269</v>
+      </c>
       <c r="D57" s="2" t="s">
         <v>264</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H57" s="2" t="s">
         <v>6</v>
@@ -2515,7 +2527,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>242</v>
       </c>
@@ -2538,7 +2550,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>243</v>
       </c>
@@ -2557,7 +2569,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>206</v>
       </c>
@@ -2571,7 +2583,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>207</v>
       </c>
@@ -2585,7 +2597,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>208</v>
       </c>
@@ -2599,7 +2611,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>209</v>
       </c>
@@ -2613,7 +2625,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>210</v>
       </c>
@@ -2627,7 +2639,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>211</v>
       </c>
@@ -2650,7 +2662,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>212</v>
       </c>
@@ -2667,7 +2679,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>213</v>
       </c>
@@ -2684,7 +2696,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>214</v>
       </c>
@@ -2701,7 +2713,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>215</v>
       </c>
@@ -2718,7 +2730,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>216</v>
       </c>
@@ -2741,7 +2753,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>217</v>
       </c>
@@ -2764,7 +2776,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>218</v>
       </c>
@@ -2781,7 +2793,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>219</v>
       </c>
@@ -2798,7 +2810,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>220</v>
       </c>
@@ -2815,7 +2827,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>221</v>
       </c>
@@ -2832,7 +2844,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>222</v>
       </c>
@@ -2855,7 +2867,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>223</v>
       </c>
@@ -2872,7 +2884,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>224</v>
       </c>
@@ -2889,10 +2901,16 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>225</v>
       </c>
+      <c r="B79" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>98</v>
+      </c>
       <c r="D79" s="2" t="s">
         <v>119</v>
       </c>
@@ -2906,10 +2924,16 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>226</v>
       </c>
+      <c r="B80" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>96</v>
+      </c>
       <c r="D80" s="2" t="s">
         <v>119</v>
       </c>
@@ -2923,7 +2947,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>227</v>
       </c>
@@ -2940,7 +2964,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>230</v>
       </c>
@@ -2963,7 +2987,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>231</v>
       </c>
@@ -2986,7 +3010,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>232</v>
       </c>
@@ -3003,7 +3027,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>233</v>
       </c>
@@ -3020,7 +3044,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>229</v>
       </c>
@@ -3037,7 +3061,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>228</v>
       </c>
@@ -3060,7 +3084,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>234</v>
       </c>
@@ -3074,7 +3098,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>235</v>
       </c>
@@ -3088,7 +3112,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>236</v>
       </c>
@@ -3102,7 +3126,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>237</v>
       </c>
@@ -3116,7 +3140,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>238</v>
       </c>
@@ -3130,7 +3154,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>244</v>
       </c>
@@ -3153,7 +3177,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>245</v>
       </c>
@@ -3170,7 +3194,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>246</v>
       </c>
@@ -3187,7 +3211,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>247</v>
       </c>
@@ -3201,7 +3225,7 @@
         <v>144</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H96" s="2" t="s">
         <v>6</v>
@@ -3210,7 +3234,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>248</v>
       </c>
@@ -3227,7 +3251,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>249</v>
       </c>
@@ -3244,7 +3268,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>250</v>
       </c>
@@ -3267,7 +3291,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>251</v>
       </c>
@@ -3281,7 +3305,31 @@
         <v>6</v>
       </c>
     </row>
+    <row r="101" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:L101">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="Yes"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/WppRegpack/TestResource/TC_RunManager.xlsx
+++ b/WppRegpack/TestResource/TC_RunManager.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\BAU\GlobalTestSuiteAutomation\WppRegpack\TestResource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\662494\3D Objects\Git Project\GlobalTestSuiteAutomation\WppRegpack\TestResource\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalTestCase" sheetId="6" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1402" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1406" uniqueCount="270">
   <si>
     <t>Description</t>
   </si>
@@ -1276,7 +1276,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:L101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -5835,10 +5835,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5919,6 +5919,20 @@
         <v>6</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/WppRegpack/TestResource/TC_RunManager.xlsx
+++ b/WppRegpack/TestResource/TC_RunManager.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalTestCase" sheetId="6" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1406" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1431" uniqueCount="283">
   <si>
     <t>Description</t>
   </si>
@@ -844,6 +844,45 @@
   </si>
   <si>
     <t>CreatePaymentFile</t>
+  </si>
+  <si>
+    <t>05. Copy Budget</t>
+  </si>
+  <si>
+    <t>CopyBudget</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>04. Modify Budget</t>
+  </si>
+  <si>
+    <t>ModifyBudget</t>
+  </si>
+  <si>
+    <t>ReverseInvoice</t>
+  </si>
+  <si>
+    <t>Time Sheet</t>
+  </si>
+  <si>
+    <t>TimesheetMPL</t>
+  </si>
+  <si>
+    <t>MPLTimesheet</t>
+  </si>
+  <si>
+    <t>MPL - Print Layouts</t>
+  </si>
+  <si>
+    <t>Expense Sheet</t>
+  </si>
+  <si>
+    <t>ExpensesMPL</t>
+  </si>
+  <si>
+    <t>MPLExpenses</t>
   </si>
 </sst>
 </file>
@@ -1274,10 +1313,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:L101"/>
+  <dimension ref="A1:L106"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A105" sqref="A105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3320,6 +3359,91 @@
       </c>
       <c r="F101" s="2" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>272</v>
       </c>
     </row>
   </sheetData>
@@ -5837,7 +5961,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>

--- a/WppRegpack/TestResource/TC_RunManager.xlsx
+++ b/WppRegpack/TestResource/TC_RunManager.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1431" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1431" uniqueCount="284">
   <si>
     <t>Description</t>
   </si>
@@ -883,6 +883,9 @@
   </si>
   <si>
     <t>MPLExpenses</t>
+  </si>
+  <si>
+    <t>ModifyBudget_New</t>
   </si>
 </sst>
 </file>
@@ -1316,7 +1319,7 @@
   <dimension ref="A1:L106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A105" sqref="A105"/>
+      <selection activeCell="C109" sqref="C109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3383,7 +3386,7 @@
         <v>273</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>274</v>

--- a/WppRegpack/TestResource/TC_RunManager.xlsx
+++ b/WppRegpack/TestResource/TC_RunManager.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\662494\3D Objects\Git Project\GlobalTestSuiteAutomation\WppRegpack\TestResource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Music\Script Fixing\GlobalTestSuiteAutomation\WppRegpack\TestResource\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
     <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GlobalTestCase!$A$1:$L$101</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GlobalTestCase!$A$1:$N$107</definedName>
     <definedName name="IterationOptions">[1]Sheet1!$A$2:$A$4</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1431" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1576" uniqueCount="296">
   <si>
     <t>Description</t>
   </si>
@@ -846,46 +846,82 @@
     <t>CreatePaymentFile</t>
   </si>
   <si>
-    <t>05. Copy Budget</t>
-  </si>
-  <si>
-    <t>CopyBudget</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>04. Modify Budget</t>
-  </si>
-  <si>
-    <t>ModifyBudget</t>
-  </si>
-  <si>
-    <t>ReverseInvoice</t>
-  </si>
-  <si>
-    <t>Time Sheet</t>
-  </si>
-  <si>
-    <t>TimesheetMPL</t>
-  </si>
-  <si>
-    <t>MPLTimesheet</t>
-  </si>
-  <si>
-    <t>MPL - Print Layouts</t>
-  </si>
-  <si>
-    <t>Expense Sheet</t>
-  </si>
-  <si>
-    <t>ExpensesMPL</t>
-  </si>
-  <si>
-    <t>MPLExpenses</t>
-  </si>
-  <si>
-    <t>ModifyBudget_New</t>
+    <t>Quote_MPL</t>
+  </si>
+  <si>
+    <t>validateQuotePdf</t>
+  </si>
+  <si>
+    <t>MPL Layouts</t>
+  </si>
+  <si>
+    <t>Print_Order_Confirmation_MPL</t>
+  </si>
+  <si>
+    <t>PrintOrderConfirmation</t>
+  </si>
+  <si>
+    <t>BudgetEstimateMPL</t>
+  </si>
+  <si>
+    <t>ValidateJobPdf</t>
+  </si>
+  <si>
+    <t>PostingJournal_MPL</t>
+  </si>
+  <si>
+    <t>validatePostingJournal</t>
+  </si>
+  <si>
+    <t>DraftInvoice_MPL</t>
+  </si>
+  <si>
+    <t>DraftInvoice</t>
+  </si>
+  <si>
+    <t>Job Quotation</t>
+  </si>
+  <si>
+    <t>Job Order Confirmation</t>
+  </si>
+  <si>
+    <t>Job Budget - Estimate</t>
+  </si>
+  <si>
+    <t>Draft Invoice</t>
+  </si>
+  <si>
+    <t>Invoice</t>
+  </si>
+  <si>
+    <t>General Journal</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>InvoiceMPL</t>
+  </si>
+  <si>
+    <t>ApproveAbsence</t>
+  </si>
+  <si>
+    <t>FixedAssetResolution</t>
+  </si>
+  <si>
+    <t>CarryForward</t>
+  </si>
+  <si>
+    <t>PartialInvoicing_CarryForward</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>AssetDisposal</t>
   </si>
 </sst>
 </file>
@@ -970,7 +1006,398 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="48">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF321547"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF321547"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF321547"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF321547"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF321547"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF321547"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1315,11 +1742,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:L106"/>
+  <dimension ref="A1:N107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C109" sqref="C109"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1327,19 +1753,19 @@
     <col min="1" max="1" width="55.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.28515625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="22" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.28515625" style="2" customWidth="1"/>
     <col min="8" max="8" width="22.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="2"/>
+    <col min="10" max="10" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>135</v>
       </c>
@@ -1353,31 +1779,34 @@
         <v>118</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>87</v>
+        <v>253</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>117</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>149</v>
       </c>
@@ -1391,31 +1820,34 @@
         <v>119</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="K2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>150</v>
       </c>
@@ -1432,16 +1864,19 @@
         <v>6</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>6</v>
+        <v>287</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>287</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>152</v>
       </c>
@@ -1454,17 +1889,20 @@
       <c r="D4" s="2" t="s">
         <v>121</v>
       </c>
+      <c r="E4" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F4" s="2" t="s">
-        <v>6</v>
+        <v>287</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>287</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>153</v>
       </c>
@@ -1477,17 +1915,20 @@
       <c r="D5" s="2" t="s">
         <v>121</v>
       </c>
+      <c r="E5" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F5" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="G5" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="H5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>154</v>
       </c>
@@ -1500,17 +1941,20 @@
       <c r="D6" s="2" t="s">
         <v>121</v>
       </c>
+      <c r="E6" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F6" s="2" t="s">
-        <v>6</v>
+        <v>287</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>287</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>155</v>
       </c>
@@ -1523,17 +1967,20 @@
       <c r="D7" s="2" t="s">
         <v>121</v>
       </c>
+      <c r="E7" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F7" s="2" t="s">
-        <v>6</v>
+        <v>287</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>287</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>158</v>
       </c>
@@ -1546,17 +1993,17 @@
       <c r="D8" s="2" t="s">
         <v>121</v>
       </c>
+      <c r="E8" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>159</v>
       </c>
@@ -1569,11 +2016,17 @@
       <c r="D9" s="2" t="s">
         <v>121</v>
       </c>
+      <c r="E9" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F9" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H9" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>157</v>
       </c>
@@ -1586,17 +2039,20 @@
       <c r="D10" s="2" t="s">
         <v>156</v>
       </c>
+      <c r="E10" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F10" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="G10" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="H10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J10" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>161</v>
       </c>
@@ -1609,17 +2065,20 @@
       <c r="D11" s="2" t="s">
         <v>266</v>
       </c>
+      <c r="E11" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F11" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="G11" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="H11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>158</v>
       </c>
@@ -1632,17 +2091,20 @@
       <c r="D12" s="2" t="s">
         <v>121</v>
       </c>
+      <c r="E12" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F12" s="2" t="s">
-        <v>6</v>
+        <v>287</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>287</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>160</v>
       </c>
@@ -1655,17 +2117,20 @@
       <c r="D13" s="2" t="s">
         <v>121</v>
       </c>
+      <c r="E13" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F13" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="G13" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="H13" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J13" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>159</v>
       </c>
@@ -1678,17 +2143,20 @@
       <c r="D14" s="2" t="s">
         <v>121</v>
       </c>
+      <c r="E14" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F14" s="2" t="s">
-        <v>6</v>
+        <v>287</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>287</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>175</v>
       </c>
@@ -1701,17 +2169,20 @@
       <c r="D15" s="2" t="s">
         <v>121</v>
       </c>
+      <c r="E15" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F15" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="G15" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="H15" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J15" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>162</v>
       </c>
@@ -1724,17 +2195,20 @@
       <c r="D16" s="2" t="s">
         <v>122</v>
       </c>
+      <c r="E16" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F16" s="2" t="s">
-        <v>6</v>
+        <v>287</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>287</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>165</v>
       </c>
@@ -1747,17 +2221,20 @@
       <c r="D17" s="2" t="s">
         <v>122</v>
       </c>
+      <c r="E17" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F17" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="G17" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="H17" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J17" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>163</v>
       </c>
@@ -1770,17 +2247,20 @@
       <c r="D18" s="2" t="s">
         <v>122</v>
       </c>
+      <c r="E18" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F18" s="2" t="s">
-        <v>6</v>
+        <v>287</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>287</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>164</v>
       </c>
@@ -1793,59 +2273,62 @@
       <c r="D19" s="2" t="s">
         <v>122</v>
       </c>
+      <c r="E19" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F19" s="2" t="s">
-        <v>6</v>
+        <v>287</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>287</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>166</v>
       </c>
+      <c r="E20" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F20" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J20" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>167</v>
       </c>
+      <c r="E21" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F21" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J21" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>168</v>
       </c>
+      <c r="E22" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F22" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J22" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>169</v>
       </c>
@@ -1858,17 +2341,20 @@
       <c r="D23" s="2" t="s">
         <v>123</v>
       </c>
+      <c r="E23" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F23" s="2" t="s">
-        <v>6</v>
+        <v>287</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>287</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>171</v>
       </c>
@@ -1881,17 +2367,20 @@
       <c r="D24" s="2" t="s">
         <v>123</v>
       </c>
+      <c r="E24" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F24" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="G24" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="H24" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J24" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>170</v>
       </c>
@@ -1904,17 +2393,20 @@
       <c r="D25" s="2" t="s">
         <v>123</v>
       </c>
+      <c r="E25" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F25" s="2" t="s">
-        <v>6</v>
+        <v>287</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>287</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>172</v>
       </c>
@@ -1927,17 +2419,20 @@
       <c r="D26" s="2" t="s">
         <v>123</v>
       </c>
+      <c r="E26" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F26" s="2" t="s">
-        <v>6</v>
+        <v>287</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>287</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>174</v>
       </c>
@@ -1950,17 +2445,20 @@
       <c r="D27" s="2" t="s">
         <v>123</v>
       </c>
+      <c r="E27" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F27" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="G27" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="H27" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J27" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>173</v>
       </c>
@@ -1973,17 +2471,20 @@
       <c r="D28" s="2" t="s">
         <v>123</v>
       </c>
+      <c r="E28" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F28" s="2" t="s">
-        <v>6</v>
+        <v>287</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>287</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>255</v>
       </c>
@@ -1996,11 +2497,20 @@
       <c r="D29" s="2" t="s">
         <v>123</v>
       </c>
+      <c r="E29" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F29" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>136</v>
       </c>
@@ -2013,17 +2523,20 @@
       <c r="D30" s="2" t="s">
         <v>128</v>
       </c>
+      <c r="E30" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F30" s="2" t="s">
-        <v>6</v>
+        <v>287</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>293</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J30" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>176</v>
       </c>
@@ -2033,17 +2546,23 @@
       <c r="C31" s="2" t="s">
         <v>177</v>
       </c>
+      <c r="D31" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F31" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="G31" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="H31" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J31" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>140</v>
       </c>
@@ -2056,31 +2575,40 @@
       <c r="D32" s="2" t="s">
         <v>128</v>
       </c>
+      <c r="E32" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F32" s="2" t="s">
-        <v>6</v>
+        <v>287</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>293</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J32" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>179</v>
       </c>
+      <c r="D33" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F33" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="G33" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="H33" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J33" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>138</v>
       </c>
@@ -2093,31 +2621,40 @@
       <c r="D34" s="2" t="s">
         <v>128</v>
       </c>
+      <c r="E34" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F34" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="G34" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="H34" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J34" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>180</v>
       </c>
+      <c r="D35" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F35" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="G35" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="H35" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J35" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>137</v>
       </c>
@@ -2130,31 +2667,46 @@
       <c r="D36" s="2" t="s">
         <v>128</v>
       </c>
+      <c r="E36" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F36" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="G36" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="H36" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J36" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>181</v>
       </c>
+      <c r="B37" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F37" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="G37" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="H37" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J37" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>139</v>
       </c>
@@ -2167,87 +2719,120 @@
       <c r="D38" s="2" t="s">
         <v>128</v>
       </c>
+      <c r="E38" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F38" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="G38" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="H38" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>182</v>
       </c>
+      <c r="D39" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F39" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="G39" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="H39" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J39" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>183</v>
       </c>
+      <c r="D40" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F40" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="G40" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="H40" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J40" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>184</v>
       </c>
+      <c r="D41" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F41" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="G41" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="H41" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J41" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>185</v>
       </c>
+      <c r="D42" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F42" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="G42" s="2" t="s">
+        <v>294</v>
+      </c>
       <c r="H42" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J42" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>186</v>
       </c>
+      <c r="D43" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F43" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="G43" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="H43" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J43" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>187</v>
       </c>
@@ -2260,17 +2845,20 @@
       <c r="D44" s="2" t="s">
         <v>124</v>
       </c>
+      <c r="E44" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F44" s="2" t="s">
-        <v>6</v>
+        <v>287</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>287</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J44" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>188</v>
       </c>
@@ -2283,17 +2871,20 @@
       <c r="D45" s="2" t="s">
         <v>124</v>
       </c>
+      <c r="E45" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F45" s="2" t="s">
-        <v>6</v>
+        <v>287</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>287</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J45" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>194</v>
       </c>
@@ -2306,17 +2897,20 @@
       <c r="D46" s="2" t="s">
         <v>124</v>
       </c>
+      <c r="E46" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F46" s="2" t="s">
-        <v>6</v>
+        <v>287</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>287</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J46" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>191</v>
       </c>
@@ -2329,17 +2923,20 @@
       <c r="D47" s="2" t="s">
         <v>124</v>
       </c>
+      <c r="E47" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F47" s="2" t="s">
-        <v>6</v>
+        <v>287</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>287</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J47" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>195</v>
       </c>
@@ -2352,17 +2949,20 @@
       <c r="D48" s="2" t="s">
         <v>124</v>
       </c>
+      <c r="E48" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F48" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="G48" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="H48" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J48" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>196</v>
       </c>
@@ -2375,17 +2975,20 @@
       <c r="D49" s="2" t="s">
         <v>127</v>
       </c>
+      <c r="E49" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F49" s="2" t="s">
-        <v>6</v>
+        <v>287</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>287</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J49" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>197</v>
       </c>
@@ -2398,17 +3001,20 @@
       <c r="D50" s="2" t="s">
         <v>127</v>
       </c>
+      <c r="E50" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F50" s="2" t="s">
-        <v>6</v>
+        <v>287</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>287</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J50" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>202</v>
       </c>
@@ -2421,17 +3027,20 @@
       <c r="D51" s="2" t="s">
         <v>127</v>
       </c>
+      <c r="E51" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F51" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="G51" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="H51" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J51" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>203</v>
       </c>
@@ -2444,17 +3053,20 @@
       <c r="D52" s="2" t="s">
         <v>127</v>
       </c>
+      <c r="E52" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F52" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="G52" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="H52" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J52" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>204</v>
       </c>
@@ -2467,40 +3079,46 @@
       <c r="D53" s="2" t="s">
         <v>127</v>
       </c>
+      <c r="E53" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F53" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="G53" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="H53" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J53" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>205</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C54" s="3" t="s">
-        <v>111</v>
+      <c r="C54" s="4" t="s">
+        <v>109</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>127</v>
       </c>
+      <c r="E54" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F54" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="G54" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="H54" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J54" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>239</v>
       </c>
@@ -2513,17 +3131,20 @@
       <c r="D55" s="2" t="s">
         <v>264</v>
       </c>
+      <c r="E55" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F55" s="2" t="s">
-        <v>6</v>
+        <v>287</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>287</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J55" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>240</v>
       </c>
@@ -2536,17 +3157,20 @@
       <c r="D56" s="2" t="s">
         <v>264</v>
       </c>
+      <c r="E56" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F56" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="G56" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="H56" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J56" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>241</v>
       </c>
@@ -2559,17 +3183,20 @@
       <c r="D57" s="2" t="s">
         <v>264</v>
       </c>
+      <c r="E57" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F57" s="2" t="s">
-        <v>2</v>
+        <v>287</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>287</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J57" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>242</v>
       </c>
@@ -2582,17 +3209,20 @@
       <c r="D58" s="2" t="s">
         <v>264</v>
       </c>
+      <c r="E58" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F58" s="2" t="s">
-        <v>6</v>
+        <v>287</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>294</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J58" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>243</v>
       </c>
@@ -2601,87 +3231,147 @@
       <c r="D59" s="2" t="s">
         <v>264</v>
       </c>
+      <c r="E59" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F59" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H59" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J59" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>206</v>
       </c>
+      <c r="B60" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="F60" s="2" t="s">
-        <v>6</v>
+        <v>287</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>287</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J60" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>207</v>
       </c>
+      <c r="B61" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="F61" s="2" t="s">
-        <v>6</v>
+        <v>287</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>287</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J61" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>208</v>
       </c>
+      <c r="B62" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="F62" s="2" t="s">
-        <v>6</v>
+        <v>287</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>287</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J62" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>209</v>
       </c>
+      <c r="B63" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="F63" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="G63" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="H63" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J63" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>210</v>
       </c>
+      <c r="B64" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="F64" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="G64" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="H64" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J64" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>211</v>
       </c>
@@ -2694,85 +3384,97 @@
       <c r="D65" s="2" t="s">
         <v>254</v>
       </c>
+      <c r="E65" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F65" s="2" t="s">
-        <v>6</v>
+        <v>287</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>287</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J65" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>212</v>
       </c>
+      <c r="B66" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="D66" s="2" t="s">
         <v>254</v>
       </c>
+      <c r="E66" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F66" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="G66" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J66" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>213</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>254</v>
       </c>
+      <c r="E67" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F67" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H67" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J67" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>214</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>254</v>
       </c>
+      <c r="E68" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F68" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H68" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J68" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>215</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>254</v>
       </c>
+      <c r="E69" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F69" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H69" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J69" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>216</v>
       </c>
@@ -2785,17 +3487,20 @@
       <c r="D70" s="2" t="s">
         <v>254</v>
       </c>
+      <c r="E70" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F70" s="2" t="s">
-        <v>6</v>
+        <v>287</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>287</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J70" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>217</v>
       </c>
@@ -2808,85 +3513,100 @@
       <c r="D71" s="2" t="s">
         <v>119</v>
       </c>
+      <c r="E71" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F71" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="G71" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="H71" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J71" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>218</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>119</v>
       </c>
+      <c r="E72" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F72" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="G72" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="H72" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J72" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>219</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>119</v>
       </c>
+      <c r="E73" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F73" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="G73" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="H73" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J73" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>220</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>119</v>
       </c>
+      <c r="E74" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F74" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="G74" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="H74" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J74" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>221</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>119</v>
       </c>
+      <c r="E75" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F75" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="G75" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="H75" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J75" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>222</v>
       </c>
@@ -2899,51 +3619,60 @@
       <c r="D76" s="2" t="s">
         <v>119</v>
       </c>
+      <c r="E76" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F76" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="G76" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="H76" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J76" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>223</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>119</v>
       </c>
+      <c r="E77" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F77" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="G77" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="H77" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J77" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>224</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>119</v>
       </c>
+      <c r="E78" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F78" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="G78" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="H78" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J78" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>225</v>
       </c>
@@ -2956,17 +3685,20 @@
       <c r="D79" s="2" t="s">
         <v>119</v>
       </c>
+      <c r="E79" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F79" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="G79" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="H79" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J79" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>226</v>
       </c>
@@ -2979,34 +3711,40 @@
       <c r="D80" s="2" t="s">
         <v>119</v>
       </c>
+      <c r="E80" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F80" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="G80" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="H80" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>227</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>119</v>
       </c>
+      <c r="E81" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F81" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="G81" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="H81" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J81" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>230</v>
       </c>
@@ -3019,17 +3757,20 @@
       <c r="D82" s="2" t="s">
         <v>119</v>
       </c>
+      <c r="E82" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F82" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="G82" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="H82" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J82" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>231</v>
       </c>
@@ -3042,68 +3783,80 @@
       <c r="D83" s="2" t="s">
         <v>119</v>
       </c>
+      <c r="E83" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F83" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="G83" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="H83" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J83" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>232</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>119</v>
       </c>
+      <c r="E84" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F84" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="G84" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="H84" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J84" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>233</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>119</v>
       </c>
+      <c r="E85" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F85" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="G85" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="H85" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J85" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>229</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>119</v>
       </c>
+      <c r="E86" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F86" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="G86" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="H86" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J86" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>228</v>
       </c>
@@ -3116,201 +3869,246 @@
       <c r="D87" s="2" t="s">
         <v>119</v>
       </c>
+      <c r="E87" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F87" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="G87" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="H87" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J87" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>234</v>
       </c>
+      <c r="E88" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F88" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H88" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J88" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>235</v>
       </c>
+      <c r="E89" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F89" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H89" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J89" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>236</v>
       </c>
+      <c r="E90" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F90" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H90" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J90" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>237</v>
       </c>
+      <c r="E91" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F91" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H91" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J91" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>238</v>
       </c>
+      <c r="E92" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F92" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H92" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J92" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>144</v>
       </c>
+      <c r="E93" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F93" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="G93" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="H93" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J93" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>245</v>
+        <v>248</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>147</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>144</v>
       </c>
+      <c r="E94" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F94" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="G94" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="H94" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J94" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>246</v>
+        <v>249</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>145</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>144</v>
       </c>
+      <c r="E95" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F95" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="G95" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="H95" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J95" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>144</v>
       </c>
+      <c r="E96" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F96" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="G96" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="H96" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J96" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>148</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>144</v>
       </c>
+      <c r="E97" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F97" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="G97" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="H97" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J97" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>289</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>144</v>
       </c>
+      <c r="E98" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F98" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="G98" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="H98" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J98" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>250</v>
       </c>
@@ -3323,31 +4121,31 @@
       <c r="D99" s="2" t="s">
         <v>267</v>
       </c>
+      <c r="E99" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F99" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H99" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J99" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>251</v>
       </c>
+      <c r="E100" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F100" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H100" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J100" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>127</v>
       </c>
@@ -3360,64 +4158,97 @@
       <c r="D101" s="2" t="s">
         <v>127</v>
       </c>
+      <c r="E101" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F101" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A102" s="2" t="s">
+      <c r="H101" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>281</v>
+      </c>
+      <c r="B102" s="2" t="s">
         <v>270</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>271</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>271</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>121</v>
+        <v>272</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A103" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="H102" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>282</v>
+      </c>
+      <c r="B103" s="2" t="s">
         <v>273</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>283</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>274</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>121</v>
+        <v>272</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="2" t="s">
-        <v>166</v>
+        <v>6</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="H103" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>283</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>275</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>122</v>
+        <v>272</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A105" s="2" t="s">
-        <v>276</v>
+        <v>2</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="H104" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>286</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>277</v>
@@ -3426,37 +4257,231 @@
         <v>278</v>
       </c>
       <c r="D105" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H105" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>284</v>
+      </c>
+      <c r="B106" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="F105" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="2" t="s">
+      <c r="C106" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="B106" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>282</v>
-      </c>
       <c r="D106" s="2" t="s">
-        <v>279</v>
+        <v>272</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="F106" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="H106" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>285</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="D107" s="2" t="s">
         <v>272</v>
       </c>
+      <c r="E107" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="H107" s="2" t="s">
+        <v>287</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L101">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="Yes"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:N107"/>
+  <conditionalFormatting sqref="A102">
+    <cfRule type="expression" dxfId="47" priority="41">
+      <formula>$N102="Passed"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="46" priority="42">
+      <formula>$N102="Not Ready"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="45" priority="43">
+      <formula>$N102="Retest"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="44" priority="44">
+      <formula>$N102="Query"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="43" priority="45">
+      <formula>$N102="Blocked"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="46">
+      <formula>$N102="In Progress"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="41" priority="47">
+      <formula>$N102="N/A"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="40" priority="48">
+      <formula>$N102="Failed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A103">
+    <cfRule type="expression" dxfId="39" priority="33">
+      <formula>$N103="Passed"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="38" priority="34">
+      <formula>$N103="Not Ready"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="37" priority="35">
+      <formula>$N103="Retest"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="36" priority="36">
+      <formula>$N103="Query"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="35" priority="37">
+      <formula>$N103="Blocked"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="38">
+      <formula>$N103="In Progress"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="39">
+      <formula>$N103="N/A"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="32" priority="40">
+      <formula>$N103="Failed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A104">
+    <cfRule type="expression" dxfId="31" priority="25">
+      <formula>$N104="Passed"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="26">
+      <formula>$N104="Not Ready"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="29" priority="27">
+      <formula>$N104="Retest"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="28">
+      <formula>$N104="Query"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="27" priority="29">
+      <formula>$N104="Blocked"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="30">
+      <formula>$N104="In Progress"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="25" priority="31">
+      <formula>$N104="N/A"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="32">
+      <formula>$N104="Failed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A106">
+    <cfRule type="expression" dxfId="23" priority="17">
+      <formula>$N106="Passed"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="18">
+      <formula>$N106="Not Ready"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="19">
+      <formula>$N106="Retest"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="20">
+      <formula>$N106="Query"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="19" priority="21">
+      <formula>$N106="Blocked"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="22">
+      <formula>$N106="In Progress"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="17" priority="23">
+      <formula>$N106="N/A"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="24">
+      <formula>$N106="Failed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A107">
+    <cfRule type="expression" dxfId="15" priority="9">
+      <formula>$N107="Passed"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="10">
+      <formula>$N107="Not Ready"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="11">
+      <formula>$N107="Retest"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="12">
+      <formula>$N107="Query"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="11" priority="13">
+      <formula>$N107="Blocked"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="14">
+      <formula>$N107="In Progress"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="15">
+      <formula>$N107="N/A"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="16">
+      <formula>$N107="Failed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A105">
+    <cfRule type="expression" dxfId="7" priority="1">
+      <formula>$N105="Passed"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="2">
+      <formula>$N105="Not Ready"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="3">
+      <formula>$N105="Retest"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="4">
+      <formula>$N105="Query"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="5">
+      <formula>$N105="Blocked"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="6">
+      <formula>$N105="In Progress"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="7">
+      <formula>$N105="N/A"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="8">
+      <formula>$N105="Failed"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -5962,10 +6987,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6046,20 +7071,6 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/WppRegpack/TestResource/TC_RunManager.xlsx
+++ b/WppRegpack/TestResource/TC_RunManager.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Music\Script Fixing\GlobalTestSuiteAutomation\WppRegpack\TestResource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Music\August Regression\GlobalTestSuiteAutomation\WppRegpack\TestResource\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
     <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GlobalTestCase!$A$1:$N$107</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GlobalTestCase!$A$1:$M$107</definedName>
     <definedName name="IterationOptions">[1]Sheet1!$A$2:$A$4</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1576" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2125" uniqueCount="299">
   <si>
     <t>Description</t>
   </si>
@@ -897,15 +897,15 @@
     <t>General Journal</t>
   </si>
   <si>
-    <t>Completed</t>
-  </si>
-  <si>
     <t>InvoiceMPL</t>
   </si>
   <si>
     <t>ApproveAbsence</t>
   </si>
   <si>
+    <t>fixedassestresolution</t>
+  </si>
+  <si>
     <t>FixedAssetResolution</t>
   </si>
   <si>
@@ -915,13 +915,22 @@
     <t>PartialInvoicing_CarryForward</t>
   </si>
   <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>AssetDisposal</t>
+    <t>TimeAndMaterialInvoicing</t>
+  </si>
+  <si>
+    <t>JobInvoicing_WithoutWIP</t>
+  </si>
+  <si>
+    <t>InvoicingPlans_DriectInvoice</t>
+  </si>
+  <si>
+    <t>InvoicingPlans_InvoiceAccount</t>
+  </si>
+  <si>
+    <t>InvoicePlansDirectInvoice</t>
+  </si>
+  <si>
+    <t>InvoicePlansOnAccount</t>
   </si>
 </sst>
 </file>
@@ -1742,10 +1751,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N107"/>
+  <dimension ref="A1:M107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="E63" sqref="E63"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1754,18 +1763,19 @@
     <col min="2" max="2" width="29" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="22" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="22.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.28515625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="2"/>
+    <col min="12" max="12" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>135</v>
       </c>
@@ -1779,19 +1789,19 @@
         <v>118</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>116</v>
@@ -1799,14 +1809,14 @@
       <c r="K1" s="1" t="s">
         <v>252</v>
       </c>
+      <c r="L1" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="M1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="N1" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>149</v>
       </c>
@@ -1823,31 +1833,31 @@
         <v>6</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="L2" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="M2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>150</v>
       </c>
@@ -1864,19 +1874,31 @@
         <v>6</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>152</v>
       </c>
@@ -1893,16 +1915,31 @@
         <v>6</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>153</v>
       </c>
@@ -1922,13 +1959,28 @@
         <v>6</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>154</v>
       </c>
@@ -1945,16 +1997,31 @@
         <v>6</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>155</v>
       </c>
@@ -1971,16 +2038,31 @@
         <v>6</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>158</v>
       </c>
@@ -1999,11 +2081,29 @@
       <c r="F8" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="G8" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="H8" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>159</v>
       </c>
@@ -2022,11 +2122,29 @@
       <c r="F9" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="G9" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="H9" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>157</v>
       </c>
@@ -2046,13 +2164,28 @@
         <v>6</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>161</v>
       </c>
@@ -2072,13 +2205,28 @@
         <v>6</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>158</v>
       </c>
@@ -2095,16 +2243,31 @@
         <v>6</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>160</v>
       </c>
@@ -2124,13 +2287,28 @@
         <v>6</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>159</v>
       </c>
@@ -2147,16 +2325,31 @@
         <v>6</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>175</v>
       </c>
@@ -2176,13 +2369,28 @@
         <v>6</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>162</v>
       </c>
@@ -2199,16 +2407,31 @@
         <v>6</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>165</v>
       </c>
@@ -2228,13 +2451,28 @@
         <v>6</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>163</v>
       </c>
@@ -2251,16 +2489,31 @@
         <v>6</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>164</v>
       </c>
@@ -2277,16 +2530,31 @@
         <v>6</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>166</v>
       </c>
@@ -2296,11 +2564,29 @@
       <c r="F20" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="G20" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="H20" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>167</v>
       </c>
@@ -2310,11 +2596,29 @@
       <c r="F21" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="G21" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="H21" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>168</v>
       </c>
@@ -2324,11 +2628,29 @@
       <c r="F22" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="G22" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="H22" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>169</v>
       </c>
@@ -2345,16 +2667,31 @@
         <v>6</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>171</v>
       </c>
@@ -2374,13 +2711,28 @@
         <v>6</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>170</v>
       </c>
@@ -2397,16 +2749,31 @@
         <v>6</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>172</v>
       </c>
@@ -2423,16 +2790,31 @@
         <v>6</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>174</v>
       </c>
@@ -2452,13 +2834,28 @@
         <v>6</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>173</v>
       </c>
@@ -2475,16 +2872,31 @@
         <v>6</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>255</v>
       </c>
@@ -2501,16 +2913,31 @@
         <v>6</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>136</v>
       </c>
@@ -2527,16 +2954,31 @@
         <v>6</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>293</v>
+        <v>6</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I30" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>176</v>
       </c>
@@ -2556,13 +2998,28 @@
         <v>6</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I31" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>140</v>
       </c>
@@ -2579,19 +3036,40 @@
         <v>6</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>293</v>
+        <v>6</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>179</v>
       </c>
+      <c r="B33" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>298</v>
+      </c>
       <c r="D33" s="2" t="s">
         <v>128</v>
       </c>
@@ -2602,13 +3080,28 @@
         <v>6</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I33" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>138</v>
       </c>
@@ -2628,16 +3121,37 @@
         <v>6</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I34" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>180</v>
       </c>
+      <c r="B35" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="D35" s="2" t="s">
         <v>128</v>
       </c>
@@ -2648,13 +3162,28 @@
         <v>6</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I35" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>137</v>
       </c>
@@ -2674,13 +3203,28 @@
         <v>6</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I36" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>181</v>
       </c>
@@ -2700,13 +3244,28 @@
         <v>6</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I37" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>139</v>
       </c>
@@ -2726,16 +3285,37 @@
         <v>6</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I38" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>182</v>
       </c>
+      <c r="B39" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="D39" s="2" t="s">
         <v>128</v>
       </c>
@@ -2746,13 +3326,28 @@
         <v>6</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I39" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>183</v>
       </c>
@@ -2766,16 +3361,37 @@
         <v>6</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I40" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M40" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>184</v>
       </c>
+      <c r="B41" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>297</v>
+      </c>
       <c r="D41" s="2" t="s">
         <v>128</v>
       </c>
@@ -2786,13 +3402,28 @@
         <v>6</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I41" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M41" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>185</v>
       </c>
@@ -2806,13 +3437,28 @@
         <v>6</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>294</v>
+        <v>6</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I42" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M42" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>186</v>
       </c>
@@ -2826,13 +3472,28 @@
         <v>6</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>293</v>
+        <v>6</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I43" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M43" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>187</v>
       </c>
@@ -2849,16 +3510,31 @@
         <v>6</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M44" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>188</v>
       </c>
@@ -2875,16 +3551,31 @@
         <v>6</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M45" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>194</v>
       </c>
@@ -2901,16 +3592,31 @@
         <v>6</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M46" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>191</v>
       </c>
@@ -2927,16 +3633,31 @@
         <v>6</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M47" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>195</v>
       </c>
@@ -2956,13 +3677,28 @@
         <v>6</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M48" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>196</v>
       </c>
@@ -2979,16 +3715,31 @@
         <v>6</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M49" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>197</v>
       </c>
@@ -3005,16 +3756,31 @@
         <v>6</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L50" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M50" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>202</v>
       </c>
@@ -3034,13 +3800,28 @@
         <v>6</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L51" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M51" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>203</v>
       </c>
@@ -3060,13 +3841,28 @@
         <v>6</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L52" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M52" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>204</v>
       </c>
@@ -3086,13 +3882,28 @@
         <v>6</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L53" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M53" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>205</v>
       </c>
@@ -3112,13 +3923,28 @@
         <v>6</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L54" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M54" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>239</v>
       </c>
@@ -3135,16 +3961,31 @@
         <v>6</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L55" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M55" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>240</v>
       </c>
@@ -3164,13 +4005,28 @@
         <v>6</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="H56" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I56" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L56" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M56" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>241</v>
       </c>
@@ -3187,16 +4043,31 @@
         <v>6</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L57" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M57" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>242</v>
       </c>
@@ -3213,16 +4084,31 @@
         <v>6</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>294</v>
+        <v>6</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L58" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M58" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>243</v>
       </c>
@@ -3237,11 +4123,29 @@
       <c r="F59" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="G59" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="H59" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I59" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L59" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M59" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>206</v>
       </c>
@@ -3255,19 +4159,34 @@
         <v>125</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K60" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L60" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M60" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>207</v>
       </c>
@@ -3281,19 +4200,34 @@
         <v>125</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K61" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L61" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M61" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>208</v>
       </c>
@@ -3301,25 +4235,40 @@
         <v>45</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>125</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K62" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L62" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M62" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>209</v>
       </c>
@@ -3327,25 +4276,40 @@
         <v>290</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>125</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>6</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="H63" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I63" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K63" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L63" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M63" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>210</v>
       </c>
@@ -3353,25 +4317,40 @@
         <v>35</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>295</v>
+        <v>46</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>125</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>6</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="H64" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I64" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K64" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L64" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M64" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>211</v>
       </c>
@@ -3388,16 +4367,31 @@
         <v>6</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K65" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L65" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M65" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>212</v>
       </c>
@@ -3414,16 +4408,31 @@
         <v>6</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K66" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L66" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M66" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>213</v>
       </c>
@@ -3436,11 +4445,29 @@
       <c r="F67" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="G67" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="H67" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I67" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J67" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K67" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L67" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M67" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>214</v>
       </c>
@@ -3453,11 +4480,29 @@
       <c r="F68" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="G68" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="H68" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I68" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J68" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K68" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L68" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M68" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>215</v>
       </c>
@@ -3470,11 +4515,29 @@
       <c r="F69" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="G69" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="H69" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I69" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J69" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K69" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L69" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M69" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>216</v>
       </c>
@@ -3491,16 +4554,31 @@
         <v>6</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J70" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K70" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L70" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M70" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>217</v>
       </c>
@@ -3520,13 +4598,28 @@
         <v>6</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="H71" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I71" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J71" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K71" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L71" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M71" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>218</v>
       </c>
@@ -3540,13 +4633,28 @@
         <v>6</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="H72" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I72" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J72" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K72" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L72" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M72" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>219</v>
       </c>
@@ -3560,13 +4668,28 @@
         <v>6</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="H73" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I73" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J73" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K73" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L73" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M73" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>220</v>
       </c>
@@ -3580,13 +4703,28 @@
         <v>6</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="H74" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I74" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J74" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K74" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L74" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M74" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>221</v>
       </c>
@@ -3600,13 +4738,28 @@
         <v>6</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="H75" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I75" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J75" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K75" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L75" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M75" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>222</v>
       </c>
@@ -3626,13 +4779,28 @@
         <v>6</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="H76" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I76" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J76" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K76" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L76" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M76" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>223</v>
       </c>
@@ -3646,13 +4814,28 @@
         <v>6</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="H77" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I77" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J77" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K77" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L77" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M77" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>224</v>
       </c>
@@ -3666,13 +4849,28 @@
         <v>6</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="H78" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I78" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J78" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K78" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L78" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M78" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>225</v>
       </c>
@@ -3692,13 +4890,28 @@
         <v>6</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="H79" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I79" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J79" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K79" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L79" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M79" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>226</v>
       </c>
@@ -3718,13 +4931,28 @@
         <v>6</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="H80" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I80" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J80" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K80" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L80" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M80" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>227</v>
       </c>
@@ -3738,13 +4966,28 @@
         <v>6</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="H81" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I81" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J81" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K81" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L81" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M81" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>230</v>
       </c>
@@ -3764,13 +5007,28 @@
         <v>6</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="H82" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I82" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J82" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K82" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L82" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M82" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>231</v>
       </c>
@@ -3790,13 +5048,28 @@
         <v>6</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="H83" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I83" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J83" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K83" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L83" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M83" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>232</v>
       </c>
@@ -3810,13 +5083,28 @@
         <v>6</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="H84" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I84" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J84" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K84" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L84" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M84" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>233</v>
       </c>
@@ -3830,13 +5118,28 @@
         <v>6</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="H85" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I85" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J85" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K85" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L85" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M85" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>229</v>
       </c>
@@ -3850,13 +5153,28 @@
         <v>6</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="H86" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I86" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J86" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K86" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L86" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M86" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>228</v>
       </c>
@@ -3876,13 +5194,28 @@
         <v>6</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="H87" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I87" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J87" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K87" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L87" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M87" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>234</v>
       </c>
@@ -3892,11 +5225,29 @@
       <c r="F88" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="G88" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="H88" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I88" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J88" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K88" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L88" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M88" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>235</v>
       </c>
@@ -3906,11 +5257,29 @@
       <c r="F89" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="G89" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="H89" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I89" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J89" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K89" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L89" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M89" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>236</v>
       </c>
@@ -3920,11 +5289,29 @@
       <c r="F90" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="G90" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="H90" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I90" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J90" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K90" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L90" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M90" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>237</v>
       </c>
@@ -3934,11 +5321,29 @@
       <c r="F91" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="G91" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="H91" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I91" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J91" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K91" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L91" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M91" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>238</v>
       </c>
@@ -3948,11 +5353,29 @@
       <c r="F92" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="G92" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="H92" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I92" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J92" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K92" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L92" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M92" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>247</v>
       </c>
@@ -3972,13 +5395,28 @@
         <v>6</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="H93" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I93" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J93" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K93" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L93" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M93" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>248</v>
       </c>
@@ -3986,7 +5424,7 @@
         <v>147</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>144</v>
@@ -3998,13 +5436,28 @@
         <v>6</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="H94" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I94" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J94" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K94" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L94" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M94" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>249</v>
       </c>
@@ -4024,13 +5477,28 @@
         <v>6</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="H95" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I95" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J95" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K95" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L95" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M95" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>244</v>
       </c>
@@ -4050,13 +5518,28 @@
         <v>6</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="H96" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I96" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J96" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K96" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L96" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M96" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>245</v>
       </c>
@@ -4076,21 +5559,36 @@
         <v>6</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="H97" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I97" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J97" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K97" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L97" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M97" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>246</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>144</v>
@@ -4102,13 +5600,28 @@
         <v>6</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="H98" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I98" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J98" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K98" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L98" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M98" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>250</v>
       </c>
@@ -4127,11 +5640,29 @@
       <c r="F99" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="G99" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="H99" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I99" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J99" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K99" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L99" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M99" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>251</v>
       </c>
@@ -4141,11 +5672,29 @@
       <c r="F100" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="G100" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="H100" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I100" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J100" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K100" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L100" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M100" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>127</v>
       </c>
@@ -4164,11 +5713,29 @@
       <c r="F101" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="G101" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="H101" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I101" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J101" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K101" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L101" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M101" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>281</v>
       </c>
@@ -4188,13 +5755,28 @@
         <v>6</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="H102" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I102" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J102" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K102" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L102" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M102" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>282</v>
       </c>
@@ -4214,13 +5796,28 @@
         <v>6</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="H103" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I103" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J103" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K103" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L103" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M103" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>283</v>
       </c>
@@ -4237,16 +5834,31 @@
         <v>6</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="I104" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J104" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K104" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L104" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M104" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>286</v>
       </c>
@@ -4266,13 +5878,28 @@
         <v>6</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="I105" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J105" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K105" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L105" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M105" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>284</v>
       </c>
@@ -4289,21 +5916,36 @@
         <v>6</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="I106" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J106" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K106" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L106" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M106" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>285</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>280</v>
@@ -4315,171 +5957,186 @@
         <v>6</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>287</v>
+        <v>6</v>
+      </c>
+      <c r="I107" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J107" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K107" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L107" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M107" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N107"/>
+  <autoFilter ref="A1:M107"/>
   <conditionalFormatting sqref="A102">
     <cfRule type="expression" dxfId="47" priority="41">
-      <formula>$N102="Passed"</formula>
+      <formula>$M102="Passed"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="46" priority="42">
-      <formula>$N102="Not Ready"</formula>
+      <formula>$M102="Not Ready"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="45" priority="43">
-      <formula>$N102="Retest"</formula>
+      <formula>$M102="Retest"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="44" priority="44">
-      <formula>$N102="Query"</formula>
+      <formula>$M102="Query"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="43" priority="45">
-      <formula>$N102="Blocked"</formula>
+      <formula>$M102="Blocked"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="42" priority="46">
-      <formula>$N102="In Progress"</formula>
+      <formula>$M102="In Progress"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="41" priority="47">
-      <formula>$N102="N/A"</formula>
+      <formula>$M102="N/A"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="40" priority="48">
-      <formula>$N102="Failed"</formula>
+      <formula>$M102="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A103">
     <cfRule type="expression" dxfId="39" priority="33">
-      <formula>$N103="Passed"</formula>
+      <formula>$M103="Passed"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="38" priority="34">
-      <formula>$N103="Not Ready"</formula>
+      <formula>$M103="Not Ready"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="37" priority="35">
-      <formula>$N103="Retest"</formula>
+      <formula>$M103="Retest"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="36" priority="36">
-      <formula>$N103="Query"</formula>
+      <formula>$M103="Query"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="35" priority="37">
-      <formula>$N103="Blocked"</formula>
+      <formula>$M103="Blocked"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="34" priority="38">
-      <formula>$N103="In Progress"</formula>
+      <formula>$M103="In Progress"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="33" priority="39">
-      <formula>$N103="N/A"</formula>
+      <formula>$M103="N/A"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="32" priority="40">
-      <formula>$N103="Failed"</formula>
+      <formula>$M103="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A104">
     <cfRule type="expression" dxfId="31" priority="25">
-      <formula>$N104="Passed"</formula>
+      <formula>$M104="Passed"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="30" priority="26">
-      <formula>$N104="Not Ready"</formula>
+      <formula>$M104="Not Ready"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="29" priority="27">
-      <formula>$N104="Retest"</formula>
+      <formula>$M104="Retest"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="28" priority="28">
-      <formula>$N104="Query"</formula>
+      <formula>$M104="Query"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="27" priority="29">
-      <formula>$N104="Blocked"</formula>
+      <formula>$M104="Blocked"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="26" priority="30">
-      <formula>$N104="In Progress"</formula>
+      <formula>$M104="In Progress"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="25" priority="31">
-      <formula>$N104="N/A"</formula>
+      <formula>$M104="N/A"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="24" priority="32">
-      <formula>$N104="Failed"</formula>
+      <formula>$M104="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A106">
     <cfRule type="expression" dxfId="23" priority="17">
-      <formula>$N106="Passed"</formula>
+      <formula>$M106="Passed"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="22" priority="18">
-      <formula>$N106="Not Ready"</formula>
+      <formula>$M106="Not Ready"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="21" priority="19">
-      <formula>$N106="Retest"</formula>
+      <formula>$M106="Retest"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="20" priority="20">
-      <formula>$N106="Query"</formula>
+      <formula>$M106="Query"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="19" priority="21">
-      <formula>$N106="Blocked"</formula>
+      <formula>$M106="Blocked"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="18" priority="22">
-      <formula>$N106="In Progress"</formula>
+      <formula>$M106="In Progress"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="17" priority="23">
-      <formula>$N106="N/A"</formula>
+      <formula>$M106="N/A"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="16" priority="24">
-      <formula>$N106="Failed"</formula>
+      <formula>$M106="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A107">
     <cfRule type="expression" dxfId="15" priority="9">
-      <formula>$N107="Passed"</formula>
+      <formula>$M107="Passed"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="14" priority="10">
-      <formula>$N107="Not Ready"</formula>
+      <formula>$M107="Not Ready"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="13" priority="11">
-      <formula>$N107="Retest"</formula>
+      <formula>$M107="Retest"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="12" priority="12">
-      <formula>$N107="Query"</formula>
+      <formula>$M107="Query"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="11" priority="13">
-      <formula>$N107="Blocked"</formula>
+      <formula>$M107="Blocked"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="10" priority="14">
-      <formula>$N107="In Progress"</formula>
+      <formula>$M107="In Progress"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="9" priority="15">
-      <formula>$N107="N/A"</formula>
+      <formula>$M107="N/A"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="8" priority="16">
-      <formula>$N107="Failed"</formula>
+      <formula>$M107="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A105">
     <cfRule type="expression" dxfId="7" priority="1">
-      <formula>$N105="Passed"</formula>
+      <formula>$M105="Passed"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="6" priority="2">
-      <formula>$N105="Not Ready"</formula>
+      <formula>$M105="Not Ready"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="5" priority="3">
-      <formula>$N105="Retest"</formula>
+      <formula>$M105="Retest"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="4">
-      <formula>$N105="Query"</formula>
+      <formula>$M105="Query"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="3" priority="5">
-      <formula>$N105="Blocked"</formula>
+      <formula>$M105="Blocked"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="6">
-      <formula>$N105="In Progress"</formula>
+      <formula>$M105="In Progress"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="7">
-      <formula>$N105="N/A"</formula>
+      <formula>$M105="N/A"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="8">
-      <formula>$N105="Failed"</formula>
+      <formula>$M105="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/WppRegpack/TestResource/TC_RunManager.xlsx
+++ b/WppRegpack/TestResource/TC_RunManager.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Music\August Regression\GlobalTestSuiteAutomation\WppRegpack\TestResource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\BAU\GlobalTestSuiteAutomation\WppRegpack\TestResource\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -915,9 +915,6 @@
     <t>PartialInvoicing_CarryForward</t>
   </si>
   <si>
-    <t>TimeAndMaterialInvoicing</t>
-  </si>
-  <si>
     <t>JobInvoicing_WithoutWIP</t>
   </si>
   <si>
@@ -931,6 +928,9 @@
   </si>
   <si>
     <t>InvoicePlansOnAccount</t>
+  </si>
+  <si>
+    <t>TM_Invoice</t>
   </si>
 </sst>
 </file>
@@ -1753,8 +1753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3065,10 +3065,10 @@
         <v>179</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>128</v>
@@ -3147,7 +3147,7 @@
         <v>180</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>134</v>
@@ -3311,10 +3311,10 @@
         <v>182</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>293</v>
+        <v>134</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>128</v>
@@ -3387,10 +3387,10 @@
         <v>184</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>128</v>

--- a/WppRegpack/TestResource/TC_RunManager.xlsx
+++ b/WppRegpack/TestResource/TC_RunManager.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\BAU\GlobalTestSuiteAutomation\WppRegpack\TestResource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Music\Smoke Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -687,72 +687,6 @@
     <t>03. Create Employee Employee Vendor &amp; User</t>
   </si>
   <si>
-    <t>Create a Global Brand</t>
-  </si>
-  <si>
-    <t>Create a Global Product</t>
-  </si>
-  <si>
-    <t>Create a Company Client</t>
-  </si>
-  <si>
-    <t>Create a Company Brand</t>
-  </si>
-  <si>
-    <t>Create a Company Product</t>
-  </si>
-  <si>
-    <t>Amend a Global Client</t>
-  </si>
-  <si>
-    <t>Amend a Global Brand</t>
-  </si>
-  <si>
-    <t>Amend a Global Product</t>
-  </si>
-  <si>
-    <t>Amend a Company Client</t>
-  </si>
-  <si>
-    <t>Amend a Company Brand</t>
-  </si>
-  <si>
-    <t>Amend a Company Product</t>
-  </si>
-  <si>
-    <t>Block a Global Client</t>
-  </si>
-  <si>
-    <t>Block a Global Brand</t>
-  </si>
-  <si>
-    <t>Block a Company Product</t>
-  </si>
-  <si>
-    <t>Block a Company Brand</t>
-  </si>
-  <si>
-    <t>Block a Company Client</t>
-  </si>
-  <si>
-    <t>Block a Global Product</t>
-  </si>
-  <si>
-    <t>Create a Company Vendor</t>
-  </si>
-  <si>
-    <t>Amend a Global Vendor</t>
-  </si>
-  <si>
-    <t>Amend a Company Vendor</t>
-  </si>
-  <si>
-    <t>Block a Company Vendor</t>
-  </si>
-  <si>
-    <t>Block a Global Vendor</t>
-  </si>
-  <si>
     <t>01. Create a Payment Selection</t>
   </si>
   <si>
@@ -931,6 +865,72 @@
   </si>
   <si>
     <t>TM_Invoice</t>
+  </si>
+  <si>
+    <t>02. Create a Global Brand</t>
+  </si>
+  <si>
+    <t>03. Create a Global Product</t>
+  </si>
+  <si>
+    <t>04. Create a Company Client</t>
+  </si>
+  <si>
+    <t>05. Create a Company Brand</t>
+  </si>
+  <si>
+    <t>06. Create a Company Product</t>
+  </si>
+  <si>
+    <t>07. Amend a Global Client</t>
+  </si>
+  <si>
+    <t>08. Amend a Global Brand</t>
+  </si>
+  <si>
+    <t>09. Amend a Global Product</t>
+  </si>
+  <si>
+    <t>10. Amend a Company Client</t>
+  </si>
+  <si>
+    <t>11. Amend a Company Brand</t>
+  </si>
+  <si>
+    <t>12. Amend a Company Product</t>
+  </si>
+  <si>
+    <t>18. Block a Company Product</t>
+  </si>
+  <si>
+    <t>17. Block a Company Brand</t>
+  </si>
+  <si>
+    <t>16. Block a Company Client</t>
+  </si>
+  <si>
+    <t>15. Block a Global Product</t>
+  </si>
+  <si>
+    <t>14. Block a Global Brand</t>
+  </si>
+  <si>
+    <t>13. Block a Global Client</t>
+  </si>
+  <si>
+    <t>2. Create a Company Vendor</t>
+  </si>
+  <si>
+    <t>3. Amend a Global Vendor</t>
+  </si>
+  <si>
+    <t>4. Amend a Company Vendor</t>
+  </si>
+  <si>
+    <t>6. Block a Company Vendor</t>
+  </si>
+  <si>
+    <t>5. Block a Global Vendor</t>
   </si>
 </sst>
 </file>
@@ -1753,8 +1753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="A71" sqref="A71:A92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1789,7 +1789,7 @@
         <v>118</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>253</v>
+        <v>231</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>89</v>
@@ -1807,7 +1807,7 @@
         <v>116</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>252</v>
+        <v>230</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>91</v>
@@ -2190,13 +2190,13 @@
         <v>161</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>266</v>
+        <v>244</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>266</v>
+        <v>244</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>6</v>
@@ -2898,13 +2898,13 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>255</v>
+        <v>233</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>123</v>
@@ -3065,10 +3065,10 @@
         <v>179</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>297</v>
+        <v>275</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>128</v>
@@ -3147,7 +3147,7 @@
         <v>180</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>293</v>
+        <v>271</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>134</v>
@@ -3229,10 +3229,10 @@
         <v>181</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>292</v>
+        <v>270</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>291</v>
+        <v>269</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>128</v>
@@ -3311,7 +3311,7 @@
         <v>182</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>298</v>
+        <v>276</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>134</v>
@@ -3387,10 +3387,10 @@
         <v>184</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>294</v>
+        <v>272</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>128</v>
@@ -3946,16 +3946,16 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>239</v>
+        <v>217</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>260</v>
+        <v>238</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>264</v>
+        <v>242</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>6</v>
@@ -3987,16 +3987,16 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>259</v>
+        <v>237</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>264</v>
+        <v>242</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>6</v>
@@ -4028,16 +4028,16 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>269</v>
+        <v>247</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>269</v>
+        <v>247</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>264</v>
+        <v>242</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>6</v>
@@ -4069,16 +4069,16 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D58" s="2" t="s">
         <v>242</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>264</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>6</v>
@@ -4110,12 +4110,12 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
       <c r="D59" s="2" t="s">
-        <v>264</v>
+        <v>242</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>6</v>
@@ -4273,10 +4273,10 @@
         <v>209</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>290</v>
+        <v>268</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>289</v>
+        <v>267</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>125</v>
@@ -4361,7 +4361,7 @@
         <v>16</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>254</v>
+        <v>232</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>6</v>
@@ -4402,7 +4402,7 @@
         <v>20</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>254</v>
+        <v>232</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>6</v>
@@ -4437,7 +4437,7 @@
         <v>213</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>254</v>
+        <v>232</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>6</v>
@@ -4472,7 +4472,7 @@
         <v>214</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>254</v>
+        <v>232</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>6</v>
@@ -4507,7 +4507,7 @@
         <v>215</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>254</v>
+        <v>232</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>6</v>
@@ -4548,7 +4548,7 @@
         <v>18</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>254</v>
+        <v>232</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>6</v>
@@ -4579,8 +4579,8 @@
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
-        <v>217</v>
+      <c r="A71" t="s">
+        <v>277</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>99</v>
@@ -4620,8 +4620,8 @@
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
-        <v>218</v>
+      <c r="A72" t="s">
+        <v>278</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>119</v>
@@ -4655,8 +4655,8 @@
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
-        <v>219</v>
+      <c r="A73" t="s">
+        <v>279</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>119</v>
@@ -4690,8 +4690,8 @@
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
-        <v>220</v>
+      <c r="A74" t="s">
+        <v>280</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>119</v>
@@ -4725,8 +4725,8 @@
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
-        <v>221</v>
+      <c r="A75" t="s">
+        <v>281</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>119</v>
@@ -4760,8 +4760,8 @@
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
-        <v>222</v>
+      <c r="A76" t="s">
+        <v>282</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>84</v>
@@ -4801,8 +4801,8 @@
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A77" s="2" t="s">
-        <v>223</v>
+      <c r="A77" t="s">
+        <v>283</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>119</v>
@@ -4836,8 +4836,8 @@
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A78" s="2" t="s">
-        <v>224</v>
+      <c r="A78" t="s">
+        <v>284</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>119</v>
@@ -4871,8 +4871,8 @@
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="s">
-        <v>225</v>
+      <c r="A79" t="s">
+        <v>285</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>97</v>
@@ -4912,8 +4912,8 @@
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A80" s="2" t="s">
-        <v>226</v>
+      <c r="A80" t="s">
+        <v>286</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>96</v>
@@ -4953,8 +4953,8 @@
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A81" s="2" t="s">
-        <v>227</v>
+      <c r="A81" t="s">
+        <v>287</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>119</v>
@@ -4988,8 +4988,8 @@
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A82" s="2" t="s">
-        <v>230</v>
+      <c r="A82" t="s">
+        <v>288</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>79</v>
@@ -5029,8 +5029,8 @@
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A83" s="2" t="s">
-        <v>231</v>
+      <c r="A83" t="s">
+        <v>289</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>75</v>
@@ -5070,8 +5070,8 @@
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A84" s="2" t="s">
-        <v>232</v>
+      <c r="A84" t="s">
+        <v>290</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>119</v>
@@ -5105,8 +5105,8 @@
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A85" s="2" t="s">
-        <v>233</v>
+      <c r="A85" t="s">
+        <v>291</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>119</v>
@@ -5140,8 +5140,8 @@
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A86" s="2" t="s">
-        <v>229</v>
+      <c r="A86" t="s">
+        <v>292</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>119</v>
@@ -5175,8 +5175,8 @@
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A87" s="2" t="s">
-        <v>228</v>
+      <c r="A87" t="s">
+        <v>293</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>70</v>
@@ -5216,8 +5216,8 @@
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A88" s="2" t="s">
-        <v>234</v>
+      <c r="A88" t="s">
+        <v>294</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>6</v>
@@ -5248,8 +5248,8 @@
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A89" s="2" t="s">
-        <v>235</v>
+      <c r="A89" t="s">
+        <v>295</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>6</v>
@@ -5280,8 +5280,8 @@
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A90" s="2" t="s">
-        <v>236</v>
+      <c r="A90" t="s">
+        <v>296</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>6</v>
@@ -5312,8 +5312,8 @@
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A91" s="2" t="s">
-        <v>237</v>
+      <c r="A91" t="s">
+        <v>297</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>6</v>
@@ -5344,8 +5344,8 @@
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A92" s="2" t="s">
-        <v>238</v>
+      <c r="A92" t="s">
+        <v>298</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>6</v>
@@ -5377,7 +5377,7 @@
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>247</v>
+        <v>225</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>143</v>
@@ -5418,7 +5418,7 @@
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>248</v>
+        <v>226</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>147</v>
@@ -5459,7 +5459,7 @@
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>249</v>
+        <v>227</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>145</v>
@@ -5500,7 +5500,7 @@
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>244</v>
+        <v>222</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>146</v>
@@ -5541,7 +5541,7 @@
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>245</v>
+        <v>223</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>148</v>
@@ -5582,13 +5582,13 @@
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>246</v>
+        <v>224</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>288</v>
+        <v>266</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>288</v>
+        <v>266</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>144</v>
@@ -5623,16 +5623,16 @@
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>250</v>
+        <v>228</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>267</v>
+        <v>245</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>267</v>
+        <v>245</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>267</v>
+        <v>245</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>6</v>
@@ -5664,7 +5664,7 @@
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>6</v>
@@ -5699,10 +5699,10 @@
         <v>127</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>127</v>
@@ -5737,16 +5737,16 @@
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>281</v>
+        <v>259</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>270</v>
+        <v>248</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>271</v>
+        <v>249</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>272</v>
+        <v>250</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>6</v>
@@ -5778,16 +5778,16 @@
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>282</v>
+        <v>260</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>273</v>
+        <v>251</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>274</v>
+        <v>252</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>272</v>
+        <v>250</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>6</v>
@@ -5819,16 +5819,16 @@
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>283</v>
+        <v>261</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>275</v>
+        <v>253</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>276</v>
+        <v>254</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>272</v>
+        <v>250</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>6</v>
@@ -5860,16 +5860,16 @@
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>286</v>
+        <v>264</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>277</v>
+        <v>255</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>278</v>
+        <v>256</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>272</v>
+        <v>250</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>6</v>
@@ -5901,16 +5901,16 @@
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>284</v>
+        <v>262</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>279</v>
+        <v>257</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>280</v>
+        <v>258</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>272</v>
+        <v>250</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>6</v>
@@ -5942,16 +5942,16 @@
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>285</v>
+        <v>263</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>287</v>
+        <v>265</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>280</v>
+        <v>258</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>272</v>
+        <v>250</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>6</v>

--- a/WppRegpack/TestResource/TC_RunManager.xlsx
+++ b/WppRegpack/TestResource/TC_RunManager.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Music\Smoke Testing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GlobalTestSuite_BAU\GlobalTestSuiteAutomation\WppRegpack\TestResource\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1753,8 +1753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="A71" sqref="A71:A92"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4235,13 +4235,13 @@
         <v>45</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>125</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>6</v>

--- a/WppRegpack/TestResource/TC_RunManager.xlsx
+++ b/WppRegpack/TestResource/TC_RunManager.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2125" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2151" uniqueCount="305">
   <si>
     <t>Description</t>
   </si>
@@ -931,6 +931,24 @@
   </si>
   <si>
     <t>5. Block a Global Vendor</t>
+  </si>
+  <si>
+    <t>PaymentSelection_MPL</t>
+  </si>
+  <si>
+    <t>validatePaymentSelectionMPL</t>
+  </si>
+  <si>
+    <t>Payment Selection MPL</t>
+  </si>
+  <si>
+    <t>Print Payment Remittance MPL</t>
+  </si>
+  <si>
+    <t>PrintPaymentRemittance_MPL</t>
+  </si>
+  <si>
+    <t>validatePaymentRemittanceMPL</t>
   </si>
 </sst>
 </file>
@@ -1015,72 +1033,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="48">
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF321547"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="40">
     <dxf>
       <font>
         <color theme="0"/>
@@ -1751,10 +1704,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M107"/>
+  <dimension ref="A1:M109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="E66" sqref="E66"/>
+    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="E108" sqref="E108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4405,7 +4358,7 @@
         <v>232</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>6</v>
@@ -5981,110 +5934,166 @@
         <v>6</v>
       </c>
     </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>301</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H108" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I108" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J108" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K108" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L108" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M108" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H109" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I109" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J109" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K109" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L109" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M109" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:M107"/>
-  <conditionalFormatting sqref="A102">
-    <cfRule type="expression" dxfId="47" priority="41">
+  <conditionalFormatting sqref="A102 A106 A108">
+    <cfRule type="expression" dxfId="39" priority="41">
       <formula>$M102="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="42">
+    <cfRule type="expression" dxfId="38" priority="42">
       <formula>$M102="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="43">
+    <cfRule type="expression" dxfId="37" priority="43">
       <formula>$M102="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="44">
+    <cfRule type="expression" dxfId="36" priority="44">
       <formula>$M102="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="45">
+    <cfRule type="expression" dxfId="35" priority="45">
       <formula>$M102="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="46">
+    <cfRule type="expression" dxfId="34" priority="46">
       <formula>$M102="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="47">
+    <cfRule type="expression" dxfId="33" priority="47">
       <formula>$M102="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="48">
+    <cfRule type="expression" dxfId="32" priority="48">
       <formula>$M102="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A103">
-    <cfRule type="expression" dxfId="39" priority="33">
+    <cfRule type="expression" dxfId="31" priority="33">
       <formula>$M103="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="34">
+    <cfRule type="expression" dxfId="30" priority="34">
       <formula>$M103="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="35">
+    <cfRule type="expression" dxfId="29" priority="35">
       <formula>$M103="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="36">
+    <cfRule type="expression" dxfId="28" priority="36">
       <formula>$M103="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="37">
+    <cfRule type="expression" dxfId="27" priority="37">
       <formula>$M103="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="38">
+    <cfRule type="expression" dxfId="26" priority="38">
       <formula>$M103="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="39">
+    <cfRule type="expression" dxfId="25" priority="39">
       <formula>$M103="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="40">
+    <cfRule type="expression" dxfId="24" priority="40">
       <formula>$M103="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A104">
-    <cfRule type="expression" dxfId="31" priority="25">
+    <cfRule type="expression" dxfId="23" priority="25">
       <formula>$M104="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="26">
+    <cfRule type="expression" dxfId="22" priority="26">
       <formula>$M104="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="27">
+    <cfRule type="expression" dxfId="21" priority="27">
       <formula>$M104="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="28">
+    <cfRule type="expression" dxfId="20" priority="28">
       <formula>$M104="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="29">
+    <cfRule type="expression" dxfId="19" priority="29">
       <formula>$M104="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="30">
+    <cfRule type="expression" dxfId="18" priority="30">
       <formula>$M104="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="31">
+    <cfRule type="expression" dxfId="17" priority="31">
       <formula>$M104="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="32">
+    <cfRule type="expression" dxfId="16" priority="32">
       <formula>$M104="Failed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A106">
-    <cfRule type="expression" dxfId="23" priority="17">
-      <formula>$M106="Passed"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="22" priority="18">
-      <formula>$M106="Not Ready"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="21" priority="19">
-      <formula>$M106="Retest"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="20" priority="20">
-      <formula>$M106="Query"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="19" priority="21">
-      <formula>$M106="Blocked"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="18" priority="22">
-      <formula>$M106="In Progress"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="17" priority="23">
-      <formula>$M106="N/A"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="24">
-      <formula>$M106="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A107">

--- a/WppRegpack/TestResource/TC_RunManager.xlsx
+++ b/WppRegpack/TestResource/TC_RunManager.xlsx
@@ -1706,8 +1706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="E108" sqref="E108"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4317,7 +4317,7 @@
         <v>232</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>6</v>
@@ -5948,7 +5948,7 @@
         <v>250</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>6</v>

--- a/WppRegpack/TestResource/TC_RunManager.xlsx
+++ b/WppRegpack/TestResource/TC_RunManager.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GlobalTestSuite_BAU\GlobalTestSuiteAutomation\WppRegpack\TestResource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GlobalTestAutomation1\GlobalTestSuiteAutomation\WppRegpack\TestResource\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2151" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2155" uniqueCount="307">
   <si>
     <t>Description</t>
   </si>
@@ -949,6 +949,12 @@
   </si>
   <si>
     <t>validatePaymentRemittanceMPL</t>
+  </si>
+  <si>
+    <t>changeEmployee</t>
+  </si>
+  <si>
+    <t>changeUser</t>
   </si>
 </sst>
 </file>
@@ -1706,8 +1712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="E65" sqref="E65"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4317,7 +4323,7 @@
         <v>232</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>6</v>
@@ -4389,11 +4395,17 @@
       <c r="A67" s="2" t="s">
         <v>213</v>
       </c>
+      <c r="B67" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>305</v>
+      </c>
       <c r="D67" s="2" t="s">
         <v>232</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>6</v>
@@ -4458,6 +4470,12 @@
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>215</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>306</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>232</v>

--- a/WppRegpack/TestResource/TC_RunManager.xlsx
+++ b/WppRegpack/TestResource/TC_RunManager.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GlobalTestAutomation1\GlobalTestSuiteAutomation\WppRegpack\TestResource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\OneDrive - Cognizant\Documents\GlobalTestSuite Project\GlobalTestSuiteAutomation\WppRegpack\TestResource\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
     <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GlobalTestCase!$A$1:$M$107</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GlobalTestCase!$A$1:$O$107</definedName>
     <definedName name="IterationOptions">[1]Sheet1!$A$2:$A$4</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2155" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2212" uniqueCount="328">
   <si>
     <t>Description</t>
   </si>
@@ -837,9 +837,6 @@
     <t>ApproveAbsence</t>
   </si>
   <si>
-    <t>fixedassestresolution</t>
-  </si>
-  <si>
     <t>FixedAssetResolution</t>
   </si>
   <si>
@@ -936,32 +933,98 @@
     <t>PaymentSelection_MPL</t>
   </si>
   <si>
-    <t>validatePaymentSelectionMPL</t>
-  </si>
-  <si>
-    <t>Payment Selection MPL</t>
-  </si>
-  <si>
-    <t>Print Payment Remittance MPL</t>
-  </si>
-  <si>
-    <t>PrintPaymentRemittance_MPL</t>
-  </si>
-  <si>
-    <t>validatePaymentRemittanceMPL</t>
-  </si>
-  <si>
     <t>changeEmployee</t>
   </si>
   <si>
     <t>changeUser</t>
+  </si>
+  <si>
+    <t>Vendor Management</t>
+  </si>
+  <si>
+    <t>Reverse_Invoice</t>
+  </si>
+  <si>
+    <t>ReverseInvoice</t>
+  </si>
+  <si>
+    <t>CreditNotePO</t>
+  </si>
+  <si>
+    <t>CreateNotePO</t>
+  </si>
+  <si>
+    <t>ReverseCreditNote</t>
+  </si>
+  <si>
+    <t>AssetDisposal</t>
+  </si>
+  <si>
+    <t>CompanyProductCreation</t>
+  </si>
+  <si>
+    <t>AmendCompanyProduct</t>
+  </si>
+  <si>
+    <t>AmendCompanyproduct</t>
+  </si>
+  <si>
+    <t>AmendGlobalVendor</t>
+  </si>
+  <si>
+    <t>AmendComapnyVendor</t>
+  </si>
+  <si>
+    <t>AmendCompanyVendor</t>
+  </si>
+  <si>
+    <t>JobClosure</t>
+  </si>
+  <si>
+    <t>Job Closure</t>
+  </si>
+  <si>
+    <t>PaymentOrder_MPL</t>
+  </si>
+  <si>
+    <t>PrintPaymentOrder</t>
+  </si>
+  <si>
+    <t>TimesheetMPL</t>
+  </si>
+  <si>
+    <t>MPLTimesheet</t>
+  </si>
+  <si>
+    <t>ExpensesMPL</t>
+  </si>
+  <si>
+    <t>MPLExpenses</t>
+  </si>
+  <si>
+    <t>Payment Order</t>
+  </si>
+  <si>
+    <t>Payment Selection</t>
+  </si>
+  <si>
+    <t>Time Sheet</t>
+  </si>
+  <si>
+    <t>Expense Sheet</t>
+  </si>
+  <si>
+    <t>UAE_Critical Regression</t>
+  </si>
+  <si>
+    <t>UAE_Regression</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -981,6 +1044,13 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1024,7 +1094,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1035,11 +1105,402 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="40">
+  <dxfs count="88">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF321547"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF321547"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF321547"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF321547"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF321547"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF321547"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="0"/>
@@ -1710,10 +2171,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M109"/>
+  <dimension ref="A1:O111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="E67" sqref="E67"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1722,19 +2183,21 @@
     <col min="2" max="2" width="29" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="22.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="2"/>
+    <col min="5" max="5" width="28.85546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="22" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.28515625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="22.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22" style="2" customWidth="1"/>
+    <col min="12" max="12" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>135</v>
       </c>
@@ -1748,34 +2211,40 @@
         <v>118</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>149</v>
       </c>
@@ -1788,9 +2257,6 @@
       <c r="D2" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
@@ -1806,17 +2272,20 @@
       <c r="J2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="L2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>150</v>
       </c>
@@ -1827,10 +2296,7 @@
         <v>151</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>6</v>
+        <v>301</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>6</v>
@@ -1847,17 +2313,20 @@
       <c r="J3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="L3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>152</v>
       </c>
@@ -1870,9 +2339,6 @@
       <c r="D4" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="F4" s="2" t="s">
         <v>6</v>
       </c>
@@ -1888,17 +2354,20 @@
       <c r="J4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="L4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>153</v>
       </c>
@@ -1911,9 +2380,6 @@
       <c r="D5" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="F5" s="2" t="s">
         <v>6</v>
       </c>
@@ -1929,17 +2395,20 @@
       <c r="J5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K5" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="L5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="M5" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>154</v>
       </c>
@@ -1952,9 +2421,6 @@
       <c r="D6" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="F6" s="2" t="s">
         <v>6</v>
       </c>
@@ -1970,17 +2436,20 @@
       <c r="J6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K6" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="L6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>155</v>
       </c>
@@ -1993,9 +2462,6 @@
       <c r="D7" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="F7" s="2" t="s">
         <v>6</v>
       </c>
@@ -2011,22 +2477,25 @@
       <c r="J7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="L7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>158</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>21</v>
+        <v>110</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>21</v>
@@ -2034,9 +2503,6 @@
       <c r="D8" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="F8" s="2" t="s">
         <v>6</v>
       </c>
@@ -2052,17 +2518,20 @@
       <c r="J8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K8" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="L8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="M8" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>159</v>
       </c>
@@ -2075,9 +2544,6 @@
       <c r="D9" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="F9" s="2" t="s">
         <v>6</v>
       </c>
@@ -2093,17 +2559,20 @@
       <c r="J9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K9" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="L9" s="2" t="s">
         <v>6</v>
       </c>
       <c r="M9" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>157</v>
       </c>
@@ -2116,9 +2585,6 @@
       <c r="D10" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="F10" s="2" t="s">
         <v>6</v>
       </c>
@@ -2134,17 +2600,20 @@
       <c r="J10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K10" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="L10" s="2" t="s">
         <v>6</v>
       </c>
       <c r="M10" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>161</v>
       </c>
@@ -2157,9 +2626,6 @@
       <c r="D11" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="F11" s="2" t="s">
         <v>6</v>
       </c>
@@ -2175,17 +2641,20 @@
       <c r="J11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K11" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="L11" s="2" t="s">
         <v>6</v>
       </c>
       <c r="M11" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>158</v>
       </c>
@@ -2198,9 +2667,6 @@
       <c r="D12" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="F12" s="2" t="s">
         <v>6</v>
       </c>
@@ -2216,17 +2682,20 @@
       <c r="J12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K12" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="L12" s="2" t="s">
         <v>6</v>
       </c>
       <c r="M12" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>160</v>
       </c>
@@ -2239,9 +2708,6 @@
       <c r="D13" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="F13" s="2" t="s">
         <v>6</v>
       </c>
@@ -2257,17 +2723,20 @@
       <c r="J13" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K13" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="L13" s="2" t="s">
         <v>6</v>
       </c>
       <c r="M13" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>159</v>
       </c>
@@ -2280,9 +2749,6 @@
       <c r="D14" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="F14" s="2" t="s">
         <v>6</v>
       </c>
@@ -2298,17 +2764,20 @@
       <c r="J14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K14" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="L14" s="2" t="s">
         <v>6</v>
       </c>
       <c r="M14" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>175</v>
       </c>
@@ -2321,9 +2790,6 @@
       <c r="D15" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="F15" s="2" t="s">
         <v>6</v>
       </c>
@@ -2339,17 +2805,20 @@
       <c r="J15" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K15" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="L15" s="2" t="s">
         <v>6</v>
       </c>
       <c r="M15" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>162</v>
       </c>
@@ -2362,9 +2831,6 @@
       <c r="D16" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="F16" s="2" t="s">
         <v>6</v>
       </c>
@@ -2380,17 +2846,20 @@
       <c r="J16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K16" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="L16" s="2" t="s">
         <v>6</v>
       </c>
       <c r="M16" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>165</v>
       </c>
@@ -2403,9 +2872,6 @@
       <c r="D17" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="F17" s="2" t="s">
         <v>6</v>
       </c>
@@ -2421,17 +2887,20 @@
       <c r="J17" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K17" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="L17" s="2" t="s">
         <v>6</v>
       </c>
       <c r="M17" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>163</v>
       </c>
@@ -2444,9 +2913,6 @@
       <c r="D18" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="F18" s="2" t="s">
         <v>6</v>
       </c>
@@ -2462,17 +2928,20 @@
       <c r="J18" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K18" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="L18" s="2" t="s">
         <v>6</v>
       </c>
       <c r="M18" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>164</v>
       </c>
@@ -2485,9 +2954,6 @@
       <c r="D19" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="F19" s="2" t="s">
         <v>6</v>
       </c>
@@ -2503,22 +2969,31 @@
       <c r="J19" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K19" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="L19" s="2" t="s">
         <v>6</v>
       </c>
       <c r="M19" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>6</v>
+      <c r="B20" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>122</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>6</v>
@@ -2535,22 +3010,31 @@
       <c r="J20" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K20" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="L20" s="2" t="s">
         <v>6</v>
       </c>
       <c r="M20" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>6</v>
+      <c r="B21" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>122</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>6</v>
@@ -2567,22 +3051,31 @@
       <c r="J21" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K21" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="L21" s="2" t="s">
         <v>6</v>
       </c>
       <c r="M21" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>6</v>
+      <c r="B22" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>122</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>6</v>
@@ -2599,17 +3092,20 @@
       <c r="J22" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K22" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="L22" s="2" t="s">
         <v>6</v>
       </c>
       <c r="M22" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>169</v>
       </c>
@@ -2622,9 +3118,6 @@
       <c r="D23" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="F23" s="2" t="s">
         <v>6</v>
       </c>
@@ -2640,17 +3133,20 @@
       <c r="J23" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K23" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="L23" s="2" t="s">
         <v>6</v>
       </c>
       <c r="M23" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>171</v>
       </c>
@@ -2663,9 +3159,6 @@
       <c r="D24" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="F24" s="2" t="s">
         <v>6</v>
       </c>
@@ -2681,17 +3174,20 @@
       <c r="J24" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K24" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="L24" s="2" t="s">
         <v>6</v>
       </c>
       <c r="M24" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>170</v>
       </c>
@@ -2704,9 +3200,6 @@
       <c r="D25" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="F25" s="2" t="s">
         <v>6</v>
       </c>
@@ -2722,17 +3215,20 @@
       <c r="J25" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K25" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="L25" s="2" t="s">
         <v>6</v>
       </c>
       <c r="M25" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>172</v>
       </c>
@@ -2745,9 +3241,6 @@
       <c r="D26" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="E26" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="F26" s="2" t="s">
         <v>6</v>
       </c>
@@ -2763,17 +3256,20 @@
       <c r="J26" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K26" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="L26" s="2" t="s">
         <v>6</v>
       </c>
       <c r="M26" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>174</v>
       </c>
@@ -2786,9 +3282,6 @@
       <c r="D27" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="E27" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="F27" s="2" t="s">
         <v>6</v>
       </c>
@@ -2804,17 +3297,20 @@
       <c r="J27" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K27" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="L27" s="2" t="s">
         <v>6</v>
       </c>
       <c r="M27" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>173</v>
       </c>
@@ -2827,9 +3323,6 @@
       <c r="D28" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="E28" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="F28" s="2" t="s">
         <v>6</v>
       </c>
@@ -2845,17 +3338,20 @@
       <c r="J28" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K28" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="L28" s="2" t="s">
         <v>6</v>
       </c>
       <c r="M28" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>233</v>
       </c>
@@ -2868,9 +3364,6 @@
       <c r="D29" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="E29" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="F29" s="2" t="s">
         <v>6</v>
       </c>
@@ -2886,17 +3379,20 @@
       <c r="J29" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K29" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="L29" s="2" t="s">
         <v>6</v>
       </c>
       <c r="M29" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>136</v>
       </c>
@@ -2909,9 +3405,6 @@
       <c r="D30" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E30" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="F30" s="2" t="s">
         <v>6</v>
       </c>
@@ -2927,17 +3420,20 @@
       <c r="J30" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K30" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="L30" s="2" t="s">
         <v>6</v>
       </c>
       <c r="M30" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N30" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O30" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>176</v>
       </c>
@@ -2947,12 +3443,10 @@
       <c r="C31" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D31" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="E31" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="E31" s="6"/>
       <c r="F31" s="2" t="s">
         <v>6</v>
       </c>
@@ -2968,17 +3462,20 @@
       <c r="J31" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K31" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="L31" s="2" t="s">
         <v>6</v>
       </c>
       <c r="M31" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N31" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O31" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>140</v>
       </c>
@@ -2991,9 +3488,6 @@
       <c r="D32" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E32" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="F32" s="2" t="s">
         <v>6</v>
       </c>
@@ -3009,32 +3503,32 @@
       <c r="J32" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K32" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="L32" s="2" t="s">
         <v>6</v>
       </c>
       <c r="M32" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O32" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>179</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E33" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="F33" s="2" t="s">
         <v>6</v>
       </c>
@@ -3050,17 +3544,20 @@
       <c r="J33" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K33" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="L33" s="2" t="s">
         <v>6</v>
       </c>
       <c r="M33" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N33" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O33" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>138</v>
       </c>
@@ -3073,9 +3570,6 @@
       <c r="D34" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E34" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="F34" s="2" t="s">
         <v>6</v>
       </c>
@@ -3091,22 +3585,25 @@
       <c r="J34" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K34" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="L34" s="2" t="s">
         <v>6</v>
       </c>
       <c r="M34" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N34" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O34" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>180</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>134</v>
@@ -3114,9 +3611,6 @@
       <c r="D35" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E35" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="F35" s="2" t="s">
         <v>6</v>
       </c>
@@ -3132,17 +3626,20 @@
       <c r="J35" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K35" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="L35" s="2" t="s">
         <v>6</v>
       </c>
       <c r="M35" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N35" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O35" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>137</v>
       </c>
@@ -3155,9 +3652,6 @@
       <c r="D36" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E36" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="F36" s="2" t="s">
         <v>6</v>
       </c>
@@ -3173,32 +3667,32 @@
       <c r="J36" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K36" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="L36" s="2" t="s">
         <v>6</v>
       </c>
       <c r="M36" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N36" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O36" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>181</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E37" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="F37" s="2" t="s">
         <v>6</v>
       </c>
@@ -3214,17 +3708,20 @@
       <c r="J37" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K37" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="L37" s="2" t="s">
         <v>6</v>
       </c>
       <c r="M37" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N37" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O37" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>139</v>
       </c>
@@ -3237,9 +3734,6 @@
       <c r="D38" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E38" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="F38" s="2" t="s">
         <v>6</v>
       </c>
@@ -3255,22 +3749,25 @@
       <c r="J38" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="L38" s="2" t="s">
         <v>6</v>
       </c>
       <c r="M38" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N38" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O38" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>182</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>134</v>
@@ -3278,9 +3775,6 @@
       <c r="D39" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E39" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="F39" s="2" t="s">
         <v>6</v>
       </c>
@@ -3296,26 +3790,26 @@
       <c r="J39" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K39" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="L39" s="2" t="s">
         <v>6</v>
       </c>
       <c r="M39" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N39" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O39" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>183</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E40" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="F40" s="2" t="s">
         <v>6</v>
       </c>
@@ -3331,32 +3825,32 @@
       <c r="J40" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K40" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="L40" s="2" t="s">
         <v>6</v>
       </c>
       <c r="M40" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N40" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O40" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>184</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E41" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="F41" s="2" t="s">
         <v>6</v>
       </c>
@@ -3372,26 +3866,26 @@
       <c r="J41" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K41" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="L41" s="2" t="s">
         <v>6</v>
       </c>
       <c r="M41" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N41" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O41" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>185</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E42" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="F42" s="2" t="s">
         <v>6</v>
       </c>
@@ -3407,26 +3901,26 @@
       <c r="J42" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K42" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="L42" s="2" t="s">
         <v>6</v>
       </c>
       <c r="M42" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N42" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O42" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>186</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E43" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="F43" s="2" t="s">
         <v>6</v>
       </c>
@@ -3442,17 +3936,20 @@
       <c r="J43" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K43" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="L43" s="2" t="s">
         <v>6</v>
       </c>
       <c r="M43" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N43" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O43" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>187</v>
       </c>
@@ -3465,9 +3962,6 @@
       <c r="D44" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="E44" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="F44" s="2" t="s">
         <v>6</v>
       </c>
@@ -3483,17 +3977,20 @@
       <c r="J44" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K44" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="L44" s="2" t="s">
         <v>6</v>
       </c>
       <c r="M44" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N44" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O44" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>188</v>
       </c>
@@ -3506,9 +4003,6 @@
       <c r="D45" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="E45" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="F45" s="2" t="s">
         <v>6</v>
       </c>
@@ -3524,17 +4018,20 @@
       <c r="J45" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K45" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="L45" s="2" t="s">
         <v>6</v>
       </c>
       <c r="M45" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N45" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O45" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>194</v>
       </c>
@@ -3547,9 +4044,6 @@
       <c r="D46" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="E46" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="F46" s="2" t="s">
         <v>6</v>
       </c>
@@ -3565,17 +4059,20 @@
       <c r="J46" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K46" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="L46" s="2" t="s">
         <v>6</v>
       </c>
       <c r="M46" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N46" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O46" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>191</v>
       </c>
@@ -3588,9 +4085,6 @@
       <c r="D47" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="E47" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="F47" s="2" t="s">
         <v>6</v>
       </c>
@@ -3606,17 +4100,20 @@
       <c r="J47" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K47" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="L47" s="2" t="s">
         <v>6</v>
       </c>
       <c r="M47" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N47" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O47" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>195</v>
       </c>
@@ -3629,9 +4126,6 @@
       <c r="D48" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="E48" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="F48" s="2" t="s">
         <v>6</v>
       </c>
@@ -3647,17 +4141,20 @@
       <c r="J48" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K48" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="L48" s="2" t="s">
         <v>6</v>
       </c>
       <c r="M48" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N48" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O48" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>196</v>
       </c>
@@ -3670,9 +4167,6 @@
       <c r="D49" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="E49" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="F49" s="2" t="s">
         <v>6</v>
       </c>
@@ -3688,17 +4182,20 @@
       <c r="J49" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K49" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="L49" s="2" t="s">
         <v>6</v>
       </c>
       <c r="M49" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N49" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O49" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>197</v>
       </c>
@@ -3711,9 +4208,6 @@
       <c r="D50" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="E50" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="F50" s="2" t="s">
         <v>6</v>
       </c>
@@ -3729,17 +4223,20 @@
       <c r="J50" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K50" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="L50" s="2" t="s">
         <v>6</v>
       </c>
       <c r="M50" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N50" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O50" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>202</v>
       </c>
@@ -3752,9 +4249,6 @@
       <c r="D51" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="E51" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="F51" s="2" t="s">
         <v>6</v>
       </c>
@@ -3770,17 +4264,20 @@
       <c r="J51" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K51" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="L51" s="2" t="s">
         <v>6</v>
       </c>
       <c r="M51" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N51" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O51" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>203</v>
       </c>
@@ -3793,9 +4290,6 @@
       <c r="D52" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="E52" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="F52" s="2" t="s">
         <v>6</v>
       </c>
@@ -3811,17 +4305,20 @@
       <c r="J52" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K52" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="L52" s="2" t="s">
         <v>6</v>
       </c>
       <c r="M52" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N52" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O52" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>204</v>
       </c>
@@ -3834,9 +4331,6 @@
       <c r="D53" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="E53" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="F53" s="2" t="s">
         <v>6</v>
       </c>
@@ -3852,17 +4346,20 @@
       <c r="J53" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K53" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="L53" s="2" t="s">
         <v>6</v>
       </c>
       <c r="M53" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N53" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O53" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>205</v>
       </c>
@@ -3875,9 +4372,6 @@
       <c r="D54" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="E54" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="F54" s="2" t="s">
         <v>6</v>
       </c>
@@ -3893,17 +4387,20 @@
       <c r="J54" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K54" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="L54" s="2" t="s">
         <v>6</v>
       </c>
       <c r="M54" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N54" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O54" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>217</v>
       </c>
@@ -3916,9 +4413,6 @@
       <c r="D55" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="E55" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="F55" s="2" t="s">
         <v>6</v>
       </c>
@@ -3934,17 +4428,20 @@
       <c r="J55" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K55" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="L55" s="2" t="s">
         <v>6</v>
       </c>
       <c r="M55" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N55" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O55" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>218</v>
       </c>
@@ -3957,9 +4454,6 @@
       <c r="D56" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="E56" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="F56" s="2" t="s">
         <v>6</v>
       </c>
@@ -3975,17 +4469,20 @@
       <c r="J56" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K56" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="L56" s="2" t="s">
         <v>6</v>
       </c>
       <c r="M56" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N56" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O56" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>219</v>
       </c>
@@ -3998,9 +4495,6 @@
       <c r="D57" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="E57" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="F57" s="2" t="s">
         <v>6</v>
       </c>
@@ -4016,17 +4510,20 @@
       <c r="J57" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K57" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="L57" s="2" t="s">
         <v>6</v>
       </c>
       <c r="M57" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N57" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O57" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>220</v>
       </c>
@@ -4039,9 +4536,6 @@
       <c r="D58" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="E58" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="F58" s="2" t="s">
         <v>6</v>
       </c>
@@ -4057,17 +4551,20 @@
       <c r="J58" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K58" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="L58" s="2" t="s">
         <v>6</v>
       </c>
       <c r="M58" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N58" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O58" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>221</v>
       </c>
@@ -4076,9 +4573,6 @@
       <c r="D59" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="E59" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="F59" s="2" t="s">
         <v>6</v>
       </c>
@@ -4094,17 +4588,20 @@
       <c r="J59" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K59" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="L59" s="2" t="s">
         <v>6</v>
       </c>
       <c r="M59" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N59" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O59" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>206</v>
       </c>
@@ -4117,9 +4614,6 @@
       <c r="D60" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="E60" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="F60" s="2" t="s">
         <v>6</v>
       </c>
@@ -4135,17 +4629,20 @@
       <c r="J60" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K60" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="L60" s="2" t="s">
         <v>6</v>
       </c>
       <c r="M60" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N60" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O60" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>207</v>
       </c>
@@ -4158,9 +4655,6 @@
       <c r="D61" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="E61" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="F61" s="2" t="s">
         <v>6</v>
       </c>
@@ -4176,17 +4670,20 @@
       <c r="J61" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K61" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="L61" s="2" t="s">
         <v>6</v>
       </c>
       <c r="M61" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N61" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O61" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>208</v>
       </c>
@@ -4199,9 +4696,6 @@
       <c r="D62" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="E62" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="F62" s="2" t="s">
         <v>6</v>
       </c>
@@ -4217,22 +4711,25 @@
       <c r="J62" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K62" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="L62" s="2" t="s">
         <v>6</v>
       </c>
       <c r="M62" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N62" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O62" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>209</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>267</v>
@@ -4240,9 +4737,6 @@
       <c r="D63" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="E63" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="F63" s="2" t="s">
         <v>6</v>
       </c>
@@ -4258,17 +4752,20 @@
       <c r="J63" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K63" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="L63" s="2" t="s">
         <v>6</v>
       </c>
       <c r="M63" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N63" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O63" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>210</v>
       </c>
@@ -4276,14 +4773,11 @@
         <v>35</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>46</v>
+        <v>307</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="E64" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="F64" s="2" t="s">
         <v>6</v>
       </c>
@@ -4299,17 +4793,20 @@
       <c r="J64" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K64" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="L64" s="2" t="s">
         <v>6</v>
       </c>
       <c r="M64" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N64" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O64" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>211</v>
       </c>
@@ -4322,9 +4819,6 @@
       <c r="D65" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="E65" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="F65" s="2" t="s">
         <v>6</v>
       </c>
@@ -4340,17 +4834,20 @@
       <c r="J65" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K65" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="L65" s="2" t="s">
         <v>6</v>
       </c>
       <c r="M65" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N65" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O65" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>212</v>
       </c>
@@ -4363,9 +4860,6 @@
       <c r="D66" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="E66" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="F66" s="2" t="s">
         <v>6</v>
       </c>
@@ -4381,17 +4875,20 @@
       <c r="J66" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K66" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="L66" s="2" t="s">
         <v>6</v>
       </c>
       <c r="M66" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N66" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O66" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>213</v>
       </c>
@@ -4399,17 +4896,14 @@
         <v>39</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="E67" s="2" t="s">
+      <c r="F67" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F67" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="G67" s="2" t="s">
         <v>6</v>
       </c>
@@ -4422,26 +4916,26 @@
       <c r="J67" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K67" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="L67" s="2" t="s">
         <v>6</v>
       </c>
       <c r="M67" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N67" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O67" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>214</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="E68" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="F68" s="2" t="s">
         <v>6</v>
       </c>
@@ -4457,17 +4951,20 @@
       <c r="J68" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K68" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="L68" s="2" t="s">
         <v>6</v>
       </c>
       <c r="M68" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N68" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O68" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>215</v>
       </c>
@@ -4475,14 +4972,11 @@
         <v>55</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="E69" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="F69" s="2" t="s">
         <v>6</v>
       </c>
@@ -4498,17 +4992,20 @@
       <c r="J69" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K69" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="L69" s="2" t="s">
         <v>6</v>
       </c>
       <c r="M69" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N69" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O69" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>216</v>
       </c>
@@ -4521,9 +5018,6 @@
       <c r="D70" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="E70" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="F70" s="2" t="s">
         <v>6</v>
       </c>
@@ -4539,19 +5033,22 @@
       <c r="J70" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K70" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="L70" s="2" t="s">
         <v>6</v>
       </c>
       <c r="M70" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N70" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O70" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>99</v>
@@ -4562,9 +5059,6 @@
       <c r="D71" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E71" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="F71" s="2" t="s">
         <v>6</v>
       </c>
@@ -4580,26 +5074,32 @@
       <c r="J71" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K71" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="L71" s="2" t="s">
         <v>6</v>
       </c>
       <c r="M71" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N71" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O71" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>278</v>
+        <v>277</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E72" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="F72" s="2" t="s">
         <v>6</v>
       </c>
@@ -4615,26 +5115,32 @@
       <c r="J72" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K72" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="L72" s="2" t="s">
         <v>6</v>
       </c>
       <c r="M72" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N72" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O72" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>279</v>
+        <v>278</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E73" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="F73" s="2" t="s">
         <v>6</v>
       </c>
@@ -4650,26 +5156,32 @@
       <c r="J73" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K73" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="L73" s="2" t="s">
         <v>6</v>
       </c>
       <c r="M73" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N73" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O73" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>280</v>
+        <v>279</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E74" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="F74" s="2" t="s">
         <v>6</v>
       </c>
@@ -4685,26 +5197,32 @@
       <c r="J74" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K74" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="L74" s="2" t="s">
         <v>6</v>
       </c>
       <c r="M74" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N74" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O74" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>281</v>
+        <v>280</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>308</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E75" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="F75" s="2" t="s">
         <v>6</v>
       </c>
@@ -4720,19 +5238,22 @@
       <c r="J75" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K75" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="L75" s="2" t="s">
         <v>6</v>
       </c>
       <c r="M75" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N75" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O75" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>84</v>
@@ -4743,9 +5264,6 @@
       <c r="D76" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E76" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="F76" s="2" t="s">
         <v>6</v>
       </c>
@@ -4761,26 +5279,32 @@
       <c r="J76" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K76" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="L76" s="2" t="s">
         <v>6</v>
       </c>
       <c r="M76" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N76" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O76" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>283</v>
+        <v>282</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E77" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="F77" s="2" t="s">
         <v>6</v>
       </c>
@@ -4796,26 +5320,32 @@
       <c r="J77" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K77" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="L77" s="2" t="s">
         <v>6</v>
       </c>
       <c r="M77" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N77" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O77" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>284</v>
+        <v>283</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E78" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="F78" s="2" t="s">
         <v>6</v>
       </c>
@@ -4831,19 +5361,22 @@
       <c r="J78" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K78" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="L78" s="2" t="s">
         <v>6</v>
       </c>
       <c r="M78" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N78" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O78" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>97</v>
@@ -4854,9 +5387,6 @@
       <c r="D79" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E79" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="F79" s="2" t="s">
         <v>6</v>
       </c>
@@ -4872,19 +5402,22 @@
       <c r="J79" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K79" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="L79" s="2" t="s">
         <v>6</v>
       </c>
       <c r="M79" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N79" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O79" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>96</v>
@@ -4895,9 +5428,6 @@
       <c r="D80" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E80" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="F80" s="2" t="s">
         <v>6</v>
       </c>
@@ -4913,26 +5443,32 @@
       <c r="J80" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="L80" s="2" t="s">
         <v>6</v>
       </c>
       <c r="M80" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N80" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O80" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>287</v>
+        <v>286</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>310</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E81" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="F81" s="2" t="s">
         <v>6</v>
       </c>
@@ -4948,19 +5484,22 @@
       <c r="J81" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K81" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="L81" s="2" t="s">
         <v>6</v>
       </c>
       <c r="M81" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N81" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O81" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>79</v>
@@ -4971,9 +5510,6 @@
       <c r="D82" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E82" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="F82" s="2" t="s">
         <v>6</v>
       </c>
@@ -4989,19 +5525,22 @@
       <c r="J82" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K82" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="L82" s="2" t="s">
         <v>6</v>
       </c>
       <c r="M82" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N82" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O82" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>75</v>
@@ -5012,9 +5551,6 @@
       <c r="D83" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E83" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="F83" s="2" t="s">
         <v>6</v>
       </c>
@@ -5030,26 +5566,32 @@
       <c r="J83" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K83" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="L83" s="2" t="s">
         <v>6</v>
       </c>
       <c r="M83" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N83" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O83" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>290</v>
+        <v>289</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E84" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="F84" s="2" t="s">
         <v>6</v>
       </c>
@@ -5065,26 +5607,32 @@
       <c r="J84" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K84" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="L84" s="2" t="s">
         <v>6</v>
       </c>
       <c r="M84" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N84" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O84" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>291</v>
+        <v>290</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E85" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="F85" s="2" t="s">
         <v>6</v>
       </c>
@@ -5100,26 +5648,32 @@
       <c r="J85" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K85" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="L85" s="2" t="s">
         <v>6</v>
       </c>
       <c r="M85" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N85" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O85" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>292</v>
+        <v>291</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E86" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="F86" s="2" t="s">
         <v>6</v>
       </c>
@@ -5135,19 +5689,22 @@
       <c r="J86" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K86" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="L86" s="2" t="s">
         <v>6</v>
       </c>
       <c r="M86" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N86" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O86" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>70</v>
@@ -5158,9 +5715,6 @@
       <c r="D87" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E87" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="F87" s="2" t="s">
         <v>6</v>
       </c>
@@ -5176,150 +5730,195 @@
       <c r="J87" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K87" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="L87" s="2" t="s">
         <v>6</v>
       </c>
       <c r="M87" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N87" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O87" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
+        <v>293</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I88" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J88" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L88" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M88" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N88" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O88" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
         <v>294</v>
       </c>
-      <c r="E88" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G88" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H88" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I88" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J88" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K88" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L88" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M88" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+      <c r="B89" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H89" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I89" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J89" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L89" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M89" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N89" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O89" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
         <v>295</v>
       </c>
-      <c r="E89" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F89" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G89" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H89" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I89" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J89" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K89" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L89" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M89" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+      <c r="B90" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H90" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I90" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J90" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L90" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M90" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N90" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O90" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
         <v>296</v>
       </c>
-      <c r="E90" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G90" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H90" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I90" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J90" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K90" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L90" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M90" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+      <c r="B91" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H91" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I91" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J91" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L91" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M91" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N91" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O91" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
         <v>297</v>
       </c>
-      <c r="E91" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G91" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H91" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I91" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J91" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K91" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L91" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M91" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>298</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>6</v>
+      <c r="B92" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>301</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>6</v>
@@ -5336,17 +5935,20 @@
       <c r="J92" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K92" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="L92" s="2" t="s">
         <v>6</v>
       </c>
       <c r="M92" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N92" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O92" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>225</v>
       </c>
@@ -5359,9 +5961,6 @@
       <c r="D93" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="E93" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="F93" s="2" t="s">
         <v>6</v>
       </c>
@@ -5377,17 +5976,20 @@
       <c r="J93" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K93" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="L93" s="2" t="s">
         <v>6</v>
       </c>
       <c r="M93" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N93" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O93" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>226</v>
       </c>
@@ -5395,14 +5997,11 @@
         <v>147</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="E94" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="F94" s="2" t="s">
         <v>6</v>
       </c>
@@ -5418,17 +6017,20 @@
       <c r="J94" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K94" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="L94" s="2" t="s">
         <v>6</v>
       </c>
       <c r="M94" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N94" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O94" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>227</v>
       </c>
@@ -5441,9 +6043,6 @@
       <c r="D95" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="E95" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="F95" s="2" t="s">
         <v>6</v>
       </c>
@@ -5459,17 +6058,20 @@
       <c r="J95" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K95" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="L95" s="2" t="s">
         <v>6</v>
       </c>
       <c r="M95" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N95" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O95" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>222</v>
       </c>
@@ -5482,9 +6084,6 @@
       <c r="D96" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="E96" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="F96" s="2" t="s">
         <v>6</v>
       </c>
@@ -5500,17 +6099,20 @@
       <c r="J96" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K96" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="L96" s="2" t="s">
         <v>6</v>
       </c>
       <c r="M96" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N96" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O96" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>223</v>
       </c>
@@ -5523,9 +6125,6 @@
       <c r="D97" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="E97" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="F97" s="2" t="s">
         <v>6</v>
       </c>
@@ -5541,17 +6140,20 @@
       <c r="J97" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K97" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="L97" s="2" t="s">
         <v>6</v>
       </c>
       <c r="M97" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N97" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O97" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>224</v>
       </c>
@@ -5564,9 +6166,6 @@
       <c r="D98" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="E98" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="F98" s="2" t="s">
         <v>6</v>
       </c>
@@ -5582,18 +6181,21 @@
       <c r="J98" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K98" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="L98" s="2" t="s">
         <v>6</v>
       </c>
       <c r="M98" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A99" s="2" t="s">
+      <c r="N98" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O98" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
         <v>228</v>
       </c>
       <c r="B99" s="2" t="s">
@@ -5605,9 +6207,6 @@
       <c r="D99" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="E99" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="F99" s="2" t="s">
         <v>6</v>
       </c>
@@ -5623,22 +6222,31 @@
       <c r="J99" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K99" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="L99" s="2" t="s">
         <v>6</v>
       </c>
       <c r="M99" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N99" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O99" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="E100" s="2" t="s">
-        <v>6</v>
+      <c r="B100" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>315</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>6</v>
@@ -5655,17 +6263,20 @@
       <c r="J100" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K100" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="L100" s="2" t="s">
         <v>6</v>
       </c>
       <c r="M100" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N100" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O100" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>127</v>
       </c>
@@ -5678,9 +6289,6 @@
       <c r="D101" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="E101" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="F101" s="2" t="s">
         <v>6</v>
       </c>
@@ -5696,17 +6304,20 @@
       <c r="J101" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K101" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="L101" s="2" t="s">
         <v>6</v>
       </c>
       <c r="M101" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N101" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O101" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>259</v>
       </c>
@@ -5719,9 +6330,6 @@
       <c r="D102" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="E102" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="F102" s="2" t="s">
         <v>6</v>
       </c>
@@ -5737,17 +6345,20 @@
       <c r="J102" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K102" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="L102" s="2" t="s">
         <v>6</v>
       </c>
       <c r="M102" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N102" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O102" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>260</v>
       </c>
@@ -5760,9 +6371,6 @@
       <c r="D103" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="E103" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="F103" s="2" t="s">
         <v>6</v>
       </c>
@@ -5778,17 +6386,20 @@
       <c r="J103" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K103" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="L103" s="2" t="s">
         <v>6</v>
       </c>
       <c r="M103" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N103" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O103" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>261</v>
       </c>
@@ -5801,9 +6412,6 @@
       <c r="D104" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="E104" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="F104" s="2" t="s">
         <v>6</v>
       </c>
@@ -5819,17 +6427,20 @@
       <c r="J104" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K104" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="L104" s="2" t="s">
         <v>6</v>
       </c>
       <c r="M104" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N104" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O104" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>264</v>
       </c>
@@ -5842,9 +6453,6 @@
       <c r="D105" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="E105" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="F105" s="2" t="s">
         <v>6</v>
       </c>
@@ -5860,32 +6468,32 @@
       <c r="J105" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K105" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="L105" s="2" t="s">
         <v>6</v>
       </c>
       <c r="M105" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N105" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O105" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>262</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="C106" s="2" t="s">
+      <c r="C106" s="6" t="s">
         <v>258</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="E106" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="F106" s="2" t="s">
         <v>6</v>
       </c>
@@ -5901,32 +6509,32 @@
       <c r="J106" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K106" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="L106" s="2" t="s">
         <v>6</v>
       </c>
       <c r="M106" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N106" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O106" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>263</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="C107" s="2" t="s">
+      <c r="C107" s="6" t="s">
         <v>258</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="E107" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="F107" s="2" t="s">
         <v>6</v>
       </c>
@@ -5942,32 +6550,32 @@
       <c r="J107" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K107" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="L107" s="2" t="s">
         <v>6</v>
       </c>
       <c r="M107" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N107" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O107" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>301</v>
+        <v>322</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>299</v>
+        <v>316</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>300</v>
+        <v>317</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="E108" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="F108" s="2" t="s">
         <v>6</v>
       </c>
@@ -5983,32 +6591,32 @@
       <c r="J108" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K108" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="L108" s="2" t="s">
         <v>6</v>
       </c>
       <c r="M108" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A109" s="2" t="s">
-        <v>302</v>
+      <c r="N108" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O108" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>323</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>304</v>
+        <v>238</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="E109" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="F109" s="2" t="s">
         <v>6</v>
       </c>
@@ -6024,146 +6632,203 @@
       <c r="J109" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K109" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="L109" s="2" t="s">
         <v>6</v>
       </c>
       <c r="M109" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="N109" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O109" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>324</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>325</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>250</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M107"/>
-  <conditionalFormatting sqref="A102 A106 A108">
-    <cfRule type="expression" dxfId="39" priority="41">
-      <formula>$M102="Passed"</formula>
+  <autoFilter ref="A1:O107"/>
+  <conditionalFormatting sqref="A102">
+    <cfRule type="expression" dxfId="47" priority="41">
+      <formula>$R102="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="42">
-      <formula>$M102="Not Ready"</formula>
+    <cfRule type="expression" dxfId="46" priority="42">
+      <formula>$R102="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="43">
-      <formula>$M102="Retest"</formula>
+    <cfRule type="expression" dxfId="45" priority="43">
+      <formula>$R102="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="44">
-      <formula>$M102="Query"</formula>
+    <cfRule type="expression" dxfId="44" priority="44">
+      <formula>$R102="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="45">
-      <formula>$M102="Blocked"</formula>
+    <cfRule type="expression" dxfId="43" priority="45">
+      <formula>$R102="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="46">
-      <formula>$M102="In Progress"</formula>
+    <cfRule type="expression" dxfId="42" priority="46">
+      <formula>$R102="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="47">
-      <formula>$M102="N/A"</formula>
+    <cfRule type="expression" dxfId="41" priority="47">
+      <formula>$R102="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="48">
-      <formula>$M102="Failed"</formula>
+    <cfRule type="expression" dxfId="40" priority="48">
+      <formula>$R102="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A103">
-    <cfRule type="expression" dxfId="31" priority="33">
-      <formula>$M103="Passed"</formula>
+    <cfRule type="expression" dxfId="39" priority="33">
+      <formula>$R103="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="34">
-      <formula>$M103="Not Ready"</formula>
+    <cfRule type="expression" dxfId="38" priority="34">
+      <formula>$R103="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="35">
-      <formula>$M103="Retest"</formula>
+    <cfRule type="expression" dxfId="37" priority="35">
+      <formula>$R103="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="36">
-      <formula>$M103="Query"</formula>
+    <cfRule type="expression" dxfId="36" priority="36">
+      <formula>$R103="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="37">
-      <formula>$M103="Blocked"</formula>
+    <cfRule type="expression" dxfId="35" priority="37">
+      <formula>$R103="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="38">
-      <formula>$M103="In Progress"</formula>
+    <cfRule type="expression" dxfId="34" priority="38">
+      <formula>$R103="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="39">
-      <formula>$M103="N/A"</formula>
+    <cfRule type="expression" dxfId="33" priority="39">
+      <formula>$R103="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="40">
-      <formula>$M103="Failed"</formula>
+    <cfRule type="expression" dxfId="32" priority="40">
+      <formula>$R103="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A104">
-    <cfRule type="expression" dxfId="23" priority="25">
-      <formula>$M104="Passed"</formula>
+    <cfRule type="expression" dxfId="31" priority="25">
+      <formula>$R104="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="26">
-      <formula>$M104="Not Ready"</formula>
+    <cfRule type="expression" dxfId="30" priority="26">
+      <formula>$R104="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="27">
-      <formula>$M104="Retest"</formula>
+    <cfRule type="expression" dxfId="29" priority="27">
+      <formula>$R104="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="28">
-      <formula>$M104="Query"</formula>
+    <cfRule type="expression" dxfId="28" priority="28">
+      <formula>$R104="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="29">
-      <formula>$M104="Blocked"</formula>
+    <cfRule type="expression" dxfId="27" priority="29">
+      <formula>$R104="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="30">
-      <formula>$M104="In Progress"</formula>
+    <cfRule type="expression" dxfId="26" priority="30">
+      <formula>$R104="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="31">
-      <formula>$M104="N/A"</formula>
+    <cfRule type="expression" dxfId="25" priority="31">
+      <formula>$R104="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="32">
-      <formula>$M104="Failed"</formula>
+    <cfRule type="expression" dxfId="24" priority="32">
+      <formula>$R104="Failed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A106">
+    <cfRule type="expression" dxfId="23" priority="17">
+      <formula>$R106="Passed"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="18">
+      <formula>$R106="Not Ready"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="19">
+      <formula>$R106="Retest"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="20">
+      <formula>$R106="Query"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="19" priority="21">
+      <formula>$R106="Blocked"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="22">
+      <formula>$R106="In Progress"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="17" priority="23">
+      <formula>$R106="N/A"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="24">
+      <formula>$R106="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A107">
     <cfRule type="expression" dxfId="15" priority="9">
-      <formula>$M107="Passed"</formula>
+      <formula>$R107="Passed"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="14" priority="10">
-      <formula>$M107="Not Ready"</formula>
+      <formula>$R107="Not Ready"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="13" priority="11">
-      <formula>$M107="Retest"</formula>
+      <formula>$R107="Retest"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="12" priority="12">
-      <formula>$M107="Query"</formula>
+      <formula>$R107="Query"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="11" priority="13">
-      <formula>$M107="Blocked"</formula>
+      <formula>$R107="Blocked"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="10" priority="14">
-      <formula>$M107="In Progress"</formula>
+      <formula>$R107="In Progress"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="9" priority="15">
-      <formula>$M107="N/A"</formula>
+      <formula>$R107="N/A"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="8" priority="16">
-      <formula>$M107="Failed"</formula>
+      <formula>$R107="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A105">
     <cfRule type="expression" dxfId="7" priority="1">
-      <formula>$M105="Passed"</formula>
+      <formula>$R105="Passed"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="6" priority="2">
-      <formula>$M105="Not Ready"</formula>
+      <formula>$R105="Not Ready"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="5" priority="3">
-      <formula>$M105="Retest"</formula>
+      <formula>$R105="Retest"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="4">
-      <formula>$M105="Query"</formula>
+      <formula>$R105="Query"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="3" priority="5">
-      <formula>$M105="Blocked"</formula>
+      <formula>$R105="Blocked"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="6">
-      <formula>$M105="In Progress"</formula>
+      <formula>$R105="In Progress"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="7">
-      <formula>$M105="N/A"</formula>
+      <formula>$R105="N/A"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="8">
-      <formula>$M105="Failed"</formula>
+      <formula>$R105="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/WppRegpack/TestResource/TC_RunManager.xlsx
+++ b/WppRegpack/TestResource/TC_RunManager.xlsx
@@ -20,7 +20,7 @@
     <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GlobalTestCase!$A$1:$O$107</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GlobalTestCase!$A$1:$O$113</definedName>
     <definedName name="IterationOptions">[1]Sheet1!$A$2:$A$4</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2212" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2236" uniqueCount="328">
   <si>
     <t>Description</t>
   </si>
@@ -1110,332 +1110,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="88">
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF321547"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF321547"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF321547"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF321547"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF321547"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="48">
     <dxf>
       <font>
         <color theme="0"/>
@@ -2171,10 +1846,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O111"/>
+  <dimension ref="A1:O117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3025,98 +2700,44 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>304</v>
+        <v>25</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>305</v>
+        <v>26</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="F21" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M21" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="N21" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O21" s="2" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>306</v>
+        <v>59</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>305</v>
+        <v>60</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="F22" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M22" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="N22" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O22" s="2" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>12</v>
+        <v>304</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>9</v>
+        <v>305</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>6</v>
@@ -3148,98 +2769,44 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L24" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M24" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="N24" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O24" s="2" t="s">
-        <v>6</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L25" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M25" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="N25" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O25" s="2" t="s">
-        <v>6</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>19</v>
+        <v>306</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>10</v>
+        <v>305</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>6</v>
@@ -3271,95 +2838,41 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L27" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M27" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="N27" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O27" s="2" t="s">
-        <v>6</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L28" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M28" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="N28" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O28" s="2" t="s">
-        <v>6</v>
+        <v>122</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>233</v>
+        <v>169</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>234</v>
+        <v>12</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>235</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>123</v>
@@ -3394,16 +2907,16 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>136</v>
+        <v>171</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>114</v>
+        <v>31</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>114</v>
+        <v>32</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>6</v>
@@ -3435,18 +2948,17 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>178</v>
+        <v>29</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="E31" s="6"/>
+        <v>29</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="F31" s="2" t="s">
         <v>6</v>
       </c>
@@ -3477,16 +2989,16 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>133</v>
+        <v>19</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>134</v>
+        <v>10</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>6</v>
@@ -3518,16 +3030,16 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>272</v>
+        <v>43</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>274</v>
+        <v>44</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>6</v>
@@ -3559,16 +3071,16 @@
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>138</v>
+        <v>173</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>129</v>
+        <v>41</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>129</v>
+        <v>42</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>6</v>
@@ -3600,16 +3112,16 @@
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>180</v>
+        <v>233</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>270</v>
+        <v>234</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>134</v>
+        <v>235</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>6</v>
@@ -3641,13 +3153,13 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>128</v>
@@ -3682,17 +3194,18 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>269</v>
+        <v>178</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="D37" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D37" s="6" t="s">
         <v>128</v>
       </c>
+      <c r="E37" s="6"/>
       <c r="F37" s="2" t="s">
         <v>6</v>
       </c>
@@ -3723,13 +3236,13 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>128</v>
@@ -3764,13 +3277,13 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>134</v>
+        <v>274</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>128</v>
@@ -3805,7 +3318,13 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>183</v>
+        <v>138</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>129</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>128</v>
@@ -3840,13 +3359,13 @@
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>273</v>
+        <v>134</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>128</v>
@@ -3881,7 +3400,13 @@
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>185</v>
+        <v>137</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>130</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>128</v>
@@ -3916,7 +3441,13 @@
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>268</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>128</v>
@@ -3951,16 +3482,16 @@
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>187</v>
+        <v>139</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>51</v>
+        <v>131</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>52</v>
+        <v>132</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>6</v>
@@ -3992,16 +3523,16 @@
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>49</v>
+        <v>275</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>50</v>
+        <v>134</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>6</v>
@@ -4033,16 +3564,10 @@
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>6</v>
@@ -4074,16 +3599,16 @@
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>192</v>
+        <v>271</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>193</v>
+        <v>273</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>6</v>
@@ -4115,16 +3640,10 @@
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>107</v>
+        <v>185</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>6</v>
@@ -4156,16 +3675,10 @@
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>107</v>
+        <v>186</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>6</v>
@@ -4197,16 +3710,16 @@
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>198</v>
+        <v>51</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>199</v>
+        <v>52</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>6</v>
@@ -4237,17 +3750,17 @@
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>109</v>
+      <c r="A51" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>6</v>
@@ -4278,17 +3791,17 @@
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>200</v>
+      <c r="A52" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>189</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>107</v>
+        <v>190</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>6</v>
@@ -4320,180 +3833,180 @@
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>113</v>
+        <v>192</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="D53" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L53" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M53" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N53" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O53" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L54" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M54" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N54" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O54" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D55" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="F53" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I53" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J53" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L53" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M53" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="N53" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O53" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C54" s="4" t="s">
+      <c r="F55" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L55" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M55" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N55" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O55" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L56" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M56" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N56" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O56" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C57" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="D57" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H54" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I54" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J54" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L54" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M54" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="N54" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O54" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I55" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J55" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L55" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M55" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="N55" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O55" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H56" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I56" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J56" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L56" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M56" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="N56" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O56" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>242</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>6</v>
@@ -4525,299 +4038,299 @@
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L58" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M58" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N58" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O58" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L59" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M59" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N59" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O59" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L60" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M60" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N60" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O60" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L61" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M61" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N61" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O61" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L62" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M62" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N62" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O62" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L63" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M63" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N63" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O63" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B64" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="C64" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="D58" s="2" t="s">
+      <c r="D64" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="F58" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H58" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I58" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J58" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L58" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M58" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="N58" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O58" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
+      <c r="F64" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L64" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M64" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N64" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O64" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="2" t="s">
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="2" t="s">
         <v>242</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H59" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I59" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J59" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L59" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M59" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="N59" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O59" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G60" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H60" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I60" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J60" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L60" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M60" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="N60" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O60" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G61" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H61" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I61" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J61" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L61" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M61" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="N61" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O61" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H62" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I62" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J62" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L62" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M62" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="N62" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O62" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G63" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H63" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I63" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J63" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L63" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M63" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="N63" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O63" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H64" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I64" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J64" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L64" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M64" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="N64" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O64" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>232</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>6</v>
@@ -4849,16 +4362,16 @@
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>232</v>
+        <v>125</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>6</v>
@@ -4890,19 +4403,19 @@
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>299</v>
+        <v>34</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>232</v>
+        <v>125</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>6</v>
@@ -4931,10 +4444,16 @@
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>214</v>
+        <v>208</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>232</v>
+        <v>125</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>6</v>
@@ -4966,16 +4485,16 @@
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>55</v>
+        <v>267</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>300</v>
+        <v>267</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>232</v>
+        <v>125</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>6</v>
@@ -5007,262 +4526,256 @@
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J70" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L70" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M70" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N70" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O70" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J71" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L71" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M71" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N71" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O71" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J72" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L72" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M72" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N72" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O72" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J73" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L73" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M73" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N73" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O73" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J74" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L74" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M74" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N74" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O74" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J75" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L75" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M75" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N75" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O75" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B76" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="C76" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D70" s="2" t="s">
+      <c r="D76" s="2" t="s">
         <v>232</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G70" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H70" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I70" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J70" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L70" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M70" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="N70" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O70" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>276</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G71" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H71" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I71" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J71" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L71" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M71" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="N71" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O71" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>277</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G72" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H72" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I72" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J72" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L72" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M72" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="N72" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O72" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>278</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G73" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H73" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I73" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J73" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L73" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M73" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="N73" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O73" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>279</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G74" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H74" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I74" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J74" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L74" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M74" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="N74" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O74" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>280</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G75" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H75" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I75" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J75" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L75" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M75" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="N75" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O75" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>281</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>6</v>
@@ -5294,13 +4807,13 @@
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>119</v>
@@ -5335,13 +4848,13 @@
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>119</v>
@@ -5376,13 +4889,13 @@
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>119</v>
@@ -5417,13 +4930,13 @@
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>119</v>
@@ -5458,13 +4971,13 @@
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>309</v>
+        <v>141</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>119</v>
@@ -5499,13 +5012,13 @@
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>119</v>
@@ -5540,13 +5053,13 @@
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>119</v>
@@ -5581,13 +5094,13 @@
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>119</v>
@@ -5622,13 +5135,13 @@
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>119</v>
@@ -5663,13 +5176,13 @@
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>119</v>
@@ -5704,13 +5217,13 @@
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>70</v>
+        <v>309</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>73</v>
+        <v>310</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>119</v>
@@ -5745,16 +5258,16 @@
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>301</v>
+        <v>119</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>6</v>
@@ -5786,16 +5299,16 @@
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>311</v>
+        <v>75</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>311</v>
+        <v>76</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>301</v>
+        <v>119</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>6</v>
@@ -5827,16 +5340,16 @@
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>312</v>
+        <v>77</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>313</v>
+        <v>78</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>301</v>
+        <v>119</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>6</v>
@@ -5868,16 +5381,16 @@
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>301</v>
+        <v>119</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>6</v>
@@ -5909,303 +5422,303 @@
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
+        <v>291</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H92" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I92" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J92" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L92" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M92" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N92" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O92" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>292</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H93" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I93" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J93" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L93" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M93" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N93" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O93" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>293</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H94" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I94" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J94" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L94" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M94" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N94" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O94" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>294</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H95" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I95" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J95" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L95" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M95" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N95" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O95" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>295</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H96" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I96" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J96" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L96" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M96" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N96" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O96" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>296</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H97" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I97" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J97" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L97" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M97" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N97" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O97" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
         <v>297</v>
       </c>
-      <c r="B92" s="2" t="s">
+      <c r="B98" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C92" s="2" t="s">
+      <c r="C98" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D92" s="2" t="s">
+      <c r="D98" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="F92" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G92" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H92" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I92" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J92" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L92" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M92" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="N92" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O92" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A93" s="2" t="s">
+      <c r="F98" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H98" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I98" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J98" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L98" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M98" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N98" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O98" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="B93" s="2" t="s">
+      <c r="B99" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C93" s="2" t="s">
+      <c r="C99" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="D93" s="2" t="s">
+      <c r="D99" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G93" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H93" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I93" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J93" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L93" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M93" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="N93" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O93" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A94" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G94" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H94" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I94" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J94" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L94" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M94" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="N94" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O94" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A95" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G95" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H95" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I95" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J95" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L95" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M95" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="N95" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O95" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A96" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F96" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G96" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H96" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I96" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J96" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L96" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M96" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="N96" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O96" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A97" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G97" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H97" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I97" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J97" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L97" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M97" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="N97" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O97" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A98" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F98" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G98" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H98" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I98" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J98" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L98" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M98" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="N98" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O98" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>228</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>245</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>6</v>
@@ -6237,16 +5750,16 @@
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>314</v>
+        <v>147</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>314</v>
+        <v>147</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>315</v>
+        <v>144</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>6</v>
@@ -6278,16 +5791,16 @@
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>127</v>
+        <v>227</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>246</v>
+        <v>145</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>246</v>
+        <v>145</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>6</v>
@@ -6318,17 +5831,17 @@
       </c>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>259</v>
+      <c r="A102" s="2" t="s">
+        <v>222</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>248</v>
+        <v>146</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>249</v>
+        <v>146</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>250</v>
+        <v>144</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>6</v>
@@ -6359,17 +5872,17 @@
       </c>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>260</v>
+      <c r="A103" s="2" t="s">
+        <v>223</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>251</v>
+        <v>148</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>252</v>
+        <v>148</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>250</v>
+        <v>144</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>6</v>
@@ -6400,17 +5913,17 @@
       </c>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>261</v>
+      <c r="A104" s="2" t="s">
+        <v>224</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>250</v>
+        <v>144</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>6</v>
@@ -6442,16 +5955,16 @@
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>264</v>
+        <v>228</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>6</v>
@@ -6482,17 +5995,17 @@
       </c>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>262</v>
+      <c r="A106" s="2" t="s">
+        <v>229</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="C106" s="6" t="s">
-        <v>258</v>
+        <v>314</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>314</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>250</v>
+        <v>315</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>6</v>
@@ -6523,17 +6036,17 @@
       </c>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>263</v>
+      <c r="A107" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="C107" s="6" t="s">
-        <v>258</v>
+        <v>246</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>246</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>250</v>
+        <v>127</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>6</v>
@@ -6565,13 +6078,13 @@
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>322</v>
+        <v>259</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>316</v>
+        <v>248</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>317</v>
+        <v>249</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>250</v>
@@ -6606,13 +6119,13 @@
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>323</v>
+        <v>260</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>298</v>
+        <v>251</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>250</v>
@@ -6647,188 +6160,434 @@
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>324</v>
+        <v>261</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>318</v>
+        <v>253</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>319</v>
+        <v>254</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>250</v>
       </c>
+      <c r="F110" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H110" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I110" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J110" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L110" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M110" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N110" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O110" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>325</v>
+        <v>264</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>320</v>
+        <v>255</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>321</v>
+        <v>256</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>250</v>
       </c>
+      <c r="F111" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H111" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I111" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J111" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L111" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M111" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N111" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O111" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>262</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C112" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H112" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I112" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J112" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L112" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M112" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N112" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O112" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>263</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H113" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I113" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J113" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L113" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M113" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N113" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O113" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>322</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H114" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I114" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J114" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L114" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M114" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N114" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O114" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>323</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H115" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I115" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J115" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L115" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M115" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N115" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O115" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>324</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>325</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>250</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O107"/>
-  <conditionalFormatting sqref="A102">
+  <autoFilter ref="A1:O113"/>
+  <conditionalFormatting sqref="A108">
     <cfRule type="expression" dxfId="47" priority="41">
-      <formula>$R102="Passed"</formula>
+      <formula>$R108="Passed"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="46" priority="42">
-      <formula>$R102="Not Ready"</formula>
+      <formula>$R108="Not Ready"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="45" priority="43">
-      <formula>$R102="Retest"</formula>
+      <formula>$R108="Retest"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="44" priority="44">
-      <formula>$R102="Query"</formula>
+      <formula>$R108="Query"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="43" priority="45">
-      <formula>$R102="Blocked"</formula>
+      <formula>$R108="Blocked"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="42" priority="46">
-      <formula>$R102="In Progress"</formula>
+      <formula>$R108="In Progress"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="41" priority="47">
-      <formula>$R102="N/A"</formula>
+      <formula>$R108="N/A"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="40" priority="48">
-      <formula>$R102="Failed"</formula>
+      <formula>$R108="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A103">
+  <conditionalFormatting sqref="A109">
     <cfRule type="expression" dxfId="39" priority="33">
-      <formula>$R103="Passed"</formula>
+      <formula>$R109="Passed"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="38" priority="34">
-      <formula>$R103="Not Ready"</formula>
+      <formula>$R109="Not Ready"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="37" priority="35">
-      <formula>$R103="Retest"</formula>
+      <formula>$R109="Retest"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="36" priority="36">
-      <formula>$R103="Query"</formula>
+      <formula>$R109="Query"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="35" priority="37">
-      <formula>$R103="Blocked"</formula>
+      <formula>$R109="Blocked"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="34" priority="38">
-      <formula>$R103="In Progress"</formula>
+      <formula>$R109="In Progress"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="33" priority="39">
-      <formula>$R103="N/A"</formula>
+      <formula>$R109="N/A"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="32" priority="40">
-      <formula>$R103="Failed"</formula>
+      <formula>$R109="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A104">
+  <conditionalFormatting sqref="A110">
     <cfRule type="expression" dxfId="31" priority="25">
-      <formula>$R104="Passed"</formula>
+      <formula>$R110="Passed"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="30" priority="26">
-      <formula>$R104="Not Ready"</formula>
+      <formula>$R110="Not Ready"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="29" priority="27">
-      <formula>$R104="Retest"</formula>
+      <formula>$R110="Retest"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="28" priority="28">
-      <formula>$R104="Query"</formula>
+      <formula>$R110="Query"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="27" priority="29">
-      <formula>$R104="Blocked"</formula>
+      <formula>$R110="Blocked"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="26" priority="30">
-      <formula>$R104="In Progress"</formula>
+      <formula>$R110="In Progress"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="25" priority="31">
-      <formula>$R104="N/A"</formula>
+      <formula>$R110="N/A"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="24" priority="32">
-      <formula>$R104="Failed"</formula>
+      <formula>$R110="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A106">
+  <conditionalFormatting sqref="A112">
     <cfRule type="expression" dxfId="23" priority="17">
-      <formula>$R106="Passed"</formula>
+      <formula>$R112="Passed"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="22" priority="18">
-      <formula>$R106="Not Ready"</formula>
+      <formula>$R112="Not Ready"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="21" priority="19">
-      <formula>$R106="Retest"</formula>
+      <formula>$R112="Retest"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="20" priority="20">
-      <formula>$R106="Query"</formula>
+      <formula>$R112="Query"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="19" priority="21">
-      <formula>$R106="Blocked"</formula>
+      <formula>$R112="Blocked"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="18" priority="22">
-      <formula>$R106="In Progress"</formula>
+      <formula>$R112="In Progress"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="17" priority="23">
-      <formula>$R106="N/A"</formula>
+      <formula>$R112="N/A"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="16" priority="24">
-      <formula>$R106="Failed"</formula>
+      <formula>$R112="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A107">
+  <conditionalFormatting sqref="A113">
     <cfRule type="expression" dxfId="15" priority="9">
-      <formula>$R107="Passed"</formula>
+      <formula>$R113="Passed"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="14" priority="10">
-      <formula>$R107="Not Ready"</formula>
+      <formula>$R113="Not Ready"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="13" priority="11">
-      <formula>$R107="Retest"</formula>
+      <formula>$R113="Retest"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="12" priority="12">
-      <formula>$R107="Query"</formula>
+      <formula>$R113="Query"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="11" priority="13">
-      <formula>$R107="Blocked"</formula>
+      <formula>$R113="Blocked"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="10" priority="14">
-      <formula>$R107="In Progress"</formula>
+      <formula>$R113="In Progress"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="9" priority="15">
-      <formula>$R107="N/A"</formula>
+      <formula>$R113="N/A"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="8" priority="16">
-      <formula>$R107="Failed"</formula>
+      <formula>$R113="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A105">
+  <conditionalFormatting sqref="A111">
     <cfRule type="expression" dxfId="7" priority="1">
-      <formula>$R105="Passed"</formula>
+      <formula>$R111="Passed"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="6" priority="2">
-      <formula>$R105="Not Ready"</formula>
+      <formula>$R111="Not Ready"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="5" priority="3">
-      <formula>$R105="Retest"</formula>
+      <formula>$R111="Retest"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="4">
-      <formula>$R105="Query"</formula>
+      <formula>$R111="Query"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="3" priority="5">
-      <formula>$R105="Blocked"</formula>
+      <formula>$R111="Blocked"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="6">
-      <formula>$R105="In Progress"</formula>
+      <formula>$R111="In Progress"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="7">
-      <formula>$R105="N/A"</formula>
+      <formula>$R111="N/A"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="8">
-      <formula>$R105="Failed"</formula>
+      <formula>$R111="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/WppRegpack/TestResource/TC_RunManager.xlsx
+++ b/WppRegpack/TestResource/TC_RunManager.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2236" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2236" uniqueCount="329">
   <si>
     <t>Description</t>
   </si>
@@ -1018,6 +1018,9 @@
   </si>
   <si>
     <t>UAE_Regression</t>
+  </si>
+  <si>
+    <t>Job_Creation</t>
   </si>
 </sst>
 </file>
@@ -1848,8 +1851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:D28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2009,7 +2012,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>5</v>
+        <v>328</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>121</v>

--- a/WppRegpack/TestResource/TC_RunManager.xlsx
+++ b/WppRegpack/TestResource/TC_RunManager.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2236" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2238" uniqueCount="331">
   <si>
     <t>Description</t>
   </si>
@@ -1021,6 +1021,12 @@
   </si>
   <si>
     <t>Job_Creation</t>
+  </si>
+  <si>
+    <t>Combined_Invoice</t>
+  </si>
+  <si>
+    <t>Create_Combined_Invoice</t>
   </si>
 </sst>
 </file>
@@ -1056,7 +1062,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1066,6 +1072,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1097,7 +1109,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1109,6 +1121,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1851,8 +1864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O117"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3565,38 +3578,44 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
+    <row r="46" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="B46" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="D46" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="F46" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J46" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L46" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M46" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="N46" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O46" s="2" t="s">
+      <c r="F46" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H46" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I46" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="L46" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="M46" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="N46" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="O46" s="7" t="s">
         <v>6</v>
       </c>
     </row>

--- a/WppRegpack/TestResource/TC_RunManager.xlsx
+++ b/WppRegpack/TestResource/TC_RunManager.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\OneDrive - Cognizant\Documents\GlobalTestSuite Project\GlobalTestSuiteAutomation\WppRegpack\TestResource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\OneDrive - Cognizant\Documents\WPP Global TestScripts\GlobalTestSuiteAutomation\WppRegpack\TestResource\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2238" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2240" uniqueCount="333">
   <si>
     <t>Description</t>
   </si>
@@ -1027,6 +1027,12 @@
   </si>
   <si>
     <t>Create_Combined_Invoice</t>
+  </si>
+  <si>
+    <t>Blanket_Invoice</t>
+  </si>
+  <si>
+    <t>Create_Blanket_Invoice</t>
   </si>
 </sst>
 </file>
@@ -1865,7 +1871,7 @@
   <dimension ref="A1:O117"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+      <selection activeCell="A49" sqref="A49:XFD49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3695,38 +3701,44 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
+    <row r="49" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="B49" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="D49" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="F49" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I49" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J49" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L49" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M49" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="N49" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O49" s="2" t="s">
+      <c r="F49" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I49" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="M49" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="N49" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="O49" s="7" t="s">
         <v>6</v>
       </c>
     </row>

--- a/WppRegpack/TestResource/TC_RunManager.xlsx
+++ b/WppRegpack/TestResource/TC_RunManager.xlsx
@@ -20,7 +20,7 @@
     <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GlobalTestCase!$A$1:$O$113</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GlobalTestCase!$A$1:$O$115</definedName>
     <definedName name="IterationOptions">[1]Sheet1!$A$2:$A$4</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2240" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2250" uniqueCount="341">
   <si>
     <t>Description</t>
   </si>
@@ -1033,6 +1033,30 @@
   </si>
   <si>
     <t>Create_Blanket_Invoice</t>
+  </si>
+  <si>
+    <t>Create_Job_Creaditing</t>
+  </si>
+  <si>
+    <t>Job_Crediting</t>
+  </si>
+  <si>
+    <t>Import Budget Model</t>
+  </si>
+  <si>
+    <t>Import_Budget_Model</t>
+  </si>
+  <si>
+    <t>Import_Budget_Template</t>
+  </si>
+  <si>
+    <t>Update_Perodic_Balance</t>
+  </si>
+  <si>
+    <t>Updating_Perodic_Balance</t>
+  </si>
+  <si>
+    <t>Update Periodic Balance</t>
   </si>
 </sst>
 </file>
@@ -1868,10 +1892,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O117"/>
+  <dimension ref="A1:O119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49:XFD49"/>
+    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="A100" sqref="A100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3670,6 +3694,12 @@
       <c r="A48" s="2" t="s">
         <v>185</v>
       </c>
+      <c r="B48" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>333</v>
+      </c>
       <c r="D48" s="2" t="s">
         <v>128</v>
       </c>
@@ -3949,54 +3979,27 @@
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>196</v>
+        <v>335</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>106</v>
+        <v>336</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>107</v>
+        <v>337</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="F55" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I55" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J55" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L55" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M55" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="N55" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O55" s="2" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>198</v>
+        <v>106</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>199</v>
+        <v>107</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>127</v>
@@ -4030,14 +4033,14 @@
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A57" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>109</v>
+      <c r="A57" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>199</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>127</v>
@@ -4071,14 +4074,14 @@
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>107</v>
+      <c r="A58" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>109</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>127</v>
@@ -4112,14 +4115,14 @@
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>113</v>
+      <c r="A59" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>200</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>201</v>
+        <v>107</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>127</v>
@@ -4153,14 +4156,14 @@
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A60" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>109</v>
+      <c r="A60" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>201</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>127</v>
@@ -4195,16 +4198,16 @@
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>238</v>
+        <v>111</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>109</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>242</v>
+        <v>127</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>6</v>
@@ -4236,13 +4239,13 @@
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>237</v>
+        <v>217</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>236</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>242</v>
@@ -4277,13 +4280,13 @@
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>247</v>
+        <v>218</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>242</v>
@@ -4318,13 +4321,13 @@
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>242</v>
@@ -4359,10 +4362,14 @@
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="B65" s="3"/>
-      <c r="C65" s="3"/>
+        <v>220</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>241</v>
+      </c>
       <c r="D65" s="2" t="s">
         <v>242</v>
       </c>
@@ -4395,17 +4402,13 @@
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="A66" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
       <c r="D66" s="2" t="s">
-        <v>125</v>
+        <v>242</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>6</v>
@@ -4437,13 +4440,13 @@
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>125</v>
@@ -4478,13 +4481,13 @@
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>125</v>
@@ -4519,13 +4522,13 @@
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>267</v>
+        <v>45</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>267</v>
+        <v>45</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>125</v>
@@ -4560,13 +4563,13 @@
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>35</v>
+        <v>267</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>307</v>
+        <v>267</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>125</v>
@@ -4601,16 +4604,16 @@
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>16</v>
+        <v>307</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>232</v>
+        <v>125</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>6</v>
@@ -4642,13 +4645,13 @@
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>232</v>
@@ -4683,19 +4686,19 @@
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>299</v>
+        <v>20</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>232</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>6</v>
@@ -4724,13 +4727,19 @@
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>299</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>232</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>6</v>
@@ -4759,13 +4768,7 @@
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>300</v>
+        <v>214</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>232</v>
@@ -4800,13 +4803,13 @@
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>18</v>
+        <v>300</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>232</v>
@@ -4840,17 +4843,17 @@
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>276</v>
+      <c r="A77" s="2" t="s">
+        <v>216</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>99</v>
+        <v>17</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>99</v>
+        <v>18</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>119</v>
+        <v>232</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>6</v>
@@ -4882,13 +4885,13 @@
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>119</v>
@@ -4923,13 +4926,13 @@
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>119</v>
@@ -4964,13 +4967,13 @@
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>119</v>
@@ -5005,13 +5008,13 @@
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>141</v>
+        <v>92</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>308</v>
+        <v>93</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>119</v>
@@ -5046,13 +5049,13 @@
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>84</v>
+        <v>141</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>84</v>
+        <v>308</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>119</v>
@@ -5087,13 +5090,13 @@
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>119</v>
@@ -5128,13 +5131,13 @@
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>119</v>
@@ -5169,13 +5172,13 @@
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>119</v>
@@ -5210,13 +5213,13 @@
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>119</v>
@@ -5251,13 +5254,13 @@
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>309</v>
+        <v>96</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>310</v>
+        <v>96</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>119</v>
@@ -5292,13 +5295,13 @@
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>79</v>
+        <v>309</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>80</v>
+        <v>310</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>119</v>
@@ -5333,13 +5336,13 @@
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>119</v>
@@ -5374,13 +5377,13 @@
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>119</v>
@@ -5415,13 +5418,13 @@
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>119</v>
@@ -5456,13 +5459,13 @@
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>119</v>
@@ -5497,13 +5500,13 @@
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>119</v>
@@ -5538,16 +5541,16 @@
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>301</v>
+        <v>119</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>6</v>
@@ -5579,13 +5582,13 @@
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>311</v>
+        <v>102</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>311</v>
+        <v>103</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>301</v>
@@ -5620,13 +5623,13 @@
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>301</v>
@@ -5661,13 +5664,13 @@
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>83</v>
+        <v>312</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>83</v>
+        <v>313</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>301</v>
@@ -5702,13 +5705,13 @@
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>301</v>
@@ -5742,17 +5745,17 @@
       </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A99" s="2" t="s">
-        <v>225</v>
+      <c r="A99" t="s">
+        <v>297</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>143</v>
+        <v>74</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>143</v>
+        <v>74</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>144</v>
+        <v>301</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>6</v>
@@ -5783,55 +5786,28 @@
       </c>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A100" s="2" t="s">
-        <v>226</v>
+      <c r="A100" t="s">
+        <v>340</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>147</v>
+        <v>338</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>147</v>
+        <v>339</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="F100" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G100" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H100" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I100" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J100" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L100" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M100" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="N100" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O100" s="2" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>144</v>
@@ -5866,13 +5842,13 @@
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>144</v>
@@ -5907,13 +5883,13 @@
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>144</v>
@@ -5948,13 +5924,13 @@
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>266</v>
+        <v>146</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>266</v>
+        <v>146</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>144</v>
@@ -5988,17 +5964,17 @@
       </c>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>228</v>
+      <c r="A105" s="2" t="s">
+        <v>223</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>245</v>
+        <v>148</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>245</v>
+        <v>148</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>245</v>
+        <v>144</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>6</v>
@@ -6030,139 +6006,139 @@
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H106" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I106" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J106" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L106" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M106" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N106" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O106" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>228</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H107" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I107" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J107" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L107" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M107" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N107" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O107" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B106" s="2" t="s">
+      <c r="B108" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="C106" s="2" t="s">
+      <c r="C108" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="D106" s="2" t="s">
+      <c r="D108" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="F106" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G106" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H106" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I106" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J106" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L106" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M106" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="N106" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O106" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A107" s="2" t="s">
+      <c r="F108" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H108" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I108" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J108" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L108" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M108" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N108" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O108" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B107" s="2" t="s">
+      <c r="B109" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="C107" s="2" t="s">
+      <c r="C109" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="D107" s="2" t="s">
+      <c r="D109" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="F107" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G107" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H107" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I107" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J107" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L107" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M107" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="N107" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O107" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>259</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="F108" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G108" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H108" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I108" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J108" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L108" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M108" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="N108" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O108" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>260</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>250</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>6</v>
@@ -6194,13 +6170,13 @@
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>250</v>
@@ -6235,13 +6211,13 @@
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>250</v>
@@ -6276,13 +6252,13 @@
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="C112" s="6" t="s">
-        <v>258</v>
+        <v>253</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>254</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>250</v>
@@ -6317,13 +6293,13 @@
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="C113" s="6" t="s">
-        <v>258</v>
+        <v>255</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>256</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>250</v>
@@ -6358,13 +6334,13 @@
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>322</v>
+        <v>262</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>317</v>
+        <v>257</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>258</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>250</v>
@@ -6399,13 +6375,13 @@
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>323</v>
+        <v>263</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>238</v>
+        <v>265</v>
+      </c>
+      <c r="C115" s="6" t="s">
+        <v>258</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>250</v>
@@ -6440,188 +6416,270 @@
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>250</v>
       </c>
+      <c r="F116" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H116" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I116" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J116" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L116" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M116" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N116" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O116" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>320</v>
+        <v>298</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>321</v>
+        <v>238</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>250</v>
       </c>
+      <c r="F117" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H117" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I117" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J117" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L117" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M117" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N117" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O117" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>324</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>325</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>250</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O113"/>
-  <conditionalFormatting sqref="A108">
+  <autoFilter ref="A1:O115"/>
+  <conditionalFormatting sqref="A110">
     <cfRule type="expression" dxfId="47" priority="41">
-      <formula>$R108="Passed"</formula>
+      <formula>$R110="Passed"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="46" priority="42">
-      <formula>$R108="Not Ready"</formula>
+      <formula>$R110="Not Ready"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="45" priority="43">
-      <formula>$R108="Retest"</formula>
+      <formula>$R110="Retest"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="44" priority="44">
-      <formula>$R108="Query"</formula>
+      <formula>$R110="Query"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="43" priority="45">
-      <formula>$R108="Blocked"</formula>
+      <formula>$R110="Blocked"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="42" priority="46">
-      <formula>$R108="In Progress"</formula>
+      <formula>$R110="In Progress"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="41" priority="47">
-      <formula>$R108="N/A"</formula>
+      <formula>$R110="N/A"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="40" priority="48">
-      <formula>$R108="Failed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A109">
-    <cfRule type="expression" dxfId="39" priority="33">
-      <formula>$R109="Passed"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="38" priority="34">
-      <formula>$R109="Not Ready"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="37" priority="35">
-      <formula>$R109="Retest"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="36" priority="36">
-      <formula>$R109="Query"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="35" priority="37">
-      <formula>$R109="Blocked"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="34" priority="38">
-      <formula>$R109="In Progress"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="33" priority="39">
-      <formula>$R109="N/A"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="32" priority="40">
-      <formula>$R109="Failed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A110">
-    <cfRule type="expression" dxfId="31" priority="25">
-      <formula>$R110="Passed"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="30" priority="26">
-      <formula>$R110="Not Ready"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="29" priority="27">
-      <formula>$R110="Retest"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="28" priority="28">
-      <formula>$R110="Query"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="27" priority="29">
-      <formula>$R110="Blocked"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="26" priority="30">
-      <formula>$R110="In Progress"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="25" priority="31">
-      <formula>$R110="N/A"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="24" priority="32">
       <formula>$R110="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="A111">
+    <cfRule type="expression" dxfId="39" priority="33">
+      <formula>$R111="Passed"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="38" priority="34">
+      <formula>$R111="Not Ready"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="37" priority="35">
+      <formula>$R111="Retest"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="36" priority="36">
+      <formula>$R111="Query"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="35" priority="37">
+      <formula>$R111="Blocked"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="38">
+      <formula>$R111="In Progress"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="39">
+      <formula>$R111="N/A"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="32" priority="40">
+      <formula>$R111="Failed"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="A112">
-    <cfRule type="expression" dxfId="23" priority="17">
+    <cfRule type="expression" dxfId="31" priority="25">
       <formula>$R112="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="18">
+    <cfRule type="expression" dxfId="30" priority="26">
       <formula>$R112="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="19">
+    <cfRule type="expression" dxfId="29" priority="27">
       <formula>$R112="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="20">
+    <cfRule type="expression" dxfId="28" priority="28">
       <formula>$R112="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="21">
+    <cfRule type="expression" dxfId="27" priority="29">
       <formula>$R112="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="22">
+    <cfRule type="expression" dxfId="26" priority="30">
       <formula>$R112="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="23">
+    <cfRule type="expression" dxfId="25" priority="31">
       <formula>$R112="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="24">
+    <cfRule type="expression" dxfId="24" priority="32">
       <formula>$R112="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="A114">
+    <cfRule type="expression" dxfId="23" priority="17">
+      <formula>$R114="Passed"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="18">
+      <formula>$R114="Not Ready"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="19">
+      <formula>$R114="Retest"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="20">
+      <formula>$R114="Query"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="19" priority="21">
+      <formula>$R114="Blocked"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="22">
+      <formula>$R114="In Progress"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="17" priority="23">
+      <formula>$R114="N/A"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="24">
+      <formula>$R114="Failed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A115">
+    <cfRule type="expression" dxfId="15" priority="9">
+      <formula>$R115="Passed"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="10">
+      <formula>$R115="Not Ready"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="11">
+      <formula>$R115="Retest"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="12">
+      <formula>$R115="Query"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="11" priority="13">
+      <formula>$R115="Blocked"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="14">
+      <formula>$R115="In Progress"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="15">
+      <formula>$R115="N/A"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="16">
+      <formula>$R115="Failed"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="A113">
-    <cfRule type="expression" dxfId="15" priority="9">
+    <cfRule type="expression" dxfId="7" priority="1">
       <formula>$R113="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="10">
+    <cfRule type="expression" dxfId="6" priority="2">
       <formula>$R113="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="11">
+    <cfRule type="expression" dxfId="5" priority="3">
       <formula>$R113="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="12">
+    <cfRule type="expression" dxfId="4" priority="4">
       <formula>$R113="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="13">
+    <cfRule type="expression" dxfId="3" priority="5">
       <formula>$R113="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="14">
+    <cfRule type="expression" dxfId="2" priority="6">
       <formula>$R113="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="15">
+    <cfRule type="expression" dxfId="1" priority="7">
       <formula>$R113="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="16">
+    <cfRule type="expression" dxfId="0" priority="8">
       <formula>$R113="Failed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A111">
-    <cfRule type="expression" dxfId="7" priority="1">
-      <formula>$R111="Passed"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="2">
-      <formula>$R111="Not Ready"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="5" priority="3">
-      <formula>$R111="Retest"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="4">
-      <formula>$R111="Query"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="5">
-      <formula>$R111="Blocked"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="6">
-      <formula>$R111="In Progress"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="7">
-      <formula>$R111="N/A"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="8">
-      <formula>$R111="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/WppRegpack/TestResource/TC_RunManager.xlsx
+++ b/WppRegpack/TestResource/TC_RunManager.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\OneDrive - Cognizant\Documents\WPP Global TestScripts\GlobalTestSuiteAutomation\WppRegpack\TestResource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GlobalTestAutomation2\GlobalTestSuiteAutomation\WppRegpack\TestResource\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2250" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2294" uniqueCount="345">
   <si>
     <t>Description</t>
   </si>
@@ -1057,6 +1057,18 @@
   </si>
   <si>
     <t>Update Periodic Balance</t>
+  </si>
+  <si>
+    <t>DraftCreditMemo</t>
+  </si>
+  <si>
+    <t>DraftCreditMemo_MPL</t>
+  </si>
+  <si>
+    <t>CreditMemo</t>
+  </si>
+  <si>
+    <t>CreditMemo_MPL</t>
   </si>
 </sst>
 </file>
@@ -1892,10 +1904,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O119"/>
+  <dimension ref="A1:O121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="A100" sqref="A100"/>
+    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="D121" sqref="D121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6339,7 +6351,7 @@
       <c r="B114" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="C114" s="6" t="s">
+      <c r="C114" s="2" t="s">
         <v>258</v>
       </c>
       <c r="D114" s="2" t="s">
@@ -6380,8 +6392,8 @@
       <c r="B115" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="C115" s="6" t="s">
-        <v>258</v>
+      <c r="C115" s="2" t="s">
+        <v>263</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>250</v>
@@ -6509,6 +6521,33 @@
       <c r="D118" s="2" t="s">
         <v>250</v>
       </c>
+      <c r="F118" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H118" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I118" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J118" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L118" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M118" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N118" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O118" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
@@ -6522,6 +6561,115 @@
       </c>
       <c r="D119" s="2" t="s">
         <v>250</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H119" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I119" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J119" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L119" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M119" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N119" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O119" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A120" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H120" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I120" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J120" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L120" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M120" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N120" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O120" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A121" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H121" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I121" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J121" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L121" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M121" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N121" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O121" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/WppRegpack/TestResource/TC_RunManager.xlsx
+++ b/WppRegpack/TestResource/TC_RunManager.xlsx
@@ -20,7 +20,7 @@
     <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GlobalTestCase!$A$1:$O$115</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GlobalTestCase!$A$1:$O$120</definedName>
     <definedName name="IterationOptions">[1]Sheet1!$A$2:$A$4</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2294" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2282" uniqueCount="347">
   <si>
     <t>Description</t>
   </si>
@@ -774,9 +774,6 @@
     <t>ReallocateJobEntries</t>
   </si>
   <si>
-    <t>ImportBudgetModel</t>
-  </si>
-  <si>
     <t>CreatePaymentFile</t>
   </si>
   <si>
@@ -1069,6 +1066,15 @@
   </si>
   <si>
     <t>CreditMemo_MPL</t>
+  </si>
+  <si>
+    <t>Create_Client_Approved_Estimate</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>08. Create a Purchase Order from a Job Budget</t>
   </si>
 </sst>
 </file>
@@ -1104,7 +1110,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1114,12 +1120,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="42"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1163,7 +1163,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1904,24 +1904,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O121"/>
+  <dimension ref="A1:O120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
-      <selection activeCell="D121" sqref="D121"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="55.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="82" style="2" customWidth="1"/>
     <col min="2" max="2" width="29" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.85546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="22" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="22.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="22" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.85546875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="25.28515625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="22.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="22" style="2" customWidth="1"/>
     <col min="12" max="12" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.140625" style="2" bestFit="1" customWidth="1"/>
@@ -1944,25 +1943,25 @@
         <v>118</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>326</v>
+        <v>87</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>231</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>116</v>
@@ -1990,10 +1989,10 @@
       <c r="D2" s="2" t="s">
         <v>119</v>
       </c>
+      <c r="E2" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H2" s="2" t="s">
@@ -2029,12 +2028,12 @@
         <v>151</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H3" s="2" t="s">
@@ -2067,15 +2066,15 @@
         <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>121</v>
       </c>
+      <c r="E4" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H4" s="2" t="s">
@@ -2113,10 +2112,10 @@
       <c r="D5" s="2" t="s">
         <v>121</v>
       </c>
+      <c r="E5" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H5" s="2" t="s">
@@ -2154,10 +2153,10 @@
       <c r="D6" s="2" t="s">
         <v>121</v>
       </c>
+      <c r="E6" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H6" s="2" t="s">
@@ -2190,15 +2189,15 @@
         <v>14</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>14</v>
+        <v>344</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>121</v>
       </c>
+      <c r="E7" s="2" t="s">
+        <v>345</v>
+      </c>
       <c r="F7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H7" s="2" t="s">
@@ -2225,7 +2224,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>158</v>
+        <v>346</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>110</v>
@@ -2236,10 +2235,10 @@
       <c r="D8" s="2" t="s">
         <v>121</v>
       </c>
+      <c r="E8" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H8" s="2" t="s">
@@ -2277,10 +2276,10 @@
       <c r="D9" s="2" t="s">
         <v>121</v>
       </c>
+      <c r="E9" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G9" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H9" s="2" t="s">
@@ -2316,12 +2315,12 @@
         <v>156</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>156</v>
+        <v>128</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G10" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H10" s="2" t="s">
@@ -2357,12 +2356,12 @@
         <v>244</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>244</v>
+        <v>128</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G11" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H11" s="2" t="s">
@@ -2400,10 +2399,10 @@
       <c r="D12" s="2" t="s">
         <v>121</v>
       </c>
+      <c r="E12" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G12" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H12" s="2" t="s">
@@ -2441,10 +2440,10 @@
       <c r="D13" s="2" t="s">
         <v>121</v>
       </c>
+      <c r="E13" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G13" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H13" s="2" t="s">
@@ -2482,10 +2481,10 @@
       <c r="D14" s="2" t="s">
         <v>121</v>
       </c>
+      <c r="E14" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G14" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H14" s="2" t="s">
@@ -2523,10 +2522,10 @@
       <c r="D15" s="2" t="s">
         <v>121</v>
       </c>
+      <c r="E15" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G15" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H15" s="2" t="s">
@@ -2564,10 +2563,10 @@
       <c r="D16" s="2" t="s">
         <v>122</v>
       </c>
+      <c r="E16" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F16" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G16" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H16" s="2" t="s">
@@ -2605,10 +2604,10 @@
       <c r="D17" s="2" t="s">
         <v>122</v>
       </c>
+      <c r="E17" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F17" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G17" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H17" s="2" t="s">
@@ -2646,10 +2645,10 @@
       <c r="D18" s="2" t="s">
         <v>122</v>
       </c>
+      <c r="E18" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F18" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G18" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H18" s="2" t="s">
@@ -2687,10 +2686,10 @@
       <c r="D19" s="2" t="s">
         <v>122</v>
       </c>
+      <c r="E19" s="2" t="s">
+        <v>345</v>
+      </c>
       <c r="F19" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G19" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H19" s="2" t="s">
@@ -2720,18 +2719,18 @@
         <v>166</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>302</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>303</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>122</v>
       </c>
+      <c r="E20" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F20" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G20" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H20" s="2" t="s">
@@ -2789,18 +2788,18 @@
         <v>167</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>304</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>305</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>122</v>
       </c>
+      <c r="E23" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F23" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G23" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H23" s="2" t="s">
@@ -2858,18 +2857,18 @@
         <v>168</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>122</v>
       </c>
+      <c r="E26" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F26" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G26" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H26" s="2" t="s">
@@ -2921,6 +2920,9 @@
       <c r="D28" s="2" t="s">
         <v>122</v>
       </c>
+      <c r="E28" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
@@ -2935,10 +2937,10 @@
       <c r="D29" s="2" t="s">
         <v>123</v>
       </c>
+      <c r="E29" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F29" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G29" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H29" s="2" t="s">
@@ -2976,10 +2978,10 @@
       <c r="D30" s="2" t="s">
         <v>123</v>
       </c>
+      <c r="E30" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F30" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G30" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H30" s="2" t="s">
@@ -3017,10 +3019,10 @@
       <c r="D31" s="2" t="s">
         <v>123</v>
       </c>
+      <c r="E31" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F31" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G31" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H31" s="2" t="s">
@@ -3058,10 +3060,10 @@
       <c r="D32" s="2" t="s">
         <v>123</v>
       </c>
+      <c r="E32" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F32" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G32" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H32" s="2" t="s">
@@ -3099,10 +3101,10 @@
       <c r="D33" s="2" t="s">
         <v>123</v>
       </c>
+      <c r="E33" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F33" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G33" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H33" s="2" t="s">
@@ -3140,10 +3142,10 @@
       <c r="D34" s="2" t="s">
         <v>123</v>
       </c>
+      <c r="E34" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F34" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G34" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H34" s="2" t="s">
@@ -3181,10 +3183,10 @@
       <c r="D35" s="2" t="s">
         <v>123</v>
       </c>
+      <c r="E35" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F35" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G35" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H35" s="2" t="s">
@@ -3222,10 +3224,10 @@
       <c r="D36" s="2" t="s">
         <v>128</v>
       </c>
+      <c r="E36" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F36" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G36" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H36" s="2" t="s">
@@ -3263,13 +3265,13 @@
       <c r="D37" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="E37" s="6"/>
+      <c r="E37" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F37" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G37" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="G37" s="6"/>
       <c r="H37" s="2" t="s">
         <v>6</v>
       </c>
@@ -3305,10 +3307,10 @@
       <c r="D38" s="2" t="s">
         <v>128</v>
       </c>
+      <c r="E38" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F38" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G38" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H38" s="2" t="s">
@@ -3338,18 +3340,18 @@
         <v>179</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>128</v>
       </c>
+      <c r="E39" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F39" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G39" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H39" s="2" t="s">
@@ -3387,10 +3389,10 @@
       <c r="D40" s="2" t="s">
         <v>128</v>
       </c>
+      <c r="E40" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F40" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G40" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H40" s="2" t="s">
@@ -3420,7 +3422,7 @@
         <v>180</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>134</v>
@@ -3428,10 +3430,10 @@
       <c r="D41" s="2" t="s">
         <v>128</v>
       </c>
+      <c r="E41" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F41" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G41" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H41" s="2" t="s">
@@ -3469,10 +3471,10 @@
       <c r="D42" s="2" t="s">
         <v>128</v>
       </c>
+      <c r="E42" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F42" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G42" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H42" s="2" t="s">
@@ -3502,18 +3504,18 @@
         <v>181</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>128</v>
       </c>
+      <c r="E43" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F43" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G43" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H43" s="2" t="s">
@@ -3551,10 +3553,10 @@
       <c r="D44" s="2" t="s">
         <v>128</v>
       </c>
+      <c r="E44" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F44" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G44" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H44" s="2" t="s">
@@ -3584,7 +3586,7 @@
         <v>182</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>134</v>
@@ -3592,10 +3594,10 @@
       <c r="D45" s="2" t="s">
         <v>128</v>
       </c>
+      <c r="E45" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F45" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G45" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H45" s="2" t="s">
@@ -3625,20 +3627,20 @@
         <v>183</v>
       </c>
       <c r="B46" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="C46" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>330</v>
       </c>
       <c r="D46" s="7" t="s">
         <v>128</v>
       </c>
+      <c r="E46" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="F46" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G46" s="7" t="s">
-        <v>6</v>
-      </c>
       <c r="H46" s="7" t="s">
         <v>6</v>
       </c>
@@ -3661,85 +3663,85 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
+    <row r="47" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="D47" s="2" t="s">
+      <c r="B47" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="D47" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="F47" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J47" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L47" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M47" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="N47" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O47" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
+      <c r="E47" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H47" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I47" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="M47" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="N47" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="O47" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="C48" s="2" t="s">
+      <c r="B48" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="C48" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="D48" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="F48" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I48" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J48" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L48" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M48" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="N48" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O48" s="2" t="s">
+      <c r="E48" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I48" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="L48" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="M48" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="N48" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="O48" s="7" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3748,18 +3750,18 @@
         <v>186</v>
       </c>
       <c r="B49" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="C49" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>332</v>
       </c>
       <c r="D49" s="7" t="s">
         <v>128</v>
       </c>
+      <c r="E49" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="F49" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G49" s="7" t="s">
         <v>6</v>
       </c>
       <c r="H49" s="7" t="s">
@@ -3797,10 +3799,10 @@
       <c r="D50" s="2" t="s">
         <v>124</v>
       </c>
+      <c r="E50" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F50" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G50" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H50" s="2" t="s">
@@ -3838,10 +3840,10 @@
       <c r="D51" s="2" t="s">
         <v>124</v>
       </c>
+      <c r="E51" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F51" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G51" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H51" s="2" t="s">
@@ -3879,10 +3881,10 @@
       <c r="D52" s="2" t="s">
         <v>124</v>
       </c>
+      <c r="E52" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F52" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G52" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H52" s="2" t="s">
@@ -3920,10 +3922,10 @@
       <c r="D53" s="2" t="s">
         <v>124</v>
       </c>
+      <c r="E53" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F53" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G53" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H53" s="2" t="s">
@@ -3961,10 +3963,10 @@
       <c r="D54" s="2" t="s">
         <v>124</v>
       </c>
+      <c r="E54" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F54" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G54" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H54" s="2" t="s">
@@ -3991,13 +3993,13 @@
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="C55" s="2" t="s">
         <v>336</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>337</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>127</v>
@@ -4016,10 +4018,10 @@
       <c r="D56" s="2" t="s">
         <v>127</v>
       </c>
+      <c r="E56" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F56" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G56" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H56" s="2" t="s">
@@ -4057,10 +4059,10 @@
       <c r="D57" s="2" t="s">
         <v>127</v>
       </c>
+      <c r="E57" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F57" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G57" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H57" s="2" t="s">
@@ -4098,10 +4100,10 @@
       <c r="D58" s="2" t="s">
         <v>127</v>
       </c>
+      <c r="E58" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F58" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G58" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H58" s="2" t="s">
@@ -4139,10 +4141,10 @@
       <c r="D59" s="2" t="s">
         <v>127</v>
       </c>
+      <c r="E59" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F59" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G59" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H59" s="2" t="s">
@@ -4180,10 +4182,10 @@
       <c r="D60" s="2" t="s">
         <v>127</v>
       </c>
+      <c r="E60" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F60" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G60" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H60" s="2" t="s">
@@ -4221,10 +4223,10 @@
       <c r="D61" s="2" t="s">
         <v>127</v>
       </c>
+      <c r="E61" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F61" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G61" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H61" s="2" t="s">
@@ -4262,11 +4264,11 @@
       <c r="D62" s="2" t="s">
         <v>242</v>
       </c>
+      <c r="E62" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F62" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H62" s="2" t="s">
         <v>6</v>
@@ -4303,10 +4305,10 @@
       <c r="D63" s="2" t="s">
         <v>242</v>
       </c>
+      <c r="E63" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F63" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G63" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H63" s="2" t="s">
@@ -4336,19 +4338,19 @@
         <v>219</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>242</v>
       </c>
+      <c r="E64" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F64" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H64" s="2" t="s">
         <v>6</v>
@@ -4385,11 +4387,11 @@
       <c r="D65" s="2" t="s">
         <v>242</v>
       </c>
+      <c r="E65" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F65" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G65" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H65" s="2" t="s">
         <v>6</v>
@@ -4422,10 +4424,10 @@
       <c r="D66" s="2" t="s">
         <v>242</v>
       </c>
+      <c r="E66" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F66" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G66" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H66" s="2" t="s">
@@ -4463,10 +4465,10 @@
       <c r="D67" s="2" t="s">
         <v>125</v>
       </c>
+      <c r="E67" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F67" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G67" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H67" s="2" t="s">
@@ -4504,10 +4506,10 @@
       <c r="D68" s="2" t="s">
         <v>125</v>
       </c>
+      <c r="E68" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F68" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G68" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H68" s="2" t="s">
@@ -4545,10 +4547,10 @@
       <c r="D69" s="2" t="s">
         <v>125</v>
       </c>
+      <c r="E69" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F69" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G69" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H69" s="2" t="s">
@@ -4578,18 +4580,18 @@
         <v>209</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>125</v>
       </c>
+      <c r="E70" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F70" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G70" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H70" s="2" t="s">
@@ -4622,15 +4624,15 @@
         <v>35</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>125</v>
       </c>
+      <c r="E71" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F71" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G71" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H71" s="2" t="s">
@@ -4668,10 +4670,10 @@
       <c r="D72" s="2" t="s">
         <v>232</v>
       </c>
+      <c r="E72" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F72" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G72" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H72" s="2" t="s">
@@ -4709,10 +4711,10 @@
       <c r="D73" s="2" t="s">
         <v>232</v>
       </c>
+      <c r="E73" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F73" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G73" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H73" s="2" t="s">
@@ -4745,15 +4747,15 @@
         <v>39</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>232</v>
       </c>
+      <c r="E74" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F74" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G74" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H74" s="2" t="s">
@@ -4785,10 +4787,10 @@
       <c r="D75" s="2" t="s">
         <v>232</v>
       </c>
+      <c r="E75" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F75" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G75" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H75" s="2" t="s">
@@ -4821,15 +4823,15 @@
         <v>55</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>232</v>
       </c>
+      <c r="E76" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F76" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G76" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H76" s="2" t="s">
@@ -4867,10 +4869,10 @@
       <c r="D77" s="2" t="s">
         <v>232</v>
       </c>
+      <c r="E77" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="F77" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G77" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H77" s="2" t="s">
@@ -4897,7 +4899,7 @@
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>99</v>
@@ -4908,10 +4910,10 @@
       <c r="D78" s="2" t="s">
         <v>119</v>
       </c>
+      <c r="E78" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F78" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G78" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H78" s="2" t="s">
@@ -4938,7 +4940,7 @@
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>100</v>
@@ -4949,10 +4951,10 @@
       <c r="D79" s="2" t="s">
         <v>119</v>
       </c>
+      <c r="E79" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F79" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G79" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H79" s="2" t="s">
@@ -4979,7 +4981,7 @@
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>94</v>
@@ -4990,10 +4992,10 @@
       <c r="D80" s="2" t="s">
         <v>119</v>
       </c>
+      <c r="E80" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F80" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G80" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H80" s="2" t="s">
@@ -5020,7 +5022,7 @@
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>92</v>
@@ -5031,10 +5033,10 @@
       <c r="D81" s="2" t="s">
         <v>119</v>
       </c>
+      <c r="E81" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F81" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G81" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H81" s="2" t="s">
@@ -5061,21 +5063,21 @@
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>141</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>119</v>
       </c>
+      <c r="E82" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F82" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G82" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H82" s="2" t="s">
@@ -5102,7 +5104,7 @@
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>84</v>
@@ -5113,10 +5115,10 @@
       <c r="D83" s="2" t="s">
         <v>119</v>
       </c>
+      <c r="E83" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F83" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G83" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H83" s="2" t="s">
@@ -5143,7 +5145,7 @@
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>85</v>
@@ -5154,10 +5156,10 @@
       <c r="D84" s="2" t="s">
         <v>119</v>
       </c>
+      <c r="E84" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F84" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G84" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H84" s="2" t="s">
@@ -5184,7 +5186,7 @@
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>101</v>
@@ -5195,10 +5197,10 @@
       <c r="D85" s="2" t="s">
         <v>119</v>
       </c>
+      <c r="E85" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F85" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G85" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H85" s="2" t="s">
@@ -5225,7 +5227,7 @@
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>97</v>
@@ -5236,10 +5238,10 @@
       <c r="D86" s="2" t="s">
         <v>119</v>
       </c>
+      <c r="E86" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F86" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G86" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H86" s="2" t="s">
@@ -5266,7 +5268,7 @@
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>96</v>
@@ -5277,10 +5279,10 @@
       <c r="D87" s="2" t="s">
         <v>119</v>
       </c>
+      <c r="E87" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F87" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G87" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H87" s="2" t="s">
@@ -5307,21 +5309,21 @@
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B88" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C88" s="2" t="s">
         <v>309</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>310</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>119</v>
       </c>
+      <c r="E88" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F88" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G88" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H88" s="2" t="s">
@@ -5348,7 +5350,7 @@
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>79</v>
@@ -5359,10 +5361,10 @@
       <c r="D89" s="2" t="s">
         <v>119</v>
       </c>
+      <c r="E89" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F89" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G89" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H89" s="2" t="s">
@@ -5389,7 +5391,7 @@
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>75</v>
@@ -5400,10 +5402,10 @@
       <c r="D90" s="2" t="s">
         <v>119</v>
       </c>
+      <c r="E90" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F90" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G90" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H90" s="2" t="s">
@@ -5430,7 +5432,7 @@
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>77</v>
@@ -5441,10 +5443,10 @@
       <c r="D91" s="2" t="s">
         <v>119</v>
       </c>
+      <c r="E91" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F91" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G91" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H91" s="2" t="s">
@@ -5471,7 +5473,7 @@
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>81</v>
@@ -5482,10 +5484,10 @@
       <c r="D92" s="2" t="s">
         <v>119</v>
       </c>
+      <c r="E92" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F92" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G92" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H92" s="2" t="s">
@@ -5512,7 +5514,7 @@
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>71</v>
@@ -5523,10 +5525,10 @@
       <c r="D93" s="2" t="s">
         <v>119</v>
       </c>
+      <c r="E93" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F93" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G93" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H93" s="2" t="s">
@@ -5553,7 +5555,7 @@
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>70</v>
@@ -5564,10 +5566,10 @@
       <c r="D94" s="2" t="s">
         <v>119</v>
       </c>
+      <c r="E94" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F94" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G94" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H94" s="2" t="s">
@@ -5594,7 +5596,7 @@
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>102</v>
@@ -5603,12 +5605,12 @@
         <v>103</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G95" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H95" s="2" t="s">
@@ -5635,21 +5637,21 @@
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G96" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H96" s="2" t="s">
@@ -5676,21 +5678,21 @@
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B97" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C97" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="C97" s="2" t="s">
-        <v>313</v>
-      </c>
       <c r="D97" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G97" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H97" s="2" t="s">
@@ -5717,7 +5719,7 @@
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>83</v>
@@ -5726,12 +5728,12 @@
         <v>83</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G98" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H98" s="2" t="s">
@@ -5758,7 +5760,7 @@
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>74</v>
@@ -5767,12 +5769,12 @@
         <v>74</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G99" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H99" s="2" t="s">
@@ -5799,13 +5801,13 @@
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B100" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C100" s="2" t="s">
         <v>338</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>339</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>144</v>
@@ -5824,10 +5826,10 @@
       <c r="D101" s="2" t="s">
         <v>144</v>
       </c>
+      <c r="E101" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F101" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G101" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H101" s="2" t="s">
@@ -5865,10 +5867,10 @@
       <c r="D102" s="2" t="s">
         <v>144</v>
       </c>
+      <c r="E102" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F102" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G102" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H102" s="2" t="s">
@@ -5906,10 +5908,10 @@
       <c r="D103" s="2" t="s">
         <v>144</v>
       </c>
+      <c r="E103" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F103" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G103" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H103" s="2" t="s">
@@ -5947,10 +5949,10 @@
       <c r="D104" s="2" t="s">
         <v>144</v>
       </c>
+      <c r="E104" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F104" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G104" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H104" s="2" t="s">
@@ -5988,10 +5990,10 @@
       <c r="D105" s="2" t="s">
         <v>144</v>
       </c>
+      <c r="E105" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F105" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G105" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H105" s="2" t="s">
@@ -6021,18 +6023,18 @@
         <v>224</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>144</v>
       </c>
+      <c r="E106" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F106" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G106" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H106" s="2" t="s">
@@ -6070,10 +6072,10 @@
       <c r="D107" s="2" t="s">
         <v>245</v>
       </c>
+      <c r="E107" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F107" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G107" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H107" s="2" t="s">
@@ -6103,20 +6105,20 @@
         <v>229</v>
       </c>
       <c r="B108" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="D108" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="C108" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>315</v>
+      <c r="E108" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G108" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="H108" s="2" t="s">
         <v>6</v>
       </c>
@@ -6140,22 +6142,22 @@
       </c>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A109" s="2" t="s">
-        <v>127</v>
+      <c r="A109" t="s">
+        <v>258</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>127</v>
+        <v>249</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G109" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H109" s="2" t="s">
@@ -6185,18 +6187,18 @@
         <v>259</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C110" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D110" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="D110" s="2" t="s">
-        <v>250</v>
+      <c r="E110" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G110" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H110" s="2" t="s">
@@ -6226,18 +6228,18 @@
         <v>260</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G111" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H111" s="2" t="s">
@@ -6264,21 +6266,21 @@
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G112" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H112" s="2" t="s">
@@ -6305,21 +6307,21 @@
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G113" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H113" s="2" t="s">
@@ -6349,18 +6351,18 @@
         <v>262</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G114" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H114" s="2" t="s">
@@ -6387,21 +6389,21 @@
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>263</v>
+        <v>321</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>265</v>
+        <v>315</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>263</v>
+        <v>316</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G115" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H115" s="2" t="s">
@@ -6431,18 +6433,18 @@
         <v>322</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>316</v>
+        <v>297</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>317</v>
+        <v>238</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G116" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H116" s="2" t="s">
@@ -6472,18 +6474,18 @@
         <v>323</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>298</v>
+        <v>317</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>238</v>
+        <v>318</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G117" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H117" s="2" t="s">
@@ -6513,20 +6515,20 @@
         <v>324</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G118" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="H118" s="2" t="s">
         <v>6</v>
       </c>
@@ -6550,22 +6552,22 @@
       </c>
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>325</v>
+      <c r="A119" s="2" t="s">
+        <v>340</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>320</v>
+        <v>341</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>321</v>
+        <v>340</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G119" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H119" s="2" t="s">
@@ -6592,23 +6594,23 @@
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B120" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="C120" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="C120" s="2" t="s">
-        <v>341</v>
-      </c>
       <c r="D120" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G120" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="H120" s="2" t="s">
         <v>6</v>
       </c>
@@ -6631,203 +6633,162 @@
         <v>6</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A121" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="F121" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G121" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H121" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I121" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J121" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L121" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M121" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="N121" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O121" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:O115"/>
+  <autoFilter ref="A1:O120"/>
+  <conditionalFormatting sqref="A109">
+    <cfRule type="expression" dxfId="47" priority="41">
+      <formula>$R109="Passed"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="46" priority="42">
+      <formula>$R109="Not Ready"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="45" priority="43">
+      <formula>$R109="Retest"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="44" priority="44">
+      <formula>$R109="Query"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="43" priority="45">
+      <formula>$R109="Blocked"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="46">
+      <formula>$R109="In Progress"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="41" priority="47">
+      <formula>$R109="N/A"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="40" priority="48">
+      <formula>$R109="Failed"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="A110">
-    <cfRule type="expression" dxfId="47" priority="41">
+    <cfRule type="expression" dxfId="39" priority="33">
       <formula>$R110="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="42">
+    <cfRule type="expression" dxfId="38" priority="34">
       <formula>$R110="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="43">
+    <cfRule type="expression" dxfId="37" priority="35">
       <formula>$R110="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="44">
+    <cfRule type="expression" dxfId="36" priority="36">
       <formula>$R110="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="45">
+    <cfRule type="expression" dxfId="35" priority="37">
       <formula>$R110="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="46">
+    <cfRule type="expression" dxfId="34" priority="38">
       <formula>$R110="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="47">
+    <cfRule type="expression" dxfId="33" priority="39">
       <formula>$R110="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="48">
+    <cfRule type="expression" dxfId="32" priority="40">
       <formula>$R110="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A111">
-    <cfRule type="expression" dxfId="39" priority="33">
+    <cfRule type="expression" dxfId="31" priority="25">
       <formula>$R111="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="34">
+    <cfRule type="expression" dxfId="30" priority="26">
       <formula>$R111="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="35">
+    <cfRule type="expression" dxfId="29" priority="27">
       <formula>$R111="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="36">
+    <cfRule type="expression" dxfId="28" priority="28">
       <formula>$R111="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="37">
+    <cfRule type="expression" dxfId="27" priority="29">
       <formula>$R111="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="38">
+    <cfRule type="expression" dxfId="26" priority="30">
       <formula>$R111="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="39">
+    <cfRule type="expression" dxfId="25" priority="31">
       <formula>$R111="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="40">
+    <cfRule type="expression" dxfId="24" priority="32">
       <formula>$R111="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A112">
-    <cfRule type="expression" dxfId="31" priority="25">
-      <formula>$R112="Passed"</formula>
+  <conditionalFormatting sqref="A113">
+    <cfRule type="expression" dxfId="23" priority="17">
+      <formula>$R113="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="26">
-      <formula>$R112="Not Ready"</formula>
+    <cfRule type="expression" dxfId="22" priority="18">
+      <formula>$R113="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="27">
-      <formula>$R112="Retest"</formula>
+    <cfRule type="expression" dxfId="21" priority="19">
+      <formula>$R113="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="28">
-      <formula>$R112="Query"</formula>
+    <cfRule type="expression" dxfId="20" priority="20">
+      <formula>$R113="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="29">
-      <formula>$R112="Blocked"</formula>
+    <cfRule type="expression" dxfId="19" priority="21">
+      <formula>$R113="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="30">
-      <formula>$R112="In Progress"</formula>
+    <cfRule type="expression" dxfId="18" priority="22">
+      <formula>$R113="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="31">
-      <formula>$R112="N/A"</formula>
+    <cfRule type="expression" dxfId="17" priority="23">
+      <formula>$R113="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="32">
-      <formula>$R112="Failed"</formula>
+    <cfRule type="expression" dxfId="16" priority="24">
+      <formula>$R113="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A114">
-    <cfRule type="expression" dxfId="23" priority="17">
+    <cfRule type="expression" dxfId="15" priority="9">
       <formula>$R114="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="18">
+    <cfRule type="expression" dxfId="14" priority="10">
       <formula>$R114="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="19">
+    <cfRule type="expression" dxfId="13" priority="11">
       <formula>$R114="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="20">
+    <cfRule type="expression" dxfId="12" priority="12">
       <formula>$R114="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="21">
+    <cfRule type="expression" dxfId="11" priority="13">
       <formula>$R114="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="22">
+    <cfRule type="expression" dxfId="10" priority="14">
       <formula>$R114="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="23">
+    <cfRule type="expression" dxfId="9" priority="15">
       <formula>$R114="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="24">
+    <cfRule type="expression" dxfId="8" priority="16">
       <formula>$R114="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A115">
-    <cfRule type="expression" dxfId="15" priority="9">
-      <formula>$R115="Passed"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="14" priority="10">
-      <formula>$R115="Not Ready"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="13" priority="11">
-      <formula>$R115="Retest"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="12">
-      <formula>$R115="Query"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="11" priority="13">
-      <formula>$R115="Blocked"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="14">
-      <formula>$R115="In Progress"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="9" priority="15">
-      <formula>$R115="N/A"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="8" priority="16">
-      <formula>$R115="Failed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A113">
+  <conditionalFormatting sqref="A112">
     <cfRule type="expression" dxfId="7" priority="1">
-      <formula>$R113="Passed"</formula>
+      <formula>$R112="Passed"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="6" priority="2">
-      <formula>$R113="Not Ready"</formula>
+      <formula>$R112="Not Ready"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="5" priority="3">
-      <formula>$R113="Retest"</formula>
+      <formula>$R112="Retest"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="4">
-      <formula>$R113="Query"</formula>
+      <formula>$R112="Query"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="3" priority="5">
-      <formula>$R113="Blocked"</formula>
+      <formula>$R112="Blocked"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="6">
-      <formula>$R113="In Progress"</formula>
+      <formula>$R112="In Progress"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="7">
-      <formula>$R113="N/A"</formula>
+      <formula>$R112="N/A"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="8">
-      <formula>$R113="Failed"</formula>
+      <formula>$R112="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/WppRegpack/TestResource/TC_RunManager.xlsx
+++ b/WppRegpack/TestResource/TC_RunManager.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GlobalTestAutomation2\GlobalTestSuiteAutomation\WppRegpack\TestResource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\OneDrive - Cognizant\Documents\WPP Global TestScripts\GlobalTestSuiteAutomation\WppRegpack\TestResource\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2282" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2282" uniqueCount="346">
   <si>
     <t>Description</t>
   </si>
@@ -937,9 +937,6 @@
   </si>
   <si>
     <t>Vendor Management</t>
-  </si>
-  <si>
-    <t>Reverse_Invoice</t>
   </si>
   <si>
     <t>ReverseInvoice</t>
@@ -1904,10 +1901,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:O120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1949,7 +1947,7 @@
         <v>231</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>89</v>
@@ -1961,7 +1959,7 @@
         <v>86</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>116</v>
@@ -1976,7 +1974,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>149</v>
       </c>
@@ -2017,7 +2015,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>150</v>
       </c>
@@ -2058,7 +2056,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>152</v>
       </c>
@@ -2066,7 +2064,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>121</v>
@@ -2099,7 +2097,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>153</v>
       </c>
@@ -2140,7 +2138,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>154</v>
       </c>
@@ -2181,7 +2179,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>155</v>
       </c>
@@ -2189,42 +2187,42 @@
         <v>14</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>121</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>345</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>346</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>110</v>
@@ -2263,7 +2261,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>159</v>
       </c>
@@ -2304,7 +2302,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>157</v>
       </c>
@@ -2345,7 +2343,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>161</v>
       </c>
@@ -2386,7 +2384,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>158</v>
       </c>
@@ -2427,7 +2425,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>160</v>
       </c>
@@ -2468,7 +2466,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>159</v>
       </c>
@@ -2509,7 +2507,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>175</v>
       </c>
@@ -2687,7 +2685,7 @@
         <v>122</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>6</v>
@@ -2722,7 +2720,7 @@
         <v>301</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>122</v>
@@ -2788,10 +2786,10 @@
         <v>167</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>303</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>304</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>122</v>
@@ -2857,10 +2855,10 @@
         <v>168</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>122</v>
@@ -2924,7 +2922,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>169</v>
       </c>
@@ -2965,7 +2963,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>171</v>
       </c>
@@ -3006,7 +3004,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>170</v>
       </c>
@@ -3047,7 +3045,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>172</v>
       </c>
@@ -3088,7 +3086,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>174</v>
       </c>
@@ -3129,7 +3127,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>173</v>
       </c>
@@ -3170,7 +3168,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>233</v>
       </c>
@@ -3211,7 +3209,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>136</v>
       </c>
@@ -3252,7 +3250,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>176</v>
       </c>
@@ -3294,7 +3292,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>140</v>
       </c>
@@ -3335,7 +3333,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>179</v>
       </c>
@@ -3376,7 +3374,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>138</v>
       </c>
@@ -3417,7 +3415,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>180</v>
       </c>
@@ -3458,7 +3456,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>137</v>
       </c>
@@ -3499,7 +3497,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>181</v>
       </c>
@@ -3540,7 +3538,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>139</v>
       </c>
@@ -3581,7 +3579,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>182</v>
       </c>
@@ -3622,15 +3620,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>183</v>
       </c>
       <c r="B46" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="C46" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>329</v>
       </c>
       <c r="D46" s="7" t="s">
         <v>128</v>
@@ -3663,7 +3661,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>184</v>
       </c>
@@ -3704,15 +3702,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>185</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D48" s="7" t="s">
         <v>128</v>
@@ -3745,15 +3743,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>186</v>
       </c>
       <c r="B49" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="C49" s="7" t="s">
         <v>330</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>331</v>
       </c>
       <c r="D49" s="7" t="s">
         <v>128</v>
@@ -3786,7 +3784,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>187</v>
       </c>
@@ -3827,7 +3825,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>188</v>
       </c>
@@ -3868,7 +3866,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>194</v>
       </c>
@@ -3909,7 +3907,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>191</v>
       </c>
@@ -3950,7 +3948,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>195</v>
       </c>
@@ -3991,21 +3989,21 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="C55" s="2" t="s">
         <v>335</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>336</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>196</v>
       </c>
@@ -4046,7 +4044,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>197</v>
       </c>
@@ -4087,7 +4085,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>202</v>
       </c>
@@ -4128,7 +4126,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>203</v>
       </c>
@@ -4169,7 +4167,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>204</v>
       </c>
@@ -4210,7 +4208,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>205</v>
       </c>
@@ -4251,7 +4249,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>217</v>
       </c>
@@ -4292,7 +4290,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>218</v>
       </c>
@@ -4333,7 +4331,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>219</v>
       </c>
@@ -4374,7 +4372,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>220</v>
       </c>
@@ -4415,7 +4413,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>221</v>
       </c>
@@ -4452,7 +4450,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>206</v>
       </c>
@@ -4493,7 +4491,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>207</v>
       </c>
@@ -4534,7 +4532,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>208</v>
       </c>
@@ -4575,7 +4573,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>209</v>
       </c>
@@ -4616,7 +4614,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>210</v>
       </c>
@@ -4624,7 +4622,7 @@
         <v>35</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>125</v>
@@ -4657,7 +4655,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>211</v>
       </c>
@@ -4698,7 +4696,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>212</v>
       </c>
@@ -4739,7 +4737,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>213</v>
       </c>
@@ -4780,7 +4778,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>214</v>
       </c>
@@ -4815,7 +4813,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>215</v>
       </c>
@@ -4856,7 +4854,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>216</v>
       </c>
@@ -4897,7 +4895,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>275</v>
       </c>
@@ -4938,7 +4936,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>276</v>
       </c>
@@ -4979,7 +4977,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>277</v>
       </c>
@@ -5020,7 +5018,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>278</v>
       </c>
@@ -5061,7 +5059,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>279</v>
       </c>
@@ -5069,7 +5067,7 @@
         <v>141</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>119</v>
@@ -5102,7 +5100,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>280</v>
       </c>
@@ -5143,7 +5141,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>281</v>
       </c>
@@ -5184,7 +5182,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>282</v>
       </c>
@@ -5225,7 +5223,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>283</v>
       </c>
@@ -5266,7 +5264,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>284</v>
       </c>
@@ -5307,15 +5305,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>285</v>
       </c>
       <c r="B88" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C88" s="2" t="s">
         <v>308</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>309</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>119</v>
@@ -5348,7 +5346,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>286</v>
       </c>
@@ -5389,7 +5387,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>287</v>
       </c>
@@ -5430,7 +5428,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>288</v>
       </c>
@@ -5471,7 +5469,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>289</v>
       </c>
@@ -5512,7 +5510,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>290</v>
       </c>
@@ -5553,7 +5551,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>291</v>
       </c>
@@ -5594,7 +5592,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>292</v>
       </c>
@@ -5635,15 +5633,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>293</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>300</v>
@@ -5676,15 +5674,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>294</v>
       </c>
       <c r="B97" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C97" s="2" t="s">
         <v>311</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>312</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>300</v>
@@ -5717,7 +5715,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>295</v>
       </c>
@@ -5758,7 +5756,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>296</v>
       </c>
@@ -5799,21 +5797,21 @@
         <v>6</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B100" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="C100" s="2" t="s">
         <v>337</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>338</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>225</v>
       </c>
@@ -5854,7 +5852,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>226</v>
       </c>
@@ -5895,7 +5893,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>227</v>
       </c>
@@ -5936,7 +5934,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>222</v>
       </c>
@@ -5977,7 +5975,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>223</v>
       </c>
@@ -6018,7 +6016,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>224</v>
       </c>
@@ -6059,7 +6057,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>228</v>
       </c>
@@ -6100,19 +6098,19 @@
         <v>6</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>229</v>
       </c>
       <c r="B108" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="D108" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="C108" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>314</v>
-      </c>
       <c r="E108" s="2" t="s">
         <v>6</v>
       </c>
@@ -6141,7 +6139,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>258</v>
       </c>
@@ -6182,7 +6180,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>259</v>
       </c>
@@ -6223,7 +6221,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>260</v>
       </c>
@@ -6264,7 +6262,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>263</v>
       </c>
@@ -6305,7 +6303,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>261</v>
       </c>
@@ -6346,7 +6344,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>262</v>
       </c>
@@ -6387,15 +6385,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B115" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C115" s="2" t="s">
         <v>315</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>316</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>249</v>
@@ -6428,9 +6426,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>297</v>
@@ -6469,15 +6467,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B117" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C117" s="2" t="s">
         <v>317</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>318</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>249</v>
@@ -6510,15 +6508,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B118" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C118" s="2" t="s">
         <v>319</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>320</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>249</v>
@@ -6551,15 +6549,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B119" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="B119" s="2" t="s">
-        <v>341</v>
-      </c>
       <c r="C119" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>249</v>
@@ -6592,15 +6590,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="B120" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="B120" s="2" t="s">
-        <v>343</v>
-      </c>
       <c r="C120" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>249</v>
@@ -6634,7 +6632,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O120"/>
+  <autoFilter ref="A1:O120">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="AccountPayable"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <conditionalFormatting sqref="A109">
     <cfRule type="expression" dxfId="47" priority="41">
       <formula>$R109="Passed"</formula>

--- a/WppRegpack/TestResource/TC_RunManager.xlsx
+++ b/WppRegpack/TestResource/TC_RunManager.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2282" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2284" uniqueCount="348">
   <si>
     <t>Description</t>
   </si>
@@ -1072,6 +1072,12 @@
   </si>
   <si>
     <t>08. Create a Purchase Order from a Job Budget</t>
+  </si>
+  <si>
+    <t>Banking_Reconciliation</t>
+  </si>
+  <si>
+    <t>Bank_Reconciliation</t>
   </si>
 </sst>
 </file>
@@ -1901,11 +1907,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:O120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1974,7 +1979,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>149</v>
       </c>
@@ -2015,7 +2020,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>150</v>
       </c>
@@ -2056,7 +2061,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>152</v>
       </c>
@@ -2097,7 +2102,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>153</v>
       </c>
@@ -2138,7 +2143,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>154</v>
       </c>
@@ -2179,7 +2184,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>155</v>
       </c>
@@ -2220,7 +2225,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>345</v>
       </c>
@@ -2261,7 +2266,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>159</v>
       </c>
@@ -2302,7 +2307,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>157</v>
       </c>
@@ -2343,7 +2348,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>161</v>
       </c>
@@ -2384,7 +2389,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>158</v>
       </c>
@@ -2425,7 +2430,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>160</v>
       </c>
@@ -2466,7 +2471,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>159</v>
       </c>
@@ -2507,7 +2512,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>175</v>
       </c>
@@ -2922,7 +2927,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>169</v>
       </c>
@@ -2963,7 +2968,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>171</v>
       </c>
@@ -3004,7 +3009,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>170</v>
       </c>
@@ -3045,7 +3050,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>172</v>
       </c>
@@ -3086,7 +3091,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>174</v>
       </c>
@@ -3127,7 +3132,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>173</v>
       </c>
@@ -3168,7 +3173,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>233</v>
       </c>
@@ -3209,7 +3214,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>136</v>
       </c>
@@ -3250,7 +3255,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>176</v>
       </c>
@@ -3292,7 +3297,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>140</v>
       </c>
@@ -3333,7 +3338,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>179</v>
       </c>
@@ -3374,7 +3379,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>138</v>
       </c>
@@ -3415,7 +3420,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>180</v>
       </c>
@@ -3456,7 +3461,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>137</v>
       </c>
@@ -3497,7 +3502,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>181</v>
       </c>
@@ -3538,7 +3543,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>139</v>
       </c>
@@ -3579,7 +3584,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>182</v>
       </c>
@@ -3620,7 +3625,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:15" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>183</v>
       </c>
@@ -3661,7 +3666,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:15" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>184</v>
       </c>
@@ -3702,7 +3707,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:15" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>185</v>
       </c>
@@ -3743,7 +3748,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:15" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>186</v>
       </c>
@@ -3784,7 +3789,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>187</v>
       </c>
@@ -3825,7 +3830,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>188</v>
       </c>
@@ -3866,7 +3871,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>194</v>
       </c>
@@ -3907,7 +3912,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>191</v>
       </c>
@@ -3948,7 +3953,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>195</v>
       </c>
@@ -3989,7 +3994,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>333</v>
       </c>
@@ -4003,7 +4008,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="56" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>196</v>
       </c>
@@ -4044,7 +4049,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>197</v>
       </c>
@@ -4085,7 +4090,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>202</v>
       </c>
@@ -4126,7 +4131,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>203</v>
       </c>
@@ -4167,7 +4172,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>204</v>
       </c>
@@ -4208,7 +4213,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>205</v>
       </c>
@@ -4249,7 +4254,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>217</v>
       </c>
@@ -4290,7 +4295,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>218</v>
       </c>
@@ -4331,7 +4336,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>219</v>
       </c>
@@ -4372,7 +4377,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>220</v>
       </c>
@@ -4413,12 +4418,16 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="B66" s="3"/>
-      <c r="C66" s="3"/>
+      <c r="B66" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>347</v>
+      </c>
       <c r="D66" s="2" t="s">
         <v>242</v>
       </c>
@@ -4450,7 +4459,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>206</v>
       </c>
@@ -4491,7 +4500,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>207</v>
       </c>
@@ -4532,7 +4541,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>208</v>
       </c>
@@ -4573,7 +4582,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>209</v>
       </c>
@@ -4614,7 +4623,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>210</v>
       </c>
@@ -4655,7 +4664,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>211</v>
       </c>
@@ -4696,7 +4705,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>212</v>
       </c>
@@ -4737,7 +4746,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>213</v>
       </c>
@@ -4778,7 +4787,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>214</v>
       </c>
@@ -4813,7 +4822,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>215</v>
       </c>
@@ -4854,7 +4863,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>216</v>
       </c>
@@ -4895,7 +4904,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>275</v>
       </c>
@@ -4936,7 +4945,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>276</v>
       </c>
@@ -4977,7 +4986,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>277</v>
       </c>
@@ -5018,7 +5027,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>278</v>
       </c>
@@ -5059,7 +5068,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>279</v>
       </c>
@@ -5100,7 +5109,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>280</v>
       </c>
@@ -5141,7 +5150,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>281</v>
       </c>
@@ -5182,7 +5191,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>282</v>
       </c>
@@ -5223,7 +5232,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="86" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>283</v>
       </c>
@@ -5264,7 +5273,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>284</v>
       </c>
@@ -5305,7 +5314,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>285</v>
       </c>
@@ -5346,7 +5355,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>286</v>
       </c>
@@ -5387,7 +5396,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>287</v>
       </c>
@@ -5428,7 +5437,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>288</v>
       </c>
@@ -5469,7 +5478,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>289</v>
       </c>
@@ -5510,7 +5519,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="93" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>290</v>
       </c>
@@ -5551,7 +5560,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="94" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>291</v>
       </c>
@@ -5592,7 +5601,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="95" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>292</v>
       </c>
@@ -5633,7 +5642,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>293</v>
       </c>
@@ -5674,7 +5683,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="97" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>294</v>
       </c>
@@ -5715,7 +5724,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="98" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>295</v>
       </c>
@@ -5756,7 +5765,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>296</v>
       </c>
@@ -5797,7 +5806,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="100" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>338</v>
       </c>
@@ -5811,7 +5820,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="101" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>225</v>
       </c>
@@ -5852,7 +5861,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="102" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>226</v>
       </c>
@@ -5893,7 +5902,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="103" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>227</v>
       </c>
@@ -5934,7 +5943,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="104" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>222</v>
       </c>
@@ -5975,7 +5984,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="105" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>223</v>
       </c>
@@ -6016,7 +6025,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="106" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>224</v>
       </c>
@@ -6057,7 +6066,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="107" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>228</v>
       </c>
@@ -6098,7 +6107,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="108" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>229</v>
       </c>
@@ -6139,7 +6148,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="109" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>258</v>
       </c>
@@ -6180,7 +6189,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="110" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>259</v>
       </c>
@@ -6221,7 +6230,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="111" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>260</v>
       </c>
@@ -6262,7 +6271,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="112" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>263</v>
       </c>
@@ -6303,7 +6312,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="113" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>261</v>
       </c>
@@ -6344,7 +6353,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="114" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>262</v>
       </c>
@@ -6385,7 +6394,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="115" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>320</v>
       </c>
@@ -6426,7 +6435,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="116" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>321</v>
       </c>
@@ -6467,7 +6476,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="117" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>322</v>
       </c>
@@ -6508,7 +6517,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="118" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>323</v>
       </c>
@@ -6549,7 +6558,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="119" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>339</v>
       </c>
@@ -6590,7 +6599,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="120" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>341</v>
       </c>
@@ -6632,13 +6641,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O120">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="AccountPayable"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:O120"/>
   <conditionalFormatting sqref="A109">
     <cfRule type="expression" dxfId="47" priority="41">
       <formula>$R109="Passed"</formula>

--- a/WppRegpack/TestResource/TC_RunManager.xlsx
+++ b/WppRegpack/TestResource/TC_RunManager.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\OneDrive - Cognizant\Documents\WPP Global TestScripts\GlobalTestSuiteAutomation\WppRegpack\TestResource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GlobalTestSuiteAutomation\WppRegpack\TestResource\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
     <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GlobalTestCase!$A$1:$O$120</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GlobalTestCase!$A$1:$O$121</definedName>
     <definedName name="IterationOptions">[1]Sheet1!$A$2:$A$4</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2284" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2303" uniqueCount="356">
   <si>
     <t>Description</t>
   </si>
@@ -810,24 +810,9 @@
     <t>DraftInvoice</t>
   </si>
   <si>
-    <t>Job Quotation</t>
-  </si>
-  <si>
-    <t>Job Order Confirmation</t>
-  </si>
-  <si>
-    <t>Job Budget - Estimate</t>
-  </si>
-  <si>
-    <t>Draft Invoice</t>
-  </si>
-  <si>
     <t>Invoice</t>
   </si>
   <si>
-    <t>General Journal</t>
-  </si>
-  <si>
     <t>InvoiceMPL</t>
   </si>
   <si>
@@ -996,18 +981,6 @@
     <t>MPLExpenses</t>
   </si>
   <si>
-    <t>Payment Order</t>
-  </si>
-  <si>
-    <t>Payment Selection</t>
-  </si>
-  <si>
-    <t>Time Sheet</t>
-  </si>
-  <si>
-    <t>Expense Sheet</t>
-  </si>
-  <si>
     <t>UAE_Critical Regression</t>
   </si>
   <si>
@@ -1068,9 +1041,6 @@
     <t>Create_Client_Approved_Estimate</t>
   </si>
   <si>
-    <t>NO</t>
-  </si>
-  <si>
     <t>08. Create a Purchase Order from a Job Budget</t>
   </si>
   <si>
@@ -1078,6 +1048,60 @@
   </si>
   <si>
     <t>Bank_Reconciliation</t>
+  </si>
+  <si>
+    <t>Create Direct Debit File</t>
+  </si>
+  <si>
+    <t>CreateDirectDebitFile</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Validate Job Quotation MPL</t>
+  </si>
+  <si>
+    <t>Validate Job Order Confirmation MPL</t>
+  </si>
+  <si>
+    <t>Validate Job Budget - Estimate MPL</t>
+  </si>
+  <si>
+    <t>Validate General Journal MPL</t>
+  </si>
+  <si>
+    <t>Validate Draft Invoice MPL</t>
+  </si>
+  <si>
+    <t>Validate Invoice MPL</t>
+  </si>
+  <si>
+    <t>Validate Payment Order MPL</t>
+  </si>
+  <si>
+    <t>Validate Payment Selection MPL</t>
+  </si>
+  <si>
+    <t>Validate Time Sheet MPL</t>
+  </si>
+  <si>
+    <t>Validate Expense Sheet MPL</t>
+  </si>
+  <si>
+    <t>Validate DraftCreditMemo MPL</t>
+  </si>
+  <si>
+    <t>Validate CreditMemo MPL</t>
+  </si>
+  <si>
+    <t>Validate PurchaseOrder MPL</t>
+  </si>
+  <si>
+    <t>PurchaseOrder_MPL</t>
+  </si>
+  <si>
+    <t>PurchaseOrderMPL</t>
   </si>
 </sst>
 </file>
@@ -1907,10 +1931,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O120"/>
+  <dimension ref="A1:O122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="B70" sqref="B70"/>
+    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
+      <selection activeCell="B123" sqref="B123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1952,7 +1976,7 @@
         <v>231</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>89</v>
@@ -1964,7 +1988,7 @@
         <v>86</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>116</v>
@@ -2031,7 +2055,7 @@
         <v>151</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>6</v>
@@ -2069,7 +2093,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>121</v>
@@ -2192,13 +2216,13 @@
         <v>14</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>121</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>344</v>
+        <v>6</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>6</v>
@@ -2227,7 +2251,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>110</v>
@@ -2690,7 +2714,7 @@
         <v>122</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>344</v>
+        <v>6</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>6</v>
@@ -2722,10 +2746,10 @@
         <v>166</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>122</v>
@@ -2771,6 +2795,9 @@
       <c r="D21" s="2" t="s">
         <v>122</v>
       </c>
+      <c r="E21" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
@@ -2785,16 +2812,19 @@
       <c r="D22" s="2" t="s">
         <v>122</v>
       </c>
+      <c r="E22" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>167</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>122</v>
@@ -2840,6 +2870,9 @@
       <c r="D24" s="2" t="s">
         <v>122</v>
       </c>
+      <c r="E24" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
@@ -2854,16 +2887,19 @@
       <c r="D25" s="2" t="s">
         <v>122</v>
       </c>
+      <c r="E25" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>168</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>122</v>
@@ -2909,6 +2945,9 @@
       <c r="D27" s="2" t="s">
         <v>122</v>
       </c>
+      <c r="E27" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
@@ -3343,10 +3382,10 @@
         <v>179</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>128</v>
@@ -3425,7 +3464,7 @@
         <v>180</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>134</v>
@@ -3507,10 +3546,10 @@
         <v>181</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>128</v>
@@ -3589,7 +3628,7 @@
         <v>182</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>134</v>
@@ -3630,15 +3669,15 @@
         <v>183</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="D46" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="E46" s="7" t="s">
+      <c r="E46" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F46" s="7" t="s">
@@ -3671,15 +3710,15 @@
         <v>184</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="D47" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="E47" s="7" t="s">
+      <c r="E47" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F47" s="7" t="s">
@@ -3712,15 +3751,15 @@
         <v>185</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="D48" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="E48" s="7" t="s">
+      <c r="E48" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F48" s="7" t="s">
@@ -3753,15 +3792,15 @@
         <v>186</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="D49" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="E49" s="7" t="s">
+      <c r="E49" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F49" s="7" t="s">
@@ -3996,16 +4035,19 @@
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>127</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
@@ -4423,10 +4465,10 @@
         <v>221</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>242</v>
@@ -4460,55 +4502,37 @@
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>48</v>
+      <c r="A67" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>339</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>125</v>
+        <v>242</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>6</v>
+        <v>340</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I67" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J67" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L67" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M67" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="N67" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O67" s="2" t="s">
-        <v>6</v>
+        <v>340</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>125</v>
@@ -4543,13 +4567,13 @@
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>125</v>
@@ -4584,13 +4608,13 @@
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>266</v>
+        <v>45</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>266</v>
+        <v>45</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>125</v>
@@ -4625,13 +4649,13 @@
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>35</v>
+        <v>261</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>305</v>
+        <v>261</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>125</v>
@@ -4666,16 +4690,16 @@
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>16</v>
+        <v>300</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>232</v>
+        <v>125</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>6</v>
@@ -4707,13 +4731,13 @@
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>232</v>
@@ -4748,13 +4772,13 @@
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>298</v>
+        <v>20</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>232</v>
@@ -4789,7 +4813,13 @@
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>293</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>232</v>
@@ -4824,13 +4854,7 @@
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>299</v>
+        <v>214</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>232</v>
@@ -4865,19 +4889,19 @@
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>18</v>
+        <v>294</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>232</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>6</v>
@@ -4905,17 +4929,17 @@
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>275</v>
+      <c r="A78" s="2" t="s">
+        <v>216</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>99</v>
+        <v>17</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>99</v>
+        <v>18</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>119</v>
+        <v>232</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>6</v>
@@ -4947,13 +4971,13 @@
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>119</v>
@@ -4988,13 +5012,13 @@
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>119</v>
@@ -5029,13 +5053,13 @@
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>119</v>
@@ -5070,13 +5094,13 @@
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>141</v>
+        <v>92</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>306</v>
+        <v>93</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>119</v>
@@ -5111,13 +5135,13 @@
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>84</v>
+        <v>141</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>84</v>
+        <v>301</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>119</v>
@@ -5152,13 +5176,13 @@
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>119</v>
@@ -5193,13 +5217,13 @@
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>119</v>
@@ -5234,13 +5258,13 @@
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>119</v>
@@ -5275,13 +5299,13 @@
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>119</v>
@@ -5316,13 +5340,13 @@
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>307</v>
+        <v>96</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>308</v>
+        <v>96</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>119</v>
@@ -5357,13 +5381,13 @@
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>79</v>
+        <v>302</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>80</v>
+        <v>303</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>119</v>
@@ -5398,13 +5422,13 @@
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>119</v>
@@ -5439,13 +5463,13 @@
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>119</v>
@@ -5480,13 +5504,13 @@
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>119</v>
@@ -5521,13 +5545,13 @@
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>119</v>
@@ -5562,13 +5586,13 @@
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>119</v>
@@ -5603,16 +5627,16 @@
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>300</v>
+        <v>119</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>6</v>
@@ -5644,16 +5668,16 @@
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>309</v>
+        <v>102</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>309</v>
+        <v>103</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>6</v>
@@ -5685,16 +5709,16 @@
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>6</v>
@@ -5726,16 +5750,16 @@
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
+        <v>289</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D98" s="2" t="s">
         <v>295</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>300</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>6</v>
@@ -5767,16 +5791,16 @@
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>6</v>
@@ -5808,27 +5832,54 @@
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>338</v>
+        <v>291</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>336</v>
+        <v>74</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>337</v>
+        <v>74</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>144</v>
+        <v>295</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H100" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I100" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J100" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L100" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M100" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N100" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O100" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A101" s="2" t="s">
-        <v>225</v>
+      <c r="A101" t="s">
+        <v>329</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>143</v>
+        <v>327</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>143</v>
+        <v>328</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>144</v>
@@ -5836,40 +5887,16 @@
       <c r="E101" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F101" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H101" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I101" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J101" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L101" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M101" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="N101" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O101" s="2" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>144</v>
@@ -5904,13 +5931,13 @@
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>144</v>
@@ -5945,13 +5972,13 @@
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>144</v>
@@ -5986,13 +6013,13 @@
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>144</v>
@@ -6027,13 +6054,13 @@
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>265</v>
+        <v>148</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>265</v>
+        <v>148</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>144</v>
@@ -6067,99 +6094,99 @@
       </c>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+      <c r="A107" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H107" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I107" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J107" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L107" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M107" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N107" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O107" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
         <v>228</v>
       </c>
-      <c r="B107" s="2" t="s">
+      <c r="B108" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="C107" s="2" t="s">
+      <c r="C108" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="D107" s="2" t="s">
+      <c r="D108" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="E107" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F107" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H107" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I107" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J107" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L107" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M107" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="N107" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O107" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A108" s="2" t="s">
+      <c r="E108" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H108" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I108" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J108" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L108" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M108" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N108" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O108" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B108" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F108" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H108" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I108" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J108" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L108" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M108" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="N108" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O108" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>258</v>
-      </c>
       <c r="B109" s="2" t="s">
-        <v>247</v>
+        <v>307</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>248</v>
+        <v>307</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>249</v>
+        <v>308</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>6</v>
@@ -6191,13 +6218,13 @@
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>259</v>
+        <v>341</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>249</v>
@@ -6232,13 +6259,13 @@
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>260</v>
+        <v>342</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>249</v>
@@ -6273,13 +6300,13 @@
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>263</v>
+        <v>343</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>249</v>
@@ -6314,13 +6341,13 @@
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>261</v>
+        <v>344</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>249</v>
@@ -6355,13 +6382,13 @@
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>262</v>
+        <v>345</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>249</v>
@@ -6396,13 +6423,13 @@
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>320</v>
+        <v>346</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>314</v>
+        <v>259</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>315</v>
+        <v>258</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>249</v>
@@ -6437,13 +6464,13 @@
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>321</v>
+        <v>347</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>238</v>
+        <v>310</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>249</v>
@@ -6478,13 +6505,13 @@
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>322</v>
+        <v>348</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>316</v>
+        <v>292</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>317</v>
+        <v>238</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>249</v>
@@ -6519,13 +6546,13 @@
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>323</v>
+        <v>349</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>249</v>
@@ -6559,14 +6586,14 @@
       </c>
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A119" s="2" t="s">
-        <v>339</v>
+      <c r="A119" t="s">
+        <v>350</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>340</v>
+        <v>313</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>339</v>
+        <v>314</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>249</v>
@@ -6601,13 +6628,13 @@
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>249</v>
@@ -6640,162 +6667,220 @@
         <v>6</v>
       </c>
     </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A121" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H121" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I121" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J121" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L121" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M121" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N121" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O121" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A122" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:O120"/>
-  <conditionalFormatting sqref="A109">
+  <autoFilter ref="A1:O121"/>
+  <conditionalFormatting sqref="A110">
     <cfRule type="expression" dxfId="47" priority="41">
-      <formula>$R109="Passed"</formula>
+      <formula>$R110="Passed"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="46" priority="42">
-      <formula>$R109="Not Ready"</formula>
+      <formula>$R110="Not Ready"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="45" priority="43">
-      <formula>$R109="Retest"</formula>
+      <formula>$R110="Retest"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="44" priority="44">
-      <formula>$R109="Query"</formula>
+      <formula>$R110="Query"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="43" priority="45">
-      <formula>$R109="Blocked"</formula>
+      <formula>$R110="Blocked"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="42" priority="46">
-      <formula>$R109="In Progress"</formula>
+      <formula>$R110="In Progress"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="41" priority="47">
-      <formula>$R109="N/A"</formula>
+      <formula>$R110="N/A"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="40" priority="48">
-      <formula>$R109="Failed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A110">
-    <cfRule type="expression" dxfId="39" priority="33">
-      <formula>$R110="Passed"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="38" priority="34">
-      <formula>$R110="Not Ready"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="37" priority="35">
-      <formula>$R110="Retest"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="36" priority="36">
-      <formula>$R110="Query"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="35" priority="37">
-      <formula>$R110="Blocked"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="34" priority="38">
-      <formula>$R110="In Progress"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="33" priority="39">
-      <formula>$R110="N/A"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="32" priority="40">
       <formula>$R110="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A111">
-    <cfRule type="expression" dxfId="31" priority="25">
+    <cfRule type="expression" dxfId="39" priority="33">
       <formula>$R111="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="26">
+    <cfRule type="expression" dxfId="38" priority="34">
       <formula>$R111="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="27">
+    <cfRule type="expression" dxfId="37" priority="35">
       <formula>$R111="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="28">
+    <cfRule type="expression" dxfId="36" priority="36">
       <formula>$R111="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="29">
+    <cfRule type="expression" dxfId="35" priority="37">
       <formula>$R111="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="30">
+    <cfRule type="expression" dxfId="34" priority="38">
       <formula>$R111="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="31">
+    <cfRule type="expression" dxfId="33" priority="39">
       <formula>$R111="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="32">
+    <cfRule type="expression" dxfId="32" priority="40">
       <formula>$R111="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A113">
-    <cfRule type="expression" dxfId="23" priority="17">
-      <formula>$R113="Passed"</formula>
+  <conditionalFormatting sqref="A112">
+    <cfRule type="expression" dxfId="31" priority="25">
+      <formula>$R112="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="18">
-      <formula>$R113="Not Ready"</formula>
+    <cfRule type="expression" dxfId="30" priority="26">
+      <formula>$R112="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="19">
-      <formula>$R113="Retest"</formula>
+    <cfRule type="expression" dxfId="29" priority="27">
+      <formula>$R112="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="20">
-      <formula>$R113="Query"</formula>
+    <cfRule type="expression" dxfId="28" priority="28">
+      <formula>$R112="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="21">
-      <formula>$R113="Blocked"</formula>
+    <cfRule type="expression" dxfId="27" priority="29">
+      <formula>$R112="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="22">
-      <formula>$R113="In Progress"</formula>
+    <cfRule type="expression" dxfId="26" priority="30">
+      <formula>$R112="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="23">
-      <formula>$R113="N/A"</formula>
+    <cfRule type="expression" dxfId="25" priority="31">
+      <formula>$R112="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="24">
-      <formula>$R113="Failed"</formula>
+    <cfRule type="expression" dxfId="24" priority="32">
+      <formula>$R112="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A114">
-    <cfRule type="expression" dxfId="15" priority="9">
+    <cfRule type="expression" dxfId="23" priority="17">
       <formula>$R114="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="10">
+    <cfRule type="expression" dxfId="22" priority="18">
       <formula>$R114="Not Ready"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="11">
+    <cfRule type="expression" dxfId="21" priority="19">
       <formula>$R114="Retest"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="12">
+    <cfRule type="expression" dxfId="20" priority="20">
       <formula>$R114="Query"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="13">
+    <cfRule type="expression" dxfId="19" priority="21">
       <formula>$R114="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="14">
+    <cfRule type="expression" dxfId="18" priority="22">
       <formula>$R114="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="15">
+    <cfRule type="expression" dxfId="17" priority="23">
       <formula>$R114="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="16">
+    <cfRule type="expression" dxfId="16" priority="24">
       <formula>$R114="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A112">
+  <conditionalFormatting sqref="A115">
+    <cfRule type="expression" dxfId="15" priority="9">
+      <formula>$R115="Passed"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="10">
+      <formula>$R115="Not Ready"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="11">
+      <formula>$R115="Retest"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="12">
+      <formula>$R115="Query"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="11" priority="13">
+      <formula>$R115="Blocked"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="14">
+      <formula>$R115="In Progress"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="15">
+      <formula>$R115="N/A"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="16">
+      <formula>$R115="Failed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A113">
     <cfRule type="expression" dxfId="7" priority="1">
-      <formula>$R112="Passed"</formula>
+      <formula>$R113="Passed"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="6" priority="2">
-      <formula>$R112="Not Ready"</formula>
+      <formula>$R113="Not Ready"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="5" priority="3">
-      <formula>$R112="Retest"</formula>
+      <formula>$R113="Retest"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="4">
-      <formula>$R112="Query"</formula>
+      <formula>$R113="Query"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="3" priority="5">
-      <formula>$R112="Blocked"</formula>
+      <formula>$R113="Blocked"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="6">
-      <formula>$R112="In Progress"</formula>
+      <formula>$R113="In Progress"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="7">
-      <formula>$R112="N/A"</formula>
+      <formula>$R113="N/A"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="8">
-      <formula>$R112="Failed"</formula>
+      <formula>$R113="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/WppRegpack/TestResource/TC_RunManager.xlsx
+++ b/WppRegpack/TestResource/TC_RunManager.xlsx
@@ -20,7 +20,7 @@
     <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GlobalTestCase!$A$1:$O$121</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GlobalTestCase!$A$1:$M$121</definedName>
     <definedName name="IterationOptions">[1]Sheet1!$A$2:$A$4</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2303" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2098" uniqueCount="360">
   <si>
     <t>Description</t>
   </si>
@@ -1059,49 +1059,61 @@
     <t>NA</t>
   </si>
   <si>
-    <t>Validate Job Quotation MPL</t>
-  </si>
-  <si>
-    <t>Validate Job Order Confirmation MPL</t>
-  </si>
-  <si>
-    <t>Validate Job Budget - Estimate MPL</t>
-  </si>
-  <si>
-    <t>Validate General Journal MPL</t>
-  </si>
-  <si>
-    <t>Validate Draft Invoice MPL</t>
-  </si>
-  <si>
-    <t>Validate Invoice MPL</t>
-  </si>
-  <si>
-    <t>Validate Payment Order MPL</t>
-  </si>
-  <si>
-    <t>Validate Payment Selection MPL</t>
-  </si>
-  <si>
-    <t>Validate Time Sheet MPL</t>
-  </si>
-  <si>
-    <t>Validate Expense Sheet MPL</t>
-  </si>
-  <si>
-    <t>Validate DraftCreditMemo MPL</t>
-  </si>
-  <si>
-    <t>Validate CreditMemo MPL</t>
-  </si>
-  <si>
-    <t>Validate PurchaseOrder MPL</t>
-  </si>
-  <si>
     <t>PurchaseOrder_MPL</t>
   </si>
   <si>
     <t>PurchaseOrderMPL</t>
+  </si>
+  <si>
+    <t>Purchase Order</t>
+  </si>
+  <si>
+    <t>Draft Invoice</t>
+  </si>
+  <si>
+    <t>Draft Credit Note</t>
+  </si>
+  <si>
+    <t>Bank Reconciliation in Progress</t>
+  </si>
+  <si>
+    <t>Bank Reconciliation</t>
+  </si>
+  <si>
+    <t>Time Sheet</t>
+  </si>
+  <si>
+    <t>Job Quotation</t>
+  </si>
+  <si>
+    <t>Payment Order</t>
+  </si>
+  <si>
+    <t>Job Order Confirmation</t>
+  </si>
+  <si>
+    <t>Payment Selection</t>
+  </si>
+  <si>
+    <t>Credit Note</t>
+  </si>
+  <si>
+    <t>Job Budget - Estimate</t>
+  </si>
+  <si>
+    <t>General Journal</t>
+  </si>
+  <si>
+    <t>Expense Sheet</t>
+  </si>
+  <si>
+    <t>BankingReconciliation_MPL</t>
+  </si>
+  <si>
+    <t>Banking_Reconciliation_InProgress</t>
+  </si>
+  <si>
+    <t>BankingReconciliation_InProgress_MPL</t>
   </si>
 </sst>
 </file>
@@ -1931,32 +1943,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O122"/>
+  <dimension ref="A1:M124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
-      <selection activeCell="B123" sqref="B123"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="E124" sqref="E124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="82" style="2" customWidth="1"/>
+    <col min="1" max="1" width="52" style="2" customWidth="1"/>
     <col min="2" max="2" width="29" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="22" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.85546875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="25.28515625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="22.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22" style="2" customWidth="1"/>
-    <col min="12" max="12" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="2"/>
+    <col min="5" max="5" width="25.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.85546875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22" style="2" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>135</v>
       </c>
@@ -1970,40 +1981,34 @@
         <v>118</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>86</v>
+        <v>316</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>316</v>
+        <v>230</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="O1" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>149</v>
       </c>
@@ -2022,13 +2027,13 @@
       <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L2" s="2" t="s">
@@ -2037,14 +2042,8 @@
       <c r="M2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>150</v>
       </c>
@@ -2063,13 +2062,13 @@
       <c r="F3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L3" s="2" t="s">
@@ -2078,14 +2077,8 @@
       <c r="M3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>152</v>
       </c>
@@ -2104,13 +2097,13 @@
       <c r="F4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L4" s="2" t="s">
@@ -2119,14 +2112,8 @@
       <c r="M4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>153</v>
       </c>
@@ -2145,13 +2132,13 @@
       <c r="F5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L5" s="2" t="s">
@@ -2160,14 +2147,8 @@
       <c r="M5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>154</v>
       </c>
@@ -2186,13 +2167,13 @@
       <c r="F6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="K6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L6" s="2" t="s">
@@ -2201,14 +2182,8 @@
       <c r="M6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>155</v>
       </c>
@@ -2227,13 +2202,13 @@
       <c r="F7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="K7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L7" s="2" t="s">
@@ -2242,14 +2217,8 @@
       <c r="M7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>335</v>
       </c>
@@ -2268,13 +2237,13 @@
       <c r="F8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="K8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L8" s="2" t="s">
@@ -2283,14 +2252,8 @@
       <c r="M8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>159</v>
       </c>
@@ -2309,13 +2272,13 @@
       <c r="F9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="K9" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L9" s="2" t="s">
@@ -2324,14 +2287,8 @@
       <c r="M9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>157</v>
       </c>
@@ -2350,13 +2307,13 @@
       <c r="F10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="K10" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L10" s="2" t="s">
@@ -2365,14 +2322,8 @@
       <c r="M10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O10" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>161</v>
       </c>
@@ -2391,13 +2342,13 @@
       <c r="F11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="G11" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="K11" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L11" s="2" t="s">
@@ -2406,14 +2357,8 @@
       <c r="M11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O11" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>158</v>
       </c>
@@ -2432,13 +2377,13 @@
       <c r="F12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="G12" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="K12" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L12" s="2" t="s">
@@ -2447,14 +2392,8 @@
       <c r="M12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O12" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>160</v>
       </c>
@@ -2473,13 +2412,13 @@
       <c r="F13" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="G13" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="K13" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L13" s="2" t="s">
@@ -2488,14 +2427,8 @@
       <c r="M13" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O13" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>159</v>
       </c>
@@ -2514,13 +2447,13 @@
       <c r="F14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="G14" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="K14" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L14" s="2" t="s">
@@ -2529,14 +2462,8 @@
       <c r="M14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O14" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>175</v>
       </c>
@@ -2555,13 +2482,13 @@
       <c r="F15" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="G15" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="K15" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L15" s="2" t="s">
@@ -2570,14 +2497,8 @@
       <c r="M15" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O15" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>162</v>
       </c>
@@ -2596,13 +2517,13 @@
       <c r="F16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="G16" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J16" s="2" t="s">
+      <c r="K16" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L16" s="2" t="s">
@@ -2611,14 +2532,8 @@
       <c r="M16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N16" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O16" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>165</v>
       </c>
@@ -2637,13 +2552,13 @@
       <c r="F17" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="G17" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J17" s="2" t="s">
+      <c r="K17" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L17" s="2" t="s">
@@ -2652,14 +2567,8 @@
       <c r="M17" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N17" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O17" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>163</v>
       </c>
@@ -2678,13 +2587,13 @@
       <c r="F18" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="G18" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J18" s="2" t="s">
+      <c r="K18" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L18" s="2" t="s">
@@ -2693,14 +2602,8 @@
       <c r="M18" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N18" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O18" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>164</v>
       </c>
@@ -2719,13 +2622,13 @@
       <c r="F19" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="G19" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J19" s="2" t="s">
+      <c r="K19" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L19" s="2" t="s">
@@ -2734,14 +2637,8 @@
       <c r="M19" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N19" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O19" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>166</v>
       </c>
@@ -2760,13 +2657,13 @@
       <c r="F20" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="G20" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J20" s="2" t="s">
+      <c r="K20" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L20" s="2" t="s">
@@ -2775,14 +2672,8 @@
       <c r="M20" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N20" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O20" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>163</v>
       </c>
@@ -2798,8 +2689,11 @@
       <c r="E21" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F21" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>164</v>
       </c>
@@ -2815,8 +2709,11 @@
       <c r="E22" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F22" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>167</v>
       </c>
@@ -2835,13 +2732,13 @@
       <c r="F23" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="G23" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J23" s="2" t="s">
+      <c r="K23" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L23" s="2" t="s">
@@ -2850,14 +2747,8 @@
       <c r="M23" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N23" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O23" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>163</v>
       </c>
@@ -2873,8 +2764,11 @@
       <c r="E24" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F24" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>164</v>
       </c>
@@ -2890,8 +2784,11 @@
       <c r="E25" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F25" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>168</v>
       </c>
@@ -2910,13 +2807,13 @@
       <c r="F26" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H26" s="2" t="s">
+      <c r="G26" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J26" s="2" t="s">
+      <c r="K26" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L26" s="2" t="s">
@@ -2925,14 +2822,8 @@
       <c r="M26" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N26" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O26" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>163</v>
       </c>
@@ -2948,8 +2839,11 @@
       <c r="E27" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F27" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>164</v>
       </c>
@@ -2965,8 +2859,11 @@
       <c r="E28" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F28" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>169</v>
       </c>
@@ -2985,13 +2882,13 @@
       <c r="F29" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H29" s="2" t="s">
+      <c r="G29" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J29" s="2" t="s">
+      <c r="K29" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L29" s="2" t="s">
@@ -3000,14 +2897,8 @@
       <c r="M29" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N29" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O29" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>171</v>
       </c>
@@ -3026,13 +2917,13 @@
       <c r="F30" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H30" s="2" t="s">
+      <c r="G30" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J30" s="2" t="s">
+      <c r="K30" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L30" s="2" t="s">
@@ -3041,14 +2932,8 @@
       <c r="M30" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N30" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O30" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>170</v>
       </c>
@@ -3067,13 +2952,13 @@
       <c r="F31" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H31" s="2" t="s">
+      <c r="G31" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I31" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J31" s="2" t="s">
+      <c r="K31" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L31" s="2" t="s">
@@ -3082,14 +2967,8 @@
       <c r="M31" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N31" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O31" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>172</v>
       </c>
@@ -3108,13 +2987,13 @@
       <c r="F32" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H32" s="2" t="s">
+      <c r="G32" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I32" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J32" s="2" t="s">
+      <c r="K32" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L32" s="2" t="s">
@@ -3123,14 +3002,8 @@
       <c r="M32" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N32" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O32" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>174</v>
       </c>
@@ -3149,13 +3022,13 @@
       <c r="F33" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H33" s="2" t="s">
+      <c r="G33" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J33" s="2" t="s">
+      <c r="K33" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L33" s="2" t="s">
@@ -3164,14 +3037,8 @@
       <c r="M33" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N33" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O33" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>173</v>
       </c>
@@ -3190,13 +3057,13 @@
       <c r="F34" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H34" s="2" t="s">
+      <c r="G34" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J34" s="2" t="s">
+      <c r="K34" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L34" s="2" t="s">
@@ -3205,14 +3072,8 @@
       <c r="M34" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N34" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O34" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>233</v>
       </c>
@@ -3231,13 +3092,13 @@
       <c r="F35" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H35" s="2" t="s">
+      <c r="G35" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I35" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J35" s="2" t="s">
+      <c r="K35" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L35" s="2" t="s">
@@ -3246,14 +3107,8 @@
       <c r="M35" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N35" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O35" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>136</v>
       </c>
@@ -3272,13 +3127,13 @@
       <c r="F36" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H36" s="2" t="s">
+      <c r="G36" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I36" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J36" s="2" t="s">
+      <c r="K36" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L36" s="2" t="s">
@@ -3287,14 +3142,8 @@
       <c r="M36" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N36" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O36" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>176</v>
       </c>
@@ -3313,14 +3162,14 @@
       <c r="F37" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G37" s="6"/>
-      <c r="H37" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="G37" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H37" s="6"/>
       <c r="I37" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J37" s="2" t="s">
+      <c r="K37" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L37" s="2" t="s">
@@ -3329,14 +3178,8 @@
       <c r="M37" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N37" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O37" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>140</v>
       </c>
@@ -3355,13 +3198,13 @@
       <c r="F38" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H38" s="2" t="s">
+      <c r="G38" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I38" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J38" s="2" t="s">
+      <c r="K38" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L38" s="2" t="s">
@@ -3370,14 +3213,8 @@
       <c r="M38" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O38" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>179</v>
       </c>
@@ -3396,13 +3233,13 @@
       <c r="F39" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H39" s="2" t="s">
+      <c r="G39" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I39" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J39" s="2" t="s">
+      <c r="K39" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L39" s="2" t="s">
@@ -3411,14 +3248,8 @@
       <c r="M39" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N39" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O39" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>138</v>
       </c>
@@ -3437,13 +3268,13 @@
       <c r="F40" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H40" s="2" t="s">
+      <c r="G40" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I40" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J40" s="2" t="s">
+      <c r="K40" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L40" s="2" t="s">
@@ -3452,14 +3283,8 @@
       <c r="M40" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N40" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O40" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>180</v>
       </c>
@@ -3478,13 +3303,13 @@
       <c r="F41" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H41" s="2" t="s">
+      <c r="G41" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I41" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J41" s="2" t="s">
+      <c r="K41" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L41" s="2" t="s">
@@ -3493,14 +3318,8 @@
       <c r="M41" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N41" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O41" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>137</v>
       </c>
@@ -3519,13 +3338,13 @@
       <c r="F42" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H42" s="2" t="s">
+      <c r="G42" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I42" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J42" s="2" t="s">
+      <c r="K42" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L42" s="2" t="s">
@@ -3534,14 +3353,8 @@
       <c r="M42" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N42" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O42" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>181</v>
       </c>
@@ -3560,13 +3373,13 @@
       <c r="F43" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H43" s="2" t="s">
+      <c r="G43" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I43" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J43" s="2" t="s">
+      <c r="K43" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L43" s="2" t="s">
@@ -3575,14 +3388,8 @@
       <c r="M43" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N43" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O43" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>139</v>
       </c>
@@ -3601,13 +3408,13 @@
       <c r="F44" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H44" s="2" t="s">
+      <c r="G44" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I44" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J44" s="2" t="s">
+      <c r="K44" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L44" s="2" t="s">
@@ -3616,14 +3423,8 @@
       <c r="M44" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N44" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O44" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>182</v>
       </c>
@@ -3642,13 +3443,13 @@
       <c r="F45" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H45" s="2" t="s">
+      <c r="G45" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I45" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J45" s="2" t="s">
+      <c r="K45" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L45" s="2" t="s">
@@ -3657,14 +3458,8 @@
       <c r="M45" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N45" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O45" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>183</v>
       </c>
@@ -3680,16 +3475,16 @@
       <c r="E46" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F46" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H46" s="7" t="s">
+      <c r="F46" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G46" s="7" t="s">
         <v>6</v>
       </c>
       <c r="I46" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="J46" s="7" t="s">
+      <c r="K46" s="7" t="s">
         <v>6</v>
       </c>
       <c r="L46" s="7" t="s">
@@ -3698,14 +3493,8 @@
       <c r="M46" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="N46" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="O46" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>184</v>
       </c>
@@ -3721,16 +3510,16 @@
       <c r="E47" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F47" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H47" s="7" t="s">
+      <c r="F47" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G47" s="7" t="s">
         <v>6</v>
       </c>
       <c r="I47" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="J47" s="7" t="s">
+      <c r="K47" s="7" t="s">
         <v>6</v>
       </c>
       <c r="L47" s="7" t="s">
@@ -3739,14 +3528,8 @@
       <c r="M47" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="N47" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="O47" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>185</v>
       </c>
@@ -3762,16 +3545,16 @@
       <c r="E48" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F48" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H48" s="7" t="s">
+      <c r="F48" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G48" s="7" t="s">
         <v>6</v>
       </c>
       <c r="I48" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="J48" s="7" t="s">
+      <c r="K48" s="7" t="s">
         <v>6</v>
       </c>
       <c r="L48" s="7" t="s">
@@ -3780,14 +3563,8 @@
       <c r="M48" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="N48" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="O48" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>186</v>
       </c>
@@ -3803,16 +3580,16 @@
       <c r="E49" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F49" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H49" s="7" t="s">
+      <c r="F49" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G49" s="7" t="s">
         <v>6</v>
       </c>
       <c r="I49" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="J49" s="7" t="s">
+      <c r="K49" s="7" t="s">
         <v>6</v>
       </c>
       <c r="L49" s="7" t="s">
@@ -3821,14 +3598,8 @@
       <c r="M49" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="N49" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="O49" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>187</v>
       </c>
@@ -3847,13 +3618,13 @@
       <c r="F50" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H50" s="2" t="s">
+      <c r="G50" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I50" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J50" s="2" t="s">
+      <c r="K50" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L50" s="2" t="s">
@@ -3862,14 +3633,8 @@
       <c r="M50" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N50" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O50" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>188</v>
       </c>
@@ -3888,13 +3653,13 @@
       <c r="F51" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H51" s="2" t="s">
+      <c r="G51" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I51" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J51" s="2" t="s">
+      <c r="K51" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L51" s="2" t="s">
@@ -3903,14 +3668,8 @@
       <c r="M51" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N51" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O51" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>194</v>
       </c>
@@ -3929,13 +3688,13 @@
       <c r="F52" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H52" s="2" t="s">
+      <c r="G52" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I52" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J52" s="2" t="s">
+      <c r="K52" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L52" s="2" t="s">
@@ -3944,14 +3703,8 @@
       <c r="M52" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N52" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O52" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>191</v>
       </c>
@@ -3970,13 +3723,13 @@
       <c r="F53" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H53" s="2" t="s">
+      <c r="G53" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I53" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J53" s="2" t="s">
+      <c r="K53" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L53" s="2" t="s">
@@ -3985,14 +3738,8 @@
       <c r="M53" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N53" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O53" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>195</v>
       </c>
@@ -4011,13 +3758,13 @@
       <c r="F54" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H54" s="2" t="s">
+      <c r="G54" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I54" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J54" s="2" t="s">
+      <c r="K54" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L54" s="2" t="s">
@@ -4026,14 +3773,8 @@
       <c r="M54" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N54" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O54" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>324</v>
       </c>
@@ -4049,8 +3790,11 @@
       <c r="E55" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F55" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>196</v>
       </c>
@@ -4069,13 +3813,13 @@
       <c r="F56" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H56" s="2" t="s">
+      <c r="G56" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I56" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J56" s="2" t="s">
+      <c r="K56" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L56" s="2" t="s">
@@ -4084,14 +3828,8 @@
       <c r="M56" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N56" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O56" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>197</v>
       </c>
@@ -4110,13 +3848,13 @@
       <c r="F57" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H57" s="2" t="s">
+      <c r="G57" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I57" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J57" s="2" t="s">
+      <c r="K57" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L57" s="2" t="s">
@@ -4125,14 +3863,8 @@
       <c r="M57" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N57" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O57" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>202</v>
       </c>
@@ -4151,13 +3883,13 @@
       <c r="F58" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H58" s="2" t="s">
+      <c r="G58" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I58" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J58" s="2" t="s">
+      <c r="K58" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L58" s="2" t="s">
@@ -4166,14 +3898,8 @@
       <c r="M58" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N58" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O58" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>203</v>
       </c>
@@ -4192,13 +3918,13 @@
       <c r="F59" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H59" s="2" t="s">
+      <c r="G59" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I59" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J59" s="2" t="s">
+      <c r="K59" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L59" s="2" t="s">
@@ -4207,14 +3933,8 @@
       <c r="M59" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N59" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O59" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>204</v>
       </c>
@@ -4233,13 +3953,13 @@
       <c r="F60" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H60" s="2" t="s">
+      <c r="G60" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I60" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J60" s="2" t="s">
+      <c r="K60" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L60" s="2" t="s">
@@ -4248,14 +3968,8 @@
       <c r="M60" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N60" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O60" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>205</v>
       </c>
@@ -4274,13 +3988,13 @@
       <c r="F61" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H61" s="2" t="s">
+      <c r="G61" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I61" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J61" s="2" t="s">
+      <c r="K61" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L61" s="2" t="s">
@@ -4289,14 +4003,8 @@
       <c r="M61" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N61" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O61" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>217</v>
       </c>
@@ -4313,15 +4021,15 @@
         <v>6</v>
       </c>
       <c r="F62" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G62" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H62" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="I62" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J62" s="2" t="s">
+      <c r="K62" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L62" s="2" t="s">
@@ -4330,14 +4038,8 @@
       <c r="M62" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N62" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O62" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>218</v>
       </c>
@@ -4356,13 +4058,13 @@
       <c r="F63" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H63" s="2" t="s">
+      <c r="G63" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I63" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J63" s="2" t="s">
+      <c r="K63" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L63" s="2" t="s">
@@ -4371,14 +4073,8 @@
       <c r="M63" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N63" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O63" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>219</v>
       </c>
@@ -4395,15 +4091,15 @@
         <v>6</v>
       </c>
       <c r="F64" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G64" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H64" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="I64" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J64" s="2" t="s">
+      <c r="K64" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L64" s="2" t="s">
@@ -4412,14 +4108,8 @@
       <c r="M64" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N64" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O64" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>220</v>
       </c>
@@ -4436,15 +4126,15 @@
         <v>6</v>
       </c>
       <c r="F65" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G65" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H65" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="I65" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J65" s="2" t="s">
+      <c r="K65" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L65" s="2" t="s">
@@ -4453,14 +4143,8 @@
       <c r="M65" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N65" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O65" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>221</v>
       </c>
@@ -4479,13 +4163,13 @@
       <c r="F66" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H66" s="2" t="s">
+      <c r="G66" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I66" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J66" s="2" t="s">
+      <c r="K66" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L66" s="2" t="s">
@@ -4494,14 +4178,8 @@
       <c r="M66" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N66" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O66" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>338</v>
       </c>
@@ -4515,16 +4193,16 @@
         <v>242</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>6</v>
+        <v>340</v>
       </c>
       <c r="F67" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G67" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="H67" s="2" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>206</v>
       </c>
@@ -4543,13 +4221,13 @@
       <c r="F68" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H68" s="2" t="s">
+      <c r="G68" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I68" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J68" s="2" t="s">
+      <c r="K68" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L68" s="2" t="s">
@@ -4558,14 +4236,8 @@
       <c r="M68" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N68" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O68" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>207</v>
       </c>
@@ -4584,13 +4256,13 @@
       <c r="F69" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H69" s="2" t="s">
+      <c r="G69" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I69" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J69" s="2" t="s">
+      <c r="K69" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L69" s="2" t="s">
@@ -4599,14 +4271,8 @@
       <c r="M69" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N69" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O69" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>208</v>
       </c>
@@ -4625,13 +4291,13 @@
       <c r="F70" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H70" s="2" t="s">
+      <c r="G70" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I70" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J70" s="2" t="s">
+      <c r="K70" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L70" s="2" t="s">
@@ -4640,14 +4306,8 @@
       <c r="M70" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N70" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O70" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>209</v>
       </c>
@@ -4666,13 +4326,13 @@
       <c r="F71" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H71" s="2" t="s">
+      <c r="G71" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I71" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J71" s="2" t="s">
+      <c r="K71" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L71" s="2" t="s">
@@ -4681,14 +4341,8 @@
       <c r="M71" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N71" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O71" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>210</v>
       </c>
@@ -4707,13 +4361,13 @@
       <c r="F72" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H72" s="2" t="s">
+      <c r="G72" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I72" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J72" s="2" t="s">
+      <c r="K72" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L72" s="2" t="s">
@@ -4722,14 +4376,8 @@
       <c r="M72" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N72" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O72" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>211</v>
       </c>
@@ -4748,13 +4396,13 @@
       <c r="F73" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H73" s="2" t="s">
+      <c r="G73" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I73" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J73" s="2" t="s">
+      <c r="K73" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L73" s="2" t="s">
@@ -4763,14 +4411,8 @@
       <c r="M73" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N73" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O73" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>212</v>
       </c>
@@ -4789,13 +4431,13 @@
       <c r="F74" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H74" s="2" t="s">
+      <c r="G74" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I74" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J74" s="2" t="s">
+      <c r="K74" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L74" s="2" t="s">
@@ -4804,14 +4446,8 @@
       <c r="M74" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N74" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O74" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>213</v>
       </c>
@@ -4830,13 +4466,13 @@
       <c r="F75" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H75" s="2" t="s">
+      <c r="G75" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I75" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J75" s="2" t="s">
+      <c r="K75" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L75" s="2" t="s">
@@ -4845,14 +4481,8 @@
       <c r="M75" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N75" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O75" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>214</v>
       </c>
@@ -4865,13 +4495,13 @@
       <c r="F76" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H76" s="2" t="s">
+      <c r="G76" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I76" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J76" s="2" t="s">
+      <c r="K76" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L76" s="2" t="s">
@@ -4880,14 +4510,8 @@
       <c r="M76" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N76" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O76" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>215</v>
       </c>
@@ -4906,13 +4530,13 @@
       <c r="F77" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H77" s="2" t="s">
+      <c r="G77" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I77" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J77" s="2" t="s">
+      <c r="K77" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L77" s="2" t="s">
@@ -4921,14 +4545,8 @@
       <c r="M77" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N77" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O77" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>216</v>
       </c>
@@ -4947,13 +4565,13 @@
       <c r="F78" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H78" s="2" t="s">
+      <c r="G78" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I78" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J78" s="2" t="s">
+      <c r="K78" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L78" s="2" t="s">
@@ -4962,14 +4580,8 @@
       <c r="M78" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N78" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O78" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>270</v>
       </c>
@@ -4988,13 +4600,13 @@
       <c r="F79" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H79" s="2" t="s">
+      <c r="G79" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I79" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J79" s="2" t="s">
+      <c r="K79" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L79" s="2" t="s">
@@ -5003,14 +4615,8 @@
       <c r="M79" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N79" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O79" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>271</v>
       </c>
@@ -5029,13 +4635,13 @@
       <c r="F80" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H80" s="2" t="s">
+      <c r="G80" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I80" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J80" s="2" t="s">
+      <c r="K80" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L80" s="2" t="s">
@@ -5044,14 +4650,8 @@
       <c r="M80" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O80" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>272</v>
       </c>
@@ -5070,13 +4670,13 @@
       <c r="F81" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H81" s="2" t="s">
+      <c r="G81" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I81" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J81" s="2" t="s">
+      <c r="K81" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L81" s="2" t="s">
@@ -5085,14 +4685,8 @@
       <c r="M81" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N81" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O81" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>273</v>
       </c>
@@ -5111,13 +4705,13 @@
       <c r="F82" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H82" s="2" t="s">
+      <c r="G82" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I82" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J82" s="2" t="s">
+      <c r="K82" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L82" s="2" t="s">
@@ -5126,14 +4720,8 @@
       <c r="M82" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N82" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O82" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>274</v>
       </c>
@@ -5152,13 +4740,13 @@
       <c r="F83" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H83" s="2" t="s">
+      <c r="G83" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I83" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J83" s="2" t="s">
+      <c r="K83" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L83" s="2" t="s">
@@ -5167,14 +4755,8 @@
       <c r="M83" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N83" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O83" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>275</v>
       </c>
@@ -5193,13 +4775,13 @@
       <c r="F84" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H84" s="2" t="s">
+      <c r="G84" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I84" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J84" s="2" t="s">
+      <c r="K84" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L84" s="2" t="s">
@@ -5208,14 +4790,8 @@
       <c r="M84" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N84" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O84" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>276</v>
       </c>
@@ -5234,13 +4810,13 @@
       <c r="F85" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H85" s="2" t="s">
+      <c r="G85" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I85" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J85" s="2" t="s">
+      <c r="K85" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L85" s="2" t="s">
@@ -5249,14 +4825,8 @@
       <c r="M85" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N85" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O85" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>277</v>
       </c>
@@ -5275,13 +4845,13 @@
       <c r="F86" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H86" s="2" t="s">
+      <c r="G86" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I86" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J86" s="2" t="s">
+      <c r="K86" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L86" s="2" t="s">
@@ -5290,14 +4860,8 @@
       <c r="M86" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N86" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O86" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>278</v>
       </c>
@@ -5316,13 +4880,13 @@
       <c r="F87" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H87" s="2" t="s">
+      <c r="G87" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I87" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J87" s="2" t="s">
+      <c r="K87" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L87" s="2" t="s">
@@ -5331,14 +4895,8 @@
       <c r="M87" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N87" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O87" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>279</v>
       </c>
@@ -5357,13 +4915,13 @@
       <c r="F88" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H88" s="2" t="s">
+      <c r="G88" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I88" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J88" s="2" t="s">
+      <c r="K88" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L88" s="2" t="s">
@@ -5372,14 +4930,8 @@
       <c r="M88" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N88" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O88" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>280</v>
       </c>
@@ -5398,13 +4950,13 @@
       <c r="F89" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H89" s="2" t="s">
+      <c r="G89" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I89" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J89" s="2" t="s">
+      <c r="K89" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L89" s="2" t="s">
@@ -5413,14 +4965,8 @@
       <c r="M89" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N89" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O89" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>281</v>
       </c>
@@ -5439,13 +4985,13 @@
       <c r="F90" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H90" s="2" t="s">
+      <c r="G90" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I90" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J90" s="2" t="s">
+      <c r="K90" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L90" s="2" t="s">
@@ -5454,14 +5000,8 @@
       <c r="M90" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N90" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O90" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>282</v>
       </c>
@@ -5480,13 +5020,13 @@
       <c r="F91" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H91" s="2" t="s">
+      <c r="G91" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I91" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J91" s="2" t="s">
+      <c r="K91" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L91" s="2" t="s">
@@ -5495,14 +5035,8 @@
       <c r="M91" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N91" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O91" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>283</v>
       </c>
@@ -5521,13 +5055,13 @@
       <c r="F92" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H92" s="2" t="s">
+      <c r="G92" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I92" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J92" s="2" t="s">
+      <c r="K92" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L92" s="2" t="s">
@@ -5536,14 +5070,8 @@
       <c r="M92" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N92" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O92" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>284</v>
       </c>
@@ -5562,13 +5090,13 @@
       <c r="F93" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H93" s="2" t="s">
+      <c r="G93" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I93" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J93" s="2" t="s">
+      <c r="K93" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L93" s="2" t="s">
@@ -5577,14 +5105,8 @@
       <c r="M93" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N93" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O93" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>285</v>
       </c>
@@ -5603,13 +5125,13 @@
       <c r="F94" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H94" s="2" t="s">
+      <c r="G94" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I94" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J94" s="2" t="s">
+      <c r="K94" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L94" s="2" t="s">
@@ -5618,14 +5140,8 @@
       <c r="M94" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N94" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O94" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>286</v>
       </c>
@@ -5644,13 +5160,13 @@
       <c r="F95" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H95" s="2" t="s">
+      <c r="G95" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I95" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J95" s="2" t="s">
+      <c r="K95" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L95" s="2" t="s">
@@ -5659,14 +5175,8 @@
       <c r="M95" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N95" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O95" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>287</v>
       </c>
@@ -5685,13 +5195,13 @@
       <c r="F96" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H96" s="2" t="s">
+      <c r="G96" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I96" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J96" s="2" t="s">
+      <c r="K96" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L96" s="2" t="s">
@@ -5700,14 +5210,8 @@
       <c r="M96" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N96" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O96" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>288</v>
       </c>
@@ -5726,13 +5230,13 @@
       <c r="F97" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H97" s="2" t="s">
+      <c r="G97" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I97" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J97" s="2" t="s">
+      <c r="K97" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L97" s="2" t="s">
@@ -5741,14 +5245,8 @@
       <c r="M97" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N97" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O97" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>289</v>
       </c>
@@ -5767,13 +5265,13 @@
       <c r="F98" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H98" s="2" t="s">
+      <c r="G98" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I98" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J98" s="2" t="s">
+      <c r="K98" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L98" s="2" t="s">
@@ -5782,14 +5280,8 @@
       <c r="M98" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N98" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O98" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>290</v>
       </c>
@@ -5808,13 +5300,13 @@
       <c r="F99" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H99" s="2" t="s">
+      <c r="G99" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I99" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J99" s="2" t="s">
+      <c r="K99" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L99" s="2" t="s">
@@ -5823,14 +5315,8 @@
       <c r="M99" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N99" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O99" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>291</v>
       </c>
@@ -5849,13 +5335,13 @@
       <c r="F100" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H100" s="2" t="s">
+      <c r="G100" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I100" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J100" s="2" t="s">
+      <c r="K100" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L100" s="2" t="s">
@@ -5864,14 +5350,8 @@
       <c r="M100" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N100" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O100" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>329</v>
       </c>
@@ -5887,8 +5367,11 @@
       <c r="E101" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F101" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>225</v>
       </c>
@@ -5907,13 +5390,13 @@
       <c r="F102" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H102" s="2" t="s">
+      <c r="G102" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I102" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J102" s="2" t="s">
+      <c r="K102" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L102" s="2" t="s">
@@ -5922,14 +5405,8 @@
       <c r="M102" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N102" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O102" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>226</v>
       </c>
@@ -5948,13 +5425,13 @@
       <c r="F103" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H103" s="2" t="s">
+      <c r="G103" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I103" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J103" s="2" t="s">
+      <c r="K103" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L103" s="2" t="s">
@@ -5963,14 +5440,8 @@
       <c r="M103" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N103" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O103" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>227</v>
       </c>
@@ -5989,13 +5460,13 @@
       <c r="F104" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H104" s="2" t="s">
+      <c r="G104" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I104" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J104" s="2" t="s">
+      <c r="K104" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L104" s="2" t="s">
@@ -6004,14 +5475,8 @@
       <c r="M104" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N104" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O104" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>222</v>
       </c>
@@ -6030,13 +5495,13 @@
       <c r="F105" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H105" s="2" t="s">
+      <c r="G105" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I105" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J105" s="2" t="s">
+      <c r="K105" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L105" s="2" t="s">
@@ -6045,14 +5510,8 @@
       <c r="M105" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N105" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O105" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>223</v>
       </c>
@@ -6071,13 +5530,13 @@
       <c r="F106" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H106" s="2" t="s">
+      <c r="G106" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I106" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J106" s="2" t="s">
+      <c r="K106" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L106" s="2" t="s">
@@ -6086,14 +5545,8 @@
       <c r="M106" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N106" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O106" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>224</v>
       </c>
@@ -6112,13 +5565,13 @@
       <c r="F107" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H107" s="2" t="s">
+      <c r="G107" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I107" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J107" s="2" t="s">
+      <c r="K107" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L107" s="2" t="s">
@@ -6127,14 +5580,8 @@
       <c r="M107" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N107" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O107" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>228</v>
       </c>
@@ -6153,13 +5600,13 @@
       <c r="F108" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H108" s="2" t="s">
+      <c r="G108" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I108" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J108" s="2" t="s">
+      <c r="K108" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L108" s="2" t="s">
@@ -6168,14 +5615,8 @@
       <c r="M108" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N108" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O108" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>229</v>
       </c>
@@ -6194,13 +5635,13 @@
       <c r="F109" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H109" s="2" t="s">
+      <c r="G109" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I109" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J109" s="2" t="s">
+      <c r="K109" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L109" s="2" t="s">
@@ -6209,16 +5650,10 @@
       <c r="M109" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N109" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O109" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>247</v>
@@ -6235,13 +5670,13 @@
       <c r="F110" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H110" s="2" t="s">
+      <c r="G110" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I110" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J110" s="2" t="s">
+      <c r="K110" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L110" s="2" t="s">
@@ -6250,16 +5685,10 @@
       <c r="M110" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N110" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O110" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>250</v>
@@ -6276,13 +5705,13 @@
       <c r="F111" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H111" s="2" t="s">
+      <c r="G111" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I111" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J111" s="2" t="s">
+      <c r="K111" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L111" s="2" t="s">
@@ -6291,16 +5720,10 @@
       <c r="M111" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N111" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O111" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>343</v>
+        <v>354</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>252</v>
@@ -6317,13 +5740,13 @@
       <c r="F112" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H112" s="2" t="s">
+      <c r="G112" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I112" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J112" s="2" t="s">
+      <c r="K112" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L112" s="2" t="s">
@@ -6332,16 +5755,10 @@
       <c r="M112" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N112" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O112" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>344</v>
+        <v>355</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>254</v>
@@ -6358,13 +5775,13 @@
       <c r="F113" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H113" s="2" t="s">
+      <c r="G113" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I113" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J113" s="2" t="s">
+      <c r="K113" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L113" s="2" t="s">
@@ -6373,16 +5790,10 @@
       <c r="M113" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N113" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O113" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>256</v>
@@ -6399,13 +5810,13 @@
       <c r="F114" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H114" s="2" t="s">
+      <c r="G114" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I114" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J114" s="2" t="s">
+      <c r="K114" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L114" s="2" t="s">
@@ -6414,16 +5825,10 @@
       <c r="M114" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N114" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O114" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>346</v>
+        <v>258</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>259</v>
@@ -6440,13 +5845,13 @@
       <c r="F115" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H115" s="2" t="s">
+      <c r="G115" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I115" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J115" s="2" t="s">
+      <c r="K115" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L115" s="2" t="s">
@@ -6455,16 +5860,10 @@
       <c r="M115" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N115" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O115" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>309</v>
@@ -6481,13 +5880,13 @@
       <c r="F116" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H116" s="2" t="s">
+      <c r="G116" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I116" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J116" s="2" t="s">
+      <c r="K116" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L116" s="2" t="s">
@@ -6496,16 +5895,10 @@
       <c r="M116" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N116" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O116" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>292</v>
@@ -6522,13 +5915,13 @@
       <c r="F117" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H117" s="2" t="s">
+      <c r="G117" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I117" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J117" s="2" t="s">
+      <c r="K117" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L117" s="2" t="s">
@@ -6537,16 +5930,10 @@
       <c r="M117" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N117" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O117" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>311</v>
@@ -6563,13 +5950,13 @@
       <c r="F118" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H118" s="2" t="s">
+      <c r="G118" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I118" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J118" s="2" t="s">
+      <c r="K118" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L118" s="2" t="s">
@@ -6578,16 +5965,10 @@
       <c r="M118" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N118" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O118" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>313</v>
@@ -6604,13 +5985,13 @@
       <c r="F119" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H119" s="2" t="s">
+      <c r="G119" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I119" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J119" s="2" t="s">
+      <c r="K119" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L119" s="2" t="s">
@@ -6619,16 +6000,10 @@
       <c r="M119" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N119" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O119" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>331</v>
@@ -6645,13 +6020,13 @@
       <c r="F120" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H120" s="2" t="s">
+      <c r="G120" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I120" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J120" s="2" t="s">
+      <c r="K120" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L120" s="2" t="s">
@@ -6660,16 +6035,10 @@
       <c r="M120" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N120" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O120" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>333</v>
@@ -6686,13 +6055,13 @@
       <c r="F121" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H121" s="2" t="s">
+      <c r="G121" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I121" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J121" s="2" t="s">
+      <c r="K121" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L121" s="2" t="s">
@@ -6701,186 +6070,217 @@
       <c r="M121" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N121" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O121" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>249</v>
       </c>
       <c r="E122" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A123" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E123" s="2" t="s">
         <v>2</v>
       </c>
     </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A124" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:O121"/>
+  <autoFilter ref="A1:M121"/>
   <conditionalFormatting sqref="A110">
     <cfRule type="expression" dxfId="47" priority="41">
-      <formula>$R110="Passed"</formula>
+      <formula>$P110="Passed"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="46" priority="42">
-      <formula>$R110="Not Ready"</formula>
+      <formula>$P110="Not Ready"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="45" priority="43">
-      <formula>$R110="Retest"</formula>
+      <formula>$P110="Retest"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="44" priority="44">
-      <formula>$R110="Query"</formula>
+      <formula>$P110="Query"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="43" priority="45">
-      <formula>$R110="Blocked"</formula>
+      <formula>$P110="Blocked"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="42" priority="46">
-      <formula>$R110="In Progress"</formula>
+      <formula>$P110="In Progress"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="41" priority="47">
-      <formula>$R110="N/A"</formula>
+      <formula>$P110="N/A"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="40" priority="48">
-      <formula>$R110="Failed"</formula>
+      <formula>$P110="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A111">
     <cfRule type="expression" dxfId="39" priority="33">
-      <formula>$R111="Passed"</formula>
+      <formula>$P111="Passed"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="38" priority="34">
-      <formula>$R111="Not Ready"</formula>
+      <formula>$P111="Not Ready"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="37" priority="35">
-      <formula>$R111="Retest"</formula>
+      <formula>$P111="Retest"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="36" priority="36">
-      <formula>$R111="Query"</formula>
+      <formula>$P111="Query"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="35" priority="37">
-      <formula>$R111="Blocked"</formula>
+      <formula>$P111="Blocked"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="34" priority="38">
-      <formula>$R111="In Progress"</formula>
+      <formula>$P111="In Progress"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="33" priority="39">
-      <formula>$R111="N/A"</formula>
+      <formula>$P111="N/A"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="32" priority="40">
-      <formula>$R111="Failed"</formula>
+      <formula>$P111="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A112">
     <cfRule type="expression" dxfId="31" priority="25">
-      <formula>$R112="Passed"</formula>
+      <formula>$P112="Passed"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="30" priority="26">
-      <formula>$R112="Not Ready"</formula>
+      <formula>$P112="Not Ready"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="29" priority="27">
-      <formula>$R112="Retest"</formula>
+      <formula>$P112="Retest"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="28" priority="28">
-      <formula>$R112="Query"</formula>
+      <formula>$P112="Query"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="27" priority="29">
-      <formula>$R112="Blocked"</formula>
+      <formula>$P112="Blocked"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="26" priority="30">
-      <formula>$R112="In Progress"</formula>
+      <formula>$P112="In Progress"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="25" priority="31">
-      <formula>$R112="N/A"</formula>
+      <formula>$P112="N/A"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="24" priority="32">
-      <formula>$R112="Failed"</formula>
+      <formula>$P112="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A114">
     <cfRule type="expression" dxfId="23" priority="17">
-      <formula>$R114="Passed"</formula>
+      <formula>$P114="Passed"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="22" priority="18">
-      <formula>$R114="Not Ready"</formula>
+      <formula>$P114="Not Ready"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="21" priority="19">
-      <formula>$R114="Retest"</formula>
+      <formula>$P114="Retest"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="20" priority="20">
-      <formula>$R114="Query"</formula>
+      <formula>$P114="Query"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="19" priority="21">
-      <formula>$R114="Blocked"</formula>
+      <formula>$P114="Blocked"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="18" priority="22">
-      <formula>$R114="In Progress"</formula>
+      <formula>$P114="In Progress"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="17" priority="23">
-      <formula>$R114="N/A"</formula>
+      <formula>$P114="N/A"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="16" priority="24">
-      <formula>$R114="Failed"</formula>
+      <formula>$P114="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A115">
     <cfRule type="expression" dxfId="15" priority="9">
-      <formula>$R115="Passed"</formula>
+      <formula>$P115="Passed"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="14" priority="10">
-      <formula>$R115="Not Ready"</formula>
+      <formula>$P115="Not Ready"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="13" priority="11">
-      <formula>$R115="Retest"</formula>
+      <formula>$P115="Retest"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="12" priority="12">
-      <formula>$R115="Query"</formula>
+      <formula>$P115="Query"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="11" priority="13">
-      <formula>$R115="Blocked"</formula>
+      <formula>$P115="Blocked"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="10" priority="14">
-      <formula>$R115="In Progress"</formula>
+      <formula>$P115="In Progress"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="9" priority="15">
-      <formula>$R115="N/A"</formula>
+      <formula>$P115="N/A"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="8" priority="16">
-      <formula>$R115="Failed"</formula>
+      <formula>$P115="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A113">
     <cfRule type="expression" dxfId="7" priority="1">
-      <formula>$R113="Passed"</formula>
+      <formula>$P113="Passed"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="6" priority="2">
-      <formula>$R113="Not Ready"</formula>
+      <formula>$P113="Not Ready"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="5" priority="3">
-      <formula>$R113="Retest"</formula>
+      <formula>$P113="Retest"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="4">
-      <formula>$R113="Query"</formula>
+      <formula>$P113="Query"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="3" priority="5">
-      <formula>$R113="Blocked"</formula>
+      <formula>$P113="Blocked"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="6">
-      <formula>$R113="In Progress"</formula>
+      <formula>$P113="In Progress"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="7">
-      <formula>$R113="N/A"</formula>
+      <formula>$P113="N/A"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="8">
-      <formula>$R113="Failed"</formula>
+      <formula>$P113="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/WppRegpack/TestResource/TC_RunManager.xlsx
+++ b/WppRegpack/TestResource/TC_RunManager.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2098" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2107" uniqueCount="360">
   <si>
     <t>Description</t>
   </si>
@@ -786,12 +786,6 @@
     <t>MPL Layouts</t>
   </si>
   <si>
-    <t>Print_Order_Confirmation_MPL</t>
-  </si>
-  <si>
-    <t>PrintOrderConfirmation</t>
-  </si>
-  <si>
     <t>BudgetEstimateMPL</t>
   </si>
   <si>
@@ -1114,6 +1108,12 @@
   </si>
   <si>
     <t>BankingReconciliation_InProgress_MPL</t>
+  </si>
+  <si>
+    <t>JobOrderConfirmation_MPL</t>
+  </si>
+  <si>
+    <t>jobOrderConfirmation</t>
   </si>
 </sst>
 </file>
@@ -1190,7 +1190,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1203,6 +1203,18 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1945,8 +1957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="E124" sqref="E124"/>
+    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
+      <selection activeCell="E111" sqref="E111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1957,8 +1969,8 @@
     <col min="4" max="4" width="28.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.28515625" style="2" customWidth="1"/>
     <col min="6" max="6" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.85546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="11" style="9" customWidth="1"/>
     <col min="9" max="9" width="15.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="22" style="2" customWidth="1"/>
     <col min="11" max="11" width="15.140625" style="2" bestFit="1" customWidth="1"/>
@@ -1989,14 +2001,14 @@
       <c r="G1" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>315</v>
+      <c r="H1" s="8" t="s">
+        <v>313</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>230</v>
@@ -2054,7 +2066,7 @@
         <v>151</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>6</v>
@@ -2086,7 +2098,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>121</v>
@@ -2191,7 +2203,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>121</v>
@@ -2220,7 +2232,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>110</v>
@@ -2643,10 +2655,10 @@
         <v>166</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>122</v>
@@ -2692,6 +2704,9 @@
       <c r="F21" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="I21" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
@@ -2712,16 +2727,19 @@
       <c r="F22" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="I22" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>167</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>122</v>
@@ -2767,6 +2785,9 @@
       <c r="F24" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="I24" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
@@ -2787,16 +2808,19 @@
       <c r="F25" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="I25" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>168</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>122</v>
@@ -2842,6 +2866,9 @@
       <c r="F27" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="I27" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
@@ -2862,6 +2889,9 @@
       <c r="F28" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="I28" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
@@ -3165,7 +3195,7 @@
       <c r="G37" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H37" s="6"/>
+      <c r="H37" s="10"/>
       <c r="I37" s="2" t="s">
         <v>6</v>
       </c>
@@ -3219,10 +3249,10 @@
         <v>179</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>266</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>268</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>128</v>
@@ -3289,7 +3319,7 @@
         <v>180</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>134</v>
@@ -3359,10 +3389,10 @@
         <v>181</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>128</v>
@@ -3429,7 +3459,7 @@
         <v>182</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>134</v>
@@ -3464,10 +3494,10 @@
         <v>183</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D46" s="7" t="s">
         <v>128</v>
@@ -3481,7 +3511,8 @@
       <c r="G46" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I46" s="7" t="s">
+      <c r="H46" s="11"/>
+      <c r="I46" s="2" t="s">
         <v>6</v>
       </c>
       <c r="K46" s="7" t="s">
@@ -3499,10 +3530,10 @@
         <v>184</v>
       </c>
       <c r="B47" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="C47" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="D47" s="7" t="s">
         <v>128</v>
@@ -3516,7 +3547,8 @@
       <c r="G47" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I47" s="7" t="s">
+      <c r="H47" s="11"/>
+      <c r="I47" s="2" t="s">
         <v>6</v>
       </c>
       <c r="K47" s="7" t="s">
@@ -3534,10 +3566,10 @@
         <v>185</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D48" s="7" t="s">
         <v>128</v>
@@ -3551,7 +3583,8 @@
       <c r="G48" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I48" s="7" t="s">
+      <c r="H48" s="11"/>
+      <c r="I48" s="2" t="s">
         <v>6</v>
       </c>
       <c r="K48" s="7" t="s">
@@ -3569,10 +3602,10 @@
         <v>186</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D49" s="7" t="s">
         <v>128</v>
@@ -3586,7 +3619,8 @@
       <c r="G49" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I49" s="7" t="s">
+      <c r="H49" s="11"/>
+      <c r="I49" s="2" t="s">
         <v>6</v>
       </c>
       <c r="K49" s="7" t="s">
@@ -3776,13 +3810,13 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C55" s="2" t="s">
         <v>324</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>326</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>127</v>
@@ -3791,6 +3825,9 @@
         <v>6</v>
       </c>
       <c r="F55" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I55" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4149,10 +4186,10 @@
         <v>221</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>242</v>
@@ -4181,25 +4218,28 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>242</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>6</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
@@ -4312,10 +4352,10 @@
         <v>209</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>125</v>
@@ -4350,7 +4390,7 @@
         <v>35</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>125</v>
@@ -4455,7 +4495,7 @@
         <v>39</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>232</v>
@@ -4519,7 +4559,7 @@
         <v>55</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>232</v>
@@ -4583,7 +4623,7 @@
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>99</v>
@@ -4618,7 +4658,7 @@
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>100</v>
@@ -4653,7 +4693,7 @@
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>94</v>
@@ -4688,7 +4728,7 @@
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>92</v>
@@ -4723,13 +4763,13 @@
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>141</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>119</v>
@@ -4758,7 +4798,7 @@
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>84</v>
@@ -4793,7 +4833,7 @@
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>85</v>
@@ -4828,7 +4868,7 @@
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>101</v>
@@ -4863,7 +4903,7 @@
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>97</v>
@@ -4898,7 +4938,7 @@
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>96</v>
@@ -4933,13 +4973,13 @@
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>119</v>
@@ -4968,7 +5008,7 @@
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>79</v>
@@ -5003,7 +5043,7 @@
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>75</v>
@@ -5038,7 +5078,7 @@
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>77</v>
@@ -5073,7 +5113,7 @@
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>81</v>
@@ -5108,7 +5148,7 @@
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>71</v>
@@ -5143,7 +5183,7 @@
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>70</v>
@@ -5178,7 +5218,7 @@
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>102</v>
@@ -5187,7 +5227,7 @@
         <v>103</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>6</v>
@@ -5213,16 +5253,16 @@
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>6</v>
@@ -5248,16 +5288,16 @@
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>6</v>
@@ -5283,7 +5323,7 @@
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>83</v>
@@ -5292,7 +5332,7 @@
         <v>83</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>6</v>
@@ -5318,7 +5358,7 @@
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>74</v>
@@ -5327,7 +5367,7 @@
         <v>74</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>6</v>
@@ -5353,13 +5393,13 @@
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>144</v>
@@ -5368,6 +5408,9 @@
         <v>6</v>
       </c>
       <c r="F101" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I101" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5551,10 +5594,10 @@
         <v>224</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>144</v>
@@ -5621,13 +5664,13 @@
         <v>229</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>6</v>
@@ -5653,7 +5696,7 @@
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>247</v>
@@ -5674,7 +5717,7 @@
         <v>6</v>
       </c>
       <c r="I110" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K110" s="2" t="s">
         <v>6</v>
@@ -5688,19 +5731,19 @@
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>250</v>
+        <v>358</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>251</v>
+        <v>359</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>249</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>6</v>
@@ -5723,13 +5766,13 @@
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>249</v>
@@ -5758,13 +5801,13 @@
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>249</v>
@@ -5793,13 +5836,13 @@
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>249</v>
@@ -5828,13 +5871,13 @@
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>249</v>
@@ -5863,13 +5906,13 @@
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>249</v>
@@ -5898,10 +5941,10 @@
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>238</v>
@@ -5933,13 +5976,13 @@
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>249</v>
@@ -5968,13 +6011,13 @@
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>249</v>
@@ -6003,13 +6046,13 @@
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>249</v>
@@ -6038,13 +6081,13 @@
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>249</v>
@@ -6073,13 +6116,13 @@
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>249</v>
@@ -6093,30 +6136,30 @@
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>249</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>249</v>

--- a/WppRegpack/TestResource/TC_RunManager.xlsx
+++ b/WppRegpack/TestResource/TC_RunManager.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2107" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2107" uniqueCount="362">
   <si>
     <t>Description</t>
   </si>
@@ -1114,6 +1114,12 @@
   </si>
   <si>
     <t>jobOrderConfirmation</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>validatePaymentSelectionMPL</t>
   </si>
 </sst>
 </file>
@@ -1958,7 +1964,7 @@
   <dimension ref="A1:M124"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
-      <selection activeCell="E111" sqref="E111"/>
+      <selection activeCell="E117" sqref="E117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2209,7 +2215,7 @@
         <v>121</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>6</v>
+        <v>360</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>6</v>
@@ -3755,7 +3761,7 @@
         <v>6</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>6</v>
@@ -4160,7 +4166,7 @@
         <v>242</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>6</v>
+        <v>360</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>6</v>
@@ -5743,7 +5749,7 @@
         <v>249</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>6</v>
@@ -5947,13 +5953,13 @@
         <v>290</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>238</v>
+        <v>361</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>249</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>6</v>

--- a/WppRegpack/TestResource/TC_RunManager.xlsx
+++ b/WppRegpack/TestResource/TC_RunManager.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GlobalTestSuiteAutomation\WppRegpack\TestResource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Music\Final Global Scripts Making\WppRegpack\TestResource\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
     <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GlobalTestCase!$A$1:$M$121</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GlobalTestCase!$A$1:$M$2</definedName>
     <definedName name="IterationOptions">[1]Sheet1!$A$2:$A$4</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -32,8 +32,115 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Cognizant</author>
+  </authors>
+  <commentList>
+    <comment ref="A23" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Cognizant:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Hitpoint Test Case
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B23" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Cognizant:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Hitpoint Test Case</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C23" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Cognizant:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Hitpoint Test Case</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D23" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Cognizant:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Hitpoint Test Case</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2107" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2182" uniqueCount="379">
   <si>
     <t>Description</t>
   </si>
@@ -483,18 +590,36 @@
   </si>
   <si>
     <t>01. Create a Global Client (Included Verification of Auto-Created Global Brand_Global Product_Company Client_Company Brand  &amp; Company Product)</t>
+  </si>
+  <si>
+    <t>MLY_Regression</t>
+  </si>
+  <si>
+    <t>MLY_Critical Regression</t>
+  </si>
+  <si>
+    <t>UAE_Critical Regression</t>
+  </si>
+  <si>
+    <t>UAE_Regression</t>
+  </si>
+  <si>
+    <t>Vendor Management</t>
+  </si>
+  <si>
+    <t>CreateGlobalVendor</t>
   </si>
   <si>
     <t xml:space="preserve">1. Create a Global Vendor ( Including verification of Auto-Created Company Vendor)
 </t>
   </si>
   <si>
-    <t>CreateGlobalVendor</t>
-  </si>
-  <si>
     <t>01. Creation of Jobs</t>
   </si>
   <si>
+    <t>Job_Creation</t>
+  </si>
+  <si>
     <t>02. Create SubJobs</t>
   </si>
   <si>
@@ -504,126 +629,234 @@
     <t>06. Create a Job Quote</t>
   </si>
   <si>
+    <t>Create_Client_Approved_Estimate</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>Creating_SubJob</t>
+  </si>
+  <si>
+    <t>TS01. Create and Submit a Time Sheet</t>
+  </si>
+  <si>
+    <t>TS02. To Reject a Time Sheet Line</t>
+  </si>
+  <si>
+    <t>TS03. To Approve a Time Sheet Line</t>
+  </si>
+  <si>
+    <t>ES01. Create and Submit an Expense Sheet</t>
+  </si>
+  <si>
+    <t>ES02. To Reject a Expense Sheet</t>
+  </si>
+  <si>
+    <t>ES03. To Approve a Expense Sheet (OpCo)</t>
+  </si>
+  <si>
+    <t>ES04. To Approve a Expense Sheet (SSC)</t>
+  </si>
+  <si>
+    <t>Approve_Expense_SSC</t>
+  </si>
+  <si>
+    <t>ApproveSSC</t>
+  </si>
+  <si>
+    <t>01. Enter a Vendor Invoice - From Purchase Order (PO)</t>
+  </si>
+  <si>
+    <t>03. Invoice rejection process</t>
+  </si>
+  <si>
+    <t>02. Invoice Approval (Line Level)</t>
+  </si>
+  <si>
+    <t>04. Post Vendor Journal</t>
+  </si>
+  <si>
+    <t>07. Create a Job Purchase Order</t>
+  </si>
+  <si>
+    <t>09. Rejecting a Purchase Order</t>
+  </si>
+  <si>
+    <t>10. Approving a Purchase Order</t>
+  </si>
+  <si>
+    <t>Invoice Lookups</t>
+  </si>
+  <si>
+    <t>InvoiceLookups</t>
+  </si>
+  <si>
+    <t>InvoiceLookUps</t>
+  </si>
+  <si>
+    <t>Client_Invoice_With_Hitpoint_Integration</t>
+  </si>
+  <si>
+    <t>Hitpoint_For_Client_Invoice</t>
+  </si>
+  <si>
+    <t>Hitpoint</t>
+  </si>
+  <si>
+    <t>13. Fixed Asset Purchase Order</t>
+  </si>
+  <si>
+    <t>Create an Accrual Job by Job</t>
+  </si>
+  <si>
     <t>CreateAnAccrualJobByJob</t>
   </si>
   <si>
-    <t>Create an Accrual Job by Job</t>
-  </si>
-  <si>
-    <t>07. Create a Job Purchase Order</t>
-  </si>
-  <si>
-    <t>10. Approving a Purchase Order</t>
-  </si>
-  <si>
-    <t>09. Rejecting a Purchase Order</t>
-  </si>
-  <si>
     <t>Create an Accrual for a Group of Jobs</t>
   </si>
   <si>
-    <t>01. Enter a Vendor Invoice - From Purchase Order (PO)</t>
-  </si>
-  <si>
-    <t>02. Invoice Approval (Line Level)</t>
-  </si>
-  <si>
-    <t>04. Post Vendor Journal</t>
-  </si>
-  <si>
-    <t>03. Invoice rejection process</t>
+    <t>CreateAnAccrualForGroupOfJobs</t>
+  </si>
+  <si>
+    <t>CreateAnAccrualGroupOfJobs</t>
+  </si>
+  <si>
+    <t>Invoicing Plans - Invoice on Account</t>
+  </si>
+  <si>
+    <t>InvoicingPlans_InvoiceAccount</t>
+  </si>
+  <si>
+    <t>InvoicePlansOnAccount</t>
+  </si>
+  <si>
+    <t>Job Invoice Allocation (Without WIP)</t>
+  </si>
+  <si>
+    <t>JobInvoicing_WithoutWIP</t>
   </si>
   <si>
     <t>05. Reverse an Invoice</t>
   </si>
   <si>
+    <t>ReverseInvoice</t>
+  </si>
+  <si>
     <t>06. Credit Note Processing - With PO</t>
   </si>
   <si>
+    <t>CreditNotePO</t>
+  </si>
+  <si>
+    <t>CreateNotePO</t>
+  </si>
+  <si>
     <t>07. Reverse a Credit Note</t>
   </si>
   <si>
-    <t>TS01. Create and Submit a Time Sheet</t>
-  </si>
-  <si>
-    <t>TS03. To Approve a Time Sheet Line</t>
-  </si>
-  <si>
-    <t>TS02. To Reject a Time Sheet Line</t>
-  </si>
-  <si>
-    <t>ES01. Create and Submit an Expense Sheet</t>
-  </si>
-  <si>
-    <t>ES03. To Approve a Expense Sheet (OpCo)</t>
-  </si>
-  <si>
-    <t>ES02. To Reject a Expense Sheet</t>
-  </si>
-  <si>
-    <t>13. Fixed Asset Purchase Order</t>
-  </si>
-  <si>
-    <t>Invoice Lookups</t>
-  </si>
-  <si>
-    <t>InvoiceLookUps</t>
-  </si>
-  <si>
-    <t>InvoiceLookups</t>
-  </si>
-  <si>
-    <t>Invoicing Plans - Invoice on Account</t>
-  </si>
-  <si>
-    <t>Job Invoice Allocation (Without WIP)</t>
+    <t>ReverseCreditNote</t>
+  </si>
+  <si>
+    <t>CreateInvoice_Dependency</t>
+  </si>
+  <si>
+    <t>postVendorJournal_Dependency</t>
+  </si>
+  <si>
+    <t>Approve_Vendor_Invoice</t>
+  </si>
+  <si>
+    <t>Foreign_Client_Creation</t>
+  </si>
+  <si>
+    <t>Time and Material Invoicing</t>
+  </si>
+  <si>
+    <t>TM_Invoice</t>
+  </si>
+  <si>
+    <t>Invoicing Plans - Direct Invoicing</t>
+  </si>
+  <si>
+    <t>InvoicingPlans_DriectInvoice</t>
+  </si>
+  <si>
+    <t>InvoicePlansDirectInvoice</t>
   </si>
   <si>
     <t>Partial Invoicing Carry Forward</t>
   </si>
   <si>
-    <t>Time and Material Invoicing</t>
+    <t>PartialInvoicing_CarryForward</t>
+  </si>
+  <si>
+    <t>CarryForward</t>
   </si>
   <si>
     <t>Combined Invoicing (On Account Invoicing + T&amp;M Invoicing)</t>
   </si>
   <si>
-    <t>Invoicing Plans - Direct Invoicing</t>
+    <t>Combined_Invoice</t>
+  </si>
+  <si>
+    <t>Create_Combined_Invoice</t>
+  </si>
+  <si>
+    <t>Blanket Invoicing</t>
+  </si>
+  <si>
+    <t>Blanket_Invoice</t>
+  </si>
+  <si>
+    <t>Create_Blanket_Invoice</t>
+  </si>
+  <si>
+    <t>Customer Payment for Single Invoice</t>
+  </si>
+  <si>
+    <t>Post a Customer Payment</t>
+  </si>
+  <si>
+    <t>Customer Payments - Multiple Invoices or Partial Payments</t>
+  </si>
+  <si>
+    <t>Customer_Payment_for_Multiple_Invoice</t>
+  </si>
+  <si>
+    <t>MultiplePayment</t>
+  </si>
+  <si>
+    <t>Post a Customer Payment in Foreign currency</t>
+  </si>
+  <si>
+    <t>Customer_Payment_for_Foreign_Invoice</t>
+  </si>
+  <si>
+    <t>ForeignPayment</t>
   </si>
   <si>
     <t>Job Crediting</t>
   </si>
   <si>
-    <t>Blanket Invoicing</t>
-  </si>
-  <si>
-    <t>Customer Payment for Single Invoice</t>
-  </si>
-  <si>
-    <t>Post a Customer Payment</t>
-  </si>
-  <si>
-    <t>Customer_Payment_for_Multiple_Invoice</t>
-  </si>
-  <si>
-    <t>MultiplePayment</t>
-  </si>
-  <si>
-    <t>Post a Customer Payment in Foreign currency</t>
-  </si>
-  <si>
-    <t>Customer_Payment_for_Foreign_Invoice</t>
-  </si>
-  <si>
-    <t>ForeignPayment</t>
-  </si>
-  <si>
-    <t>Customer Payments - Multiple Invoices or Partial Payments</t>
+    <t>Job_Crediting</t>
+  </si>
+  <si>
+    <t>Create_Job_Creaditing</t>
   </si>
   <si>
     <t>Writing Off Bad Debts</t>
   </si>
   <si>
+    <t>Import Budget Model</t>
+  </si>
+  <si>
+    <t>Import_Budget_Model</t>
+  </si>
+  <si>
+    <t>Import_Budget_Template</t>
+  </si>
+  <si>
     <t>01. Create a General Journal</t>
   </si>
   <si>
@@ -636,24 +869,390 @@
     <t>PostJournalEntries</t>
   </si>
   <si>
+    <t>05. Reverse a General Journal</t>
+  </si>
+  <si>
+    <t>02. Create a Reversing General Journal</t>
+  </si>
+  <si>
     <t>CreateReverseGL</t>
   </si>
   <si>
+    <t>06. Create Currency Journal</t>
+  </si>
+  <si>
     <t>CurrencyJournal</t>
   </si>
   <si>
-    <t>05. Reverse a General Journal</t>
-  </si>
-  <si>
-    <t>02. Create a Reversing General Journal</t>
-  </si>
-  <si>
-    <t>06. Create Currency Journal</t>
-  </si>
-  <si>
     <t>03. Copying General Journals</t>
   </si>
   <si>
+    <t>11. Reallocate Job Entries</t>
+  </si>
+  <si>
+    <t>ReallocateJobEntries</t>
+  </si>
+  <si>
+    <t>01. Create a Payment Selection</t>
+  </si>
+  <si>
+    <t>CreatePaymentSelection</t>
+  </si>
+  <si>
+    <t>CreatePayment</t>
+  </si>
+  <si>
+    <t>Banking</t>
+  </si>
+  <si>
+    <t>02. Change Payment Selection</t>
+  </si>
+  <si>
+    <t>ChangePaymentSelection</t>
+  </si>
+  <si>
+    <t>ChangePayment_Main</t>
+  </si>
+  <si>
+    <t>03. Create Payment File</t>
+  </si>
+  <si>
+    <t>CreatePaymentFile</t>
+  </si>
+  <si>
+    <t>04. Print Payment Remittance</t>
+  </si>
+  <si>
+    <t>PrintPaymentRemittance</t>
+  </si>
+  <si>
+    <t>PrintPaymentRemittance_Main</t>
+  </si>
+  <si>
+    <t>06. Banking Reconciliation</t>
+  </si>
+  <si>
+    <t>Banking_Reconciliation</t>
+  </si>
+  <si>
+    <t>Bank_Reconciliation</t>
+  </si>
+  <si>
+    <t>Create Direct Debit File</t>
+  </si>
+  <si>
+    <t>CreateDirectDebitFile</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>05. Void a Payment</t>
+  </si>
+  <si>
+    <t>VoidaPayment</t>
+  </si>
+  <si>
+    <t>VoidPayment</t>
+  </si>
+  <si>
+    <t>08. Remittance Email</t>
+  </si>
+  <si>
+    <t>Remittanceemail</t>
+  </si>
+  <si>
+    <t>RemittanceEmail</t>
+  </si>
+  <si>
+    <t>RePrint_Banking_Reconciliation</t>
+  </si>
+  <si>
+    <t>07. Reprint Previous Reconciliations</t>
+  </si>
+  <si>
+    <t>01. Create New Employee</t>
+  </si>
+  <si>
+    <t>Employee &amp; User Management</t>
+  </si>
+  <si>
+    <t>02. Create New User</t>
+  </si>
+  <si>
+    <t>04. Changing a Employee</t>
+  </si>
+  <si>
+    <t>changeEmployee</t>
+  </si>
+  <si>
+    <t>06. Blocking a User</t>
+  </si>
+  <si>
+    <t>05. Changing a User</t>
+  </si>
+  <si>
+    <t>changeUser</t>
+  </si>
+  <si>
+    <t>03. Create Employee Employee Vendor &amp; User</t>
+  </si>
+  <si>
+    <t>blockUser</t>
+  </si>
+  <si>
+    <t>02. Create a Global Brand</t>
+  </si>
+  <si>
+    <t>03. Create a Global Product</t>
+  </si>
+  <si>
+    <t>04. Create a Company Client</t>
+  </si>
+  <si>
+    <t>05. Create a Company Brand</t>
+  </si>
+  <si>
+    <t>06. Create a Company Product</t>
+  </si>
+  <si>
+    <t>CompanyProductCreation</t>
+  </si>
+  <si>
+    <t>07. Amend a Global Client</t>
+  </si>
+  <si>
+    <t>08. Amend a Global Brand</t>
+  </si>
+  <si>
+    <t>09. Amend a Global Product</t>
+  </si>
+  <si>
+    <t>10. Amend a Company Client</t>
+  </si>
+  <si>
+    <t>11. Amend a Company Brand</t>
+  </si>
+  <si>
+    <t>12. Amend a Company Product</t>
+  </si>
+  <si>
+    <t>AmendCompanyProduct</t>
+  </si>
+  <si>
+    <t>AmendCompanyproduct</t>
+  </si>
+  <si>
+    <t>18. Block a Company Product</t>
+  </si>
+  <si>
+    <t>17. Block a Company Brand</t>
+  </si>
+  <si>
+    <t>16. Block a Company Client</t>
+  </si>
+  <si>
+    <t>15. Block a Global Product</t>
+  </si>
+  <si>
+    <t>14. Block a Global Brand</t>
+  </si>
+  <si>
+    <t>13. Block a Global Client</t>
+  </si>
+  <si>
+    <t>2. Create a Company Vendor</t>
+  </si>
+  <si>
+    <t>3. Amend a Global Vendor</t>
+  </si>
+  <si>
+    <t>AmendGlobalVendor</t>
+  </si>
+  <si>
+    <t>4. Amend a Company Vendor</t>
+  </si>
+  <si>
+    <t>AmendComapnyVendor</t>
+  </si>
+  <si>
+    <t>AmendCompanyVendor</t>
+  </si>
+  <si>
+    <t>6. Block a Company Vendor</t>
+  </si>
+  <si>
+    <t>5. Block a Global Vendor</t>
+  </si>
+  <si>
+    <t>ApproveAbsence</t>
+  </si>
+  <si>
+    <t>ABS03. Approving an Absence Request</t>
+  </si>
+  <si>
+    <t>ABS02. Rejecting an Absence Request</t>
+  </si>
+  <si>
+    <t>ABS01. Creating Absense Request</t>
+  </si>
+  <si>
+    <t>ABS06. Approving an Absence Allownace Request</t>
+  </si>
+  <si>
+    <t>ABS05. Rejecting an Absence Allowance Request</t>
+  </si>
+  <si>
+    <t>ABS04. Creating Absense Alowance Request</t>
+  </si>
+  <si>
+    <t>Updating_Perodic_Balance</t>
+  </si>
+  <si>
+    <t>Update_Perodic_Balance</t>
+  </si>
+  <si>
+    <t>Update Periodic Balance</t>
+  </si>
+  <si>
+    <t>12. Job Closure</t>
+  </si>
+  <si>
+    <t>JobClosure</t>
+  </si>
+  <si>
+    <t>Job Closure</t>
+  </si>
+  <si>
+    <t>Job Quotation</t>
+  </si>
+  <si>
+    <t>Quote_MPL</t>
+  </si>
+  <si>
+    <t>validateQuotePdf</t>
+  </si>
+  <si>
+    <t>MPL Layouts</t>
+  </si>
+  <si>
+    <t>Job Order Confirmation</t>
+  </si>
+  <si>
+    <t>JobOrderConfirmation_MPL</t>
+  </si>
+  <si>
+    <t>jobOrderConfirmation</t>
+  </si>
+  <si>
+    <t>Job Budget - Estimate</t>
+  </si>
+  <si>
+    <t>BudgetEstimateMPL</t>
+  </si>
+  <si>
+    <t>ValidateJobPdf</t>
+  </si>
+  <si>
+    <t>General Journal</t>
+  </si>
+  <si>
+    <t>PostingJournal_MPL</t>
+  </si>
+  <si>
+    <t>validatePostingJournal</t>
+  </si>
+  <si>
+    <t>Draft Invoice</t>
+  </si>
+  <si>
+    <t>DraftInvoice_MPL</t>
+  </si>
+  <si>
+    <t>DraftInvoice</t>
+  </si>
+  <si>
+    <t>Invoice</t>
+  </si>
+  <si>
+    <t>InvoiceMPL</t>
+  </si>
+  <si>
+    <t>Payment Order</t>
+  </si>
+  <si>
+    <t>PaymentOrder_MPL</t>
+  </si>
+  <si>
+    <t>PrintPaymentOrder</t>
+  </si>
+  <si>
+    <t>Payment Selection</t>
+  </si>
+  <si>
+    <t>PaymentSelection_MPL</t>
+  </si>
+  <si>
+    <t>Time Sheet</t>
+  </si>
+  <si>
+    <t>TimesheetMPL</t>
+  </si>
+  <si>
+    <t>MPLTimesheet</t>
+  </si>
+  <si>
+    <t>Expense Sheet</t>
+  </si>
+  <si>
+    <t>ExpensesMPL</t>
+  </si>
+  <si>
+    <t>MPLExpenses</t>
+  </si>
+  <si>
+    <t>Draft Credit Note</t>
+  </si>
+  <si>
+    <t>DraftCreditMemo_MPL</t>
+  </si>
+  <si>
+    <t>DraftCreditMemo</t>
+  </si>
+  <si>
+    <t>Credit Note</t>
+  </si>
+  <si>
+    <t>CreditMemo_MPL</t>
+  </si>
+  <si>
+    <t>CreditMemo</t>
+  </si>
+  <si>
+    <t>Purchase Order</t>
+  </si>
+  <si>
+    <t>PurchaseOrder_MPL</t>
+  </si>
+  <si>
+    <t>PurchaseOrderMPL</t>
+  </si>
+  <si>
+    <t>Bank Reconciliation in Progress</t>
+  </si>
+  <si>
+    <t>BankingReconciliation_InProgress_MPL</t>
+  </si>
+  <si>
+    <t>Banking_Reconciliation_InProgress</t>
+  </si>
+  <si>
+    <t>Bank Reconciliation</t>
+  </si>
+  <si>
+    <t>BankingReconciliation_MPL</t>
+  </si>
+  <si>
     <t>01. Create Fixed Asset</t>
   </si>
   <si>
@@ -666,457 +1265,16 @@
     <t>04. Fixed Assets Adjustments (Revaluation)</t>
   </si>
   <si>
+    <t>FixedAssetResolution</t>
+  </si>
+  <si>
     <t>06. Fixed Assets Disposal</t>
   </si>
   <si>
-    <t>01. Create New Employee</t>
-  </si>
-  <si>
-    <t>02. Create New User</t>
-  </si>
-  <si>
-    <t>04. Changing a Employee</t>
-  </si>
-  <si>
-    <t>06. Blocking a User</t>
-  </si>
-  <si>
-    <t>05. Changing a User</t>
-  </si>
-  <si>
-    <t>03. Create Employee Employee Vendor &amp; User</t>
-  </si>
-  <si>
-    <t>01. Create a Payment Selection</t>
-  </si>
-  <si>
-    <t>02. Change Payment Selection</t>
-  </si>
-  <si>
-    <t>03. Create Payment File</t>
-  </si>
-  <si>
-    <t>04. Print Payment Remittance</t>
-  </si>
-  <si>
-    <t>06. Banking Reconciliation</t>
-  </si>
-  <si>
-    <t>ABS01. Creating Absense Request</t>
-  </si>
-  <si>
-    <t>ABS02. Rejecting an Absence Request</t>
-  </si>
-  <si>
-    <t>ABS03. Approving an Absence Request</t>
-  </si>
-  <si>
-    <t>ABS04. Creating Absense Alowance Request</t>
-  </si>
-  <si>
-    <t>ABS05. Rejecting an Absence Allowance Request</t>
-  </si>
-  <si>
-    <t>ABS06. Approving an Absence Allownace Request</t>
-  </si>
-  <si>
-    <t>11. Reallocate Job Entries</t>
-  </si>
-  <si>
-    <t>12. Job Closure</t>
-  </si>
-  <si>
-    <t>MLY_Regression</t>
-  </si>
-  <si>
-    <t>MLY_Critical Regression</t>
-  </si>
-  <si>
-    <t>Employee &amp; User Management</t>
-  </si>
-  <si>
-    <t>ES04. To Approve a Expense Sheet (SSC)</t>
-  </si>
-  <si>
-    <t>Approve_Expense_SSC</t>
-  </si>
-  <si>
-    <t>ApproveSSC</t>
-  </si>
-  <si>
-    <t>CreatePaymentSelection</t>
-  </si>
-  <si>
-    <t>ChangePaymentSelection</t>
-  </si>
-  <si>
-    <t>CreatePayment</t>
-  </si>
-  <si>
-    <t>ChangePayment_Main</t>
-  </si>
-  <si>
-    <t>PrintPaymentRemittance</t>
-  </si>
-  <si>
-    <t>PrintPaymentRemittance_Main</t>
-  </si>
-  <si>
-    <t>Banking</t>
-  </si>
-  <si>
-    <t>CreateAnAccrualForGroupOfJobs</t>
-  </si>
-  <si>
-    <t>CreateAnAccrualGroupOfJobs</t>
-  </si>
-  <si>
-    <t>ReallocateJobEntries</t>
-  </si>
-  <si>
-    <t>CreatePaymentFile</t>
-  </si>
-  <si>
-    <t>Quote_MPL</t>
-  </si>
-  <si>
-    <t>validateQuotePdf</t>
-  </si>
-  <si>
-    <t>MPL Layouts</t>
-  </si>
-  <si>
-    <t>BudgetEstimateMPL</t>
-  </si>
-  <si>
-    <t>ValidateJobPdf</t>
-  </si>
-  <si>
-    <t>PostingJournal_MPL</t>
-  </si>
-  <si>
-    <t>validatePostingJournal</t>
-  </si>
-  <si>
-    <t>DraftInvoice_MPL</t>
-  </si>
-  <si>
-    <t>DraftInvoice</t>
-  </si>
-  <si>
-    <t>Invoice</t>
-  </si>
-  <si>
-    <t>InvoiceMPL</t>
-  </si>
-  <si>
-    <t>ApproveAbsence</t>
-  </si>
-  <si>
-    <t>FixedAssetResolution</t>
-  </si>
-  <si>
-    <t>CarryForward</t>
-  </si>
-  <si>
-    <t>PartialInvoicing_CarryForward</t>
-  </si>
-  <si>
-    <t>JobInvoicing_WithoutWIP</t>
-  </si>
-  <si>
-    <t>InvoicingPlans_DriectInvoice</t>
-  </si>
-  <si>
-    <t>InvoicingPlans_InvoiceAccount</t>
-  </si>
-  <si>
-    <t>InvoicePlansDirectInvoice</t>
-  </si>
-  <si>
-    <t>InvoicePlansOnAccount</t>
-  </si>
-  <si>
-    <t>TM_Invoice</t>
-  </si>
-  <si>
-    <t>02. Create a Global Brand</t>
-  </si>
-  <si>
-    <t>03. Create a Global Product</t>
-  </si>
-  <si>
-    <t>04. Create a Company Client</t>
-  </si>
-  <si>
-    <t>05. Create a Company Brand</t>
-  </si>
-  <si>
-    <t>06. Create a Company Product</t>
-  </si>
-  <si>
-    <t>07. Amend a Global Client</t>
-  </si>
-  <si>
-    <t>08. Amend a Global Brand</t>
-  </si>
-  <si>
-    <t>09. Amend a Global Product</t>
-  </si>
-  <si>
-    <t>10. Amend a Company Client</t>
-  </si>
-  <si>
-    <t>11. Amend a Company Brand</t>
-  </si>
-  <si>
-    <t>12. Amend a Company Product</t>
-  </si>
-  <si>
-    <t>18. Block a Company Product</t>
-  </si>
-  <si>
-    <t>17. Block a Company Brand</t>
-  </si>
-  <si>
-    <t>16. Block a Company Client</t>
-  </si>
-  <si>
-    <t>15. Block a Global Product</t>
-  </si>
-  <si>
-    <t>14. Block a Global Brand</t>
-  </si>
-  <si>
-    <t>13. Block a Global Client</t>
-  </si>
-  <si>
-    <t>2. Create a Company Vendor</t>
-  </si>
-  <si>
-    <t>3. Amend a Global Vendor</t>
-  </si>
-  <si>
-    <t>4. Amend a Company Vendor</t>
-  </si>
-  <si>
-    <t>6. Block a Company Vendor</t>
-  </si>
-  <si>
-    <t>5. Block a Global Vendor</t>
-  </si>
-  <si>
-    <t>PaymentSelection_MPL</t>
-  </si>
-  <si>
-    <t>changeEmployee</t>
-  </si>
-  <si>
-    <t>changeUser</t>
-  </si>
-  <si>
-    <t>Vendor Management</t>
-  </si>
-  <si>
-    <t>ReverseInvoice</t>
-  </si>
-  <si>
-    <t>CreditNotePO</t>
-  </si>
-  <si>
-    <t>CreateNotePO</t>
-  </si>
-  <si>
-    <t>ReverseCreditNote</t>
-  </si>
-  <si>
     <t>AssetDisposal</t>
   </si>
   <si>
-    <t>CompanyProductCreation</t>
-  </si>
-  <si>
-    <t>AmendCompanyProduct</t>
-  </si>
-  <si>
-    <t>AmendCompanyproduct</t>
-  </si>
-  <si>
-    <t>AmendGlobalVendor</t>
-  </si>
-  <si>
-    <t>AmendComapnyVendor</t>
-  </si>
-  <si>
-    <t>AmendCompanyVendor</t>
-  </si>
-  <si>
-    <t>JobClosure</t>
-  </si>
-  <si>
-    <t>Job Closure</t>
-  </si>
-  <si>
-    <t>PaymentOrder_MPL</t>
-  </si>
-  <si>
-    <t>PrintPaymentOrder</t>
-  </si>
-  <si>
-    <t>TimesheetMPL</t>
-  </si>
-  <si>
-    <t>MPLTimesheet</t>
-  </si>
-  <si>
-    <t>ExpensesMPL</t>
-  </si>
-  <si>
-    <t>MPLExpenses</t>
-  </si>
-  <si>
-    <t>UAE_Critical Regression</t>
-  </si>
-  <si>
-    <t>UAE_Regression</t>
-  </si>
-  <si>
-    <t>Job_Creation</t>
-  </si>
-  <si>
-    <t>Combined_Invoice</t>
-  </si>
-  <si>
-    <t>Create_Combined_Invoice</t>
-  </si>
-  <si>
-    <t>Blanket_Invoice</t>
-  </si>
-  <si>
-    <t>Create_Blanket_Invoice</t>
-  </si>
-  <si>
-    <t>Create_Job_Creaditing</t>
-  </si>
-  <si>
-    <t>Job_Crediting</t>
-  </si>
-  <si>
-    <t>Import Budget Model</t>
-  </si>
-  <si>
-    <t>Import_Budget_Model</t>
-  </si>
-  <si>
-    <t>Import_Budget_Template</t>
-  </si>
-  <si>
-    <t>Update_Perodic_Balance</t>
-  </si>
-  <si>
-    <t>Updating_Perodic_Balance</t>
-  </si>
-  <si>
-    <t>Update Periodic Balance</t>
-  </si>
-  <si>
-    <t>DraftCreditMemo</t>
-  </si>
-  <si>
-    <t>DraftCreditMemo_MPL</t>
-  </si>
-  <si>
-    <t>CreditMemo</t>
-  </si>
-  <si>
-    <t>CreditMemo_MPL</t>
-  </si>
-  <si>
-    <t>Create_Client_Approved_Estimate</t>
-  </si>
-  <si>
     <t>08. Create a Purchase Order from a Job Budget</t>
-  </si>
-  <si>
-    <t>Banking_Reconciliation</t>
-  </si>
-  <si>
-    <t>Bank_Reconciliation</t>
-  </si>
-  <si>
-    <t>Create Direct Debit File</t>
-  </si>
-  <si>
-    <t>CreateDirectDebitFile</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>PurchaseOrder_MPL</t>
-  </si>
-  <si>
-    <t>PurchaseOrderMPL</t>
-  </si>
-  <si>
-    <t>Purchase Order</t>
-  </si>
-  <si>
-    <t>Draft Invoice</t>
-  </si>
-  <si>
-    <t>Draft Credit Note</t>
-  </si>
-  <si>
-    <t>Bank Reconciliation in Progress</t>
-  </si>
-  <si>
-    <t>Bank Reconciliation</t>
-  </si>
-  <si>
-    <t>Time Sheet</t>
-  </si>
-  <si>
-    <t>Job Quotation</t>
-  </si>
-  <si>
-    <t>Payment Order</t>
-  </si>
-  <si>
-    <t>Job Order Confirmation</t>
-  </si>
-  <si>
-    <t>Payment Selection</t>
-  </si>
-  <si>
-    <t>Credit Note</t>
-  </si>
-  <si>
-    <t>Job Budget - Estimate</t>
-  </si>
-  <si>
-    <t>General Journal</t>
-  </si>
-  <si>
-    <t>Expense Sheet</t>
-  </si>
-  <si>
-    <t>BankingReconciliation_MPL</t>
-  </si>
-  <si>
-    <t>Banking_Reconciliation_InProgress</t>
-  </si>
-  <si>
-    <t>BankingReconciliation_InProgress_MPL</t>
-  </si>
-  <si>
-    <t>JobOrderConfirmation_MPL</t>
-  </si>
-  <si>
-    <t>jobOrderConfirmation</t>
-  </si>
-  <si>
-    <t>NO</t>
   </si>
   <si>
     <t>validatePaymentSelectionMPL</t>
@@ -1126,7 +1284,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1153,6 +1311,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1206,18 +1377,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1225,7 +1396,72 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="48">
+  <dxfs count="56">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF321547"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="0"/>
@@ -1960,23 +2196,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M124"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
-      <selection activeCell="E117" sqref="E117"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="52" style="2" customWidth="1"/>
     <col min="2" max="2" width="29" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.42578125" style="2" customWidth="1"/>
     <col min="4" max="4" width="28.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.28515625" style="2" customWidth="1"/>
     <col min="6" max="6" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.85546875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="11" style="9" customWidth="1"/>
+    <col min="8" max="8" width="11" style="6" customWidth="1"/>
     <col min="9" max="9" width="15.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="22" style="2" customWidth="1"/>
     <col min="11" max="11" width="15.140625" style="2" bestFit="1" customWidth="1"/>
@@ -2005,19 +2241,19 @@
         <v>117</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>313</v>
+        <v>151</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>152</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>87</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>314</v>
+        <v>153</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>230</v>
+        <v>150</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>91</v>
@@ -2040,7 +2276,7 @@
         <v>119</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>6</v>
+        <v>163</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>6</v>
@@ -2062,20 +2298,20 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>150</v>
+      <c r="A3" s="7" t="s">
+        <v>156</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>293</v>
+        <v>154</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>6</v>
+        <v>163</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>6</v>
@@ -2098,19 +2334,19 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>315</v>
+        <v>158</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>121</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>6</v>
+        <v>163</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>6</v>
@@ -2133,19 +2369,19 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>164</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>121</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>6</v>
+        <v>163</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>6</v>
@@ -2168,7 +2404,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>11</v>
@@ -2180,7 +2416,7 @@
         <v>121</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>6</v>
+        <v>163</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>6</v>
@@ -2203,19 +2439,19 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>332</v>
+        <v>162</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>121</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>360</v>
+        <v>163</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>6</v>
@@ -2238,19 +2474,19 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>333</v>
+        <v>165</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>110</v>
+        <v>12</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>6</v>
+        <v>163</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>6</v>
@@ -2273,19 +2509,19 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>6</v>
+        <v>163</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>6</v>
@@ -2308,19 +2544,19 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>156</v>
+        <v>29</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>156</v>
+        <v>29</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>6</v>
+        <v>163</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>6</v>
@@ -2343,19 +2579,19 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>243</v>
+        <v>19</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>244</v>
+        <v>10</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>6</v>
+        <v>163</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>6</v>
@@ -2378,19 +2614,19 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>6</v>
+        <v>163</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>6</v>
@@ -2413,19 +2649,19 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>6</v>
+        <v>163</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>6</v>
@@ -2448,19 +2684,19 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>24</v>
+        <v>172</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>24</v>
+        <v>173</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>6</v>
+        <v>163</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>6</v>
@@ -2483,10 +2719,10 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>115</v>
+        <v>21</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>21</v>
@@ -2495,7 +2731,7 @@
         <v>121</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>6</v>
+        <v>163</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>6</v>
@@ -2518,19 +2754,19 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>6</v>
+        <v>163</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>6</v>
@@ -2553,19 +2789,19 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>6</v>
+        <v>163</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>6</v>
@@ -2588,19 +2824,19 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>122</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>6</v>
+        <v>163</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>6</v>
@@ -2623,19 +2859,19 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>122</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>6</v>
+        <v>163</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>6</v>
@@ -2658,19 +2894,19 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>294</v>
+        <v>25</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>294</v>
+        <v>26</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>122</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>6</v>
+        <v>163</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>6</v>
@@ -2693,146 +2929,177 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>122</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>6</v>
+        <v>163</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="G21" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="I21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M21" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>164</v>
+        <v>136</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>60</v>
+        <v>114</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>6</v>
+        <v>163</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="G22" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="I22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M22" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>295</v>
+        <v>184</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>296</v>
+        <v>185</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L23" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M23" s="2" t="s">
-        <v>6</v>
+        <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="F24" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="G24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H24" s="9"/>
       <c r="I24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M24" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>59</v>
+        <v>133</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>60</v>
+        <v>134</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>6</v>
+        <v>163</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="G25" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="I25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M25" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>297</v>
+        <v>115</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>296</v>
+        <v>21</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>6</v>
+        <v>163</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>6</v>
@@ -2855,65 +3122,89 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="F27" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="G27" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="I27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M27" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>164</v>
+        <v>190</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>59</v>
+        <v>191</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>60</v>
+        <v>192</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>6</v>
+        <v>163</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="G28" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="I28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M28" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>169</v>
+        <v>193</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>12</v>
+        <v>194</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>9</v>
+        <v>195</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>6</v>
+        <v>163</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>6</v>
@@ -2936,19 +3227,19 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>171</v>
+        <v>138</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>31</v>
+        <v>129</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>32</v>
+        <v>129</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>6</v>
+        <v>163</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>6</v>
@@ -2971,19 +3262,19 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>170</v>
+        <v>196</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>29</v>
+        <v>197</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>29</v>
+        <v>134</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>6</v>
+        <v>163</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>6</v>
@@ -3006,19 +3297,19 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>10</v>
+        <v>205</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>6</v>
+        <v>163</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>6</v>
@@ -3026,6 +3317,7 @@
       <c r="G32" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="H32" s="2"/>
       <c r="I32" s="2" t="s">
         <v>6</v>
       </c>
@@ -3041,19 +3333,19 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>44</v>
+        <v>207</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>6</v>
+        <v>163</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>6</v>
@@ -3061,6 +3353,7 @@
       <c r="G33" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="H33" s="2"/>
       <c r="I33" s="2" t="s">
         <v>6</v>
       </c>
@@ -3076,19 +3369,19 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>42</v>
+        <v>206</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>6</v>
+        <v>163</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>6</v>
@@ -3096,6 +3389,7 @@
       <c r="G34" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="H34" s="2"/>
       <c r="I34" s="2" t="s">
         <v>6</v>
       </c>
@@ -3111,19 +3405,19 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>233</v>
+        <v>198</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>234</v>
+        <v>199</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>235</v>
+        <v>199</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>6</v>
+        <v>163</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>6</v>
@@ -3146,90 +3440,65 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>136</v>
+        <v>176</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>114</v>
+        <v>25</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>114</v>
+        <v>26</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>6</v>
+        <v>163</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G36" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="I36" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K36" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L36" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M36" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>178</v>
+        <v>59</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>128</v>
+        <v>60</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>122</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>6</v>
+        <v>163</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G37" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H37" s="10"/>
       <c r="I37" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K37" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L37" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M37" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>133</v>
+        <v>201</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>134</v>
+        <v>202</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>6</v>
+        <v>163</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>6</v>
@@ -3252,89 +3521,65 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>264</v>
+        <v>25</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>266</v>
+        <v>26</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>6</v>
+        <v>163</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G39" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="I39" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K39" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L39" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M39" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>138</v>
+        <v>177</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>129</v>
+        <v>59</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>129</v>
+        <v>60</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>6</v>
+        <v>163</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G40" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="I40" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K40" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L40" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M40" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>180</v>
+        <v>203</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>262</v>
+        <v>204</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>134</v>
+        <v>202</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>6</v>
+        <v>163</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>6</v>
@@ -3357,373 +3602,275 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>137</v>
+        <v>176</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>130</v>
+        <v>25</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>130</v>
+        <v>26</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>6</v>
+        <v>163</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G42" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="I42" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K42" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L42" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M42" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>261</v>
+        <v>59</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>260</v>
+        <v>60</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>6</v>
+        <v>163</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G43" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="I43" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K43" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L43" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M43" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B47" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C47" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D47" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E44" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I44" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K44" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L44" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M44" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D45" s="2" t="s">
+      <c r="E47" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E45" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K45" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L45" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M45" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="D46" s="7" t="s">
+      <c r="E48" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M48" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E46" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H46" s="11"/>
-      <c r="I46" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K46" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="L46" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="M46" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="D47" s="7" t="s">
+      <c r="E49" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M49" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="D50" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="E47" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H47" s="11"/>
-      <c r="I47" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K47" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="L47" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="M47" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="D48" s="7" t="s">
+      <c r="E50" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G50" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H50" s="11"/>
+      <c r="I50" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K50" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L50" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="M50" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="D51" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="E48" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G48" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H48" s="11"/>
-      <c r="I48" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K48" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="L48" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="M48" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H49" s="11"/>
-      <c r="I49" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K49" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="L49" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="M49" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I50" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K50" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L50" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M50" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="E51" s="2" t="s">
-        <v>6</v>
+        <v>163</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G51" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="G51" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H51" s="11"/>
       <c r="I51" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K51" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L51" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M51" s="2" t="s">
+      <c r="K51" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L51" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="M51" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>194</v>
+        <v>223</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>189</v>
+        <v>51</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>190</v>
+        <v>52</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>124</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>6</v>
+        <v>163</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>6</v>
@@ -3746,22 +3893,22 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>191</v>
+        <v>224</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>192</v>
+        <v>49</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>193</v>
+        <v>50</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>124</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>6</v>
+        <v>163</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>6</v>
@@ -3781,19 +3928,19 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>195</v>
+        <v>225</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>53</v>
+        <v>226</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>107</v>
+        <v>227</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>124</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>6</v>
+        <v>163</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>6</v>
@@ -3816,77 +3963,90 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>322</v>
+        <v>228</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>323</v>
+        <v>229</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>324</v>
+        <v>230</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>6</v>
+        <v>163</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="G55" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="I55" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>127</v>
+      <c r="K55" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L55" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M55" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>128</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>6</v>
+        <v>163</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G56" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="G56" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H56" s="11"/>
       <c r="I56" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K56" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L56" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M56" s="2" t="s">
+      <c r="K56" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L56" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="M56" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>197</v>
+        <v>234</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>198</v>
+        <v>53</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>199</v>
+        <v>107</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>6</v>
+        <v>163</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>6</v>
@@ -3908,20 +4068,20 @@
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A58" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>109</v>
+      <c r="A58" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>127</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>6</v>
+        <v>163</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>6</v>
@@ -3943,20 +4103,20 @@
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>200</v>
+      <c r="A59" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>107</v>
+        <v>241</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>127</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>6</v>
+        <v>163</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>6</v>
@@ -3978,20 +4138,20 @@
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>201</v>
+      <c r="A60" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>109</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>127</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>6</v>
+        <v>163</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>6</v>
@@ -4014,19 +4174,19 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>205</v>
+        <v>243</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>109</v>
+        <v>244</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>127</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>6</v>
+        <v>163</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>6</v>
@@ -4048,26 +4208,26 @@
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A62" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>238</v>
+      <c r="A62" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>246</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>242</v>
+        <v>127</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>6</v>
+        <v>163</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>6</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I62" s="2" t="s">
         <v>6</v>
@@ -4084,95 +4244,83 @@
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="B63" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K63" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L63" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M63" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C64" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="C63" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G63" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I63" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K63" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L63" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M63" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A64" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>246</v>
-      </c>
       <c r="D64" s="2" t="s">
-        <v>242</v>
+        <v>127</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>6</v>
+        <v>163</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G64" s="2" t="s">
-        <v>2</v>
-      </c>
       <c r="I64" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K64" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L64" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M64" s="2" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A65" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>241</v>
+      <c r="A65" t="s">
+        <v>248</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>249</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>242</v>
+        <v>121</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>360</v>
+        <v>163</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>6</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I65" s="2" t="s">
         <v>6</v>
@@ -4189,25 +4337,25 @@
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>335</v>
+        <v>250</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>252</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>6</v>
+        <v>163</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>6</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I66" s="2" t="s">
         <v>6</v>
@@ -4224,51 +4372,60 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>337</v>
+        <v>254</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>255</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>337</v>
+        <v>256</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>338</v>
+        <v>163</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>6</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>338</v>
+        <v>6</v>
       </c>
       <c r="I67" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="K67" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L67" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M67" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>48</v>
+      <c r="A68" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>258</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>125</v>
+        <v>253</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>6</v>
+        <v>163</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>6</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I68" s="2" t="s">
         <v>6</v>
@@ -4284,26 +4441,26 @@
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>34</v>
+      <c r="A69" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>261</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>125</v>
+        <v>253</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>6</v>
+        <v>163</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>6</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I69" s="2" t="s">
         <v>6</v>
@@ -4319,131 +4476,113 @@
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>45</v>
+      <c r="A70" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>269</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>125</v>
+        <v>253</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G70" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I70" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K70" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L70" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M70" s="2" t="s">
-        <v>6</v>
+        <v>163</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="B71" s="2" t="s">
+      <c r="A71" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K71" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L71" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M71" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K72" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L72" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M72" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="C71" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G71" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I71" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K71" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L71" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M71" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G72" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I72" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K72" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L72" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M72" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>16</v>
+      <c r="B73" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>261</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>232</v>
+        <v>253</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>6</v>
+        <v>163</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>6</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I73" s="2" t="s">
         <v>6</v>
@@ -4459,55 +4598,37 @@
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>20</v>
+      <c r="A74" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>273</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>232</v>
+        <v>253</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G74" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I74" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K74" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L74" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M74" s="2" t="s">
-        <v>6</v>
+        <v>163</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
-        <v>213</v>
+      <c r="A75" s="3" t="s">
+        <v>262</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>39</v>
+        <v>263</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>291</v>
+        <v>264</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>232</v>
+        <v>253</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>6</v>
+        <v>163</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>6</v>
@@ -4529,72 +4650,51 @@
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
-        <v>214</v>
+      <c r="A76" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>264</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>232</v>
+        <v>253</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G76" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I76" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K76" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L76" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M76" s="2" t="s">
-        <v>6</v>
+        <v>163</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A77" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>292</v>
+      <c r="A77" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>266</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>232</v>
+        <v>253</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>6</v>
+        <v>267</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>6</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>6</v>
+        <v>267</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K77" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L77" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M77" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>216</v>
+        <v>284</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>17</v>
@@ -4603,10 +4703,10 @@
         <v>18</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>232</v>
+        <v>277</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>6</v>
+        <v>163</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>6</v>
@@ -4628,20 +4728,20 @@
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>268</v>
+      <c r="A79" s="2" t="s">
+        <v>276</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>99</v>
+        <v>15</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>99</v>
+        <v>16</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>119</v>
+        <v>277</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>6</v>
+        <v>163</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>6</v>
@@ -4663,20 +4763,20 @@
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>269</v>
+      <c r="A80" s="2" t="s">
+        <v>278</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>119</v>
+        <v>277</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>6</v>
+        <v>163</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>6</v>
@@ -4698,20 +4798,20 @@
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>270</v>
+      <c r="A81" s="2" t="s">
+        <v>279</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>94</v>
+        <v>39</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>95</v>
+        <v>280</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>119</v>
+        <v>277</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>6</v>
+        <v>163</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>6</v>
@@ -4733,20 +4833,20 @@
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>271</v>
+      <c r="A82" s="2" t="s">
+        <v>282</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>93</v>
+        <v>283</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>119</v>
+        <v>277</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>6</v>
+        <v>163</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>6</v>
@@ -4768,20 +4868,20 @@
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>272</v>
+      <c r="A83" s="2" t="s">
+        <v>281</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>141</v>
+        <v>58</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>119</v>
+        <v>277</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>6</v>
@@ -4804,13 +4904,13 @@
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>119</v>
@@ -4839,13 +4939,13 @@
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>119</v>
@@ -4874,13 +4974,13 @@
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>275</v>
+        <v>288</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>119</v>
@@ -4909,13 +5009,13 @@
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>119</v>
@@ -4944,13 +5044,13 @@
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>96</v>
+        <v>141</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>96</v>
+        <v>291</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>119</v>
@@ -4979,13 +5079,13 @@
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>278</v>
+        <v>292</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>300</v>
+        <v>84</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>301</v>
+        <v>84</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>119</v>
@@ -5014,13 +5114,13 @@
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>119</v>
@@ -5049,13 +5149,13 @@
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>280</v>
+        <v>294</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>119</v>
@@ -5084,13 +5184,13 @@
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>119</v>
@@ -5119,13 +5219,13 @@
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>119</v>
@@ -5154,13 +5254,13 @@
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>283</v>
+        <v>297</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>71</v>
+        <v>298</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>72</v>
+        <v>299</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>119</v>
@@ -5189,13 +5289,13 @@
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>284</v>
+        <v>300</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>119</v>
@@ -5224,16 +5324,16 @@
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>285</v>
+        <v>301</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>293</v>
+        <v>119</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>6</v>
@@ -5259,16 +5359,16 @@
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>286</v>
+        <v>302</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>302</v>
+        <v>77</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>302</v>
+        <v>78</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>293</v>
+        <v>119</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>6</v>
@@ -5294,16 +5394,16 @@
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>287</v>
+        <v>303</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>303</v>
+        <v>81</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>304</v>
+        <v>82</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>293</v>
+        <v>119</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>6</v>
@@ -5329,16 +5429,16 @@
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>288</v>
+        <v>304</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>293</v>
+        <v>119</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>6</v>
@@ -5364,16 +5464,16 @@
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>289</v>
+        <v>305</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>293</v>
+        <v>119</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>6</v>
@@ -5399,16 +5499,16 @@
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>325</v>
+        <v>102</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>326</v>
+        <v>103</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>6</v>
@@ -5416,22 +5516,34 @@
       <c r="F101" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="G101" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="I101" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="K101" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L101" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M101" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A102" s="2" t="s">
-        <v>225</v>
+      <c r="A102" t="s">
+        <v>307</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>143</v>
+        <v>308</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>143</v>
+        <v>308</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>6</v>
@@ -5456,17 +5568,17 @@
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A103" s="2" t="s">
-        <v>226</v>
+      <c r="A103" t="s">
+        <v>309</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>147</v>
+        <v>310</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>147</v>
+        <v>311</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>6</v>
@@ -5491,17 +5603,17 @@
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A104" s="2" t="s">
-        <v>227</v>
+      <c r="A104" t="s">
+        <v>312</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>145</v>
+        <v>83</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>145</v>
+        <v>83</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>6</v>
@@ -5526,17 +5638,17 @@
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A105" s="2" t="s">
-        <v>222</v>
+      <c r="A105" t="s">
+        <v>313</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>146</v>
+        <v>74</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>146</v>
+        <v>74</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>6</v>
@@ -5562,13 +5674,13 @@
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>223</v>
+        <v>320</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>144</v>
@@ -5597,13 +5709,13 @@
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>224</v>
+        <v>319</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>258</v>
+        <v>147</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>258</v>
+        <v>147</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>144</v>
@@ -5631,17 +5743,17 @@
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>228</v>
+      <c r="A108" s="2" t="s">
+        <v>318</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>245</v>
+        <v>145</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>245</v>
+        <v>145</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>245</v>
+        <v>144</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>6</v>
@@ -5667,16 +5779,16 @@
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>229</v>
+        <v>317</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>305</v>
+        <v>146</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>305</v>
+        <v>146</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>306</v>
+        <v>144</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>6</v>
@@ -5701,17 +5813,17 @@
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>347</v>
+      <c r="A110" s="2" t="s">
+        <v>316</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>247</v>
+        <v>148</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>248</v>
+        <v>148</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>249</v>
+        <v>144</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>6</v>
@@ -5723,7 +5835,7 @@
         <v>6</v>
       </c>
       <c r="I110" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K110" s="2" t="s">
         <v>6</v>
@@ -5736,17 +5848,17 @@
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>349</v>
+      <c r="A111" s="2" t="s">
+        <v>315</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>358</v>
+        <v>314</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>359</v>
+        <v>314</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>249</v>
+        <v>144</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>6</v>
@@ -5772,16 +5884,16 @@
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>352</v>
+        <v>323</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>250</v>
+        <v>322</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>251</v>
+        <v>321</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>249</v>
+        <v>144</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>6</v>
@@ -5789,34 +5901,22 @@
       <c r="F112" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G112" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="I112" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K112" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L112" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M112" s="2" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>353</v>
+      <c r="A113" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>252</v>
+        <v>325</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>253</v>
+        <v>325</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>249</v>
+        <v>326</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>6</v>
@@ -5841,17 +5941,17 @@
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>342</v>
+      <c r="A114" s="2" t="s">
+        <v>370</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>254</v>
+        <v>47</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>255</v>
+        <v>48</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>249</v>
+        <v>125</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>6</v>
@@ -5876,17 +5976,17 @@
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>256</v>
+      <c r="A115" s="2" t="s">
+        <v>371</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>257</v>
+        <v>33</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>256</v>
+        <v>34</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>249</v>
+        <v>125</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>6</v>
@@ -5911,17 +6011,17 @@
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>348</v>
+      <c r="A116" s="2" t="s">
+        <v>372</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>307</v>
+        <v>45</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>308</v>
+        <v>45</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>249</v>
+        <v>125</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>6</v>
@@ -5946,20 +6046,20 @@
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>350</v>
+      <c r="A117" s="2" t="s">
+        <v>373</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>290</v>
+        <v>374</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>361</v>
+        <v>374</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>249</v>
+        <v>125</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>6</v>
@@ -5981,17 +6081,17 @@
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>346</v>
+      <c r="A118" s="2" t="s">
+        <v>375</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>309</v>
+        <v>35</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>310</v>
+        <v>376</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>249</v>
+        <v>125</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>6</v>
@@ -6016,17 +6116,17 @@
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>354</v>
+      <c r="A119" s="2" t="s">
+        <v>377</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>311</v>
+        <v>110</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>312</v>
+        <v>21</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>249</v>
+        <v>121</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>6</v>
@@ -6052,288 +6152,674 @@
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I120" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K120" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L120" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M120" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>327</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I121" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K121" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L121" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M121" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>331</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I122" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K122" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L122" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M122" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>334</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I123" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K123" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L123" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M123" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>337</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I124" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K124" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L124" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M124" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>340</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I125" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K125" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L125" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M125" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
         <v>343</v>
       </c>
-      <c r="B120" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F120" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G120" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I120" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K120" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L120" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M120" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A121" s="2" t="s">
+      <c r="B126" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I126" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K126" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L126" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M126" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>345</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I127" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K127" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L127" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M127" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>348</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I128" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K128" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L128" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M128" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>350</v>
+      </c>
+      <c r="B129" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="B121" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="C121" s="2" t="s">
+      <c r="C129" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="D129" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="D121" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F121" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G121" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I121" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K121" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L121" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M121" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A122" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F122" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A123" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="B123" s="2" t="s">
+      <c r="E129" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I129" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K129" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L129" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M129" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>353</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I130" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K130" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L130" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M130" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A131" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="B131" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="C123" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A124" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="E124" s="2" t="s">
+      <c r="C131" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I131" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K131" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L131" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M131" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A132" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I132" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K132" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L132" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M132" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A133" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A134" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A135" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="E135" s="2" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M121"/>
-  <conditionalFormatting sqref="A110">
+  <autoFilter ref="A1:M2"/>
+  <conditionalFormatting sqref="A121">
     <cfRule type="expression" dxfId="47" priority="41">
-      <formula>$P110="Passed"</formula>
+      <formula>$P121="Passed"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="46" priority="42">
-      <formula>$P110="Not Ready"</formula>
+      <formula>$P121="Not Ready"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="45" priority="43">
-      <formula>$P110="Retest"</formula>
+      <formula>$P121="Retest"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="44" priority="44">
-      <formula>$P110="Query"</formula>
+      <formula>$P121="Query"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="43" priority="45">
-      <formula>$P110="Blocked"</formula>
+      <formula>$P121="Blocked"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="42" priority="46">
-      <formula>$P110="In Progress"</formula>
+      <formula>$P121="In Progress"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="41" priority="47">
-      <formula>$P110="N/A"</formula>
+      <formula>$P121="N/A"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="40" priority="48">
-      <formula>$P110="Failed"</formula>
+      <formula>$P121="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A111">
+  <conditionalFormatting sqref="A122">
     <cfRule type="expression" dxfId="39" priority="33">
-      <formula>$P111="Passed"</formula>
+      <formula>$P122="Passed"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="38" priority="34">
-      <formula>$P111="Not Ready"</formula>
+      <formula>$P122="Not Ready"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="37" priority="35">
-      <formula>$P111="Retest"</formula>
+      <formula>$P122="Retest"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="36" priority="36">
-      <formula>$P111="Query"</formula>
+      <formula>$P122="Query"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="35" priority="37">
-      <formula>$P111="Blocked"</formula>
+      <formula>$P122="Blocked"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="34" priority="38">
-      <formula>$P111="In Progress"</formula>
+      <formula>$P122="In Progress"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="33" priority="39">
-      <formula>$P111="N/A"</formula>
+      <formula>$P122="N/A"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="32" priority="40">
-      <formula>$P111="Failed"</formula>
+      <formula>$P122="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A112">
+  <conditionalFormatting sqref="A123">
     <cfRule type="expression" dxfId="31" priority="25">
-      <formula>$P112="Passed"</formula>
+      <formula>$P123="Passed"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="30" priority="26">
-      <formula>$P112="Not Ready"</formula>
+      <formula>$P123="Not Ready"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="29" priority="27">
-      <formula>$P112="Retest"</formula>
+      <formula>$P123="Retest"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="28" priority="28">
-      <formula>$P112="Query"</formula>
+      <formula>$P123="Query"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="27" priority="29">
-      <formula>$P112="Blocked"</formula>
+      <formula>$P123="Blocked"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="26" priority="30">
-      <formula>$P112="In Progress"</formula>
+      <formula>$P123="In Progress"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="25" priority="31">
-      <formula>$P112="N/A"</formula>
+      <formula>$P123="N/A"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="24" priority="32">
-      <formula>$P112="Failed"</formula>
+      <formula>$P123="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A114">
+  <conditionalFormatting sqref="A125">
     <cfRule type="expression" dxfId="23" priority="17">
-      <formula>$P114="Passed"</formula>
+      <formula>$P125="Passed"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="22" priority="18">
-      <formula>$P114="Not Ready"</formula>
+      <formula>$P125="Not Ready"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="21" priority="19">
-      <formula>$P114="Retest"</formula>
+      <formula>$P125="Retest"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="20" priority="20">
-      <formula>$P114="Query"</formula>
+      <formula>$P125="Query"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="19" priority="21">
-      <formula>$P114="Blocked"</formula>
+      <formula>$P125="Blocked"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="18" priority="22">
-      <formula>$P114="In Progress"</formula>
+      <formula>$P125="In Progress"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="17" priority="23">
-      <formula>$P114="N/A"</formula>
+      <formula>$P125="N/A"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="16" priority="24">
-      <formula>$P114="Failed"</formula>
+      <formula>$P125="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A115">
+  <conditionalFormatting sqref="A126">
     <cfRule type="expression" dxfId="15" priority="9">
-      <formula>$P115="Passed"</formula>
+      <formula>$P126="Passed"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="14" priority="10">
-      <formula>$P115="Not Ready"</formula>
+      <formula>$P126="Not Ready"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="13" priority="11">
-      <formula>$P115="Retest"</formula>
+      <formula>$P126="Retest"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="12" priority="12">
-      <formula>$P115="Query"</formula>
+      <formula>$P126="Query"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="11" priority="13">
-      <formula>$P115="Blocked"</formula>
+      <formula>$P126="Blocked"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="10" priority="14">
-      <formula>$P115="In Progress"</formula>
+      <formula>$P126="In Progress"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="9" priority="15">
-      <formula>$P115="N/A"</formula>
+      <formula>$P126="N/A"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="8" priority="16">
-      <formula>$P115="Failed"</formula>
+      <formula>$P126="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A113">
+  <conditionalFormatting sqref="A124">
     <cfRule type="expression" dxfId="7" priority="1">
-      <formula>$P113="Passed"</formula>
+      <formula>$P124="Passed"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="6" priority="2">
-      <formula>$P113="Not Ready"</formula>
+      <formula>$P124="Not Ready"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="5" priority="3">
-      <formula>$P113="Retest"</formula>
+      <formula>$P124="Retest"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="4">
-      <formula>$P113="Query"</formula>
+      <formula>$P124="Query"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="3" priority="5">
-      <formula>$P113="Blocked"</formula>
+      <formula>$P124="Blocked"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="6">
-      <formula>$P113="In Progress"</formula>
+      <formula>$P124="In Progress"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="7">
-      <formula>$P113="N/A"</formula>
+      <formula>$P124="N/A"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="8">
-      <formula>$P113="Failed"</formula>
+      <formula>$P124="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/WppRegpack/TestResource/TC_RunManager.xlsx
+++ b/WppRegpack/TestResource/TC_RunManager.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Music\Final Global Scripts Making\WppRegpack\TestResource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\OneDrive - Cognizant\Documents\WPP Global TestScripts\GlobalTestSuiteAutomation\WppRegpack\TestResource\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
     <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GlobalTestCase!$A$1:$M$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GlobalTestCase!$A$1:$O$2</definedName>
     <definedName name="IterationOptions">[1]Sheet1!$A$2:$A$4</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -140,7 +140,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2182" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2452" uniqueCount="381">
   <si>
     <t>Description</t>
   </si>
@@ -1278,6 +1278,12 @@
   </si>
   <si>
     <t>validatePaymentSelectionMPL</t>
+  </si>
+  <si>
+    <t>HK_Critical Regression</t>
+  </si>
+  <si>
+    <t>HK_Regression</t>
   </si>
 </sst>
 </file>
@@ -1396,72 +1402,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="56">
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF321547"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="48">
     <dxf>
       <font>
         <color theme="0"/>
@@ -2197,10 +2138,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M135"/>
+  <dimension ref="A1:O135"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2209,19 +2150,20 @@
     <col min="2" max="2" width="29" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33.42578125" style="2" customWidth="1"/>
     <col min="4" max="4" width="28.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.28515625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="11" style="6" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22" style="2" customWidth="1"/>
+    <col min="5" max="6" width="28.85546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="25.28515625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="11" style="6" customWidth="1"/>
     <col min="11" max="11" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="2"/>
+    <col min="12" max="12" width="22" style="2" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>135</v>
       </c>
@@ -2235,34 +2177,40 @@
         <v>118</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>149</v>
       </c>
@@ -2276,12 +2224,15 @@
         <v>119</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I2" s="2" t="s">
@@ -2290,14 +2241,17 @@
       <c r="K2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="M2" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>156</v>
       </c>
@@ -2311,12 +2265,15 @@
         <v>154</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I3" s="2" t="s">
@@ -2325,14 +2282,17 @@
       <c r="K3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="M3" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>157</v>
       </c>
@@ -2346,12 +2306,15 @@
         <v>121</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I4" s="2" t="s">
@@ -2360,14 +2323,17 @@
       <c r="K4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="M4" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>159</v>
       </c>
@@ -2381,12 +2347,15 @@
         <v>121</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I5" s="2" t="s">
@@ -2395,14 +2364,17 @@
       <c r="K5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L5" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="M5" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>160</v>
       </c>
@@ -2416,12 +2388,15 @@
         <v>121</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I6" s="2" t="s">
@@ -2430,14 +2405,17 @@
       <c r="K6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="M6" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>161</v>
       </c>
@@ -2451,12 +2429,15 @@
         <v>121</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I7" s="2" t="s">
@@ -2465,14 +2446,17 @@
       <c r="K7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="M7" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>165</v>
       </c>
@@ -2486,12 +2470,15 @@
         <v>123</v>
       </c>
       <c r="E8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I8" s="2" t="s">
@@ -2500,14 +2487,17 @@
       <c r="K8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L8" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="M8" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>166</v>
       </c>
@@ -2521,12 +2511,15 @@
         <v>123</v>
       </c>
       <c r="E9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G9" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I9" s="2" t="s">
@@ -2535,14 +2528,17 @@
       <c r="K9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L9" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="M9" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>167</v>
       </c>
@@ -2556,12 +2552,15 @@
         <v>123</v>
       </c>
       <c r="E10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G10" s="2" t="s">
+      <c r="H10" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I10" s="2" t="s">
@@ -2570,14 +2569,17 @@
       <c r="K10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L10" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="M10" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>168</v>
       </c>
@@ -2591,12 +2593,15 @@
         <v>123</v>
       </c>
       <c r="E11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G11" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I11" s="2" t="s">
@@ -2605,14 +2610,17 @@
       <c r="K11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L11" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="M11" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>169</v>
       </c>
@@ -2626,12 +2634,15 @@
         <v>123</v>
       </c>
       <c r="E12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G12" s="2" t="s">
+      <c r="H12" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I12" s="2" t="s">
@@ -2640,14 +2651,17 @@
       <c r="K12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L12" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="M12" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>170</v>
       </c>
@@ -2661,12 +2675,15 @@
         <v>123</v>
       </c>
       <c r="E13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G13" s="2" t="s">
+      <c r="H13" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I13" s="2" t="s">
@@ -2675,14 +2692,17 @@
       <c r="K13" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L13" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="M13" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>171</v>
       </c>
@@ -2696,12 +2716,15 @@
         <v>123</v>
       </c>
       <c r="E14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G14" s="2" t="s">
+      <c r="H14" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I14" s="2" t="s">
@@ -2710,14 +2733,17 @@
       <c r="K14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L14" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="M14" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>178</v>
       </c>
@@ -2731,12 +2757,15 @@
         <v>121</v>
       </c>
       <c r="E15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G15" s="2" t="s">
+      <c r="H15" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I15" s="2" t="s">
@@ -2745,14 +2774,17 @@
       <c r="K15" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L15" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="M15" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>179</v>
       </c>
@@ -2766,12 +2798,15 @@
         <v>121</v>
       </c>
       <c r="E16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G16" s="2" t="s">
+      <c r="H16" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I16" s="2" t="s">
@@ -2780,14 +2815,17 @@
       <c r="K16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L16" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="M16" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>180</v>
       </c>
@@ -2801,12 +2839,15 @@
         <v>121</v>
       </c>
       <c r="E17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G17" s="2" t="s">
+      <c r="H17" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I17" s="2" t="s">
@@ -2815,14 +2856,17 @@
       <c r="K17" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L17" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="M17" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>174</v>
       </c>
@@ -2836,12 +2880,15 @@
         <v>122</v>
       </c>
       <c r="E18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G18" s="2" t="s">
+      <c r="H18" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I18" s="2" t="s">
@@ -2850,14 +2897,17 @@
       <c r="K18" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L18" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="M18" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>175</v>
       </c>
@@ -2871,12 +2921,15 @@
         <v>122</v>
       </c>
       <c r="E19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F19" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G19" s="2" t="s">
+      <c r="H19" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I19" s="2" t="s">
@@ -2885,14 +2938,17 @@
       <c r="K19" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L19" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="M19" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>176</v>
       </c>
@@ -2906,12 +2962,15 @@
         <v>122</v>
       </c>
       <c r="E20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F20" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G20" s="2" t="s">
+      <c r="H20" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I20" s="2" t="s">
@@ -2920,14 +2979,17 @@
       <c r="K20" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L20" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="M20" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>177</v>
       </c>
@@ -2941,12 +3003,15 @@
         <v>122</v>
       </c>
       <c r="E21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F21" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G21" s="2" t="s">
+      <c r="H21" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I21" s="2" t="s">
@@ -2955,14 +3020,17 @@
       <c r="K21" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L21" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="M21" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>136</v>
       </c>
@@ -2976,12 +3044,15 @@
         <v>128</v>
       </c>
       <c r="E22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F22" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G22" s="2" t="s">
+      <c r="H22" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I22" s="2" t="s">
@@ -2990,14 +3061,17 @@
       <c r="K22" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L22" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="M22" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>186</v>
       </c>
@@ -3011,10 +3085,16 @@
         <v>128</v>
       </c>
       <c r="E23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G23" s="2" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>181</v>
       </c>
@@ -3028,29 +3108,35 @@
         <v>128</v>
       </c>
       <c r="E24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G24" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F24" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H24" s="9"/>
+      <c r="H24" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="I24" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="J24" s="9"/>
       <c r="K24" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L24" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="M24" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>140</v>
       </c>
@@ -3064,12 +3150,15 @@
         <v>128</v>
       </c>
       <c r="E25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G25" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F25" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G25" s="2" t="s">
+      <c r="H25" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I25" s="2" t="s">
@@ -3078,14 +3167,17 @@
       <c r="K25" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L25" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="M25" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>187</v>
       </c>
@@ -3099,12 +3191,15 @@
         <v>121</v>
       </c>
       <c r="E26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G26" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F26" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G26" s="2" t="s">
+      <c r="H26" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I26" s="2" t="s">
@@ -3113,14 +3208,17 @@
       <c r="K26" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L26" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="M26" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>188</v>
       </c>
@@ -3134,12 +3232,15 @@
         <v>128</v>
       </c>
       <c r="E27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G27" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F27" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G27" s="2" t="s">
+      <c r="H27" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I27" s="2" t="s">
@@ -3148,14 +3249,17 @@
       <c r="K27" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L27" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="M27" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>190</v>
       </c>
@@ -3169,12 +3273,15 @@
         <v>128</v>
       </c>
       <c r="E28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G28" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F28" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G28" s="2" t="s">
+      <c r="H28" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I28" s="2" t="s">
@@ -3183,14 +3290,17 @@
       <c r="K28" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L28" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="M28" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>193</v>
       </c>
@@ -3204,12 +3314,15 @@
         <v>128</v>
       </c>
       <c r="E29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G29" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F29" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G29" s="2" t="s">
+      <c r="H29" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I29" s="2" t="s">
@@ -3218,14 +3331,17 @@
       <c r="K29" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L29" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="M29" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>138</v>
       </c>
@@ -3239,12 +3355,15 @@
         <v>128</v>
       </c>
       <c r="E30" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G30" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F30" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G30" s="2" t="s">
+      <c r="H30" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I30" s="2" t="s">
@@ -3253,14 +3372,17 @@
       <c r="K30" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L30" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="M30" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N30" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O30" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>196</v>
       </c>
@@ -3274,12 +3396,15 @@
         <v>128</v>
       </c>
       <c r="E31" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G31" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F31" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G31" s="2" t="s">
+      <c r="H31" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I31" s="2" t="s">
@@ -3288,14 +3413,17 @@
       <c r="K31" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L31" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="M31" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N31" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O31" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>174</v>
       </c>
@@ -3309,29 +3437,35 @@
         <v>122</v>
       </c>
       <c r="E32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G32" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F32" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H32" s="2"/>
+      <c r="H32" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="I32" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="J32" s="2"/>
       <c r="K32" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L32" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="M32" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O32" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>176</v>
       </c>
@@ -3345,29 +3479,35 @@
         <v>122</v>
       </c>
       <c r="E33" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G33" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F33" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H33" s="2"/>
+      <c r="H33" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="I33" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="J33" s="2"/>
       <c r="K33" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L33" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="M33" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N33" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O33" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>177</v>
       </c>
@@ -3381,29 +3521,35 @@
         <v>122</v>
       </c>
       <c r="E34" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G34" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F34" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H34" s="2"/>
+      <c r="H34" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="I34" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="J34" s="2"/>
       <c r="K34" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L34" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="M34" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N34" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O34" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>198</v>
       </c>
@@ -3417,12 +3563,15 @@
         <v>122</v>
       </c>
       <c r="E35" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G35" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F35" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G35" s="2" t="s">
+      <c r="H35" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I35" s="2" t="s">
@@ -3431,14 +3580,17 @@
       <c r="K35" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L35" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="M35" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N35" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O35" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>176</v>
       </c>
@@ -3452,16 +3604,22 @@
         <v>122</v>
       </c>
       <c r="E36" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G36" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F36" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H36" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>177</v>
       </c>
@@ -3475,16 +3633,22 @@
         <v>122</v>
       </c>
       <c r="E37" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G37" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F37" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H37" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>200</v>
       </c>
@@ -3498,12 +3662,15 @@
         <v>122</v>
       </c>
       <c r="E38" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G38" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F38" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G38" s="2" t="s">
+      <c r="H38" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I38" s="2" t="s">
@@ -3512,14 +3679,17 @@
       <c r="K38" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="M38" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N38" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O38" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>176</v>
       </c>
@@ -3533,16 +3703,22 @@
         <v>122</v>
       </c>
       <c r="E39" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G39" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F39" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H39" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>177</v>
       </c>
@@ -3556,16 +3732,22 @@
         <v>122</v>
       </c>
       <c r="E40" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G40" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F40" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H40" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>203</v>
       </c>
@@ -3579,12 +3761,15 @@
         <v>122</v>
       </c>
       <c r="E41" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G41" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F41" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G41" s="2" t="s">
+      <c r="H41" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I41" s="2" t="s">
@@ -3593,14 +3778,17 @@
       <c r="K41" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L41" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="M41" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N41" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O41" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>176</v>
       </c>
@@ -3614,16 +3802,22 @@
         <v>122</v>
       </c>
       <c r="E42" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G42" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F42" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H42" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>177</v>
       </c>
@@ -3637,16 +3831,22 @@
         <v>122</v>
       </c>
       <c r="E43" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G43" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F43" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H43" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>149</v>
       </c>
@@ -3660,10 +3860,16 @@
         <v>119</v>
       </c>
       <c r="E44" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G44" s="2" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
         <v>211</v>
       </c>
@@ -3677,10 +3883,16 @@
         <v>128</v>
       </c>
       <c r="E45" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G45" s="2" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>209</v>
       </c>
@@ -3694,10 +3906,16 @@
         <v>128</v>
       </c>
       <c r="E46" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G46" s="2" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>139</v>
       </c>
@@ -3711,10 +3929,16 @@
         <v>128</v>
       </c>
       <c r="E47" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G47" s="2" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>214</v>
       </c>
@@ -3728,12 +3952,15 @@
         <v>128</v>
       </c>
       <c r="E48" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G48" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F48" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G48" s="2" t="s">
+      <c r="H48" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I48" s="2" t="s">
@@ -3742,14 +3969,17 @@
       <c r="K48" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L48" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="M48" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N48" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O48" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>137</v>
       </c>
@@ -3763,12 +3993,15 @@
         <v>128</v>
       </c>
       <c r="E49" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G49" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F49" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G49" s="2" t="s">
+      <c r="H49" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I49" s="2" t="s">
@@ -3777,14 +4010,17 @@
       <c r="K49" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L49" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="M49" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N49" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O49" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
         <v>217</v>
       </c>
@@ -3798,29 +4034,35 @@
         <v>128</v>
       </c>
       <c r="E50" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G50" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F50" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G50" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="H50" s="11"/>
-      <c r="I50" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K50" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="L50" s="10" t="s">
+      <c r="H50" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I50" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="J50" s="11"/>
+      <c r="K50" s="2" t="s">
         <v>6</v>
       </c>
       <c r="M50" s="10" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N50" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="O50" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
         <v>220</v>
       </c>
@@ -3834,29 +4076,35 @@
         <v>128</v>
       </c>
       <c r="E51" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G51" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F51" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G51" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="H51" s="11"/>
-      <c r="I51" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K51" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="L51" s="10" t="s">
+      <c r="H51" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I51" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="J51" s="11"/>
+      <c r="K51" s="2" t="s">
         <v>6</v>
       </c>
       <c r="M51" s="10" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N51" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="O51" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>223</v>
       </c>
@@ -3870,12 +4118,15 @@
         <v>124</v>
       </c>
       <c r="E52" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G52" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F52" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G52" s="2" t="s">
+      <c r="H52" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I52" s="2" t="s">
@@ -3884,14 +4135,17 @@
       <c r="K52" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L52" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="M52" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N52" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O52" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>224</v>
       </c>
@@ -3905,12 +4159,15 @@
         <v>124</v>
       </c>
       <c r="E53" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G53" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F53" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G53" s="2" t="s">
+      <c r="H53" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I53" s="2" t="s">
@@ -3919,14 +4176,17 @@
       <c r="K53" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L53" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="M53" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N53" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O53" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>225</v>
       </c>
@@ -3940,12 +4200,15 @@
         <v>124</v>
       </c>
       <c r="E54" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G54" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F54" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G54" s="2" t="s">
+      <c r="H54" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I54" s="2" t="s">
@@ -3954,14 +4217,17 @@
       <c r="K54" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L54" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="M54" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N54" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O54" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>228</v>
       </c>
@@ -3975,12 +4241,15 @@
         <v>124</v>
       </c>
       <c r="E55" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G55" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F55" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G55" s="2" t="s">
+      <c r="H55" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I55" s="2" t="s">
@@ -3989,14 +4258,17 @@
       <c r="K55" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L55" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="M55" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N55" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O55" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
         <v>231</v>
       </c>
@@ -4010,29 +4282,35 @@
         <v>128</v>
       </c>
       <c r="E56" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G56" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F56" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G56" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="H56" s="11"/>
-      <c r="I56" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K56" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="L56" s="10" t="s">
+      <c r="H56" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I56" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="J56" s="11"/>
+      <c r="K56" s="2" t="s">
         <v>6</v>
       </c>
       <c r="M56" s="10" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N56" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="O56" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>234</v>
       </c>
@@ -4046,12 +4324,15 @@
         <v>124</v>
       </c>
       <c r="E57" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G57" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F57" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G57" s="2" t="s">
+      <c r="H57" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I57" s="2" t="s">
@@ -4060,14 +4341,17 @@
       <c r="K57" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L57" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="M57" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N57" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O57" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+ 